--- a/tsunami/v02_new/sample_tsunami_anotasi_v02_new.xlsx
+++ b/tsunami/v02_new/sample_tsunami_anotasi_v02_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharmapu\Documents\personal\ui\KA-AMSD_src\paper-submission\anotated_data\tsunami\v02_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11DAD70-6BE6-4260-9C60-218DE9F97D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A16060-9799-4862-BF8B-C996979FBC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7062" uniqueCount="2485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7315" uniqueCount="2489">
   <si>
     <t>id</t>
   </si>
@@ -7492,6 +7492,18 @@
   </si>
   <si>
     <t>Gempa &amp; Tsunami mengakibatkan kerusakan</t>
+  </si>
+  <si>
+    <t>Gempa &amp; tsunami mengakibatkan kerusakan</t>
+  </si>
+  <si>
+    <t>Gempa &amp; tsunami mengakibatkan kerusakan dan korban</t>
+  </si>
+  <si>
+    <t>Sulawesi Berat</t>
+  </si>
+  <si>
+    <t>Korban gempa &amp; tsunami mengakibatkan kerusakan material yang besar</t>
   </si>
 </sst>
 </file>
@@ -8206,8 +8218,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0228019-6306-42E0-ABD2-717570931749}" name="Table1" displayName="Table1" ref="A1:N1330" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:N1330" xr:uid="{576E32E5-BE79-40B5-A33D-70AE3D67568F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0228019-6306-42E0-ABD2-717570931749}" name="Table1" displayName="Table1" ref="A1:N1342" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:N1342" xr:uid="{576E32E5-BE79-40B5-A33D-70AE3D67568F}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{DBAB9710-0C44-49A5-AA32-B0453B252B04}" name="id" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{EF67AD3D-E53F-4700-A378-B1F96AA43740}" name="source" dataDxfId="12"/>
@@ -8491,10 +8503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1330"/>
+  <dimension ref="A1:N1342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A874" workbookViewId="0">
-      <selection activeCell="D885" sqref="D885"/>
+    <sheetView tabSelected="1" topLeftCell="A944" workbookViewId="0">
+      <selection activeCell="A952" sqref="A952:D952"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34353,7 +34365,9 @@
       <c r="C886" s="5" t="s">
         <v>1470</v>
       </c>
-      <c r="D886" s="9"/>
+      <c r="D886" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E886" s="5"/>
       <c r="F886" s="5"/>
       <c r="G886" s="5"/>
@@ -34375,7 +34389,9 @@
       <c r="C887" s="5" t="s">
         <v>1472</v>
       </c>
-      <c r="D887" s="9"/>
+      <c r="D887" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E887" s="5"/>
       <c r="F887" s="5"/>
       <c r="G887" s="5"/>
@@ -34397,7 +34413,9 @@
       <c r="C888" s="5" t="s">
         <v>1474</v>
       </c>
-      <c r="D888" s="9"/>
+      <c r="D888" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E888" s="5"/>
       <c r="F888" s="5"/>
       <c r="G888" s="5"/>
@@ -34419,7 +34437,9 @@
       <c r="C889" s="5" t="s">
         <v>1476</v>
       </c>
-      <c r="D889" s="9"/>
+      <c r="D889" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E889" s="5"/>
       <c r="F889" s="5"/>
       <c r="G889" s="5"/>
@@ -34441,7 +34461,9 @@
       <c r="C890" s="5" t="s">
         <v>1478</v>
       </c>
-      <c r="D890" s="9"/>
+      <c r="D890" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E890" s="5"/>
       <c r="F890" s="5"/>
       <c r="G890" s="5"/>
@@ -34463,7 +34485,9 @@
       <c r="C891" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="D891" s="9"/>
+      <c r="D891" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E891" s="5"/>
       <c r="F891" s="5"/>
       <c r="G891" s="5"/>
@@ -34485,7 +34509,9 @@
       <c r="C892" s="5" t="s">
         <v>1135</v>
       </c>
-      <c r="D892" s="9"/>
+      <c r="D892" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E892" s="5"/>
       <c r="F892" s="5"/>
       <c r="G892" s="5"/>
@@ -34507,7 +34533,9 @@
       <c r="C893" s="5" t="s">
         <v>1483</v>
       </c>
-      <c r="D893" s="9"/>
+      <c r="D893" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E893" s="5"/>
       <c r="F893" s="5"/>
       <c r="G893" s="5"/>
@@ -34529,7 +34557,9 @@
       <c r="C894" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="D894" s="9"/>
+      <c r="D894" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E894" s="5"/>
       <c r="F894" s="5"/>
       <c r="G894" s="5"/>
@@ -34551,7 +34581,9 @@
       <c r="C895" s="5" t="s">
         <v>1487</v>
       </c>
-      <c r="D895" s="9"/>
+      <c r="D895" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E895" s="5"/>
       <c r="F895" s="5"/>
       <c r="G895" s="5"/>
@@ -34573,7 +34605,9 @@
       <c r="C896" s="5" t="s">
         <v>1490</v>
       </c>
-      <c r="D896" s="9"/>
+      <c r="D896" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E896" s="5"/>
       <c r="F896" s="5"/>
       <c r="G896" s="5"/>
@@ -34595,7 +34629,9 @@
       <c r="C897" s="5" t="s">
         <v>1492</v>
       </c>
-      <c r="D897" s="9"/>
+      <c r="D897" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E897" s="5"/>
       <c r="F897" s="5"/>
       <c r="G897" s="5"/>
@@ -34617,7 +34653,9 @@
       <c r="C898" s="5" t="s">
         <v>1494</v>
       </c>
-      <c r="D898" s="9"/>
+      <c r="D898" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E898" s="5"/>
       <c r="F898" s="5"/>
       <c r="G898" s="5"/>
@@ -34639,95 +34677,153 @@
       <c r="C899" s="5" t="s">
         <v>1496</v>
       </c>
-      <c r="D899" s="9"/>
-      <c r="E899" s="5"/>
-      <c r="F899" s="5"/>
-      <c r="G899" s="5"/>
-      <c r="H899" s="9"/>
-      <c r="I899" s="9"/>
+      <c r="D899" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E899" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F899" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G899" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H899" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I899" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J899" s="5"/>
       <c r="K899" s="5"/>
       <c r="L899" s="5"/>
       <c r="M899" s="5"/>
-      <c r="N899" s="10"/>
+      <c r="N899" s="10" t="s">
+        <v>2471</v>
+      </c>
     </row>
     <row r="900" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A900" s="4" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B900" s="5" t="s">
         <v>1489</v>
       </c>
       <c r="C900" s="5" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D900" s="9"/>
-      <c r="E900" s="5"/>
-      <c r="F900" s="5"/>
-      <c r="G900" s="5"/>
-      <c r="H900" s="9"/>
-      <c r="I900" s="9"/>
+        <v>1496</v>
+      </c>
+      <c r="D900" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E900" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F900" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G900" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H900" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I900" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J900" s="5"/>
       <c r="K900" s="5"/>
       <c r="L900" s="5"/>
       <c r="M900" s="5"/>
-      <c r="N900" s="10"/>
+      <c r="N900" s="10" t="s">
+        <v>2471</v>
+      </c>
     </row>
     <row r="901" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A901" s="4" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B901" s="5" t="s">
         <v>1489</v>
       </c>
       <c r="C901" s="5" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D901" s="9"/>
-      <c r="E901" s="5"/>
-      <c r="F901" s="5"/>
-      <c r="G901" s="5"/>
-      <c r="H901" s="9"/>
-      <c r="I901" s="9"/>
+        <v>1498</v>
+      </c>
+      <c r="D901" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E901" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F901" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G901" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H901" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I901" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J901" s="5"/>
       <c r="K901" s="5"/>
       <c r="L901" s="5"/>
       <c r="M901" s="5"/>
-      <c r="N901" s="10"/>
+      <c r="N901" s="10" t="s">
+        <v>2471</v>
+      </c>
     </row>
     <row r="902" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A902" s="4" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="B902" s="5" t="s">
         <v>1489</v>
       </c>
       <c r="C902" s="5" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D902" s="9"/>
-      <c r="E902" s="5"/>
-      <c r="F902" s="5"/>
-      <c r="G902" s="5"/>
-      <c r="H902" s="9"/>
-      <c r="I902" s="9"/>
+        <v>1498</v>
+      </c>
+      <c r="D902" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E902" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F902" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G902" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H902" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I902" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J902" s="5"/>
       <c r="K902" s="5"/>
       <c r="L902" s="5"/>
       <c r="M902" s="5"/>
-      <c r="N902" s="10"/>
+      <c r="N902" s="10" t="s">
+        <v>2471</v>
+      </c>
     </row>
     <row r="903" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A903" s="4" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="B903" s="5" t="s">
         <v>1489</v>
       </c>
       <c r="C903" s="5" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D903" s="9"/>
+        <v>1500</v>
+      </c>
+      <c r="D903" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E903" s="5"/>
       <c r="F903" s="5"/>
       <c r="G903" s="5"/>
@@ -34741,15 +34837,17 @@
     </row>
     <row r="904" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A904" s="4" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="B904" s="5" t="s">
         <v>1489</v>
       </c>
       <c r="C904" s="5" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D904" s="9"/>
+        <v>1502</v>
+      </c>
+      <c r="D904" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E904" s="5"/>
       <c r="F904" s="5"/>
       <c r="G904" s="5"/>
@@ -34763,15 +34861,17 @@
     </row>
     <row r="905" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A905" s="4" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="B905" s="5" t="s">
         <v>1489</v>
       </c>
       <c r="C905" s="5" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D905" s="9"/>
+        <v>1490</v>
+      </c>
+      <c r="D905" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E905" s="5"/>
       <c r="F905" s="5"/>
       <c r="G905" s="5"/>
@@ -34785,7 +34885,7 @@
     </row>
     <row r="906" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A906" s="4" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="B906" s="5" t="s">
         <v>1489</v>
@@ -34793,7 +34893,9 @@
       <c r="C906" s="5" t="s">
         <v>1505</v>
       </c>
-      <c r="D906" s="9"/>
+      <c r="D906" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E906" s="5"/>
       <c r="F906" s="5"/>
       <c r="G906" s="5"/>
@@ -34807,15 +34909,17 @@
     </row>
     <row r="907" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A907" s="4" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="B907" s="5" t="s">
         <v>1489</v>
       </c>
       <c r="C907" s="5" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D907" s="9"/>
+        <v>1507</v>
+      </c>
+      <c r="D907" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E907" s="5"/>
       <c r="F907" s="5"/>
       <c r="G907" s="5"/>
@@ -34829,7 +34933,7 @@
     </row>
     <row r="908" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A908" s="4" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="B908" s="5" t="s">
         <v>1489</v>
@@ -34837,7 +34941,9 @@
       <c r="C908" s="5" t="s">
         <v>1505</v>
       </c>
-      <c r="D908" s="9"/>
+      <c r="D908" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E908" s="5"/>
       <c r="F908" s="5"/>
       <c r="G908" s="5"/>
@@ -34851,15 +34957,17 @@
     </row>
     <row r="909" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A909" s="4" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="B909" s="5" t="s">
         <v>1489</v>
       </c>
       <c r="C909" s="5" t="s">
-        <v>1513</v>
-      </c>
-      <c r="D909" s="9"/>
+        <v>1510</v>
+      </c>
+      <c r="D909" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E909" s="5"/>
       <c r="F909" s="5"/>
       <c r="G909" s="5"/>
@@ -34873,15 +34981,17 @@
     </row>
     <row r="910" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A910" s="4" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="B910" s="5" t="s">
         <v>1489</v>
       </c>
       <c r="C910" s="5" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D910" s="9"/>
+        <v>1505</v>
+      </c>
+      <c r="D910" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E910" s="5"/>
       <c r="F910" s="5"/>
       <c r="G910" s="5"/>
@@ -34895,15 +35005,17 @@
     </row>
     <row r="911" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A911" s="4" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="B911" s="5" t="s">
         <v>1489</v>
       </c>
       <c r="C911" s="5" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D911" s="9"/>
+        <v>1513</v>
+      </c>
+      <c r="D911" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E911" s="5"/>
       <c r="F911" s="5"/>
       <c r="G911" s="5"/>
@@ -34917,15 +35029,17 @@
     </row>
     <row r="912" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A912" s="4" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="B912" s="5" t="s">
         <v>1489</v>
       </c>
       <c r="C912" s="5" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D912" s="9"/>
+        <v>1515</v>
+      </c>
+      <c r="D912" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E912" s="5"/>
       <c r="F912" s="5"/>
       <c r="G912" s="5"/>
@@ -34939,15 +35053,17 @@
     </row>
     <row r="913" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A913" s="4" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="B913" s="5" t="s">
         <v>1489</v>
       </c>
       <c r="C913" s="5" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D913" s="9"/>
+        <v>1517</v>
+      </c>
+      <c r="D913" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E913" s="5"/>
       <c r="F913" s="5"/>
       <c r="G913" s="5"/>
@@ -34961,15 +35077,17 @@
     </row>
     <row r="914" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A914" s="4" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="B914" s="5" t="s">
         <v>1489</v>
       </c>
       <c r="C914" s="5" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D914" s="9"/>
+        <v>1496</v>
+      </c>
+      <c r="D914" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E914" s="5"/>
       <c r="F914" s="5"/>
       <c r="G914" s="5"/>
@@ -34983,15 +35101,17 @@
     </row>
     <row r="915" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A915" s="4" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B915" s="5" t="s">
         <v>1489</v>
       </c>
       <c r="C915" s="5" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D915" s="9"/>
+        <v>1520</v>
+      </c>
+      <c r="D915" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E915" s="5"/>
       <c r="F915" s="5"/>
       <c r="G915" s="5"/>
@@ -35003,61 +35123,91 @@
       <c r="M915" s="5"/>
       <c r="N915" s="10"/>
     </row>
-    <row r="916" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A916" s="4" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="B916" s="5" t="s">
-        <v>1526</v>
+        <v>1489</v>
       </c>
       <c r="C916" s="5" t="s">
-        <v>1527</v>
-      </c>
-      <c r="D916" s="9"/>
-      <c r="E916" s="5"/>
-      <c r="F916" s="5"/>
-      <c r="G916" s="5"/>
-      <c r="H916" s="9"/>
-      <c r="I916" s="9"/>
+        <v>1522</v>
+      </c>
+      <c r="D916" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E916" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F916" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G916" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H916" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I916" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J916" s="5"/>
       <c r="K916" s="5"/>
       <c r="L916" s="5"/>
       <c r="M916" s="5"/>
-      <c r="N916" s="10"/>
-    </row>
-    <row r="917" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="N916" s="10" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="917" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A917" s="4" t="s">
-        <v>1528</v>
+        <v>1521</v>
       </c>
       <c r="B917" s="5" t="s">
-        <v>1526</v>
+        <v>1489</v>
       </c>
       <c r="C917" s="5" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D917" s="9"/>
-      <c r="E917" s="5"/>
-      <c r="F917" s="5"/>
-      <c r="G917" s="5"/>
-      <c r="H917" s="9"/>
-      <c r="I917" s="9"/>
+        <v>1522</v>
+      </c>
+      <c r="D917" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E917" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F917" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G917" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H917" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I917" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J917" s="5"/>
       <c r="K917" s="5"/>
       <c r="L917" s="5"/>
       <c r="M917" s="5"/>
-      <c r="N917" s="10"/>
-    </row>
-    <row r="918" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="N917" s="10" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="918" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A918" s="4" t="s">
-        <v>1530</v>
+        <v>1523</v>
       </c>
       <c r="B918" s="5" t="s">
-        <v>1526</v>
+        <v>1489</v>
       </c>
       <c r="C918" s="5" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D918" s="9"/>
+        <v>1524</v>
+      </c>
+      <c r="D918" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E918" s="5"/>
       <c r="F918" s="5"/>
       <c r="G918" s="5"/>
@@ -35071,15 +35221,17 @@
     </row>
     <row r="919" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A919" s="4" t="s">
-        <v>1532</v>
+        <v>1525</v>
       </c>
       <c r="B919" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C919" s="5" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D919" s="9"/>
+        <v>1527</v>
+      </c>
+      <c r="D919" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E919" s="5"/>
       <c r="F919" s="5"/>
       <c r="G919" s="5"/>
@@ -35093,15 +35245,17 @@
     </row>
     <row r="920" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A920" s="4" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="B920" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C920" s="5" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D920" s="9"/>
+        <v>1529</v>
+      </c>
+      <c r="D920" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E920" s="5"/>
       <c r="F920" s="5"/>
       <c r="G920" s="5"/>
@@ -35115,59 +35269,89 @@
     </row>
     <row r="921" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A921" s="4" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="B921" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C921" s="5" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D921" s="9"/>
-      <c r="E921" s="5"/>
-      <c r="F921" s="5"/>
-      <c r="G921" s="5"/>
-      <c r="H921" s="9"/>
-      <c r="I921" s="9"/>
+        <v>1531</v>
+      </c>
+      <c r="D921" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E921" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F921" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G921" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H921" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I921" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J921" s="5"/>
       <c r="K921" s="5"/>
       <c r="L921" s="5"/>
       <c r="M921" s="5"/>
-      <c r="N921" s="10"/>
+      <c r="N921" s="10" t="s">
+        <v>2485</v>
+      </c>
     </row>
     <row r="922" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A922" s="4" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="B922" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C922" s="5" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D922" s="9"/>
-      <c r="E922" s="5"/>
-      <c r="F922" s="5"/>
-      <c r="G922" s="5"/>
-      <c r="H922" s="9"/>
-      <c r="I922" s="9"/>
+        <v>1531</v>
+      </c>
+      <c r="D922" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E922" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F922" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G922" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H922" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I922" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J922" s="5"/>
       <c r="K922" s="5"/>
       <c r="L922" s="5"/>
       <c r="M922" s="5"/>
-      <c r="N922" s="10"/>
+      <c r="N922" s="10" t="s">
+        <v>2485</v>
+      </c>
     </row>
     <row r="923" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A923" s="4" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
       <c r="B923" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C923" s="5" t="s">
-        <v>1541</v>
-      </c>
-      <c r="D923" s="9"/>
+        <v>1533</v>
+      </c>
+      <c r="D923" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E923" s="5"/>
       <c r="F923" s="5"/>
       <c r="G923" s="5"/>
@@ -35181,15 +35365,17 @@
     </row>
     <row r="924" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A924" s="4" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="B924" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C924" s="5" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D924" s="9"/>
+        <v>1535</v>
+      </c>
+      <c r="D924" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E924" s="5"/>
       <c r="F924" s="5"/>
       <c r="G924" s="5"/>
@@ -35203,81 +35389,125 @@
     </row>
     <row r="925" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A925" s="4" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
       <c r="B925" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C925" s="5" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D925" s="9"/>
-      <c r="E925" s="5"/>
-      <c r="F925" s="5"/>
-      <c r="G925" s="5"/>
-      <c r="H925" s="9"/>
-      <c r="I925" s="9"/>
+        <v>1537</v>
+      </c>
+      <c r="D925" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E925" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F925" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G925" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H925" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I925" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J925" s="5"/>
       <c r="K925" s="5"/>
       <c r="L925" s="5"/>
       <c r="M925" s="5"/>
-      <c r="N925" s="10"/>
+      <c r="N925" s="10" t="s">
+        <v>2485</v>
+      </c>
     </row>
     <row r="926" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A926" s="4" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
       <c r="B926" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C926" s="5" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D926" s="9"/>
-      <c r="E926" s="5"/>
-      <c r="F926" s="5"/>
-      <c r="G926" s="5"/>
-      <c r="H926" s="9"/>
-      <c r="I926" s="9"/>
+        <v>1539</v>
+      </c>
+      <c r="D926" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E926" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F926" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G926" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H926" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I926" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J926" s="5"/>
       <c r="K926" s="5"/>
       <c r="L926" s="5"/>
       <c r="M926" s="5"/>
-      <c r="N926" s="10"/>
+      <c r="N926" s="10" t="s">
+        <v>2485</v>
+      </c>
     </row>
     <row r="927" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A927" s="4" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
       <c r="B927" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C927" s="5" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D927" s="9"/>
-      <c r="E927" s="5"/>
-      <c r="F927" s="5"/>
-      <c r="G927" s="5"/>
-      <c r="H927" s="9"/>
-      <c r="I927" s="9"/>
+        <v>1539</v>
+      </c>
+      <c r="D927" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E927" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F927" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G927" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H927" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I927" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J927" s="5"/>
       <c r="K927" s="5"/>
       <c r="L927" s="5"/>
       <c r="M927" s="5"/>
-      <c r="N927" s="10"/>
+      <c r="N927" s="10" t="s">
+        <v>2485</v>
+      </c>
     </row>
     <row r="928" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A928" s="4" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="B928" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C928" s="5" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D928" s="9"/>
+        <v>1541</v>
+      </c>
+      <c r="D928" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E928" s="5"/>
       <c r="F928" s="5"/>
       <c r="G928" s="5"/>
@@ -35291,169 +35521,269 @@
     </row>
     <row r="929" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A929" s="4" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="B929" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C929" s="5" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D929" s="9"/>
-      <c r="E929" s="5"/>
-      <c r="F929" s="5"/>
-      <c r="G929" s="5"/>
-      <c r="H929" s="9"/>
-      <c r="I929" s="9"/>
+        <v>1543</v>
+      </c>
+      <c r="D929" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E929" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F929" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G929" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H929" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I929" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J929" s="5"/>
       <c r="K929" s="5"/>
       <c r="L929" s="5"/>
       <c r="M929" s="5"/>
-      <c r="N929" s="10"/>
+      <c r="N929" s="10" t="s">
+        <v>2486</v>
+      </c>
     </row>
     <row r="930" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A930" s="4" t="s">
-        <v>1554</v>
+        <v>1542</v>
       </c>
       <c r="B930" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C930" s="5" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D930" s="9"/>
-      <c r="E930" s="5"/>
-      <c r="F930" s="5"/>
-      <c r="G930" s="5"/>
-      <c r="H930" s="9"/>
-      <c r="I930" s="9"/>
+        <v>1543</v>
+      </c>
+      <c r="D930" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E930" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F930" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G930" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H930" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I930" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J930" s="5"/>
       <c r="K930" s="5"/>
       <c r="L930" s="5"/>
       <c r="M930" s="5"/>
-      <c r="N930" s="10"/>
+      <c r="N930" s="10" t="s">
+        <v>2486</v>
+      </c>
     </row>
     <row r="931" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A931" s="4" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
       <c r="B931" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C931" s="5" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D931" s="9"/>
-      <c r="E931" s="5"/>
-      <c r="F931" s="5"/>
-      <c r="G931" s="5"/>
-      <c r="H931" s="9"/>
-      <c r="I931" s="9"/>
+        <v>1545</v>
+      </c>
+      <c r="D931" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E931" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F931" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G931" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H931" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I931" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J931" s="5"/>
       <c r="K931" s="5"/>
       <c r="L931" s="5"/>
       <c r="M931" s="5"/>
-      <c r="N931" s="10"/>
+      <c r="N931" s="10" t="s">
+        <v>2471</v>
+      </c>
     </row>
     <row r="932" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A932" s="4" t="s">
-        <v>1558</v>
+        <v>1544</v>
       </c>
       <c r="B932" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C932" s="5" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D932" s="9"/>
-      <c r="E932" s="5"/>
-      <c r="F932" s="5"/>
-      <c r="G932" s="5"/>
-      <c r="H932" s="9"/>
-      <c r="I932" s="9"/>
+        <v>1545</v>
+      </c>
+      <c r="D932" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E932" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F932" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G932" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H932" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I932" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J932" s="5"/>
       <c r="K932" s="5"/>
       <c r="L932" s="5"/>
       <c r="M932" s="5"/>
-      <c r="N932" s="10"/>
+      <c r="N932" s="10" t="s">
+        <v>2471</v>
+      </c>
     </row>
     <row r="933" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A933" s="4" t="s">
-        <v>1560</v>
+        <v>1544</v>
       </c>
       <c r="B933" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C933" s="5" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D933" s="9"/>
-      <c r="E933" s="5"/>
-      <c r="F933" s="5"/>
-      <c r="G933" s="5"/>
-      <c r="H933" s="9"/>
-      <c r="I933" s="9"/>
+        <v>1545</v>
+      </c>
+      <c r="D933" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E933" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F933" s="5" t="s">
+        <v>2487</v>
+      </c>
+      <c r="G933" s="5" t="s">
+        <v>2422</v>
+      </c>
+      <c r="H933" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I933" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J933" s="5"/>
       <c r="K933" s="5"/>
       <c r="L933" s="5"/>
       <c r="M933" s="5"/>
-      <c r="N933" s="10"/>
+      <c r="N933" s="10" t="s">
+        <v>2471</v>
+      </c>
     </row>
     <row r="934" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A934" s="4" t="s">
-        <v>1562</v>
+        <v>1546</v>
       </c>
       <c r="B934" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C934" s="5" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D934" s="9"/>
-      <c r="E934" s="5"/>
-      <c r="F934" s="5"/>
-      <c r="G934" s="5"/>
-      <c r="H934" s="9"/>
-      <c r="I934" s="9"/>
+        <v>1547</v>
+      </c>
+      <c r="D934" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E934" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F934" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G934" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H934" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I934" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J934" s="5"/>
       <c r="K934" s="5"/>
       <c r="L934" s="5"/>
       <c r="M934" s="5"/>
-      <c r="N934" s="10"/>
+      <c r="N934" s="10" t="s">
+        <v>2488</v>
+      </c>
     </row>
     <row r="935" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A935" s="4" t="s">
-        <v>1564</v>
+        <v>1546</v>
       </c>
       <c r="B935" s="5" t="s">
         <v>1526</v>
       </c>
       <c r="C935" s="5" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D935" s="9"/>
-      <c r="E935" s="5"/>
-      <c r="F935" s="5"/>
-      <c r="G935" s="5"/>
-      <c r="H935" s="9"/>
-      <c r="I935" s="9"/>
+        <v>1547</v>
+      </c>
+      <c r="D935" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E935" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F935" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G935" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H935" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I935" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J935" s="5"/>
       <c r="K935" s="5"/>
       <c r="L935" s="5"/>
       <c r="M935" s="5"/>
-      <c r="N935" s="10"/>
+      <c r="N935" s="10" t="s">
+        <v>2488</v>
+      </c>
     </row>
     <row r="936" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A936" s="4" t="s">
-        <v>1566</v>
+        <v>1548</v>
       </c>
       <c r="B936" s="5" t="s">
-        <v>1567</v>
+        <v>1526</v>
       </c>
       <c r="C936" s="5" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D936" s="9"/>
+        <v>1549</v>
+      </c>
+      <c r="D936" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E936" s="5"/>
       <c r="F936" s="5"/>
       <c r="G936" s="5"/>
@@ -35467,15 +35797,17 @@
     </row>
     <row r="937" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A937" s="4" t="s">
-        <v>1569</v>
+        <v>1550</v>
       </c>
       <c r="B937" s="5" t="s">
-        <v>1567</v>
+        <v>1526</v>
       </c>
       <c r="C937" s="5" t="s">
-        <v>1570</v>
-      </c>
-      <c r="D937" s="9"/>
+        <v>1551</v>
+      </c>
+      <c r="D937" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E937" s="5"/>
       <c r="F937" s="5"/>
       <c r="G937" s="5"/>
@@ -35489,15 +35821,17 @@
     </row>
     <row r="938" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A938" s="4" t="s">
-        <v>1571</v>
+        <v>1552</v>
       </c>
       <c r="B938" s="5" t="s">
-        <v>1567</v>
+        <v>1526</v>
       </c>
       <c r="C938" s="5" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D938" s="9"/>
+        <v>1553</v>
+      </c>
+      <c r="D938" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E938" s="5"/>
       <c r="F938" s="5"/>
       <c r="G938" s="5"/>
@@ -35511,59 +35845,89 @@
     </row>
     <row r="939" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A939" s="4" t="s">
-        <v>1573</v>
+        <v>1554</v>
       </c>
       <c r="B939" s="5" t="s">
-        <v>1567</v>
+        <v>1526</v>
       </c>
       <c r="C939" s="5" t="s">
-        <v>1574</v>
-      </c>
-      <c r="D939" s="9"/>
-      <c r="E939" s="5"/>
-      <c r="F939" s="5"/>
-      <c r="G939" s="5"/>
-      <c r="H939" s="9"/>
-      <c r="I939" s="9"/>
+        <v>1555</v>
+      </c>
+      <c r="D939" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E939" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F939" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G939" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H939" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I939" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J939" s="5"/>
       <c r="K939" s="5"/>
       <c r="L939" s="5"/>
       <c r="M939" s="5"/>
-      <c r="N939" s="10"/>
+      <c r="N939" s="10" t="s">
+        <v>2486</v>
+      </c>
     </row>
     <row r="940" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A940" s="4" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="B940" s="5" t="s">
-        <v>1567</v>
+        <v>1526</v>
       </c>
       <c r="C940" s="5" t="s">
-        <v>1576</v>
-      </c>
-      <c r="D940" s="9"/>
-      <c r="E940" s="5"/>
-      <c r="F940" s="5"/>
-      <c r="G940" s="5"/>
-      <c r="H940" s="9"/>
-      <c r="I940" s="9"/>
+        <v>1555</v>
+      </c>
+      <c r="D940" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E940" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F940" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G940" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H940" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I940" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J940" s="5"/>
       <c r="K940" s="5"/>
       <c r="L940" s="5"/>
       <c r="M940" s="5"/>
-      <c r="N940" s="10"/>
+      <c r="N940" s="10" t="s">
+        <v>2486</v>
+      </c>
     </row>
     <row r="941" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A941" s="4" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
       <c r="B941" s="5" t="s">
-        <v>1567</v>
+        <v>1526</v>
       </c>
       <c r="C941" s="5" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D941" s="9"/>
+        <v>1557</v>
+      </c>
+      <c r="D941" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E941" s="5"/>
       <c r="F941" s="5"/>
       <c r="G941" s="5"/>
@@ -35577,15 +35941,17 @@
     </row>
     <row r="942" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A942" s="4" t="s">
-        <v>1579</v>
+        <v>1558</v>
       </c>
       <c r="B942" s="5" t="s">
-        <v>1567</v>
+        <v>1526</v>
       </c>
       <c r="C942" s="5" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D942" s="9"/>
+        <v>1559</v>
+      </c>
+      <c r="D942" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E942" s="5"/>
       <c r="F942" s="5"/>
       <c r="G942" s="5"/>
@@ -35599,15 +35965,17 @@
     </row>
     <row r="943" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A943" s="4" t="s">
-        <v>1581</v>
+        <v>1560</v>
       </c>
       <c r="B943" s="5" t="s">
-        <v>1567</v>
+        <v>1526</v>
       </c>
       <c r="C943" s="5" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D943" s="9"/>
+        <v>1561</v>
+      </c>
+      <c r="D943" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E943" s="5"/>
       <c r="F943" s="5"/>
       <c r="G943" s="5"/>
@@ -35621,15 +35989,17 @@
     </row>
     <row r="944" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A944" s="4" t="s">
-        <v>1583</v>
+        <v>1562</v>
       </c>
       <c r="B944" s="5" t="s">
-        <v>1567</v>
+        <v>1526</v>
       </c>
       <c r="C944" s="5" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D944" s="9"/>
+        <v>1563</v>
+      </c>
+      <c r="D944" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E944" s="5"/>
       <c r="F944" s="5"/>
       <c r="G944" s="5"/>
@@ -35643,15 +36013,17 @@
     </row>
     <row r="945" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A945" s="4" t="s">
-        <v>1585</v>
+        <v>1564</v>
       </c>
       <c r="B945" s="5" t="s">
-        <v>1567</v>
+        <v>1526</v>
       </c>
       <c r="C945" s="5" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D945" s="9"/>
+        <v>1565</v>
+      </c>
+      <c r="D945" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E945" s="5"/>
       <c r="F945" s="5"/>
       <c r="G945" s="5"/>
@@ -35665,37 +36037,53 @@
     </row>
     <row r="946" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A946" s="4" t="s">
-        <v>1587</v>
+        <v>1566</v>
       </c>
       <c r="B946" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C946" s="5" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D946" s="9"/>
-      <c r="E946" s="5"/>
-      <c r="F946" s="5"/>
-      <c r="G946" s="5"/>
-      <c r="H946" s="9"/>
-      <c r="I946" s="9"/>
+        <v>1568</v>
+      </c>
+      <c r="D946" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E946" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F946" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G946" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H946" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I946" s="5" t="s">
+        <v>2366</v>
+      </c>
       <c r="J946" s="5"/>
       <c r="K946" s="5"/>
       <c r="L946" s="5"/>
       <c r="M946" s="5"/>
-      <c r="N946" s="10"/>
+      <c r="N946" s="10" t="s">
+        <v>2395</v>
+      </c>
     </row>
     <row r="947" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A947" s="4" t="s">
-        <v>1589</v>
+        <v>1569</v>
       </c>
       <c r="B947" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C947" s="5" t="s">
-        <v>1590</v>
-      </c>
-      <c r="D947" s="9"/>
+        <v>1570</v>
+      </c>
+      <c r="D947" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E947" s="5"/>
       <c r="F947" s="5"/>
       <c r="G947" s="5"/>
@@ -35709,15 +36097,17 @@
     </row>
     <row r="948" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A948" s="4" t="s">
-        <v>1591</v>
+        <v>1571</v>
       </c>
       <c r="B948" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C948" s="5" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D948" s="9"/>
+        <v>1572</v>
+      </c>
+      <c r="D948" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E948" s="5"/>
       <c r="F948" s="5"/>
       <c r="G948" s="5"/>
@@ -35731,101 +36121,157 @@
     </row>
     <row r="949" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A949" s="4" t="s">
-        <v>1593</v>
+        <v>1573</v>
       </c>
       <c r="B949" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C949" s="5" t="s">
-        <v>1594</v>
-      </c>
-      <c r="D949" s="9"/>
-      <c r="E949" s="5"/>
-      <c r="F949" s="5"/>
-      <c r="G949" s="5"/>
-      <c r="H949" s="9"/>
-      <c r="I949" s="9"/>
+        <v>1574</v>
+      </c>
+      <c r="D949" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E949" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F949" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G949" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H949" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I949" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J949" s="5"/>
       <c r="K949" s="5"/>
       <c r="L949" s="5"/>
       <c r="M949" s="5"/>
-      <c r="N949" s="10"/>
+      <c r="N949" s="10" t="s">
+        <v>2425</v>
+      </c>
     </row>
     <row r="950" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A950" s="4" t="s">
-        <v>1595</v>
+        <v>1573</v>
       </c>
       <c r="B950" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C950" s="5" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D950" s="9"/>
-      <c r="E950" s="5"/>
-      <c r="F950" s="5"/>
-      <c r="G950" s="5"/>
-      <c r="H950" s="9"/>
-      <c r="I950" s="9"/>
+        <v>1574</v>
+      </c>
+      <c r="D950" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E950" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F950" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G950" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H950" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I950" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J950" s="5"/>
       <c r="K950" s="5"/>
       <c r="L950" s="5"/>
       <c r="M950" s="5"/>
-      <c r="N950" s="10"/>
+      <c r="N950" s="10" t="s">
+        <v>2425</v>
+      </c>
     </row>
     <row r="951" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A951" s="4" t="s">
-        <v>1597</v>
+        <v>1575</v>
       </c>
       <c r="B951" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C951" s="5" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D951" s="9"/>
-      <c r="E951" s="5"/>
-      <c r="F951" s="5"/>
-      <c r="G951" s="5"/>
-      <c r="H951" s="9"/>
-      <c r="I951" s="9"/>
+        <v>1576</v>
+      </c>
+      <c r="D951" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E951" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F951" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G951" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H951" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I951" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J951" s="5"/>
       <c r="K951" s="5"/>
       <c r="L951" s="5"/>
       <c r="M951" s="5"/>
-      <c r="N951" s="10"/>
+      <c r="N951" s="10" t="s">
+        <v>2425</v>
+      </c>
     </row>
     <row r="952" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A952" s="4" t="s">
-        <v>1599</v>
+        <v>1575</v>
       </c>
       <c r="B952" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C952" s="5" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D952" s="9"/>
-      <c r="E952" s="5"/>
-      <c r="F952" s="5"/>
-      <c r="G952" s="5"/>
-      <c r="H952" s="9"/>
-      <c r="I952" s="9"/>
+        <v>1576</v>
+      </c>
+      <c r="D952" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E952" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F952" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G952" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H952" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I952" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J952" s="5"/>
       <c r="K952" s="5"/>
       <c r="L952" s="5"/>
       <c r="M952" s="5"/>
-      <c r="N952" s="10"/>
+      <c r="N952" s="10" t="s">
+        <v>2425</v>
+      </c>
     </row>
     <row r="953" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A953" s="4" t="s">
-        <v>1601</v>
+        <v>1577</v>
       </c>
       <c r="B953" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C953" s="5" t="s">
-        <v>1602</v>
+        <v>1578</v>
       </c>
       <c r="D953" s="9"/>
       <c r="E953" s="5"/>
@@ -35841,13 +36287,13 @@
     </row>
     <row r="954" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A954" s="4" t="s">
-        <v>1603</v>
+        <v>1579</v>
       </c>
       <c r="B954" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C954" s="5" t="s">
-        <v>1604</v>
+        <v>1580</v>
       </c>
       <c r="D954" s="9"/>
       <c r="E954" s="5"/>
@@ -35863,13 +36309,13 @@
     </row>
     <row r="955" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A955" s="4" t="s">
-        <v>1605</v>
+        <v>1581</v>
       </c>
       <c r="B955" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C955" s="5" t="s">
-        <v>1606</v>
+        <v>1582</v>
       </c>
       <c r="D955" s="9"/>
       <c r="E955" s="5"/>
@@ -35883,15 +36329,15 @@
       <c r="M955" s="5"/>
       <c r="N955" s="10"/>
     </row>
-    <row r="956" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A956" s="4" t="s">
-        <v>1607</v>
+        <v>1583</v>
       </c>
       <c r="B956" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C956" s="5" t="s">
-        <v>1609</v>
+        <v>1584</v>
       </c>
       <c r="D956" s="9"/>
       <c r="E956" s="5"/>
@@ -35905,15 +36351,15 @@
       <c r="M956" s="5"/>
       <c r="N956" s="10"/>
     </row>
-    <row r="957" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A957" s="4" t="s">
-        <v>1610</v>
+        <v>1585</v>
       </c>
       <c r="B957" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C957" s="5" t="s">
-        <v>1611</v>
+        <v>1586</v>
       </c>
       <c r="D957" s="9"/>
       <c r="E957" s="5"/>
@@ -35927,15 +36373,15 @@
       <c r="M957" s="5"/>
       <c r="N957" s="10"/>
     </row>
-    <row r="958" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A958" s="4" t="s">
-        <v>1612</v>
+        <v>1587</v>
       </c>
       <c r="B958" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C958" s="5" t="s">
-        <v>1613</v>
+        <v>1588</v>
       </c>
       <c r="D958" s="9"/>
       <c r="E958" s="5"/>
@@ -35949,15 +36395,15 @@
       <c r="M958" s="5"/>
       <c r="N958" s="10"/>
     </row>
-    <row r="959" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A959" s="4" t="s">
-        <v>1614</v>
+        <v>1589</v>
       </c>
       <c r="B959" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C959" s="5" t="s">
-        <v>1615</v>
+        <v>1590</v>
       </c>
       <c r="D959" s="9"/>
       <c r="E959" s="5"/>
@@ -35971,15 +36417,15 @@
       <c r="M959" s="5"/>
       <c r="N959" s="10"/>
     </row>
-    <row r="960" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A960" s="4" t="s">
-        <v>1616</v>
+        <v>1591</v>
       </c>
       <c r="B960" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C960" s="5" t="s">
-        <v>1617</v>
+        <v>1592</v>
       </c>
       <c r="D960" s="9"/>
       <c r="E960" s="5"/>
@@ -35993,15 +36439,15 @@
       <c r="M960" s="5"/>
       <c r="N960" s="10"/>
     </row>
-    <row r="961" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A961" s="4" t="s">
-        <v>1618</v>
+        <v>1593</v>
       </c>
       <c r="B961" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C961" s="5" t="s">
-        <v>1619</v>
+        <v>1594</v>
       </c>
       <c r="D961" s="9"/>
       <c r="E961" s="5"/>
@@ -36015,15 +36461,15 @@
       <c r="M961" s="5"/>
       <c r="N961" s="10"/>
     </row>
-    <row r="962" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A962" s="4" t="s">
-        <v>1620</v>
+        <v>1595</v>
       </c>
       <c r="B962" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C962" s="5" t="s">
-        <v>1621</v>
+        <v>1596</v>
       </c>
       <c r="D962" s="9"/>
       <c r="E962" s="5"/>
@@ -36037,15 +36483,15 @@
       <c r="M962" s="5"/>
       <c r="N962" s="10"/>
     </row>
-    <row r="963" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A963" s="4" t="s">
-        <v>1622</v>
+        <v>1597</v>
       </c>
       <c r="B963" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C963" s="5" t="s">
-        <v>1623</v>
+        <v>1598</v>
       </c>
       <c r="D963" s="9"/>
       <c r="E963" s="5"/>
@@ -36059,15 +36505,15 @@
       <c r="M963" s="5"/>
       <c r="N963" s="10"/>
     </row>
-    <row r="964" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A964" s="4" t="s">
-        <v>1624</v>
+        <v>1599</v>
       </c>
       <c r="B964" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C964" s="5" t="s">
-        <v>1625</v>
+        <v>1600</v>
       </c>
       <c r="D964" s="9"/>
       <c r="E964" s="5"/>
@@ -36081,15 +36527,15 @@
       <c r="M964" s="5"/>
       <c r="N964" s="10"/>
     </row>
-    <row r="965" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A965" s="4" t="s">
-        <v>1626</v>
+        <v>1601</v>
       </c>
       <c r="B965" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C965" s="5" t="s">
-        <v>1627</v>
+        <v>1602</v>
       </c>
       <c r="D965" s="9"/>
       <c r="E965" s="5"/>
@@ -36103,15 +36549,15 @@
       <c r="M965" s="5"/>
       <c r="N965" s="10"/>
     </row>
-    <row r="966" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A966" s="4" t="s">
-        <v>1628</v>
+        <v>1603</v>
       </c>
       <c r="B966" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C966" s="5" t="s">
-        <v>1629</v>
+        <v>1604</v>
       </c>
       <c r="D966" s="9"/>
       <c r="E966" s="5"/>
@@ -36125,15 +36571,15 @@
       <c r="M966" s="5"/>
       <c r="N966" s="10"/>
     </row>
-    <row r="967" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A967" s="4" t="s">
-        <v>1630</v>
+        <v>1605</v>
       </c>
       <c r="B967" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C967" s="5" t="s">
-        <v>1631</v>
+        <v>1606</v>
       </c>
       <c r="D967" s="9"/>
       <c r="E967" s="5"/>
@@ -36149,13 +36595,13 @@
     </row>
     <row r="968" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A968" s="4" t="s">
-        <v>1632</v>
+        <v>1607</v>
       </c>
       <c r="B968" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C968" s="5" t="s">
-        <v>1633</v>
+        <v>1609</v>
       </c>
       <c r="D968" s="9"/>
       <c r="E968" s="5"/>
@@ -36171,13 +36617,13 @@
     </row>
     <row r="969" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A969" s="4" t="s">
-        <v>1634</v>
+        <v>1610</v>
       </c>
       <c r="B969" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C969" s="5" t="s">
-        <v>1635</v>
+        <v>1611</v>
       </c>
       <c r="D969" s="9"/>
       <c r="E969" s="5"/>
@@ -36193,13 +36639,13 @@
     </row>
     <row r="970" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A970" s="4" t="s">
-        <v>1636</v>
+        <v>1612</v>
       </c>
       <c r="B970" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C970" s="5" t="s">
-        <v>1637</v>
+        <v>1613</v>
       </c>
       <c r="D970" s="9"/>
       <c r="E970" s="5"/>
@@ -36215,13 +36661,13 @@
     </row>
     <row r="971" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A971" s="4" t="s">
-        <v>1638</v>
+        <v>1614</v>
       </c>
       <c r="B971" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C971" s="5" t="s">
-        <v>1639</v>
+        <v>1615</v>
       </c>
       <c r="D971" s="9"/>
       <c r="E971" s="5"/>
@@ -36237,13 +36683,13 @@
     </row>
     <row r="972" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A972" s="4" t="s">
-        <v>1640</v>
+        <v>1616</v>
       </c>
       <c r="B972" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C972" s="5" t="s">
-        <v>1641</v>
+        <v>1617</v>
       </c>
       <c r="D972" s="9"/>
       <c r="E972" s="5"/>
@@ -36259,13 +36705,13 @@
     </row>
     <row r="973" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A973" s="4" t="s">
-        <v>1642</v>
+        <v>1618</v>
       </c>
       <c r="B973" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C973" s="5" t="s">
-        <v>1643</v>
+        <v>1619</v>
       </c>
       <c r="D973" s="9"/>
       <c r="E973" s="5"/>
@@ -36281,13 +36727,13 @@
     </row>
     <row r="974" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A974" s="4" t="s">
-        <v>1644</v>
+        <v>1620</v>
       </c>
       <c r="B974" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C974" s="5" t="s">
-        <v>1645</v>
+        <v>1621</v>
       </c>
       <c r="D974" s="9"/>
       <c r="E974" s="5"/>
@@ -36303,13 +36749,13 @@
     </row>
     <row r="975" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A975" s="4" t="s">
-        <v>1646</v>
+        <v>1622</v>
       </c>
       <c r="B975" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C975" s="5" t="s">
-        <v>1647</v>
+        <v>1623</v>
       </c>
       <c r="D975" s="9"/>
       <c r="E975" s="5"/>
@@ -36323,15 +36769,15 @@
       <c r="M975" s="5"/>
       <c r="N975" s="10"/>
     </row>
-    <row r="976" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A976" s="4" t="s">
-        <v>1648</v>
+        <v>1624</v>
       </c>
       <c r="B976" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C976" s="5" t="s">
-        <v>1650</v>
+        <v>1625</v>
       </c>
       <c r="D976" s="9"/>
       <c r="E976" s="5"/>
@@ -36347,13 +36793,13 @@
     </row>
     <row r="977" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A977" s="4" t="s">
-        <v>1651</v>
+        <v>1626</v>
       </c>
       <c r="B977" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C977" s="5" t="s">
-        <v>1652</v>
+        <v>1627</v>
       </c>
       <c r="D977" s="9"/>
       <c r="E977" s="5"/>
@@ -36369,13 +36815,13 @@
     </row>
     <row r="978" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A978" s="4" t="s">
-        <v>1653</v>
+        <v>1628</v>
       </c>
       <c r="B978" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C978" s="5" t="s">
-        <v>1654</v>
+        <v>1629</v>
       </c>
       <c r="D978" s="9"/>
       <c r="E978" s="5"/>
@@ -36391,13 +36837,13 @@
     </row>
     <row r="979" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A979" s="4" t="s">
-        <v>1655</v>
+        <v>1630</v>
       </c>
       <c r="B979" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C979" s="5" t="s">
-        <v>1656</v>
+        <v>1631</v>
       </c>
       <c r="D979" s="9"/>
       <c r="E979" s="5"/>
@@ -36413,13 +36859,13 @@
     </row>
     <row r="980" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A980" s="4" t="s">
-        <v>1657</v>
+        <v>1632</v>
       </c>
       <c r="B980" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C980" s="5" t="s">
-        <v>1658</v>
+        <v>1633</v>
       </c>
       <c r="D980" s="9"/>
       <c r="E980" s="5"/>
@@ -36435,13 +36881,13 @@
     </row>
     <row r="981" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A981" s="4" t="s">
-        <v>1659</v>
+        <v>1634</v>
       </c>
       <c r="B981" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C981" s="5" t="s">
-        <v>1660</v>
+        <v>1635</v>
       </c>
       <c r="D981" s="9"/>
       <c r="E981" s="5"/>
@@ -36457,13 +36903,13 @@
     </row>
     <row r="982" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A982" s="4" t="s">
-        <v>1661</v>
+        <v>1636</v>
       </c>
       <c r="B982" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C982" s="5" t="s">
-        <v>1662</v>
+        <v>1637</v>
       </c>
       <c r="D982" s="9"/>
       <c r="E982" s="5"/>
@@ -36477,15 +36923,15 @@
       <c r="M982" s="5"/>
       <c r="N982" s="10"/>
     </row>
-    <row r="983" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A983" s="4" t="s">
-        <v>1663</v>
+        <v>1638</v>
       </c>
       <c r="B983" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C983" s="5" t="s">
-        <v>1664</v>
+        <v>1639</v>
       </c>
       <c r="D983" s="9"/>
       <c r="E983" s="5"/>
@@ -36501,13 +36947,13 @@
     </row>
     <row r="984" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A984" s="4" t="s">
-        <v>1665</v>
+        <v>1640</v>
       </c>
       <c r="B984" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C984" s="5" t="s">
-        <v>1666</v>
+        <v>1641</v>
       </c>
       <c r="D984" s="9"/>
       <c r="E984" s="5"/>
@@ -36523,13 +36969,13 @@
     </row>
     <row r="985" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A985" s="4" t="s">
-        <v>1667</v>
+        <v>1642</v>
       </c>
       <c r="B985" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C985" s="5" t="s">
-        <v>1668</v>
+        <v>1643</v>
       </c>
       <c r="D985" s="9"/>
       <c r="E985" s="5"/>
@@ -36543,15 +36989,15 @@
       <c r="M985" s="5"/>
       <c r="N985" s="10"/>
     </row>
-    <row r="986" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A986" s="4" t="s">
-        <v>1669</v>
+        <v>1644</v>
       </c>
       <c r="B986" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C986" s="5" t="s">
-        <v>1670</v>
+        <v>1645</v>
       </c>
       <c r="D986" s="9"/>
       <c r="E986" s="5"/>
@@ -36567,13 +37013,13 @@
     </row>
     <row r="987" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A987" s="4" t="s">
-        <v>1671</v>
+        <v>1646</v>
       </c>
       <c r="B987" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C987" s="5" t="s">
-        <v>1672</v>
+        <v>1647</v>
       </c>
       <c r="D987" s="9"/>
       <c r="E987" s="5"/>
@@ -36589,13 +37035,13 @@
     </row>
     <row r="988" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A988" s="4" t="s">
-        <v>1673</v>
+        <v>1648</v>
       </c>
       <c r="B988" s="5" t="s">
         <v>1649</v>
       </c>
       <c r="C988" s="5" t="s">
-        <v>1674</v>
+        <v>1650</v>
       </c>
       <c r="D988" s="9"/>
       <c r="E988" s="5"/>
@@ -36611,13 +37057,13 @@
     </row>
     <row r="989" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A989" s="4" t="s">
-        <v>1675</v>
+        <v>1651</v>
       </c>
       <c r="B989" s="5" t="s">
         <v>1649</v>
       </c>
       <c r="C989" s="5" t="s">
-        <v>1676</v>
+        <v>1652</v>
       </c>
       <c r="D989" s="9"/>
       <c r="E989" s="5"/>
@@ -36631,15 +37077,15 @@
       <c r="M989" s="5"/>
       <c r="N989" s="10"/>
     </row>
-    <row r="990" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A990" s="4" t="s">
-        <v>1677</v>
+        <v>1653</v>
       </c>
       <c r="B990" s="5" t="s">
         <v>1649</v>
       </c>
       <c r="C990" s="5" t="s">
-        <v>1678</v>
+        <v>1654</v>
       </c>
       <c r="D990" s="9"/>
       <c r="E990" s="5"/>
@@ -36655,13 +37101,13 @@
     </row>
     <row r="991" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A991" s="4" t="s">
-        <v>1679</v>
+        <v>1655</v>
       </c>
       <c r="B991" s="5" t="s">
         <v>1649</v>
       </c>
       <c r="C991" s="5" t="s">
-        <v>1680</v>
+        <v>1656</v>
       </c>
       <c r="D991" s="9"/>
       <c r="E991" s="5"/>
@@ -36677,13 +37123,13 @@
     </row>
     <row r="992" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A992" s="4" t="s">
-        <v>1681</v>
+        <v>1657</v>
       </c>
       <c r="B992" s="5" t="s">
         <v>1649</v>
       </c>
       <c r="C992" s="5" t="s">
-        <v>1682</v>
+        <v>1658</v>
       </c>
       <c r="D992" s="9"/>
       <c r="E992" s="5"/>
@@ -36697,15 +37143,15 @@
       <c r="M992" s="5"/>
       <c r="N992" s="10"/>
     </row>
-    <row r="993" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A993" s="4" t="s">
-        <v>1683</v>
+        <v>1659</v>
       </c>
       <c r="B993" s="5" t="s">
         <v>1649</v>
       </c>
       <c r="C993" s="5" t="s">
-        <v>1684</v>
+        <v>1660</v>
       </c>
       <c r="D993" s="9"/>
       <c r="E993" s="5"/>
@@ -36721,13 +37167,13 @@
     </row>
     <row r="994" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A994" s="4" t="s">
-        <v>1685</v>
+        <v>1661</v>
       </c>
       <c r="B994" s="5" t="s">
         <v>1649</v>
       </c>
       <c r="C994" s="5" t="s">
-        <v>1686</v>
+        <v>1662</v>
       </c>
       <c r="D994" s="9"/>
       <c r="E994" s="5"/>
@@ -36741,15 +37187,15 @@
       <c r="M994" s="5"/>
       <c r="N994" s="10"/>
     </row>
-    <row r="995" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A995" s="4" t="s">
-        <v>1687</v>
+        <v>1663</v>
       </c>
       <c r="B995" s="5" t="s">
         <v>1649</v>
       </c>
       <c r="C995" s="5" t="s">
-        <v>1688</v>
+        <v>1664</v>
       </c>
       <c r="D995" s="9"/>
       <c r="E995" s="5"/>
@@ -36763,15 +37209,15 @@
       <c r="M995" s="5"/>
       <c r="N995" s="10"/>
     </row>
-    <row r="996" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A996" s="4" t="s">
-        <v>1689</v>
+        <v>1665</v>
       </c>
       <c r="B996" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C996" s="5" t="s">
-        <v>1691</v>
+        <v>1666</v>
       </c>
       <c r="D996" s="9"/>
       <c r="E996" s="5"/>
@@ -36785,15 +37231,15 @@
       <c r="M996" s="5"/>
       <c r="N996" s="10"/>
     </row>
-    <row r="997" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A997" s="4" t="s">
-        <v>1692</v>
+        <v>1667</v>
       </c>
       <c r="B997" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C997" s="5" t="s">
-        <v>1693</v>
+        <v>1668</v>
       </c>
       <c r="D997" s="9"/>
       <c r="E997" s="5"/>
@@ -36809,13 +37255,13 @@
     </row>
     <row r="998" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A998" s="4" t="s">
-        <v>1694</v>
+        <v>1669</v>
       </c>
       <c r="B998" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C998" s="5" t="s">
-        <v>1695</v>
+        <v>1670</v>
       </c>
       <c r="D998" s="9"/>
       <c r="E998" s="5"/>
@@ -36829,15 +37275,15 @@
       <c r="M998" s="5"/>
       <c r="N998" s="10"/>
     </row>
-    <row r="999" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A999" s="4" t="s">
-        <v>1696</v>
+        <v>1671</v>
       </c>
       <c r="B999" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C999" s="5" t="s">
-        <v>1697</v>
+        <v>1672</v>
       </c>
       <c r="D999" s="9"/>
       <c r="E999" s="5"/>
@@ -36853,13 +37299,13 @@
     </row>
     <row r="1000" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1000" s="4" t="s">
-        <v>1698</v>
+        <v>1673</v>
       </c>
       <c r="B1000" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1000" s="5" t="s">
-        <v>1699</v>
+        <v>1674</v>
       </c>
       <c r="D1000" s="9"/>
       <c r="E1000" s="5"/>
@@ -36873,15 +37319,15 @@
       <c r="M1000" s="5"/>
       <c r="N1000" s="10"/>
     </row>
-    <row r="1001" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1001" s="4" t="s">
-        <v>1700</v>
+        <v>1675</v>
       </c>
       <c r="B1001" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1001" s="5" t="s">
-        <v>1701</v>
+        <v>1676</v>
       </c>
       <c r="D1001" s="9"/>
       <c r="E1001" s="5"/>
@@ -36897,13 +37343,13 @@
     </row>
     <row r="1002" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1002" s="4" t="s">
-        <v>1702</v>
+        <v>1677</v>
       </c>
       <c r="B1002" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1002" s="5" t="s">
-        <v>1703</v>
+        <v>1678</v>
       </c>
       <c r="D1002" s="9"/>
       <c r="E1002" s="5"/>
@@ -36917,15 +37363,15 @@
       <c r="M1002" s="5"/>
       <c r="N1002" s="10"/>
     </row>
-    <row r="1003" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1003" s="4" t="s">
-        <v>1704</v>
+        <v>1679</v>
       </c>
       <c r="B1003" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1003" s="5" t="s">
-        <v>1705</v>
+        <v>1680</v>
       </c>
       <c r="D1003" s="9"/>
       <c r="E1003" s="5"/>
@@ -36939,15 +37385,15 @@
       <c r="M1003" s="5"/>
       <c r="N1003" s="10"/>
     </row>
-    <row r="1004" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1004" s="4" t="s">
-        <v>1706</v>
+        <v>1681</v>
       </c>
       <c r="B1004" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1004" s="5" t="s">
-        <v>1707</v>
+        <v>1682</v>
       </c>
       <c r="D1004" s="9"/>
       <c r="E1004" s="5"/>
@@ -36963,13 +37409,13 @@
     </row>
     <row r="1005" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1005" s="4" t="s">
-        <v>1708</v>
+        <v>1683</v>
       </c>
       <c r="B1005" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1005" s="5" t="s">
-        <v>1709</v>
+        <v>1684</v>
       </c>
       <c r="D1005" s="9"/>
       <c r="E1005" s="5"/>
@@ -36983,15 +37429,15 @@
       <c r="M1005" s="5"/>
       <c r="N1005" s="10"/>
     </row>
-    <row r="1006" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1006" s="4" t="s">
-        <v>1710</v>
+        <v>1685</v>
       </c>
       <c r="B1006" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1006" s="5" t="s">
-        <v>1711</v>
+        <v>1686</v>
       </c>
       <c r="D1006" s="9"/>
       <c r="E1006" s="5"/>
@@ -37005,15 +37451,15 @@
       <c r="M1006" s="5"/>
       <c r="N1006" s="10"/>
     </row>
-    <row r="1007" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1007" s="4" t="s">
-        <v>1712</v>
+        <v>1687</v>
       </c>
       <c r="B1007" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1007" s="5" t="s">
-        <v>1713</v>
+        <v>1688</v>
       </c>
       <c r="D1007" s="9"/>
       <c r="E1007" s="5"/>
@@ -37029,13 +37475,13 @@
     </row>
     <row r="1008" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1008" s="4" t="s">
-        <v>1714</v>
+        <v>1689</v>
       </c>
       <c r="B1008" s="5" t="s">
         <v>1690</v>
       </c>
       <c r="C1008" s="5" t="s">
-        <v>1715</v>
+        <v>1691</v>
       </c>
       <c r="D1008" s="9"/>
       <c r="E1008" s="5"/>
@@ -37051,13 +37497,13 @@
     </row>
     <row r="1009" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1009" s="4" t="s">
-        <v>1716</v>
+        <v>1692</v>
       </c>
       <c r="B1009" s="5" t="s">
         <v>1690</v>
       </c>
       <c r="C1009" s="5" t="s">
-        <v>1717</v>
+        <v>1693</v>
       </c>
       <c r="D1009" s="9"/>
       <c r="E1009" s="5"/>
@@ -37073,13 +37519,13 @@
     </row>
     <row r="1010" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1010" s="4" t="s">
-        <v>1718</v>
+        <v>1694</v>
       </c>
       <c r="B1010" s="5" t="s">
         <v>1690</v>
       </c>
       <c r="C1010" s="5" t="s">
-        <v>1719</v>
+        <v>1695</v>
       </c>
       <c r="D1010" s="9"/>
       <c r="E1010" s="5"/>
@@ -37095,13 +37541,13 @@
     </row>
     <row r="1011" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1011" s="4" t="s">
-        <v>1720</v>
+        <v>1696</v>
       </c>
       <c r="B1011" s="5" t="s">
         <v>1690</v>
       </c>
       <c r="C1011" s="5" t="s">
-        <v>1721</v>
+        <v>1697</v>
       </c>
       <c r="D1011" s="9"/>
       <c r="E1011" s="5"/>
@@ -37117,13 +37563,13 @@
     </row>
     <row r="1012" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1012" s="4" t="s">
-        <v>1722</v>
+        <v>1698</v>
       </c>
       <c r="B1012" s="5" t="s">
         <v>1690</v>
       </c>
       <c r="C1012" s="5" t="s">
-        <v>1723</v>
+        <v>1699</v>
       </c>
       <c r="D1012" s="9"/>
       <c r="E1012" s="5"/>
@@ -37139,13 +37585,13 @@
     </row>
     <row r="1013" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1013" s="4" t="s">
-        <v>1724</v>
+        <v>1700</v>
       </c>
       <c r="B1013" s="5" t="s">
         <v>1690</v>
       </c>
       <c r="C1013" s="5" t="s">
-        <v>1725</v>
+        <v>1701</v>
       </c>
       <c r="D1013" s="9"/>
       <c r="E1013" s="5"/>
@@ -37161,13 +37607,13 @@
     </row>
     <row r="1014" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1014" s="4" t="s">
-        <v>1726</v>
+        <v>1702</v>
       </c>
       <c r="B1014" s="5" t="s">
         <v>1690</v>
       </c>
       <c r="C1014" s="5" t="s">
-        <v>1727</v>
+        <v>1703</v>
       </c>
       <c r="D1014" s="9"/>
       <c r="E1014" s="5"/>
@@ -37183,13 +37629,13 @@
     </row>
     <row r="1015" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1015" s="4" t="s">
-        <v>1728</v>
+        <v>1704</v>
       </c>
       <c r="B1015" s="5" t="s">
         <v>1690</v>
       </c>
       <c r="C1015" s="5" t="s">
-        <v>1729</v>
+        <v>1705</v>
       </c>
       <c r="D1015" s="9"/>
       <c r="E1015" s="5"/>
@@ -37205,13 +37651,13 @@
     </row>
     <row r="1016" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1016" s="4" t="s">
-        <v>1730</v>
+        <v>1706</v>
       </c>
       <c r="B1016" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1016" s="5" t="s">
-        <v>1732</v>
+        <v>1707</v>
       </c>
       <c r="D1016" s="9"/>
       <c r="E1016" s="5"/>
@@ -37227,13 +37673,13 @@
     </row>
     <row r="1017" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1017" s="4" t="s">
-        <v>1733</v>
+        <v>1708</v>
       </c>
       <c r="B1017" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1017" s="5" t="s">
-        <v>1734</v>
+        <v>1709</v>
       </c>
       <c r="D1017" s="9"/>
       <c r="E1017" s="5"/>
@@ -37249,13 +37695,13 @@
     </row>
     <row r="1018" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1018" s="4" t="s">
-        <v>1735</v>
+        <v>1710</v>
       </c>
       <c r="B1018" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1018" s="5" t="s">
-        <v>1736</v>
+        <v>1711</v>
       </c>
       <c r="D1018" s="9"/>
       <c r="E1018" s="5"/>
@@ -37271,13 +37717,13 @@
     </row>
     <row r="1019" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1019" s="4" t="s">
-        <v>1737</v>
+        <v>1712</v>
       </c>
       <c r="B1019" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1019" s="5" t="s">
-        <v>1738</v>
+        <v>1713</v>
       </c>
       <c r="D1019" s="9"/>
       <c r="E1019" s="5"/>
@@ -37293,13 +37739,13 @@
     </row>
     <row r="1020" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1020" s="4" t="s">
-        <v>1739</v>
+        <v>1714</v>
       </c>
       <c r="B1020" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1020" s="5" t="s">
-        <v>1740</v>
+        <v>1715</v>
       </c>
       <c r="D1020" s="9"/>
       <c r="E1020" s="5"/>
@@ -37315,13 +37761,13 @@
     </row>
     <row r="1021" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1021" s="4" t="s">
-        <v>1741</v>
+        <v>1716</v>
       </c>
       <c r="B1021" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1021" s="5" t="s">
-        <v>1742</v>
+        <v>1717</v>
       </c>
       <c r="D1021" s="9"/>
       <c r="E1021" s="5"/>
@@ -37337,13 +37783,13 @@
     </row>
     <row r="1022" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1022" s="4" t="s">
-        <v>1743</v>
+        <v>1718</v>
       </c>
       <c r="B1022" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1022" s="5" t="s">
-        <v>1744</v>
+        <v>1719</v>
       </c>
       <c r="D1022" s="9"/>
       <c r="E1022" s="5"/>
@@ -37359,13 +37805,13 @@
     </row>
     <row r="1023" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1023" s="4" t="s">
-        <v>1745</v>
+        <v>1720</v>
       </c>
       <c r="B1023" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1023" s="5" t="s">
-        <v>1746</v>
+        <v>1721</v>
       </c>
       <c r="D1023" s="9"/>
       <c r="E1023" s="5"/>
@@ -37381,13 +37827,13 @@
     </row>
     <row r="1024" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1024" s="4" t="s">
-        <v>1747</v>
+        <v>1722</v>
       </c>
       <c r="B1024" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1024" s="5" t="s">
-        <v>1748</v>
+        <v>1723</v>
       </c>
       <c r="D1024" s="9"/>
       <c r="E1024" s="5"/>
@@ -37403,13 +37849,13 @@
     </row>
     <row r="1025" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1025" s="4" t="s">
-        <v>1749</v>
+        <v>1724</v>
       </c>
       <c r="B1025" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1025" s="5" t="s">
-        <v>1750</v>
+        <v>1725</v>
       </c>
       <c r="D1025" s="9"/>
       <c r="E1025" s="5"/>
@@ -37425,13 +37871,13 @@
     </row>
     <row r="1026" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1026" s="4" t="s">
-        <v>1751</v>
+        <v>1726</v>
       </c>
       <c r="B1026" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1026" s="5" t="s">
-        <v>1752</v>
+        <v>1727</v>
       </c>
       <c r="D1026" s="9"/>
       <c r="E1026" s="5"/>
@@ -37447,13 +37893,13 @@
     </row>
     <row r="1027" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1027" s="4" t="s">
-        <v>1753</v>
+        <v>1728</v>
       </c>
       <c r="B1027" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1027" s="5" t="s">
-        <v>1754</v>
+        <v>1729</v>
       </c>
       <c r="D1027" s="9"/>
       <c r="E1027" s="5"/>
@@ -37469,13 +37915,13 @@
     </row>
     <row r="1028" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1028" s="4" t="s">
-        <v>1755</v>
+        <v>1730</v>
       </c>
       <c r="B1028" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1028" s="5" t="s">
-        <v>1756</v>
+        <v>1732</v>
       </c>
       <c r="D1028" s="9"/>
       <c r="E1028" s="5"/>
@@ -37491,13 +37937,13 @@
     </row>
     <row r="1029" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1029" s="4" t="s">
-        <v>1757</v>
+        <v>1733</v>
       </c>
       <c r="B1029" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1029" s="5" t="s">
-        <v>1758</v>
+        <v>1734</v>
       </c>
       <c r="D1029" s="9"/>
       <c r="E1029" s="5"/>
@@ -37513,13 +37959,13 @@
     </row>
     <row r="1030" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1030" s="4" t="s">
-        <v>1759</v>
+        <v>1735</v>
       </c>
       <c r="B1030" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1030" s="5" t="s">
-        <v>1760</v>
+        <v>1736</v>
       </c>
       <c r="D1030" s="9"/>
       <c r="E1030" s="5"/>
@@ -37535,13 +37981,13 @@
     </row>
     <row r="1031" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1031" s="4" t="s">
-        <v>1761</v>
+        <v>1737</v>
       </c>
       <c r="B1031" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1031" s="5" t="s">
-        <v>1762</v>
+        <v>1738</v>
       </c>
       <c r="D1031" s="9"/>
       <c r="E1031" s="5"/>
@@ -37557,13 +38003,13 @@
     </row>
     <row r="1032" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1032" s="4" t="s">
-        <v>1763</v>
+        <v>1739</v>
       </c>
       <c r="B1032" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1032" s="5" t="s">
-        <v>1764</v>
+        <v>1740</v>
       </c>
       <c r="D1032" s="9"/>
       <c r="E1032" s="5"/>
@@ -37579,13 +38025,13 @@
     </row>
     <row r="1033" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1033" s="4" t="s">
-        <v>1765</v>
+        <v>1741</v>
       </c>
       <c r="B1033" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1033" s="5" t="s">
-        <v>1766</v>
+        <v>1742</v>
       </c>
       <c r="D1033" s="9"/>
       <c r="E1033" s="5"/>
@@ -37601,13 +38047,13 @@
     </row>
     <row r="1034" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1034" s="4" t="s">
-        <v>1767</v>
+        <v>1743</v>
       </c>
       <c r="B1034" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1034" s="5" t="s">
-        <v>1768</v>
+        <v>1744</v>
       </c>
       <c r="D1034" s="9"/>
       <c r="E1034" s="5"/>
@@ -37623,13 +38069,13 @@
     </row>
     <row r="1035" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1035" s="4" t="s">
-        <v>1769</v>
+        <v>1745</v>
       </c>
       <c r="B1035" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1035" s="5" t="s">
-        <v>1770</v>
+        <v>1746</v>
       </c>
       <c r="D1035" s="9"/>
       <c r="E1035" s="5"/>
@@ -37643,15 +38089,15 @@
       <c r="M1035" s="5"/>
       <c r="N1035" s="10"/>
     </row>
-    <row r="1036" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1036" s="4" t="s">
-        <v>1771</v>
+        <v>1747</v>
       </c>
       <c r="B1036" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1036" s="5" t="s">
-        <v>1773</v>
+        <v>1748</v>
       </c>
       <c r="D1036" s="9"/>
       <c r="E1036" s="5"/>
@@ -37665,15 +38111,15 @@
       <c r="M1036" s="5"/>
       <c r="N1036" s="10"/>
     </row>
-    <row r="1037" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1037" s="4" t="s">
-        <v>1774</v>
+        <v>1749</v>
       </c>
       <c r="B1037" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1037" s="5" t="s">
-        <v>1775</v>
+        <v>1750</v>
       </c>
       <c r="D1037" s="9"/>
       <c r="E1037" s="5"/>
@@ -37687,15 +38133,15 @@
       <c r="M1037" s="5"/>
       <c r="N1037" s="10"/>
     </row>
-    <row r="1038" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1038" s="4" t="s">
-        <v>1776</v>
+        <v>1751</v>
       </c>
       <c r="B1038" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1038" s="5" t="s">
-        <v>1777</v>
+        <v>1752</v>
       </c>
       <c r="D1038" s="9"/>
       <c r="E1038" s="5"/>
@@ -37709,15 +38155,15 @@
       <c r="M1038" s="5"/>
       <c r="N1038" s="10"/>
     </row>
-    <row r="1039" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1039" s="4" t="s">
-        <v>1778</v>
+        <v>1753</v>
       </c>
       <c r="B1039" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1039" s="5" t="s">
-        <v>1779</v>
+        <v>1754</v>
       </c>
       <c r="D1039" s="9"/>
       <c r="E1039" s="5"/>
@@ -37731,15 +38177,15 @@
       <c r="M1039" s="5"/>
       <c r="N1039" s="10"/>
     </row>
-    <row r="1040" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1040" s="4" t="s">
-        <v>1780</v>
+        <v>1755</v>
       </c>
       <c r="B1040" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1040" s="5" t="s">
-        <v>1781</v>
+        <v>1756</v>
       </c>
       <c r="D1040" s="9"/>
       <c r="E1040" s="5"/>
@@ -37753,15 +38199,15 @@
       <c r="M1040" s="5"/>
       <c r="N1040" s="10"/>
     </row>
-    <row r="1041" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1041" s="4" t="s">
-        <v>1782</v>
+        <v>1757</v>
       </c>
       <c r="B1041" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1041" s="5" t="s">
-        <v>1783</v>
+        <v>1758</v>
       </c>
       <c r="D1041" s="9"/>
       <c r="E1041" s="5"/>
@@ -37775,15 +38221,15 @@
       <c r="M1041" s="5"/>
       <c r="N1041" s="10"/>
     </row>
-    <row r="1042" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1042" s="4" t="s">
-        <v>1784</v>
+        <v>1759</v>
       </c>
       <c r="B1042" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1042" s="5" t="s">
-        <v>1785</v>
+        <v>1760</v>
       </c>
       <c r="D1042" s="9"/>
       <c r="E1042" s="5"/>
@@ -37797,15 +38243,15 @@
       <c r="M1042" s="5"/>
       <c r="N1042" s="10"/>
     </row>
-    <row r="1043" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1043" s="4" t="s">
-        <v>1786</v>
+        <v>1761</v>
       </c>
       <c r="B1043" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1043" s="5" t="s">
-        <v>43</v>
+        <v>1762</v>
       </c>
       <c r="D1043" s="9"/>
       <c r="E1043" s="5"/>
@@ -37819,15 +38265,15 @@
       <c r="M1043" s="5"/>
       <c r="N1043" s="10"/>
     </row>
-    <row r="1044" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1044" s="4" t="s">
-        <v>1787</v>
+        <v>1763</v>
       </c>
       <c r="B1044" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1044" s="5" t="s">
-        <v>9</v>
+        <v>1764</v>
       </c>
       <c r="D1044" s="9"/>
       <c r="E1044" s="5"/>
@@ -37841,15 +38287,15 @@
       <c r="M1044" s="5"/>
       <c r="N1044" s="10"/>
     </row>
-    <row r="1045" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1045" s="4" t="s">
-        <v>1788</v>
+        <v>1765</v>
       </c>
       <c r="B1045" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1045" s="5" t="s">
-        <v>1789</v>
+        <v>1766</v>
       </c>
       <c r="D1045" s="9"/>
       <c r="E1045" s="5"/>
@@ -37863,15 +38309,15 @@
       <c r="M1045" s="5"/>
       <c r="N1045" s="10"/>
     </row>
-    <row r="1046" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1046" s="4" t="s">
-        <v>1790</v>
+        <v>1767</v>
       </c>
       <c r="B1046" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1046" s="5" t="s">
-        <v>1791</v>
+        <v>1768</v>
       </c>
       <c r="D1046" s="9"/>
       <c r="E1046" s="5"/>
@@ -37885,15 +38331,15 @@
       <c r="M1046" s="5"/>
       <c r="N1046" s="10"/>
     </row>
-    <row r="1047" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1047" s="4" t="s">
-        <v>1792</v>
+        <v>1769</v>
       </c>
       <c r="B1047" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1047" s="5" t="s">
-        <v>1793</v>
+        <v>1770</v>
       </c>
       <c r="D1047" s="9"/>
       <c r="E1047" s="5"/>
@@ -37909,13 +38355,13 @@
     </row>
     <row r="1048" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1048" s="4" t="s">
-        <v>1794</v>
+        <v>1771</v>
       </c>
       <c r="B1048" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1048" s="5" t="s">
-        <v>1795</v>
+        <v>1773</v>
       </c>
       <c r="D1048" s="9"/>
       <c r="E1048" s="5"/>
@@ -37931,13 +38377,13 @@
     </row>
     <row r="1049" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1049" s="4" t="s">
-        <v>1796</v>
+        <v>1774</v>
       </c>
       <c r="B1049" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1049" s="5" t="s">
-        <v>1797</v>
+        <v>1775</v>
       </c>
       <c r="D1049" s="9"/>
       <c r="E1049" s="5"/>
@@ -37953,13 +38399,13 @@
     </row>
     <row r="1050" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1050" s="4" t="s">
-        <v>1798</v>
+        <v>1776</v>
       </c>
       <c r="B1050" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1050" s="5" t="s">
-        <v>1799</v>
+        <v>1777</v>
       </c>
       <c r="D1050" s="9"/>
       <c r="E1050" s="5"/>
@@ -37975,13 +38421,13 @@
     </row>
     <row r="1051" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1051" s="4" t="s">
-        <v>1800</v>
+        <v>1778</v>
       </c>
       <c r="B1051" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1051" s="5" t="s">
-        <v>11</v>
+        <v>1779</v>
       </c>
       <c r="D1051" s="9"/>
       <c r="E1051" s="5"/>
@@ -37997,13 +38443,13 @@
     </row>
     <row r="1052" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1052" s="4" t="s">
-        <v>1801</v>
+        <v>1780</v>
       </c>
       <c r="B1052" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1052" s="5" t="s">
-        <v>1802</v>
+        <v>1781</v>
       </c>
       <c r="D1052" s="9"/>
       <c r="E1052" s="5"/>
@@ -38019,13 +38465,13 @@
     </row>
     <row r="1053" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1053" s="4" t="s">
-        <v>1803</v>
+        <v>1782</v>
       </c>
       <c r="B1053" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1053" s="5" t="s">
-        <v>1804</v>
+        <v>1783</v>
       </c>
       <c r="D1053" s="9"/>
       <c r="E1053" s="5"/>
@@ -38041,13 +38487,13 @@
     </row>
     <row r="1054" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1054" s="4" t="s">
-        <v>1805</v>
+        <v>1784</v>
       </c>
       <c r="B1054" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1054" s="5" t="s">
-        <v>1773</v>
+        <v>1785</v>
       </c>
       <c r="D1054" s="9"/>
       <c r="E1054" s="5"/>
@@ -38063,13 +38509,13 @@
     </row>
     <row r="1055" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1055" s="4" t="s">
-        <v>1806</v>
+        <v>1786</v>
       </c>
       <c r="B1055" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1055" s="5" t="s">
-        <v>1807</v>
+        <v>43</v>
       </c>
       <c r="D1055" s="9"/>
       <c r="E1055" s="5"/>
@@ -38083,15 +38529,15 @@
       <c r="M1055" s="5"/>
       <c r="N1055" s="10"/>
     </row>
-    <row r="1056" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1056" s="4" t="s">
-        <v>1808</v>
+        <v>1787</v>
       </c>
       <c r="B1056" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1056" s="5" t="s">
-        <v>1810</v>
+        <v>9</v>
       </c>
       <c r="D1056" s="9"/>
       <c r="E1056" s="5"/>
@@ -38105,15 +38551,15 @@
       <c r="M1056" s="5"/>
       <c r="N1056" s="10"/>
     </row>
-    <row r="1057" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1057" s="4" t="s">
-        <v>1811</v>
+        <v>1788</v>
       </c>
       <c r="B1057" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1057" s="5" t="s">
-        <v>1812</v>
+        <v>1789</v>
       </c>
       <c r="D1057" s="9"/>
       <c r="E1057" s="5"/>
@@ -38127,15 +38573,15 @@
       <c r="M1057" s="5"/>
       <c r="N1057" s="10"/>
     </row>
-    <row r="1058" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1058" s="4" t="s">
-        <v>1813</v>
+        <v>1790</v>
       </c>
       <c r="B1058" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1058" s="5" t="s">
-        <v>1814</v>
+        <v>1791</v>
       </c>
       <c r="D1058" s="9"/>
       <c r="E1058" s="5"/>
@@ -38149,15 +38595,15 @@
       <c r="M1058" s="5"/>
       <c r="N1058" s="10"/>
     </row>
-    <row r="1059" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1059" s="4" t="s">
-        <v>1815</v>
+        <v>1792</v>
       </c>
       <c r="B1059" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1059" s="5" t="s">
-        <v>1816</v>
+        <v>1793</v>
       </c>
       <c r="D1059" s="9"/>
       <c r="E1059" s="5"/>
@@ -38171,15 +38617,15 @@
       <c r="M1059" s="5"/>
       <c r="N1059" s="10"/>
     </row>
-    <row r="1060" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1060" s="4" t="s">
-        <v>1817</v>
+        <v>1794</v>
       </c>
       <c r="B1060" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1060" s="5" t="s">
-        <v>1818</v>
+        <v>1795</v>
       </c>
       <c r="D1060" s="9"/>
       <c r="E1060" s="5"/>
@@ -38193,15 +38639,15 @@
       <c r="M1060" s="5"/>
       <c r="N1060" s="10"/>
     </row>
-    <row r="1061" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1061" s="4" t="s">
-        <v>1819</v>
+        <v>1796</v>
       </c>
       <c r="B1061" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1061" s="5" t="s">
-        <v>1820</v>
+        <v>1797</v>
       </c>
       <c r="D1061" s="9"/>
       <c r="E1061" s="5"/>
@@ -38215,15 +38661,15 @@
       <c r="M1061" s="5"/>
       <c r="N1061" s="10"/>
     </row>
-    <row r="1062" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1062" s="4" t="s">
-        <v>1821</v>
+        <v>1798</v>
       </c>
       <c r="B1062" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1062" s="5" t="s">
-        <v>1822</v>
+        <v>1799</v>
       </c>
       <c r="D1062" s="9"/>
       <c r="E1062" s="5"/>
@@ -38237,15 +38683,15 @@
       <c r="M1062" s="5"/>
       <c r="N1062" s="10"/>
     </row>
-    <row r="1063" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1063" s="4" t="s">
-        <v>1823</v>
+        <v>1800</v>
       </c>
       <c r="B1063" s="5" t="s">
-        <v>1824</v>
+        <v>1772</v>
       </c>
       <c r="C1063" s="5" t="s">
-        <v>1825</v>
+        <v>11</v>
       </c>
       <c r="D1063" s="9"/>
       <c r="E1063" s="5"/>
@@ -38259,15 +38705,15 @@
       <c r="M1063" s="5"/>
       <c r="N1063" s="10"/>
     </row>
-    <row r="1064" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1064" s="4" t="s">
-        <v>1826</v>
+        <v>1801</v>
       </c>
       <c r="B1064" s="5" t="s">
-        <v>1824</v>
+        <v>1772</v>
       </c>
       <c r="C1064" s="5" t="s">
-        <v>1827</v>
+        <v>1802</v>
       </c>
       <c r="D1064" s="9"/>
       <c r="E1064" s="5"/>
@@ -38281,15 +38727,15 @@
       <c r="M1064" s="5"/>
       <c r="N1064" s="10"/>
     </row>
-    <row r="1065" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1065" s="4" t="s">
-        <v>1828</v>
+        <v>1803</v>
       </c>
       <c r="B1065" s="5" t="s">
-        <v>1824</v>
+        <v>1772</v>
       </c>
       <c r="C1065" s="5" t="s">
-        <v>1829</v>
+        <v>1804</v>
       </c>
       <c r="D1065" s="9"/>
       <c r="E1065" s="5"/>
@@ -38303,15 +38749,15 @@
       <c r="M1065" s="5"/>
       <c r="N1065" s="10"/>
     </row>
-    <row r="1066" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1066" s="4" t="s">
-        <v>1830</v>
+        <v>1805</v>
       </c>
       <c r="B1066" s="5" t="s">
-        <v>1824</v>
+        <v>1772</v>
       </c>
       <c r="C1066" s="5" t="s">
-        <v>1831</v>
+        <v>1773</v>
       </c>
       <c r="D1066" s="9"/>
       <c r="E1066" s="5"/>
@@ -38325,15 +38771,15 @@
       <c r="M1066" s="5"/>
       <c r="N1066" s="10"/>
     </row>
-    <row r="1067" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1067" s="4" t="s">
-        <v>1832</v>
+        <v>1806</v>
       </c>
       <c r="B1067" s="5" t="s">
-        <v>1824</v>
+        <v>1772</v>
       </c>
       <c r="C1067" s="5" t="s">
-        <v>1833</v>
+        <v>1807</v>
       </c>
       <c r="D1067" s="9"/>
       <c r="E1067" s="5"/>
@@ -38349,13 +38795,13 @@
     </row>
     <row r="1068" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1068" s="4" t="s">
-        <v>1834</v>
+        <v>1808</v>
       </c>
       <c r="B1068" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1068" s="5" t="s">
-        <v>1586</v>
+        <v>1810</v>
       </c>
       <c r="D1068" s="9"/>
       <c r="E1068" s="5"/>
@@ -38371,13 +38817,13 @@
     </row>
     <row r="1069" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1069" s="4" t="s">
-        <v>1835</v>
+        <v>1811</v>
       </c>
       <c r="B1069" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1069" s="5" t="s">
-        <v>1836</v>
+        <v>1812</v>
       </c>
       <c r="D1069" s="9"/>
       <c r="E1069" s="5"/>
@@ -38393,13 +38839,13 @@
     </row>
     <row r="1070" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1070" s="4" t="s">
-        <v>1837</v>
+        <v>1813</v>
       </c>
       <c r="B1070" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1070" s="5" t="s">
-        <v>1838</v>
+        <v>1814</v>
       </c>
       <c r="D1070" s="9"/>
       <c r="E1070" s="5"/>
@@ -38415,13 +38861,13 @@
     </row>
     <row r="1071" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1071" s="4" t="s">
-        <v>1839</v>
+        <v>1815</v>
       </c>
       <c r="B1071" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1071" s="5" t="s">
-        <v>1840</v>
+        <v>1816</v>
       </c>
       <c r="D1071" s="9"/>
       <c r="E1071" s="5"/>
@@ -38437,13 +38883,13 @@
     </row>
     <row r="1072" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1072" s="4" t="s">
-        <v>1841</v>
+        <v>1817</v>
       </c>
       <c r="B1072" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1072" s="5" t="s">
-        <v>1842</v>
+        <v>1818</v>
       </c>
       <c r="D1072" s="9"/>
       <c r="E1072" s="5"/>
@@ -38459,13 +38905,13 @@
     </row>
     <row r="1073" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1073" s="4" t="s">
-        <v>1843</v>
+        <v>1819</v>
       </c>
       <c r="B1073" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1073" s="5" t="s">
-        <v>1844</v>
+        <v>1820</v>
       </c>
       <c r="D1073" s="9"/>
       <c r="E1073" s="5"/>
@@ -38481,13 +38927,13 @@
     </row>
     <row r="1074" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1074" s="4" t="s">
-        <v>1845</v>
+        <v>1821</v>
       </c>
       <c r="B1074" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1074" s="5" t="s">
-        <v>1846</v>
+        <v>1822</v>
       </c>
       <c r="D1074" s="9"/>
       <c r="E1074" s="5"/>
@@ -38503,13 +38949,13 @@
     </row>
     <row r="1075" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1075" s="4" t="s">
-        <v>1847</v>
+        <v>1823</v>
       </c>
       <c r="B1075" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1075" s="5" t="s">
-        <v>1848</v>
+        <v>1825</v>
       </c>
       <c r="D1075" s="9"/>
       <c r="E1075" s="5"/>
@@ -38525,13 +38971,13 @@
     </row>
     <row r="1076" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1076" s="4" t="s">
-        <v>1849</v>
+        <v>1826</v>
       </c>
       <c r="B1076" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1076" s="5" t="s">
-        <v>1850</v>
+        <v>1827</v>
       </c>
       <c r="D1076" s="9"/>
       <c r="E1076" s="5"/>
@@ -38547,13 +38993,13 @@
     </row>
     <row r="1077" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1077" s="4" t="s">
-        <v>1851</v>
+        <v>1828</v>
       </c>
       <c r="B1077" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1077" s="5" t="s">
-        <v>1852</v>
+        <v>1829</v>
       </c>
       <c r="D1077" s="9"/>
       <c r="E1077" s="5"/>
@@ -38569,13 +39015,13 @@
     </row>
     <row r="1078" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1078" s="4" t="s">
-        <v>1853</v>
+        <v>1830</v>
       </c>
       <c r="B1078" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1078" s="5" t="s">
-        <v>1586</v>
+        <v>1831</v>
       </c>
       <c r="D1078" s="9"/>
       <c r="E1078" s="5"/>
@@ -38591,13 +39037,13 @@
     </row>
     <row r="1079" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1079" s="4" t="s">
-        <v>1854</v>
+        <v>1832</v>
       </c>
       <c r="B1079" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1079" s="5" t="s">
-        <v>1855</v>
+        <v>1833</v>
       </c>
       <c r="D1079" s="9"/>
       <c r="E1079" s="5"/>
@@ -38613,13 +39059,13 @@
     </row>
     <row r="1080" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1080" s="4" t="s">
-        <v>1856</v>
+        <v>1834</v>
       </c>
       <c r="B1080" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1080" s="5" t="s">
-        <v>1857</v>
+        <v>1586</v>
       </c>
       <c r="D1080" s="9"/>
       <c r="E1080" s="5"/>
@@ -38635,13 +39081,13 @@
     </row>
     <row r="1081" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1081" s="4" t="s">
-        <v>1858</v>
+        <v>1835</v>
       </c>
       <c r="B1081" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1081" s="5" t="s">
-        <v>1859</v>
+        <v>1836</v>
       </c>
       <c r="D1081" s="9"/>
       <c r="E1081" s="5"/>
@@ -38657,13 +39103,13 @@
     </row>
     <row r="1082" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1082" s="4" t="s">
-        <v>1860</v>
+        <v>1837</v>
       </c>
       <c r="B1082" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1082" s="5" t="s">
-        <v>1861</v>
+        <v>1838</v>
       </c>
       <c r="D1082" s="9"/>
       <c r="E1082" s="5"/>
@@ -38679,13 +39125,13 @@
     </row>
     <row r="1083" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1083" s="4" t="s">
-        <v>1862</v>
+        <v>1839</v>
       </c>
       <c r="B1083" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1083" s="5" t="s">
-        <v>1864</v>
+        <v>1840</v>
       </c>
       <c r="D1083" s="9"/>
       <c r="E1083" s="5"/>
@@ -38701,13 +39147,13 @@
     </row>
     <row r="1084" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1084" s="4" t="s">
-        <v>1865</v>
+        <v>1841</v>
       </c>
       <c r="B1084" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1084" s="5" t="s">
-        <v>1866</v>
+        <v>1842</v>
       </c>
       <c r="D1084" s="9"/>
       <c r="E1084" s="5"/>
@@ -38723,13 +39169,13 @@
     </row>
     <row r="1085" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1085" s="4" t="s">
-        <v>1867</v>
+        <v>1843</v>
       </c>
       <c r="B1085" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1085" s="5" t="s">
-        <v>1868</v>
+        <v>1844</v>
       </c>
       <c r="D1085" s="9"/>
       <c r="E1085" s="5"/>
@@ -38745,13 +39191,13 @@
     </row>
     <row r="1086" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1086" s="4" t="s">
-        <v>1869</v>
+        <v>1845</v>
       </c>
       <c r="B1086" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1086" s="5" t="s">
-        <v>1870</v>
+        <v>1846</v>
       </c>
       <c r="D1086" s="9"/>
       <c r="E1086" s="5"/>
@@ -38767,13 +39213,13 @@
     </row>
     <row r="1087" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1087" s="4" t="s">
-        <v>1871</v>
+        <v>1847</v>
       </c>
       <c r="B1087" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1087" s="5" t="s">
-        <v>1872</v>
+        <v>1848</v>
       </c>
       <c r="D1087" s="9"/>
       <c r="E1087" s="5"/>
@@ -38789,13 +39235,13 @@
     </row>
     <row r="1088" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1088" s="4" t="s">
-        <v>1873</v>
+        <v>1849</v>
       </c>
       <c r="B1088" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1088" s="5" t="s">
-        <v>1874</v>
+        <v>1850</v>
       </c>
       <c r="D1088" s="9"/>
       <c r="E1088" s="5"/>
@@ -38811,13 +39257,13 @@
     </row>
     <row r="1089" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1089" s="4" t="s">
-        <v>1875</v>
+        <v>1851</v>
       </c>
       <c r="B1089" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1089" s="5" t="s">
-        <v>1876</v>
+        <v>1852</v>
       </c>
       <c r="D1089" s="9"/>
       <c r="E1089" s="5"/>
@@ -38833,13 +39279,13 @@
     </row>
     <row r="1090" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1090" s="4" t="s">
-        <v>1877</v>
+        <v>1853</v>
       </c>
       <c r="B1090" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1090" s="5" t="s">
-        <v>1878</v>
+        <v>1586</v>
       </c>
       <c r="D1090" s="9"/>
       <c r="E1090" s="5"/>
@@ -38855,13 +39301,13 @@
     </row>
     <row r="1091" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1091" s="4" t="s">
-        <v>1879</v>
+        <v>1854</v>
       </c>
       <c r="B1091" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1091" s="5" t="s">
-        <v>1880</v>
+        <v>1855</v>
       </c>
       <c r="D1091" s="9"/>
       <c r="E1091" s="5"/>
@@ -38877,13 +39323,13 @@
     </row>
     <row r="1092" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1092" s="4" t="s">
-        <v>1881</v>
+        <v>1856</v>
       </c>
       <c r="B1092" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1092" s="5" t="s">
-        <v>1882</v>
+        <v>1857</v>
       </c>
       <c r="D1092" s="9"/>
       <c r="E1092" s="5"/>
@@ -38899,13 +39345,13 @@
     </row>
     <row r="1093" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1093" s="4" t="s">
-        <v>1883</v>
+        <v>1858</v>
       </c>
       <c r="B1093" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1093" s="5" t="s">
-        <v>1884</v>
+        <v>1859</v>
       </c>
       <c r="D1093" s="9"/>
       <c r="E1093" s="5"/>
@@ -38921,13 +39367,13 @@
     </row>
     <row r="1094" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1094" s="4" t="s">
-        <v>1885</v>
+        <v>1860</v>
       </c>
       <c r="B1094" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1094" s="5" t="s">
-        <v>1886</v>
+        <v>1861</v>
       </c>
       <c r="D1094" s="9"/>
       <c r="E1094" s="5"/>
@@ -38943,13 +39389,13 @@
     </row>
     <row r="1095" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1095" s="4" t="s">
-        <v>1887</v>
+        <v>1862</v>
       </c>
       <c r="B1095" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1095" s="5" t="s">
-        <v>1888</v>
+        <v>1864</v>
       </c>
       <c r="D1095" s="9"/>
       <c r="E1095" s="5"/>
@@ -38965,13 +39411,13 @@
     </row>
     <row r="1096" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1096" s="4" t="s">
-        <v>1889</v>
+        <v>1865</v>
       </c>
       <c r="B1096" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1096" s="5" t="s">
-        <v>1890</v>
+        <v>1866</v>
       </c>
       <c r="D1096" s="9"/>
       <c r="E1096" s="5"/>
@@ -38987,13 +39433,13 @@
     </row>
     <row r="1097" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1097" s="4" t="s">
-        <v>1891</v>
+        <v>1867</v>
       </c>
       <c r="B1097" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1097" s="5" t="s">
-        <v>1892</v>
+        <v>1868</v>
       </c>
       <c r="D1097" s="9"/>
       <c r="E1097" s="5"/>
@@ -39009,13 +39455,13 @@
     </row>
     <row r="1098" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1098" s="4" t="s">
-        <v>1893</v>
+        <v>1869</v>
       </c>
       <c r="B1098" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1098" s="5" t="s">
-        <v>1894</v>
+        <v>1870</v>
       </c>
       <c r="D1098" s="9"/>
       <c r="E1098" s="5"/>
@@ -39031,13 +39477,13 @@
     </row>
     <row r="1099" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1099" s="4" t="s">
-        <v>1895</v>
+        <v>1871</v>
       </c>
       <c r="B1099" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1099" s="5" t="s">
-        <v>1896</v>
+        <v>1872</v>
       </c>
       <c r="D1099" s="9"/>
       <c r="E1099" s="5"/>
@@ -39053,13 +39499,13 @@
     </row>
     <row r="1100" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1100" s="4" t="s">
-        <v>1897</v>
+        <v>1873</v>
       </c>
       <c r="B1100" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1100" s="5" t="s">
-        <v>1898</v>
+        <v>1874</v>
       </c>
       <c r="D1100" s="9"/>
       <c r="E1100" s="5"/>
@@ -39075,13 +39521,13 @@
     </row>
     <row r="1101" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1101" s="4" t="s">
-        <v>1899</v>
+        <v>1875</v>
       </c>
       <c r="B1101" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1101" s="5" t="s">
-        <v>1900</v>
+        <v>1876</v>
       </c>
       <c r="D1101" s="9"/>
       <c r="E1101" s="5"/>
@@ -39097,13 +39543,13 @@
     </row>
     <row r="1102" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1102" s="4" t="s">
-        <v>1901</v>
+        <v>1877</v>
       </c>
       <c r="B1102" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1102" s="5" t="s">
-        <v>1902</v>
+        <v>1878</v>
       </c>
       <c r="D1102" s="9"/>
       <c r="E1102" s="5"/>
@@ -39119,13 +39565,13 @@
     </row>
     <row r="1103" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1103" s="4" t="s">
-        <v>1903</v>
+        <v>1879</v>
       </c>
       <c r="B1103" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1103" s="5" t="s">
-        <v>1905</v>
+        <v>1880</v>
       </c>
       <c r="D1103" s="9"/>
       <c r="E1103" s="5"/>
@@ -39141,13 +39587,13 @@
     </row>
     <row r="1104" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1104" s="4" t="s">
-        <v>1906</v>
+        <v>1881</v>
       </c>
       <c r="B1104" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1104" s="5" t="s">
-        <v>1907</v>
+        <v>1882</v>
       </c>
       <c r="D1104" s="9"/>
       <c r="E1104" s="5"/>
@@ -39163,13 +39609,13 @@
     </row>
     <row r="1105" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1105" s="4" t="s">
-        <v>1908</v>
+        <v>1883</v>
       </c>
       <c r="B1105" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1105" s="5" t="s">
-        <v>1905</v>
+        <v>1884</v>
       </c>
       <c r="D1105" s="9"/>
       <c r="E1105" s="5"/>
@@ -39185,13 +39631,13 @@
     </row>
     <row r="1106" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1106" s="4" t="s">
-        <v>1909</v>
+        <v>1885</v>
       </c>
       <c r="B1106" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1106" s="5" t="s">
-        <v>1910</v>
+        <v>1886</v>
       </c>
       <c r="D1106" s="9"/>
       <c r="E1106" s="5"/>
@@ -39207,13 +39653,13 @@
     </row>
     <row r="1107" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1107" s="4" t="s">
-        <v>1911</v>
+        <v>1887</v>
       </c>
       <c r="B1107" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1107" s="5" t="s">
-        <v>1912</v>
+        <v>1888</v>
       </c>
       <c r="D1107" s="9"/>
       <c r="E1107" s="5"/>
@@ -39229,13 +39675,13 @@
     </row>
     <row r="1108" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1108" s="4" t="s">
-        <v>1913</v>
+        <v>1889</v>
       </c>
       <c r="B1108" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1108" s="5" t="s">
-        <v>1914</v>
+        <v>1890</v>
       </c>
       <c r="D1108" s="9"/>
       <c r="E1108" s="5"/>
@@ -39251,13 +39697,13 @@
     </row>
     <row r="1109" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1109" s="4" t="s">
-        <v>1915</v>
+        <v>1891</v>
       </c>
       <c r="B1109" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1109" s="5" t="s">
-        <v>1916</v>
+        <v>1892</v>
       </c>
       <c r="D1109" s="9"/>
       <c r="E1109" s="5"/>
@@ -39273,13 +39719,13 @@
     </row>
     <row r="1110" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1110" s="4" t="s">
-        <v>1917</v>
+        <v>1893</v>
       </c>
       <c r="B1110" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1110" s="5" t="s">
-        <v>1918</v>
+        <v>1894</v>
       </c>
       <c r="D1110" s="9"/>
       <c r="E1110" s="5"/>
@@ -39295,13 +39741,13 @@
     </row>
     <row r="1111" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1111" s="4" t="s">
-        <v>1919</v>
+        <v>1895</v>
       </c>
       <c r="B1111" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1111" s="5" t="s">
-        <v>1920</v>
+        <v>1896</v>
       </c>
       <c r="D1111" s="9"/>
       <c r="E1111" s="5"/>
@@ -39317,13 +39763,13 @@
     </row>
     <row r="1112" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1112" s="4" t="s">
-        <v>1921</v>
+        <v>1897</v>
       </c>
       <c r="B1112" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1112" s="5" t="s">
-        <v>1922</v>
+        <v>1898</v>
       </c>
       <c r="D1112" s="9"/>
       <c r="E1112" s="5"/>
@@ -39339,13 +39785,13 @@
     </row>
     <row r="1113" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1113" s="4" t="s">
-        <v>1923</v>
+        <v>1899</v>
       </c>
       <c r="B1113" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1113" s="5" t="s">
-        <v>1924</v>
+        <v>1900</v>
       </c>
       <c r="D1113" s="9"/>
       <c r="E1113" s="5"/>
@@ -39361,13 +39807,13 @@
     </row>
     <row r="1114" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1114" s="4" t="s">
-        <v>1925</v>
+        <v>1901</v>
       </c>
       <c r="B1114" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1114" s="5" t="s">
-        <v>1926</v>
+        <v>1902</v>
       </c>
       <c r="D1114" s="9"/>
       <c r="E1114" s="5"/>
@@ -39383,13 +39829,13 @@
     </row>
     <row r="1115" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1115" s="4" t="s">
-        <v>1927</v>
+        <v>1903</v>
       </c>
       <c r="B1115" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1115" s="5" t="s">
-        <v>1928</v>
+        <v>1905</v>
       </c>
       <c r="D1115" s="9"/>
       <c r="E1115" s="5"/>
@@ -39405,13 +39851,13 @@
     </row>
     <row r="1116" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1116" s="4" t="s">
-        <v>1929</v>
+        <v>1906</v>
       </c>
       <c r="B1116" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1116" s="5" t="s">
-        <v>1930</v>
+        <v>1907</v>
       </c>
       <c r="D1116" s="9"/>
       <c r="E1116" s="5"/>
@@ -39427,13 +39873,13 @@
     </row>
     <row r="1117" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1117" s="4" t="s">
-        <v>1931</v>
+        <v>1908</v>
       </c>
       <c r="B1117" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1117" s="5" t="s">
-        <v>1932</v>
+        <v>1905</v>
       </c>
       <c r="D1117" s="9"/>
       <c r="E1117" s="5"/>
@@ -39449,13 +39895,13 @@
     </row>
     <row r="1118" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1118" s="4" t="s">
-        <v>1933</v>
+        <v>1909</v>
       </c>
       <c r="B1118" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1118" s="5" t="s">
-        <v>1934</v>
+        <v>1910</v>
       </c>
       <c r="D1118" s="9"/>
       <c r="E1118" s="5"/>
@@ -39471,13 +39917,13 @@
     </row>
     <row r="1119" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1119" s="4" t="s">
-        <v>1935</v>
+        <v>1911</v>
       </c>
       <c r="B1119" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1119" s="5" t="s">
-        <v>1936</v>
+        <v>1912</v>
       </c>
       <c r="D1119" s="9"/>
       <c r="E1119" s="5"/>
@@ -39493,13 +39939,13 @@
     </row>
     <row r="1120" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1120" s="4" t="s">
-        <v>1937</v>
+        <v>1913</v>
       </c>
       <c r="B1120" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1120" s="5" t="s">
-        <v>1938</v>
+        <v>1914</v>
       </c>
       <c r="D1120" s="9"/>
       <c r="E1120" s="5"/>
@@ -39515,13 +39961,13 @@
     </row>
     <row r="1121" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1121" s="4" t="s">
-        <v>1939</v>
+        <v>1915</v>
       </c>
       <c r="B1121" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1121" s="5" t="s">
-        <v>1940</v>
+        <v>1916</v>
       </c>
       <c r="D1121" s="9"/>
       <c r="E1121" s="5"/>
@@ -39537,13 +39983,13 @@
     </row>
     <row r="1122" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1122" s="4" t="s">
-        <v>1941</v>
+        <v>1917</v>
       </c>
       <c r="B1122" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1122" s="5" t="s">
-        <v>1942</v>
+        <v>1918</v>
       </c>
       <c r="D1122" s="9"/>
       <c r="E1122" s="5"/>
@@ -39557,15 +40003,15 @@
       <c r="M1122" s="5"/>
       <c r="N1122" s="10"/>
     </row>
-    <row r="1123" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1123" s="4" t="s">
-        <v>1943</v>
+        <v>1919</v>
       </c>
       <c r="B1123" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1123" s="5" t="s">
-        <v>1945</v>
+        <v>1920</v>
       </c>
       <c r="D1123" s="9"/>
       <c r="E1123" s="5"/>
@@ -39579,15 +40025,15 @@
       <c r="M1123" s="5"/>
       <c r="N1123" s="10"/>
     </row>
-    <row r="1124" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1124" s="4" t="s">
-        <v>1946</v>
+        <v>1921</v>
       </c>
       <c r="B1124" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1124" s="5" t="s">
-        <v>1947</v>
+        <v>1922</v>
       </c>
       <c r="D1124" s="9"/>
       <c r="E1124" s="5"/>
@@ -39601,15 +40047,15 @@
       <c r="M1124" s="5"/>
       <c r="N1124" s="10"/>
     </row>
-    <row r="1125" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1125" s="4" t="s">
-        <v>1948</v>
+        <v>1923</v>
       </c>
       <c r="B1125" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1125" s="5" t="s">
-        <v>1949</v>
+        <v>1924</v>
       </c>
       <c r="D1125" s="9"/>
       <c r="E1125" s="5"/>
@@ -39623,15 +40069,15 @@
       <c r="M1125" s="5"/>
       <c r="N1125" s="10"/>
     </row>
-    <row r="1126" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1126" s="4" t="s">
-        <v>1950</v>
+        <v>1925</v>
       </c>
       <c r="B1126" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1126" s="5" t="s">
-        <v>1951</v>
+        <v>1926</v>
       </c>
       <c r="D1126" s="9"/>
       <c r="E1126" s="5"/>
@@ -39645,15 +40091,15 @@
       <c r="M1126" s="5"/>
       <c r="N1126" s="10"/>
     </row>
-    <row r="1127" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1127" s="4" t="s">
-        <v>1952</v>
+        <v>1927</v>
       </c>
       <c r="B1127" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1127" s="5" t="s">
-        <v>1945</v>
+        <v>1928</v>
       </c>
       <c r="D1127" s="9"/>
       <c r="E1127" s="5"/>
@@ -39667,15 +40113,15 @@
       <c r="M1127" s="5"/>
       <c r="N1127" s="10"/>
     </row>
-    <row r="1128" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1128" s="4" t="s">
-        <v>1953</v>
+        <v>1929</v>
       </c>
       <c r="B1128" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1128" s="5" t="s">
-        <v>1954</v>
+        <v>1930</v>
       </c>
       <c r="D1128" s="9"/>
       <c r="E1128" s="5"/>
@@ -39689,15 +40135,15 @@
       <c r="M1128" s="5"/>
       <c r="N1128" s="10"/>
     </row>
-    <row r="1129" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1129" s="4" t="s">
-        <v>1955</v>
+        <v>1931</v>
       </c>
       <c r="B1129" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1129" s="5" t="s">
-        <v>1949</v>
+        <v>1932</v>
       </c>
       <c r="D1129" s="9"/>
       <c r="E1129" s="5"/>
@@ -39711,15 +40157,15 @@
       <c r="M1129" s="5"/>
       <c r="N1129" s="10"/>
     </row>
-    <row r="1130" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1130" s="4" t="s">
-        <v>1956</v>
+        <v>1933</v>
       </c>
       <c r="B1130" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1130" s="5" t="s">
-        <v>1947</v>
+        <v>1934</v>
       </c>
       <c r="D1130" s="9"/>
       <c r="E1130" s="5"/>
@@ -39733,15 +40179,15 @@
       <c r="M1130" s="5"/>
       <c r="N1130" s="10"/>
     </row>
-    <row r="1131" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1131" s="4" t="s">
-        <v>1957</v>
+        <v>1935</v>
       </c>
       <c r="B1131" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1131" s="5" t="s">
-        <v>1949</v>
+        <v>1936</v>
       </c>
       <c r="D1131" s="9"/>
       <c r="E1131" s="5"/>
@@ -39755,15 +40201,15 @@
       <c r="M1131" s="5"/>
       <c r="N1131" s="10"/>
     </row>
-    <row r="1132" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1132" s="4" t="s">
-        <v>1958</v>
+        <v>1937</v>
       </c>
       <c r="B1132" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1132" s="5" t="s">
-        <v>1959</v>
+        <v>1938</v>
       </c>
       <c r="D1132" s="9"/>
       <c r="E1132" s="5"/>
@@ -39777,15 +40223,15 @@
       <c r="M1132" s="5"/>
       <c r="N1132" s="10"/>
     </row>
-    <row r="1133" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1133" s="4" t="s">
-        <v>1960</v>
+        <v>1939</v>
       </c>
       <c r="B1133" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1133" s="5" t="s">
-        <v>1961</v>
+        <v>1940</v>
       </c>
       <c r="D1133" s="9"/>
       <c r="E1133" s="5"/>
@@ -39799,15 +40245,15 @@
       <c r="M1133" s="5"/>
       <c r="N1133" s="10"/>
     </row>
-    <row r="1134" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1134" s="4" t="s">
-        <v>1962</v>
+        <v>1941</v>
       </c>
       <c r="B1134" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1134" s="5" t="s">
-        <v>1963</v>
+        <v>1942</v>
       </c>
       <c r="D1134" s="9"/>
       <c r="E1134" s="5"/>
@@ -39823,13 +40269,13 @@
     </row>
     <row r="1135" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1135" s="4" t="s">
-        <v>1964</v>
+        <v>1943</v>
       </c>
       <c r="B1135" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1135" s="5" t="s">
-        <v>1965</v>
+        <v>1945</v>
       </c>
       <c r="D1135" s="9"/>
       <c r="E1135" s="5"/>
@@ -39845,7 +40291,7 @@
     </row>
     <row r="1136" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1136" s="4" t="s">
-        <v>1966</v>
+        <v>1946</v>
       </c>
       <c r="B1136" s="5" t="s">
         <v>1944</v>
@@ -39867,7 +40313,7 @@
     </row>
     <row r="1137" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1137" s="4" t="s">
-        <v>1967</v>
+        <v>1948</v>
       </c>
       <c r="B1137" s="5" t="s">
         <v>1944</v>
@@ -39889,13 +40335,13 @@
     </row>
     <row r="1138" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1138" s="4" t="s">
-        <v>1968</v>
+        <v>1950</v>
       </c>
       <c r="B1138" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1138" s="5" t="s">
-        <v>1969</v>
+        <v>1951</v>
       </c>
       <c r="D1138" s="9"/>
       <c r="E1138" s="5"/>
@@ -39911,13 +40357,13 @@
     </row>
     <row r="1139" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1139" s="4" t="s">
-        <v>1970</v>
+        <v>1952</v>
       </c>
       <c r="B1139" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1139" s="5" t="s">
-        <v>1971</v>
+        <v>1945</v>
       </c>
       <c r="D1139" s="9"/>
       <c r="E1139" s="5"/>
@@ -39933,13 +40379,13 @@
     </row>
     <row r="1140" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1140" s="4" t="s">
-        <v>1972</v>
+        <v>1953</v>
       </c>
       <c r="B1140" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1140" s="5" t="s">
-        <v>1945</v>
+        <v>1954</v>
       </c>
       <c r="D1140" s="9"/>
       <c r="E1140" s="5"/>
@@ -39955,13 +40401,13 @@
     </row>
     <row r="1141" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1141" s="4" t="s">
-        <v>1973</v>
+        <v>1955</v>
       </c>
       <c r="B1141" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1141" s="5" t="s">
-        <v>1974</v>
+        <v>1949</v>
       </c>
       <c r="D1141" s="9"/>
       <c r="E1141" s="5"/>
@@ -39977,7 +40423,7 @@
     </row>
     <row r="1142" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1142" s="4" t="s">
-        <v>1975</v>
+        <v>1956</v>
       </c>
       <c r="B1142" s="5" t="s">
         <v>1944</v>
@@ -39999,13 +40445,13 @@
     </row>
     <row r="1143" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1143" s="4" t="s">
-        <v>1976</v>
+        <v>1957</v>
       </c>
       <c r="B1143" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>1978</v>
+        <v>1949</v>
       </c>
       <c r="D1143" s="9"/>
       <c r="E1143" s="5"/>
@@ -40021,13 +40467,13 @@
     </row>
     <row r="1144" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1144" s="4" t="s">
-        <v>1979</v>
+        <v>1958</v>
       </c>
       <c r="B1144" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>1980</v>
+        <v>1959</v>
       </c>
       <c r="D1144" s="9"/>
       <c r="E1144" s="5"/>
@@ -40043,13 +40489,13 @@
     </row>
     <row r="1145" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1145" s="4" t="s">
-        <v>1981</v>
+        <v>1960</v>
       </c>
       <c r="B1145" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>1982</v>
+        <v>1961</v>
       </c>
       <c r="D1145" s="9"/>
       <c r="E1145" s="5"/>
@@ -40065,13 +40511,13 @@
     </row>
     <row r="1146" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1146" s="4" t="s">
-        <v>1983</v>
+        <v>1962</v>
       </c>
       <c r="B1146" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>1984</v>
+        <v>1963</v>
       </c>
       <c r="D1146" s="9"/>
       <c r="E1146" s="5"/>
@@ -40087,13 +40533,13 @@
     </row>
     <row r="1147" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1147" s="4" t="s">
-        <v>1985</v>
+        <v>1964</v>
       </c>
       <c r="B1147" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>1986</v>
+        <v>1965</v>
       </c>
       <c r="D1147" s="9"/>
       <c r="E1147" s="5"/>
@@ -40107,15 +40553,15 @@
       <c r="M1147" s="5"/>
       <c r="N1147" s="10"/>
     </row>
-    <row r="1148" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1148" s="4" t="s">
-        <v>1987</v>
+        <v>1966</v>
       </c>
       <c r="B1148" s="5" t="s">
-        <v>1988</v>
+        <v>1944</v>
       </c>
       <c r="C1148" s="5" t="s">
-        <v>1989</v>
+        <v>1947</v>
       </c>
       <c r="D1148" s="9"/>
       <c r="E1148" s="5"/>
@@ -40129,15 +40575,15 @@
       <c r="M1148" s="5"/>
       <c r="N1148" s="10"/>
     </row>
-    <row r="1149" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1149" s="4" t="s">
-        <v>1990</v>
+        <v>1967</v>
       </c>
       <c r="B1149" s="5" t="s">
-        <v>1988</v>
+        <v>1944</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>1991</v>
+        <v>1949</v>
       </c>
       <c r="D1149" s="9"/>
       <c r="E1149" s="5"/>
@@ -40151,15 +40597,15 @@
       <c r="M1149" s="5"/>
       <c r="N1149" s="10"/>
     </row>
-    <row r="1150" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1150" s="4" t="s">
-        <v>1992</v>
+        <v>1968</v>
       </c>
       <c r="B1150" s="5" t="s">
-        <v>1988</v>
+        <v>1944</v>
       </c>
       <c r="C1150" s="5" t="s">
-        <v>1993</v>
+        <v>1969</v>
       </c>
       <c r="D1150" s="9"/>
       <c r="E1150" s="5"/>
@@ -40173,15 +40619,15 @@
       <c r="M1150" s="5"/>
       <c r="N1150" s="10"/>
     </row>
-    <row r="1151" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1151" s="4" t="s">
-        <v>1994</v>
+        <v>1970</v>
       </c>
       <c r="B1151" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1151" s="5" t="s">
-        <v>1996</v>
+        <v>1971</v>
       </c>
       <c r="D1151" s="9"/>
       <c r="E1151" s="5"/>
@@ -40195,15 +40641,15 @@
       <c r="M1151" s="5"/>
       <c r="N1151" s="10"/>
     </row>
-    <row r="1152" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1152" s="4" t="s">
-        <v>1997</v>
+        <v>1972</v>
       </c>
       <c r="B1152" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1152" s="5" t="s">
-        <v>1998</v>
+        <v>1945</v>
       </c>
       <c r="D1152" s="9"/>
       <c r="E1152" s="5"/>
@@ -40217,15 +40663,15 @@
       <c r="M1152" s="5"/>
       <c r="N1152" s="10"/>
     </row>
-    <row r="1153" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1153" s="4" t="s">
-        <v>1999</v>
+        <v>1973</v>
       </c>
       <c r="B1153" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1153" s="5" t="s">
-        <v>2000</v>
+        <v>1974</v>
       </c>
       <c r="D1153" s="9"/>
       <c r="E1153" s="5"/>
@@ -40239,15 +40685,15 @@
       <c r="M1153" s="5"/>
       <c r="N1153" s="10"/>
     </row>
-    <row r="1154" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1154" s="4" t="s">
-        <v>2001</v>
+        <v>1975</v>
       </c>
       <c r="B1154" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1154" s="5" t="s">
-        <v>2002</v>
+        <v>1947</v>
       </c>
       <c r="D1154" s="9"/>
       <c r="E1154" s="5"/>
@@ -40261,15 +40707,15 @@
       <c r="M1154" s="5"/>
       <c r="N1154" s="10"/>
     </row>
-    <row r="1155" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1155" s="4" t="s">
-        <v>2003</v>
+        <v>1976</v>
       </c>
       <c r="B1155" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1155" s="5" t="s">
-        <v>2004</v>
+        <v>1978</v>
       </c>
       <c r="D1155" s="9"/>
       <c r="E1155" s="5"/>
@@ -40283,15 +40729,15 @@
       <c r="M1155" s="5"/>
       <c r="N1155" s="10"/>
     </row>
-    <row r="1156" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1156" s="4" t="s">
-        <v>2005</v>
+        <v>1979</v>
       </c>
       <c r="B1156" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1156" s="5" t="s">
-        <v>2006</v>
+        <v>1980</v>
       </c>
       <c r="D1156" s="9"/>
       <c r="E1156" s="5"/>
@@ -40305,15 +40751,15 @@
       <c r="M1156" s="5"/>
       <c r="N1156" s="10"/>
     </row>
-    <row r="1157" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1157" s="4" t="s">
-        <v>2007</v>
+        <v>1981</v>
       </c>
       <c r="B1157" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1157" s="5" t="s">
-        <v>2008</v>
+        <v>1982</v>
       </c>
       <c r="D1157" s="9"/>
       <c r="E1157" s="5"/>
@@ -40327,15 +40773,15 @@
       <c r="M1157" s="5"/>
       <c r="N1157" s="10"/>
     </row>
-    <row r="1158" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1158" s="4" t="s">
-        <v>2009</v>
+        <v>1983</v>
       </c>
       <c r="B1158" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1158" s="5" t="s">
-        <v>2010</v>
+        <v>1984</v>
       </c>
       <c r="D1158" s="9"/>
       <c r="E1158" s="5"/>
@@ -40349,15 +40795,15 @@
       <c r="M1158" s="5"/>
       <c r="N1158" s="10"/>
     </row>
-    <row r="1159" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1159" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1159" s="4" t="s">
-        <v>2011</v>
+        <v>1985</v>
       </c>
       <c r="B1159" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1159" s="5" t="s">
-        <v>2012</v>
+        <v>1986</v>
       </c>
       <c r="D1159" s="9"/>
       <c r="E1159" s="5"/>
@@ -40371,15 +40817,15 @@
       <c r="M1159" s="5"/>
       <c r="N1159" s="10"/>
     </row>
-    <row r="1160" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1160" s="4" t="s">
-        <v>2013</v>
+        <v>1987</v>
       </c>
       <c r="B1160" s="5" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C1160" s="5" t="s">
-        <v>2014</v>
+        <v>1989</v>
       </c>
       <c r="D1160" s="9"/>
       <c r="E1160" s="5"/>
@@ -40393,15 +40839,15 @@
       <c r="M1160" s="5"/>
       <c r="N1160" s="10"/>
     </row>
-    <row r="1161" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1161" s="4" t="s">
-        <v>2015</v>
+        <v>1990</v>
       </c>
       <c r="B1161" s="5" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C1161" s="5" t="s">
-        <v>2016</v>
+        <v>1991</v>
       </c>
       <c r="D1161" s="9"/>
       <c r="E1161" s="5"/>
@@ -40415,15 +40861,15 @@
       <c r="M1161" s="5"/>
       <c r="N1161" s="10"/>
     </row>
-    <row r="1162" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1162" s="4" t="s">
-        <v>2017</v>
+        <v>1992</v>
       </c>
       <c r="B1162" s="5" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C1162" s="5" t="s">
-        <v>2018</v>
+        <v>1993</v>
       </c>
       <c r="D1162" s="9"/>
       <c r="E1162" s="5"/>
@@ -40439,13 +40885,13 @@
     </row>
     <row r="1163" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1163" s="4" t="s">
-        <v>2019</v>
+        <v>1994</v>
       </c>
       <c r="B1163" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1163" s="5" t="s">
-        <v>2020</v>
+        <v>1996</v>
       </c>
       <c r="D1163" s="9"/>
       <c r="E1163" s="5"/>
@@ -40461,13 +40907,13 @@
     </row>
     <row r="1164" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1164" s="4" t="s">
-        <v>2021</v>
+        <v>1997</v>
       </c>
       <c r="B1164" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1164" s="5" t="s">
-        <v>2022</v>
+        <v>1998</v>
       </c>
       <c r="D1164" s="9"/>
       <c r="E1164" s="5"/>
@@ -40483,13 +40929,13 @@
     </row>
     <row r="1165" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1165" s="4" t="s">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="B1165" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1165" s="5" t="s">
-        <v>2024</v>
+        <v>2000</v>
       </c>
       <c r="D1165" s="9"/>
       <c r="E1165" s="5"/>
@@ -40505,13 +40951,13 @@
     </row>
     <row r="1166" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1166" s="4" t="s">
-        <v>2025</v>
+        <v>2001</v>
       </c>
       <c r="B1166" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1166" s="5" t="s">
-        <v>2026</v>
+        <v>2002</v>
       </c>
       <c r="D1166" s="9"/>
       <c r="E1166" s="5"/>
@@ -40527,13 +40973,13 @@
     </row>
     <row r="1167" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1167" s="4" t="s">
-        <v>2027</v>
+        <v>2003</v>
       </c>
       <c r="B1167" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1167" s="5" t="s">
-        <v>2028</v>
+        <v>2004</v>
       </c>
       <c r="D1167" s="9"/>
       <c r="E1167" s="5"/>
@@ -40549,13 +40995,13 @@
     </row>
     <row r="1168" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1168" s="4" t="s">
-        <v>2029</v>
+        <v>2005</v>
       </c>
       <c r="B1168" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1168" s="5" t="s">
-        <v>2030</v>
+        <v>2006</v>
       </c>
       <c r="D1168" s="9"/>
       <c r="E1168" s="5"/>
@@ -40571,13 +41017,13 @@
     </row>
     <row r="1169" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1169" s="4" t="s">
-        <v>2031</v>
+        <v>2007</v>
       </c>
       <c r="B1169" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1169" s="5" t="s">
-        <v>2032</v>
+        <v>2008</v>
       </c>
       <c r="D1169" s="9"/>
       <c r="E1169" s="5"/>
@@ -40593,13 +41039,13 @@
     </row>
     <row r="1170" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1170" s="4" t="s">
-        <v>2033</v>
+        <v>2009</v>
       </c>
       <c r="B1170" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1170" s="5" t="s">
-        <v>2034</v>
+        <v>2010</v>
       </c>
       <c r="D1170" s="9"/>
       <c r="E1170" s="5"/>
@@ -40613,15 +41059,15 @@
       <c r="M1170" s="5"/>
       <c r="N1170" s="10"/>
     </row>
-    <row r="1171" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1171" s="4" t="s">
-        <v>2035</v>
+        <v>2011</v>
       </c>
       <c r="B1171" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1171" s="5" t="s">
-        <v>2037</v>
+        <v>2012</v>
       </c>
       <c r="D1171" s="9"/>
       <c r="E1171" s="5"/>
@@ -40635,15 +41081,15 @@
       <c r="M1171" s="5"/>
       <c r="N1171" s="10"/>
     </row>
-    <row r="1172" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1172" s="4" t="s">
-        <v>2038</v>
+        <v>2013</v>
       </c>
       <c r="B1172" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1172" s="5" t="s">
-        <v>2039</v>
+        <v>2014</v>
       </c>
       <c r="D1172" s="9"/>
       <c r="E1172" s="5"/>
@@ -40657,15 +41103,15 @@
       <c r="M1172" s="5"/>
       <c r="N1172" s="10"/>
     </row>
-    <row r="1173" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1173" s="4" t="s">
-        <v>2040</v>
+        <v>2015</v>
       </c>
       <c r="B1173" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1173" s="5" t="s">
-        <v>2041</v>
+        <v>2016</v>
       </c>
       <c r="D1173" s="9"/>
       <c r="E1173" s="5"/>
@@ -40679,15 +41125,15 @@
       <c r="M1173" s="5"/>
       <c r="N1173" s="10"/>
     </row>
-    <row r="1174" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1174" s="4" t="s">
-        <v>2042</v>
+        <v>2017</v>
       </c>
       <c r="B1174" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1174" s="5" t="s">
-        <v>2043</v>
+        <v>2018</v>
       </c>
       <c r="D1174" s="9"/>
       <c r="E1174" s="5"/>
@@ -40703,13 +41149,13 @@
     </row>
     <row r="1175" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1175" s="4" t="s">
-        <v>2044</v>
+        <v>2019</v>
       </c>
       <c r="B1175" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1175" s="5" t="s">
-        <v>1141</v>
+        <v>2020</v>
       </c>
       <c r="D1175" s="9"/>
       <c r="E1175" s="5"/>
@@ -40723,15 +41169,15 @@
       <c r="M1175" s="5"/>
       <c r="N1175" s="10"/>
     </row>
-    <row r="1176" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1176" s="4" t="s">
-        <v>2045</v>
+        <v>2021</v>
       </c>
       <c r="B1176" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1176" s="5" t="s">
-        <v>2046</v>
+        <v>2022</v>
       </c>
       <c r="D1176" s="9"/>
       <c r="E1176" s="5"/>
@@ -40745,15 +41191,15 @@
       <c r="M1176" s="5"/>
       <c r="N1176" s="10"/>
     </row>
-    <row r="1177" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1177" s="4" t="s">
-        <v>2047</v>
+        <v>2023</v>
       </c>
       <c r="B1177" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1177" s="5" t="s">
-        <v>2048</v>
+        <v>2024</v>
       </c>
       <c r="D1177" s="9"/>
       <c r="E1177" s="5"/>
@@ -40767,15 +41213,15 @@
       <c r="M1177" s="5"/>
       <c r="N1177" s="10"/>
     </row>
-    <row r="1178" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1178" s="4" t="s">
-        <v>2049</v>
+        <v>2025</v>
       </c>
       <c r="B1178" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1178" s="5" t="s">
-        <v>2050</v>
+        <v>2026</v>
       </c>
       <c r="D1178" s="9"/>
       <c r="E1178" s="5"/>
@@ -40789,15 +41235,15 @@
       <c r="M1178" s="5"/>
       <c r="N1178" s="10"/>
     </row>
-    <row r="1179" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1179" s="4" t="s">
-        <v>2051</v>
+        <v>2027</v>
       </c>
       <c r="B1179" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1179" s="5" t="s">
-        <v>1139</v>
+        <v>2028</v>
       </c>
       <c r="D1179" s="9"/>
       <c r="E1179" s="5"/>
@@ -40811,15 +41257,15 @@
       <c r="M1179" s="5"/>
       <c r="N1179" s="10"/>
     </row>
-    <row r="1180" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1180" s="4" t="s">
-        <v>2052</v>
+        <v>2029</v>
       </c>
       <c r="B1180" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1180" s="5" t="s">
-        <v>2053</v>
+        <v>2030</v>
       </c>
       <c r="D1180" s="9"/>
       <c r="E1180" s="5"/>
@@ -40833,15 +41279,15 @@
       <c r="M1180" s="5"/>
       <c r="N1180" s="10"/>
     </row>
-    <row r="1181" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1181" s="4" t="s">
-        <v>2054</v>
+        <v>2031</v>
       </c>
       <c r="B1181" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1181" s="5" t="s">
-        <v>2055</v>
+        <v>2032</v>
       </c>
       <c r="D1181" s="9"/>
       <c r="E1181" s="5"/>
@@ -40855,15 +41301,15 @@
       <c r="M1181" s="5"/>
       <c r="N1181" s="10"/>
     </row>
-    <row r="1182" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1182" s="4" t="s">
-        <v>2056</v>
+        <v>2033</v>
       </c>
       <c r="B1182" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1182" s="5" t="s">
-        <v>2046</v>
+        <v>2034</v>
       </c>
       <c r="D1182" s="9"/>
       <c r="E1182" s="5"/>
@@ -40879,13 +41325,13 @@
     </row>
     <row r="1183" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1183" s="4" t="s">
-        <v>2057</v>
+        <v>2035</v>
       </c>
       <c r="B1183" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1183" s="5" t="s">
-        <v>2058</v>
+        <v>2037</v>
       </c>
       <c r="D1183" s="9"/>
       <c r="E1183" s="5"/>
@@ -40901,13 +41347,13 @@
     </row>
     <row r="1184" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1184" s="4" t="s">
-        <v>2059</v>
+        <v>2038</v>
       </c>
       <c r="B1184" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1184" s="5" t="s">
-        <v>2060</v>
+        <v>2039</v>
       </c>
       <c r="D1184" s="9"/>
       <c r="E1184" s="5"/>
@@ -40923,13 +41369,13 @@
     </row>
     <row r="1185" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1185" s="4" t="s">
-        <v>2061</v>
+        <v>2040</v>
       </c>
       <c r="B1185" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1185" s="5" t="s">
-        <v>2062</v>
+        <v>2041</v>
       </c>
       <c r="D1185" s="9"/>
       <c r="E1185" s="5"/>
@@ -40945,13 +41391,13 @@
     </row>
     <row r="1186" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1186" s="4" t="s">
-        <v>2063</v>
+        <v>2042</v>
       </c>
       <c r="B1186" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1186" s="5" t="s">
-        <v>2064</v>
+        <v>2043</v>
       </c>
       <c r="D1186" s="9"/>
       <c r="E1186" s="5"/>
@@ -40965,15 +41411,15 @@
       <c r="M1186" s="5"/>
       <c r="N1186" s="10"/>
     </row>
-    <row r="1187" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1187" s="4" t="s">
-        <v>2065</v>
+        <v>2044</v>
       </c>
       <c r="B1187" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1187" s="5" t="s">
-        <v>1127</v>
+        <v>1141</v>
       </c>
       <c r="D1187" s="9"/>
       <c r="E1187" s="5"/>
@@ -40989,13 +41435,13 @@
     </row>
     <row r="1188" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1188" s="4" t="s">
-        <v>2066</v>
+        <v>2045</v>
       </c>
       <c r="B1188" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1188" s="5" t="s">
-        <v>1131</v>
+        <v>2046</v>
       </c>
       <c r="D1188" s="9"/>
       <c r="E1188" s="5"/>
@@ -41011,13 +41457,13 @@
     </row>
     <row r="1189" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1189" s="4" t="s">
-        <v>2067</v>
+        <v>2047</v>
       </c>
       <c r="B1189" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1189" s="5" t="s">
-        <v>2068</v>
+        <v>2048</v>
       </c>
       <c r="D1189" s="9"/>
       <c r="E1189" s="5"/>
@@ -41031,15 +41477,15 @@
       <c r="M1189" s="5"/>
       <c r="N1189" s="10"/>
     </row>
-    <row r="1190" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1190" s="4" t="s">
-        <v>2069</v>
+        <v>2049</v>
       </c>
       <c r="B1190" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1190" s="5" t="s">
-        <v>2070</v>
+        <v>2050</v>
       </c>
       <c r="D1190" s="9"/>
       <c r="E1190" s="5"/>
@@ -41053,15 +41499,15 @@
       <c r="M1190" s="5"/>
       <c r="N1190" s="10"/>
     </row>
-    <row r="1191" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1191" s="4" t="s">
-        <v>2071</v>
+        <v>2051</v>
       </c>
       <c r="B1191" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1191" s="5" t="s">
-        <v>2073</v>
+        <v>1139</v>
       </c>
       <c r="D1191" s="9"/>
       <c r="E1191" s="5"/>
@@ -41075,15 +41521,15 @@
       <c r="M1191" s="5"/>
       <c r="N1191" s="10"/>
     </row>
-    <row r="1192" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1192" s="4" t="s">
-        <v>2074</v>
+        <v>2052</v>
       </c>
       <c r="B1192" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1192" s="5" t="s">
-        <v>2075</v>
+        <v>2053</v>
       </c>
       <c r="D1192" s="9"/>
       <c r="E1192" s="5"/>
@@ -41097,15 +41543,15 @@
       <c r="M1192" s="5"/>
       <c r="N1192" s="10"/>
     </row>
-    <row r="1193" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1193" s="4" t="s">
-        <v>2076</v>
+        <v>2054</v>
       </c>
       <c r="B1193" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1193" s="5" t="s">
-        <v>2077</v>
+        <v>2055</v>
       </c>
       <c r="D1193" s="9"/>
       <c r="E1193" s="5"/>
@@ -41119,15 +41565,15 @@
       <c r="M1193" s="5"/>
       <c r="N1193" s="10"/>
     </row>
-    <row r="1194" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1194" s="4" t="s">
-        <v>2078</v>
+        <v>2056</v>
       </c>
       <c r="B1194" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1194" s="5" t="s">
-        <v>2079</v>
+        <v>2046</v>
       </c>
       <c r="D1194" s="9"/>
       <c r="E1194" s="5"/>
@@ -41141,15 +41587,15 @@
       <c r="M1194" s="5"/>
       <c r="N1194" s="10"/>
     </row>
-    <row r="1195" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1195" s="4" t="s">
-        <v>2080</v>
+        <v>2057</v>
       </c>
       <c r="B1195" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1195" s="5" t="s">
-        <v>2081</v>
+        <v>2058</v>
       </c>
       <c r="D1195" s="9"/>
       <c r="E1195" s="5"/>
@@ -41163,15 +41609,15 @@
       <c r="M1195" s="5"/>
       <c r="N1195" s="10"/>
     </row>
-    <row r="1196" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1196" s="4" t="s">
-        <v>2082</v>
+        <v>2059</v>
       </c>
       <c r="B1196" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1196" s="5" t="s">
-        <v>2083</v>
+        <v>2060</v>
       </c>
       <c r="D1196" s="9"/>
       <c r="E1196" s="5"/>
@@ -41185,15 +41631,15 @@
       <c r="M1196" s="5"/>
       <c r="N1196" s="10"/>
     </row>
-    <row r="1197" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1197" s="4" t="s">
-        <v>2084</v>
+        <v>2061</v>
       </c>
       <c r="B1197" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1197" s="5" t="s">
-        <v>2085</v>
+        <v>2062</v>
       </c>
       <c r="D1197" s="9"/>
       <c r="E1197" s="5"/>
@@ -41207,15 +41653,15 @@
       <c r="M1197" s="5"/>
       <c r="N1197" s="10"/>
     </row>
-    <row r="1198" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1198" s="4" t="s">
-        <v>2086</v>
+        <v>2063</v>
       </c>
       <c r="B1198" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1198" s="5" t="s">
-        <v>2087</v>
+        <v>2064</v>
       </c>
       <c r="D1198" s="9"/>
       <c r="E1198" s="5"/>
@@ -41229,15 +41675,15 @@
       <c r="M1198" s="5"/>
       <c r="N1198" s="10"/>
     </row>
-    <row r="1199" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1199" s="4" t="s">
-        <v>2088</v>
+        <v>2065</v>
       </c>
       <c r="B1199" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1199" s="5" t="s">
-        <v>2089</v>
+        <v>1127</v>
       </c>
       <c r="D1199" s="9"/>
       <c r="E1199" s="5"/>
@@ -41251,15 +41697,15 @@
       <c r="M1199" s="5"/>
       <c r="N1199" s="10"/>
     </row>
-    <row r="1200" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1200" s="4" t="s">
-        <v>2090</v>
+        <v>2066</v>
       </c>
       <c r="B1200" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1200" s="5" t="s">
-        <v>2091</v>
+        <v>1131</v>
       </c>
       <c r="D1200" s="9"/>
       <c r="E1200" s="5"/>
@@ -41273,15 +41719,15 @@
       <c r="M1200" s="5"/>
       <c r="N1200" s="10"/>
     </row>
-    <row r="1201" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1201" s="4" t="s">
-        <v>2092</v>
+        <v>2067</v>
       </c>
       <c r="B1201" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1201" s="5" t="s">
-        <v>2093</v>
+        <v>2068</v>
       </c>
       <c r="D1201" s="9"/>
       <c r="E1201" s="5"/>
@@ -41295,15 +41741,15 @@
       <c r="M1201" s="5"/>
       <c r="N1201" s="10"/>
     </row>
-    <row r="1202" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1202" s="4" t="s">
-        <v>2094</v>
+        <v>2069</v>
       </c>
       <c r="B1202" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1202" s="5" t="s">
-        <v>2095</v>
+        <v>2070</v>
       </c>
       <c r="D1202" s="9"/>
       <c r="E1202" s="5"/>
@@ -41317,15 +41763,15 @@
       <c r="M1202" s="5"/>
       <c r="N1202" s="10"/>
     </row>
-    <row r="1203" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1203" s="4" t="s">
-        <v>2096</v>
+        <v>2071</v>
       </c>
       <c r="B1203" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1203" s="5" t="s">
-        <v>2097</v>
+        <v>2073</v>
       </c>
       <c r="D1203" s="9"/>
       <c r="E1203" s="5"/>
@@ -41341,13 +41787,13 @@
     </row>
     <row r="1204" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1204" s="4" t="s">
-        <v>2098</v>
+        <v>2074</v>
       </c>
       <c r="B1204" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1204" s="5" t="s">
-        <v>2099</v>
+        <v>2075</v>
       </c>
       <c r="D1204" s="9"/>
       <c r="E1204" s="5"/>
@@ -41363,13 +41809,13 @@
     </row>
     <row r="1205" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1205" s="4" t="s">
-        <v>2100</v>
+        <v>2076</v>
       </c>
       <c r="B1205" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1205" s="5" t="s">
-        <v>2101</v>
+        <v>2077</v>
       </c>
       <c r="D1205" s="9"/>
       <c r="E1205" s="5"/>
@@ -41383,15 +41829,15 @@
       <c r="M1205" s="5"/>
       <c r="N1205" s="10"/>
     </row>
-    <row r="1206" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1206" s="4" t="s">
-        <v>2102</v>
+        <v>2078</v>
       </c>
       <c r="B1206" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1206" s="5" t="s">
-        <v>2103</v>
+        <v>2079</v>
       </c>
       <c r="D1206" s="9"/>
       <c r="E1206" s="5"/>
@@ -41407,13 +41853,13 @@
     </row>
     <row r="1207" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1207" s="4" t="s">
-        <v>2104</v>
+        <v>2080</v>
       </c>
       <c r="B1207" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1207" s="5" t="s">
-        <v>2105</v>
+        <v>2081</v>
       </c>
       <c r="D1207" s="9"/>
       <c r="E1207" s="5"/>
@@ -41429,13 +41875,13 @@
     </row>
     <row r="1208" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1208" s="4" t="s">
-        <v>2106</v>
+        <v>2082</v>
       </c>
       <c r="B1208" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1208" s="5" t="s">
-        <v>2107</v>
+        <v>2083</v>
       </c>
       <c r="D1208" s="9"/>
       <c r="E1208" s="5"/>
@@ -41451,13 +41897,13 @@
     </row>
     <row r="1209" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1209" s="4" t="s">
-        <v>2108</v>
+        <v>2084</v>
       </c>
       <c r="B1209" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1209" s="5" t="s">
-        <v>2109</v>
+        <v>2085</v>
       </c>
       <c r="D1209" s="9"/>
       <c r="E1209" s="5"/>
@@ -41473,13 +41919,13 @@
     </row>
     <row r="1210" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1210" s="4" t="s">
-        <v>2110</v>
+        <v>2086</v>
       </c>
       <c r="B1210" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1210" s="5" t="s">
-        <v>2111</v>
+        <v>2087</v>
       </c>
       <c r="D1210" s="9"/>
       <c r="E1210" s="5"/>
@@ -41493,15 +41939,15 @@
       <c r="M1210" s="5"/>
       <c r="N1210" s="10"/>
     </row>
-    <row r="1211" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1211" s="4" t="s">
-        <v>2112</v>
+        <v>2088</v>
       </c>
       <c r="B1211" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1211" s="5" t="s">
-        <v>2114</v>
+        <v>2089</v>
       </c>
       <c r="D1211" s="9"/>
       <c r="E1211" s="5"/>
@@ -41515,15 +41961,15 @@
       <c r="M1211" s="5"/>
       <c r="N1211" s="10"/>
     </row>
-    <row r="1212" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1212" s="4" t="s">
-        <v>2115</v>
+        <v>2090</v>
       </c>
       <c r="B1212" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1212" s="5" t="s">
-        <v>2116</v>
+        <v>2091</v>
       </c>
       <c r="D1212" s="9"/>
       <c r="E1212" s="5"/>
@@ -41537,15 +41983,15 @@
       <c r="M1212" s="5"/>
       <c r="N1212" s="10"/>
     </row>
-    <row r="1213" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1213" s="4" t="s">
-        <v>2117</v>
+        <v>2092</v>
       </c>
       <c r="B1213" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1213" s="5" t="s">
-        <v>2118</v>
+        <v>2093</v>
       </c>
       <c r="D1213" s="9"/>
       <c r="E1213" s="5"/>
@@ -41559,15 +42005,15 @@
       <c r="M1213" s="5"/>
       <c r="N1213" s="10"/>
     </row>
-    <row r="1214" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1214" s="4" t="s">
-        <v>2119</v>
+        <v>2094</v>
       </c>
       <c r="B1214" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1214" s="5" t="s">
-        <v>2120</v>
+        <v>2095</v>
       </c>
       <c r="D1214" s="9"/>
       <c r="E1214" s="5"/>
@@ -41581,15 +42027,15 @@
       <c r="M1214" s="5"/>
       <c r="N1214" s="10"/>
     </row>
-    <row r="1215" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1215" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1215" s="4" t="s">
-        <v>2121</v>
+        <v>2096</v>
       </c>
       <c r="B1215" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1215" s="5" t="s">
-        <v>2122</v>
+        <v>2097</v>
       </c>
       <c r="D1215" s="9"/>
       <c r="E1215" s="5"/>
@@ -41603,15 +42049,15 @@
       <c r="M1215" s="5"/>
       <c r="N1215" s="10"/>
     </row>
-    <row r="1216" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1216" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1216" s="4" t="s">
-        <v>2123</v>
+        <v>2098</v>
       </c>
       <c r="B1216" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1216" s="5" t="s">
-        <v>2124</v>
+        <v>2099</v>
       </c>
       <c r="D1216" s="9"/>
       <c r="E1216" s="5"/>
@@ -41625,15 +42071,15 @@
       <c r="M1216" s="5"/>
       <c r="N1216" s="10"/>
     </row>
-    <row r="1217" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1217" s="4" t="s">
-        <v>2125</v>
+        <v>2100</v>
       </c>
       <c r="B1217" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1217" s="5" t="s">
-        <v>2122</v>
+        <v>2101</v>
       </c>
       <c r="D1217" s="9"/>
       <c r="E1217" s="5"/>
@@ -41647,15 +42093,15 @@
       <c r="M1217" s="5"/>
       <c r="N1217" s="10"/>
     </row>
-    <row r="1218" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1218" s="4" t="s">
-        <v>2126</v>
+        <v>2102</v>
       </c>
       <c r="B1218" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1218" s="5" t="s">
-        <v>2127</v>
+        <v>2103</v>
       </c>
       <c r="D1218" s="9"/>
       <c r="E1218" s="5"/>
@@ -41669,15 +42115,15 @@
       <c r="M1218" s="5"/>
       <c r="N1218" s="10"/>
     </row>
-    <row r="1219" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1219" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1219" s="4" t="s">
-        <v>2128</v>
+        <v>2104</v>
       </c>
       <c r="B1219" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1219" s="5" t="s">
-        <v>2129</v>
+        <v>2105</v>
       </c>
       <c r="D1219" s="9"/>
       <c r="E1219" s="5"/>
@@ -41691,15 +42137,15 @@
       <c r="M1219" s="5"/>
       <c r="N1219" s="10"/>
     </row>
-    <row r="1220" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1220" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1220" s="4" t="s">
-        <v>2130</v>
+        <v>2106</v>
       </c>
       <c r="B1220" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1220" s="5" t="s">
-        <v>2131</v>
+        <v>2107</v>
       </c>
       <c r="D1220" s="9"/>
       <c r="E1220" s="5"/>
@@ -41713,15 +42159,15 @@
       <c r="M1220" s="5"/>
       <c r="N1220" s="10"/>
     </row>
-    <row r="1221" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1221" s="4" t="s">
-        <v>2132</v>
+        <v>2108</v>
       </c>
       <c r="B1221" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1221" s="5" t="s">
-        <v>2133</v>
+        <v>2109</v>
       </c>
       <c r="D1221" s="9"/>
       <c r="E1221" s="5"/>
@@ -41735,15 +42181,15 @@
       <c r="M1221" s="5"/>
       <c r="N1221" s="10"/>
     </row>
-    <row r="1222" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1222" s="4" t="s">
-        <v>2134</v>
+        <v>2110</v>
       </c>
       <c r="B1222" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1222" s="5" t="s">
-        <v>2135</v>
+        <v>2111</v>
       </c>
       <c r="D1222" s="9"/>
       <c r="E1222" s="5"/>
@@ -41759,13 +42205,13 @@
     </row>
     <row r="1223" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1223" s="4" t="s">
-        <v>2136</v>
+        <v>2112</v>
       </c>
       <c r="B1223" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1223" s="5" t="s">
-        <v>2137</v>
+        <v>2114</v>
       </c>
       <c r="D1223" s="9"/>
       <c r="E1223" s="5"/>
@@ -41781,13 +42227,13 @@
     </row>
     <row r="1224" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1224" s="4" t="s">
-        <v>2138</v>
+        <v>2115</v>
       </c>
       <c r="B1224" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1224" s="5" t="s">
-        <v>2139</v>
+        <v>2116</v>
       </c>
       <c r="D1224" s="9"/>
       <c r="E1224" s="5"/>
@@ -41803,13 +42249,13 @@
     </row>
     <row r="1225" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1225" s="4" t="s">
-        <v>2140</v>
+        <v>2117</v>
       </c>
       <c r="B1225" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1225" s="5" t="s">
-        <v>2135</v>
+        <v>2118</v>
       </c>
       <c r="D1225" s="9"/>
       <c r="E1225" s="5"/>
@@ -41825,13 +42271,13 @@
     </row>
     <row r="1226" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1226" s="4" t="s">
-        <v>2141</v>
+        <v>2119</v>
       </c>
       <c r="B1226" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1226" s="5" t="s">
-        <v>2142</v>
+        <v>2120</v>
       </c>
       <c r="D1226" s="9"/>
       <c r="E1226" s="5"/>
@@ -41847,13 +42293,13 @@
     </row>
     <row r="1227" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1227" s="4" t="s">
-        <v>2143</v>
+        <v>2121</v>
       </c>
       <c r="B1227" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1227" s="5" t="s">
-        <v>2144</v>
+        <v>2122</v>
       </c>
       <c r="D1227" s="9"/>
       <c r="E1227" s="5"/>
@@ -41869,13 +42315,13 @@
     </row>
     <row r="1228" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1228" s="4" t="s">
-        <v>2145</v>
+        <v>2123</v>
       </c>
       <c r="B1228" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1228" s="5" t="s">
-        <v>2146</v>
+        <v>2124</v>
       </c>
       <c r="D1228" s="9"/>
       <c r="E1228" s="5"/>
@@ -41891,13 +42337,13 @@
     </row>
     <row r="1229" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1229" s="4" t="s">
-        <v>2147</v>
+        <v>2125</v>
       </c>
       <c r="B1229" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1229" s="5" t="s">
-        <v>2148</v>
+        <v>2122</v>
       </c>
       <c r="D1229" s="9"/>
       <c r="E1229" s="5"/>
@@ -41913,13 +42359,13 @@
     </row>
     <row r="1230" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1230" s="4" t="s">
-        <v>2149</v>
+        <v>2126</v>
       </c>
       <c r="B1230" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1230" s="5" t="s">
-        <v>2137</v>
+        <v>2127</v>
       </c>
       <c r="D1230" s="9"/>
       <c r="E1230" s="5"/>
@@ -41933,15 +42379,15 @@
       <c r="M1230" s="5"/>
       <c r="N1230" s="10"/>
     </row>
-    <row r="1231" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1231" s="4" t="s">
-        <v>2150</v>
+        <v>2128</v>
       </c>
       <c r="B1231" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1231" s="5" t="s">
-        <v>2152</v>
+        <v>2129</v>
       </c>
       <c r="D1231" s="9"/>
       <c r="E1231" s="5"/>
@@ -41955,15 +42401,15 @@
       <c r="M1231" s="5"/>
       <c r="N1231" s="10"/>
     </row>
-    <row r="1232" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1232" s="4" t="s">
-        <v>2153</v>
+        <v>2130</v>
       </c>
       <c r="B1232" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1232" s="5" t="s">
-        <v>2154</v>
+        <v>2131</v>
       </c>
       <c r="D1232" s="9"/>
       <c r="E1232" s="5"/>
@@ -41977,15 +42423,15 @@
       <c r="M1232" s="5"/>
       <c r="N1232" s="10"/>
     </row>
-    <row r="1233" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1233" s="4" t="s">
-        <v>2155</v>
+        <v>2132</v>
       </c>
       <c r="B1233" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1233" s="5" t="s">
-        <v>2156</v>
+        <v>2133</v>
       </c>
       <c r="D1233" s="9"/>
       <c r="E1233" s="5"/>
@@ -41999,15 +42445,15 @@
       <c r="M1233" s="5"/>
       <c r="N1233" s="10"/>
     </row>
-    <row r="1234" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1234" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1234" s="4" t="s">
-        <v>2157</v>
+        <v>2134</v>
       </c>
       <c r="B1234" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1234" s="5" t="s">
-        <v>2158</v>
+        <v>2135</v>
       </c>
       <c r="D1234" s="9"/>
       <c r="E1234" s="5"/>
@@ -42021,15 +42467,15 @@
       <c r="M1234" s="5"/>
       <c r="N1234" s="10"/>
     </row>
-    <row r="1235" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1235" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1235" s="4" t="s">
-        <v>2159</v>
+        <v>2136</v>
       </c>
       <c r="B1235" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1235" s="5" t="s">
-        <v>2160</v>
+        <v>2137</v>
       </c>
       <c r="D1235" s="9"/>
       <c r="E1235" s="5"/>
@@ -42043,15 +42489,15 @@
       <c r="M1235" s="5"/>
       <c r="N1235" s="10"/>
     </row>
-    <row r="1236" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1236" s="4" t="s">
-        <v>2161</v>
+        <v>2138</v>
       </c>
       <c r="B1236" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1236" s="5" t="s">
-        <v>2162</v>
+        <v>2139</v>
       </c>
       <c r="D1236" s="9"/>
       <c r="E1236" s="5"/>
@@ -42065,15 +42511,15 @@
       <c r="M1236" s="5"/>
       <c r="N1236" s="10"/>
     </row>
-    <row r="1237" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1237" s="4" t="s">
-        <v>2163</v>
+        <v>2140</v>
       </c>
       <c r="B1237" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1237" s="5" t="s">
-        <v>2164</v>
+        <v>2135</v>
       </c>
       <c r="D1237" s="9"/>
       <c r="E1237" s="5"/>
@@ -42087,15 +42533,15 @@
       <c r="M1237" s="5"/>
       <c r="N1237" s="10"/>
     </row>
-    <row r="1238" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1238" s="4" t="s">
-        <v>2165</v>
+        <v>2141</v>
       </c>
       <c r="B1238" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1238" s="5" t="s">
-        <v>2166</v>
+        <v>2142</v>
       </c>
       <c r="D1238" s="9"/>
       <c r="E1238" s="5"/>
@@ -42109,15 +42555,15 @@
       <c r="M1238" s="5"/>
       <c r="N1238" s="10"/>
     </row>
-    <row r="1239" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1239" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1239" s="4" t="s">
-        <v>2167</v>
+        <v>2143</v>
       </c>
       <c r="B1239" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1239" s="5" t="s">
-        <v>2168</v>
+        <v>2144</v>
       </c>
       <c r="D1239" s="9"/>
       <c r="E1239" s="5"/>
@@ -42131,15 +42577,15 @@
       <c r="M1239" s="5"/>
       <c r="N1239" s="10"/>
     </row>
-    <row r="1240" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1240" s="4" t="s">
-        <v>2169</v>
+        <v>2145</v>
       </c>
       <c r="B1240" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1240" s="5" t="s">
-        <v>2170</v>
+        <v>2146</v>
       </c>
       <c r="D1240" s="9"/>
       <c r="E1240" s="5"/>
@@ -42153,15 +42599,15 @@
       <c r="M1240" s="5"/>
       <c r="N1240" s="10"/>
     </row>
-    <row r="1241" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1241" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1241" s="4" t="s">
-        <v>2171</v>
+        <v>2147</v>
       </c>
       <c r="B1241" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1241" s="5" t="s">
-        <v>2172</v>
+        <v>2148</v>
       </c>
       <c r="D1241" s="9"/>
       <c r="E1241" s="5"/>
@@ -42175,15 +42621,15 @@
       <c r="M1241" s="5"/>
       <c r="N1241" s="10"/>
     </row>
-    <row r="1242" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1242" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1242" s="4" t="s">
-        <v>2173</v>
+        <v>2149</v>
       </c>
       <c r="B1242" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1242" s="5" t="s">
-        <v>2174</v>
+        <v>2137</v>
       </c>
       <c r="D1242" s="9"/>
       <c r="E1242" s="5"/>
@@ -42199,13 +42645,13 @@
     </row>
     <row r="1243" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1243" s="4" t="s">
-        <v>2175</v>
+        <v>2150</v>
       </c>
       <c r="B1243" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1243" s="5" t="s">
-        <v>2176</v>
+        <v>2152</v>
       </c>
       <c r="D1243" s="9"/>
       <c r="E1243" s="5"/>
@@ -42221,13 +42667,13 @@
     </row>
     <row r="1244" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1244" s="4" t="s">
-        <v>2177</v>
+        <v>2153</v>
       </c>
       <c r="B1244" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1244" s="5" t="s">
-        <v>2178</v>
+        <v>2154</v>
       </c>
       <c r="D1244" s="9"/>
       <c r="E1244" s="5"/>
@@ -42243,13 +42689,13 @@
     </row>
     <row r="1245" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1245" s="4" t="s">
-        <v>2179</v>
+        <v>2155</v>
       </c>
       <c r="B1245" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1245" s="5" t="s">
-        <v>2180</v>
+        <v>2156</v>
       </c>
       <c r="D1245" s="9"/>
       <c r="E1245" s="5"/>
@@ -42265,13 +42711,13 @@
     </row>
     <row r="1246" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1246" s="4" t="s">
-        <v>2181</v>
+        <v>2157</v>
       </c>
       <c r="B1246" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1246" s="5" t="s">
-        <v>2182</v>
+        <v>2158</v>
       </c>
       <c r="D1246" s="9"/>
       <c r="E1246" s="5"/>
@@ -42287,13 +42733,13 @@
     </row>
     <row r="1247" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1247" s="4" t="s">
-        <v>2183</v>
+        <v>2159</v>
       </c>
       <c r="B1247" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1247" s="5" t="s">
-        <v>2184</v>
+        <v>2160</v>
       </c>
       <c r="D1247" s="9"/>
       <c r="E1247" s="5"/>
@@ -42309,13 +42755,13 @@
     </row>
     <row r="1248" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1248" s="4" t="s">
-        <v>2185</v>
+        <v>2161</v>
       </c>
       <c r="B1248" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1248" s="5" t="s">
-        <v>2186</v>
+        <v>2162</v>
       </c>
       <c r="D1248" s="9"/>
       <c r="E1248" s="5"/>
@@ -42331,13 +42777,13 @@
     </row>
     <row r="1249" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1249" s="4" t="s">
-        <v>2187</v>
+        <v>2163</v>
       </c>
       <c r="B1249" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1249" s="5" t="s">
-        <v>2188</v>
+        <v>2164</v>
       </c>
       <c r="D1249" s="9"/>
       <c r="E1249" s="5"/>
@@ -42353,13 +42799,13 @@
     </row>
     <row r="1250" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1250" s="4" t="s">
-        <v>2189</v>
+        <v>2165</v>
       </c>
       <c r="B1250" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1250" s="5" t="s">
-        <v>2190</v>
+        <v>2166</v>
       </c>
       <c r="D1250" s="9"/>
       <c r="E1250" s="5"/>
@@ -42375,13 +42821,13 @@
     </row>
     <row r="1251" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1251" s="4" t="s">
-        <v>2191</v>
+        <v>2167</v>
       </c>
       <c r="B1251" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1251" s="5" t="s">
-        <v>2193</v>
+        <v>2168</v>
       </c>
       <c r="D1251" s="9"/>
       <c r="E1251" s="5"/>
@@ -42397,13 +42843,13 @@
     </row>
     <row r="1252" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1252" s="4" t="s">
-        <v>2194</v>
+        <v>2169</v>
       </c>
       <c r="B1252" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1252" s="5" t="s">
-        <v>2195</v>
+        <v>2170</v>
       </c>
       <c r="D1252" s="9"/>
       <c r="E1252" s="5"/>
@@ -42419,13 +42865,13 @@
     </row>
     <row r="1253" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1253" s="4" t="s">
-        <v>2196</v>
+        <v>2171</v>
       </c>
       <c r="B1253" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1253" s="5" t="s">
-        <v>2197</v>
+        <v>2172</v>
       </c>
       <c r="D1253" s="9"/>
       <c r="E1253" s="5"/>
@@ -42441,13 +42887,13 @@
     </row>
     <row r="1254" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1254" s="4" t="s">
-        <v>2198</v>
+        <v>2173</v>
       </c>
       <c r="B1254" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1254" s="5" t="s">
-        <v>2199</v>
+        <v>2174</v>
       </c>
       <c r="D1254" s="9"/>
       <c r="E1254" s="5"/>
@@ -42463,13 +42909,13 @@
     </row>
     <row r="1255" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1255" s="4" t="s">
-        <v>2200</v>
+        <v>2175</v>
       </c>
       <c r="B1255" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1255" s="5" t="s">
-        <v>2201</v>
+        <v>2176</v>
       </c>
       <c r="D1255" s="9"/>
       <c r="E1255" s="5"/>
@@ -42485,13 +42931,13 @@
     </row>
     <row r="1256" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1256" s="4" t="s">
-        <v>2202</v>
+        <v>2177</v>
       </c>
       <c r="B1256" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1256" s="5" t="s">
-        <v>2203</v>
+        <v>2178</v>
       </c>
       <c r="D1256" s="9"/>
       <c r="E1256" s="5"/>
@@ -42507,13 +42953,13 @@
     </row>
     <row r="1257" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1257" s="4" t="s">
-        <v>2204</v>
+        <v>2179</v>
       </c>
       <c r="B1257" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1257" s="5" t="s">
-        <v>2205</v>
+        <v>2180</v>
       </c>
       <c r="D1257" s="9"/>
       <c r="E1257" s="5"/>
@@ -42529,13 +42975,13 @@
     </row>
     <row r="1258" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1258" s="4" t="s">
-        <v>2206</v>
+        <v>2181</v>
       </c>
       <c r="B1258" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1258" s="5" t="s">
-        <v>2207</v>
+        <v>2182</v>
       </c>
       <c r="D1258" s="9"/>
       <c r="E1258" s="5"/>
@@ -42551,13 +42997,13 @@
     </row>
     <row r="1259" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1259" s="4" t="s">
-        <v>2208</v>
+        <v>2183</v>
       </c>
       <c r="B1259" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1259" s="5" t="s">
-        <v>2209</v>
+        <v>2184</v>
       </c>
       <c r="D1259" s="9"/>
       <c r="E1259" s="5"/>
@@ -42573,13 +43019,13 @@
     </row>
     <row r="1260" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1260" s="4" t="s">
-        <v>2210</v>
+        <v>2185</v>
       </c>
       <c r="B1260" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1260" s="5" t="s">
-        <v>2211</v>
+        <v>2186</v>
       </c>
       <c r="D1260" s="9"/>
       <c r="E1260" s="5"/>
@@ -42595,13 +43041,13 @@
     </row>
     <row r="1261" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1261" s="4" t="s">
-        <v>2212</v>
+        <v>2187</v>
       </c>
       <c r="B1261" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1261" s="5" t="s">
-        <v>2213</v>
+        <v>2188</v>
       </c>
       <c r="D1261" s="9"/>
       <c r="E1261" s="5"/>
@@ -42617,13 +43063,13 @@
     </row>
     <row r="1262" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1262" s="4" t="s">
-        <v>2214</v>
+        <v>2189</v>
       </c>
       <c r="B1262" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1262" s="5" t="s">
-        <v>2215</v>
+        <v>2190</v>
       </c>
       <c r="D1262" s="9"/>
       <c r="E1262" s="5"/>
@@ -42639,13 +43085,13 @@
     </row>
     <row r="1263" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1263" s="4" t="s">
-        <v>2216</v>
+        <v>2191</v>
       </c>
       <c r="B1263" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1263" s="5" t="s">
-        <v>2217</v>
+        <v>2193</v>
       </c>
       <c r="D1263" s="9"/>
       <c r="E1263" s="5"/>
@@ -42661,13 +43107,13 @@
     </row>
     <row r="1264" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1264" s="4" t="s">
-        <v>2218</v>
+        <v>2194</v>
       </c>
       <c r="B1264" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1264" s="5" t="s">
-        <v>2219</v>
+        <v>2195</v>
       </c>
       <c r="D1264" s="9"/>
       <c r="E1264" s="5"/>
@@ -42683,13 +43129,13 @@
     </row>
     <row r="1265" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1265" s="4" t="s">
-        <v>2220</v>
+        <v>2196</v>
       </c>
       <c r="B1265" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1265" s="5" t="s">
-        <v>2221</v>
+        <v>2197</v>
       </c>
       <c r="D1265" s="9"/>
       <c r="E1265" s="5"/>
@@ -42705,13 +43151,13 @@
     </row>
     <row r="1266" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1266" s="4" t="s">
-        <v>2222</v>
+        <v>2198</v>
       </c>
       <c r="B1266" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1266" s="5" t="s">
-        <v>2223</v>
+        <v>2199</v>
       </c>
       <c r="D1266" s="9"/>
       <c r="E1266" s="5"/>
@@ -42727,13 +43173,13 @@
     </row>
     <row r="1267" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1267" s="4" t="s">
-        <v>2224</v>
+        <v>2200</v>
       </c>
       <c r="B1267" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1267" s="5" t="s">
-        <v>2225</v>
+        <v>2201</v>
       </c>
       <c r="D1267" s="9"/>
       <c r="E1267" s="5"/>
@@ -42749,13 +43195,13 @@
     </row>
     <row r="1268" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1268" s="4" t="s">
-        <v>2226</v>
+        <v>2202</v>
       </c>
       <c r="B1268" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1268" s="5" t="s">
-        <v>2227</v>
+        <v>2203</v>
       </c>
       <c r="D1268" s="9"/>
       <c r="E1268" s="5"/>
@@ -42771,13 +43217,13 @@
     </row>
     <row r="1269" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1269" s="4" t="s">
-        <v>2228</v>
+        <v>2204</v>
       </c>
       <c r="B1269" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1269" s="5" t="s">
-        <v>2229</v>
+        <v>2205</v>
       </c>
       <c r="D1269" s="9"/>
       <c r="E1269" s="5"/>
@@ -42793,13 +43239,13 @@
     </row>
     <row r="1270" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1270" s="4" t="s">
-        <v>2230</v>
+        <v>2206</v>
       </c>
       <c r="B1270" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1270" s="5" t="s">
-        <v>2231</v>
+        <v>2207</v>
       </c>
       <c r="D1270" s="9"/>
       <c r="E1270" s="5"/>
@@ -42815,13 +43261,13 @@
     </row>
     <row r="1271" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1271" s="4" t="s">
-        <v>2232</v>
+        <v>2208</v>
       </c>
       <c r="B1271" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1271" s="5" t="s">
-        <v>2234</v>
+        <v>2209</v>
       </c>
       <c r="D1271" s="9"/>
       <c r="E1271" s="5"/>
@@ -42837,13 +43283,13 @@
     </row>
     <row r="1272" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1272" s="4" t="s">
-        <v>2235</v>
+        <v>2210</v>
       </c>
       <c r="B1272" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1272" s="5" t="s">
-        <v>2236</v>
+        <v>2211</v>
       </c>
       <c r="D1272" s="9"/>
       <c r="E1272" s="5"/>
@@ -42859,13 +43305,13 @@
     </row>
     <row r="1273" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1273" s="4" t="s">
-        <v>2237</v>
+        <v>2212</v>
       </c>
       <c r="B1273" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1273" s="5" t="s">
-        <v>2238</v>
+        <v>2213</v>
       </c>
       <c r="D1273" s="9"/>
       <c r="E1273" s="5"/>
@@ -42881,13 +43327,13 @@
     </row>
     <row r="1274" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1274" s="4" t="s">
-        <v>2239</v>
+        <v>2214</v>
       </c>
       <c r="B1274" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1274" s="5" t="s">
-        <v>2240</v>
+        <v>2215</v>
       </c>
       <c r="D1274" s="9"/>
       <c r="E1274" s="5"/>
@@ -42903,13 +43349,13 @@
     </row>
     <row r="1275" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1275" s="4" t="s">
-        <v>2241</v>
+        <v>2216</v>
       </c>
       <c r="B1275" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1275" s="5" t="s">
-        <v>2242</v>
+        <v>2217</v>
       </c>
       <c r="D1275" s="9"/>
       <c r="E1275" s="5"/>
@@ -42925,13 +43371,13 @@
     </row>
     <row r="1276" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1276" s="4" t="s">
-        <v>2243</v>
+        <v>2218</v>
       </c>
       <c r="B1276" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1276" s="5" t="s">
-        <v>2244</v>
+        <v>2219</v>
       </c>
       <c r="D1276" s="9"/>
       <c r="E1276" s="5"/>
@@ -42947,13 +43393,13 @@
     </row>
     <row r="1277" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1277" s="4" t="s">
-        <v>2245</v>
+        <v>2220</v>
       </c>
       <c r="B1277" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1277" s="5" t="s">
-        <v>2246</v>
+        <v>2221</v>
       </c>
       <c r="D1277" s="9"/>
       <c r="E1277" s="5"/>
@@ -42969,13 +43415,13 @@
     </row>
     <row r="1278" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1278" s="4" t="s">
-        <v>2247</v>
+        <v>2222</v>
       </c>
       <c r="B1278" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1278" s="5" t="s">
-        <v>2248</v>
+        <v>2223</v>
       </c>
       <c r="D1278" s="9"/>
       <c r="E1278" s="5"/>
@@ -42991,13 +43437,13 @@
     </row>
     <row r="1279" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1279" s="4" t="s">
-        <v>2249</v>
+        <v>2224</v>
       </c>
       <c r="B1279" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1279" s="5" t="s">
-        <v>2250</v>
+        <v>2225</v>
       </c>
       <c r="D1279" s="9"/>
       <c r="E1279" s="5"/>
@@ -43013,13 +43459,13 @@
     </row>
     <row r="1280" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1280" s="4" t="s">
-        <v>2251</v>
+        <v>2226</v>
       </c>
       <c r="B1280" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1280" s="5" t="s">
-        <v>2252</v>
+        <v>2227</v>
       </c>
       <c r="D1280" s="9"/>
       <c r="E1280" s="5"/>
@@ -43035,13 +43481,13 @@
     </row>
     <row r="1281" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1281" s="4" t="s">
-        <v>2253</v>
+        <v>2228</v>
       </c>
       <c r="B1281" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1281" s="5" t="s">
-        <v>2254</v>
+        <v>2229</v>
       </c>
       <c r="D1281" s="9"/>
       <c r="E1281" s="5"/>
@@ -43057,13 +43503,13 @@
     </row>
     <row r="1282" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1282" s="4" t="s">
-        <v>2255</v>
+        <v>2230</v>
       </c>
       <c r="B1282" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1282" s="5" t="s">
-        <v>2256</v>
+        <v>2231</v>
       </c>
       <c r="D1282" s="9"/>
       <c r="E1282" s="5"/>
@@ -43079,13 +43525,13 @@
     </row>
     <row r="1283" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1283" s="4" t="s">
-        <v>2257</v>
+        <v>2232</v>
       </c>
       <c r="B1283" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1283" s="5" t="s">
-        <v>2258</v>
+        <v>2234</v>
       </c>
       <c r="D1283" s="9"/>
       <c r="E1283" s="5"/>
@@ -43101,13 +43547,13 @@
     </row>
     <row r="1284" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1284" s="4" t="s">
-        <v>2259</v>
+        <v>2235</v>
       </c>
       <c r="B1284" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1284" s="5" t="s">
-        <v>2260</v>
+        <v>2236</v>
       </c>
       <c r="D1284" s="9"/>
       <c r="E1284" s="5"/>
@@ -43123,13 +43569,13 @@
     </row>
     <row r="1285" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1285" s="4" t="s">
-        <v>2261</v>
+        <v>2237</v>
       </c>
       <c r="B1285" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1285" s="5" t="s">
-        <v>2262</v>
+        <v>2238</v>
       </c>
       <c r="D1285" s="9"/>
       <c r="E1285" s="5"/>
@@ -43145,13 +43591,13 @@
     </row>
     <row r="1286" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1286" s="4" t="s">
-        <v>2263</v>
+        <v>2239</v>
       </c>
       <c r="B1286" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1286" s="5" t="s">
-        <v>2264</v>
+        <v>2240</v>
       </c>
       <c r="D1286" s="9"/>
       <c r="E1286" s="5"/>
@@ -43167,13 +43613,13 @@
     </row>
     <row r="1287" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1287" s="4" t="s">
-        <v>2265</v>
+        <v>2241</v>
       </c>
       <c r="B1287" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1287" s="5" t="s">
-        <v>2266</v>
+        <v>2242</v>
       </c>
       <c r="D1287" s="9"/>
       <c r="E1287" s="5"/>
@@ -43189,13 +43635,13 @@
     </row>
     <row r="1288" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1288" s="4" t="s">
-        <v>2267</v>
+        <v>2243</v>
       </c>
       <c r="B1288" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1288" s="5" t="s">
-        <v>2268</v>
+        <v>2244</v>
       </c>
       <c r="D1288" s="9"/>
       <c r="E1288" s="5"/>
@@ -43211,13 +43657,13 @@
     </row>
     <row r="1289" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1289" s="4" t="s">
-        <v>2269</v>
+        <v>2245</v>
       </c>
       <c r="B1289" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1289" s="5" t="s">
-        <v>2270</v>
+        <v>2246</v>
       </c>
       <c r="D1289" s="9"/>
       <c r="E1289" s="5"/>
@@ -43233,13 +43679,13 @@
     </row>
     <row r="1290" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1290" s="4" t="s">
-        <v>2271</v>
+        <v>2247</v>
       </c>
       <c r="B1290" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1290" s="5" t="s">
-        <v>2272</v>
+        <v>2248</v>
       </c>
       <c r="D1290" s="9"/>
       <c r="E1290" s="5"/>
@@ -43253,15 +43699,15 @@
       <c r="M1290" s="5"/>
       <c r="N1290" s="10"/>
     </row>
-    <row r="1291" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1291" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1291" s="4" t="s">
-        <v>2273</v>
+        <v>2249</v>
       </c>
       <c r="B1291" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1291" s="5" t="s">
-        <v>2275</v>
+        <v>2250</v>
       </c>
       <c r="D1291" s="9"/>
       <c r="E1291" s="5"/>
@@ -43275,15 +43721,15 @@
       <c r="M1291" s="5"/>
       <c r="N1291" s="10"/>
     </row>
-    <row r="1292" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1292" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1292" s="4" t="s">
-        <v>2276</v>
+        <v>2251</v>
       </c>
       <c r="B1292" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1292" s="5" t="s">
-        <v>2277</v>
+        <v>2252</v>
       </c>
       <c r="D1292" s="9"/>
       <c r="E1292" s="5"/>
@@ -43297,15 +43743,15 @@
       <c r="M1292" s="5"/>
       <c r="N1292" s="10"/>
     </row>
-    <row r="1293" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1293" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1293" s="4" t="s">
-        <v>2278</v>
+        <v>2253</v>
       </c>
       <c r="B1293" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1293" s="5" t="s">
-        <v>2279</v>
+        <v>2254</v>
       </c>
       <c r="D1293" s="9"/>
       <c r="E1293" s="5"/>
@@ -43319,15 +43765,15 @@
       <c r="M1293" s="5"/>
       <c r="N1293" s="10"/>
     </row>
-    <row r="1294" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1294" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1294" s="4" t="s">
-        <v>2280</v>
+        <v>2255</v>
       </c>
       <c r="B1294" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1294" s="5" t="s">
-        <v>2281</v>
+        <v>2256</v>
       </c>
       <c r="D1294" s="9"/>
       <c r="E1294" s="5"/>
@@ -43341,15 +43787,15 @@
       <c r="M1294" s="5"/>
       <c r="N1294" s="10"/>
     </row>
-    <row r="1295" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1295" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1295" s="4" t="s">
-        <v>2282</v>
+        <v>2257</v>
       </c>
       <c r="B1295" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1295" s="5" t="s">
-        <v>2283</v>
+        <v>2258</v>
       </c>
       <c r="D1295" s="9"/>
       <c r="E1295" s="5"/>
@@ -43363,15 +43809,15 @@
       <c r="M1295" s="5"/>
       <c r="N1295" s="10"/>
     </row>
-    <row r="1296" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1296" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1296" s="4" t="s">
-        <v>2284</v>
+        <v>2259</v>
       </c>
       <c r="B1296" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1296" s="5" t="s">
-        <v>2285</v>
+        <v>2260</v>
       </c>
       <c r="D1296" s="9"/>
       <c r="E1296" s="5"/>
@@ -43385,15 +43831,15 @@
       <c r="M1296" s="5"/>
       <c r="N1296" s="10"/>
     </row>
-    <row r="1297" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1297" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1297" s="4" t="s">
-        <v>2286</v>
+        <v>2261</v>
       </c>
       <c r="B1297" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1297" s="5" t="s">
-        <v>2287</v>
+        <v>2262</v>
       </c>
       <c r="D1297" s="9"/>
       <c r="E1297" s="5"/>
@@ -43409,13 +43855,13 @@
     </row>
     <row r="1298" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1298" s="4" t="s">
-        <v>2288</v>
+        <v>2263</v>
       </c>
       <c r="B1298" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1298" s="5" t="s">
-        <v>2289</v>
+        <v>2264</v>
       </c>
       <c r="D1298" s="9"/>
       <c r="E1298" s="5"/>
@@ -43429,15 +43875,15 @@
       <c r="M1298" s="5"/>
       <c r="N1298" s="10"/>
     </row>
-    <row r="1299" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1299" s="4" t="s">
-        <v>2290</v>
+        <v>2265</v>
       </c>
       <c r="B1299" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1299" s="5" t="s">
-        <v>2291</v>
+        <v>2266</v>
       </c>
       <c r="D1299" s="9"/>
       <c r="E1299" s="5"/>
@@ -43453,13 +43899,13 @@
     </row>
     <row r="1300" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1300" s="4" t="s">
-        <v>2292</v>
+        <v>2267</v>
       </c>
       <c r="B1300" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1300" s="5" t="s">
-        <v>2293</v>
+        <v>2268</v>
       </c>
       <c r="D1300" s="9"/>
       <c r="E1300" s="5"/>
@@ -43473,15 +43919,15 @@
       <c r="M1300" s="5"/>
       <c r="N1300" s="10"/>
     </row>
-    <row r="1301" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1301" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1301" s="4" t="s">
-        <v>2294</v>
+        <v>2269</v>
       </c>
       <c r="B1301" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1301" s="5" t="s">
-        <v>2295</v>
+        <v>2270</v>
       </c>
       <c r="D1301" s="9"/>
       <c r="E1301" s="5"/>
@@ -43495,15 +43941,15 @@
       <c r="M1301" s="5"/>
       <c r="N1301" s="10"/>
     </row>
-    <row r="1302" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1302" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1302" s="4" t="s">
-        <v>2296</v>
+        <v>2271</v>
       </c>
       <c r="B1302" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1302" s="5" t="s">
-        <v>2297</v>
+        <v>2272</v>
       </c>
       <c r="D1302" s="9"/>
       <c r="E1302" s="5"/>
@@ -43519,13 +43965,13 @@
     </row>
     <row r="1303" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1303" s="4" t="s">
-        <v>2298</v>
+        <v>2273</v>
       </c>
       <c r="B1303" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1303" s="5" t="s">
-        <v>2299</v>
+        <v>2275</v>
       </c>
       <c r="D1303" s="9"/>
       <c r="E1303" s="5"/>
@@ -43541,13 +43987,13 @@
     </row>
     <row r="1304" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1304" s="4" t="s">
-        <v>2300</v>
+        <v>2276</v>
       </c>
       <c r="B1304" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1304" s="5" t="s">
-        <v>2301</v>
+        <v>2277</v>
       </c>
       <c r="D1304" s="9"/>
       <c r="E1304" s="5"/>
@@ -43563,13 +44009,13 @@
     </row>
     <row r="1305" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1305" s="4" t="s">
-        <v>2302</v>
+        <v>2278</v>
       </c>
       <c r="B1305" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1305" s="5" t="s">
-        <v>2303</v>
+        <v>2279</v>
       </c>
       <c r="D1305" s="9"/>
       <c r="E1305" s="5"/>
@@ -43583,15 +44029,15 @@
       <c r="M1305" s="5"/>
       <c r="N1305" s="10"/>
     </row>
-    <row r="1306" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1306" s="4" t="s">
-        <v>2304</v>
+        <v>2280</v>
       </c>
       <c r="B1306" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1306" s="5" t="s">
-        <v>2305</v>
+        <v>2281</v>
       </c>
       <c r="D1306" s="9"/>
       <c r="E1306" s="5"/>
@@ -43607,13 +44053,13 @@
     </row>
     <row r="1307" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1307" s="4" t="s">
-        <v>2306</v>
+        <v>2282</v>
       </c>
       <c r="B1307" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1307" s="5" t="s">
-        <v>2307</v>
+        <v>2283</v>
       </c>
       <c r="D1307" s="9"/>
       <c r="E1307" s="5"/>
@@ -43629,13 +44075,13 @@
     </row>
     <row r="1308" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1308" s="4" t="s">
-        <v>2308</v>
+        <v>2284</v>
       </c>
       <c r="B1308" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1308" s="5" t="s">
-        <v>2309</v>
+        <v>2285</v>
       </c>
       <c r="D1308" s="9"/>
       <c r="E1308" s="5"/>
@@ -43651,13 +44097,13 @@
     </row>
     <row r="1309" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1309" s="4" t="s">
-        <v>2310</v>
+        <v>2286</v>
       </c>
       <c r="B1309" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1309" s="5" t="s">
-        <v>2311</v>
+        <v>2287</v>
       </c>
       <c r="D1309" s="9"/>
       <c r="E1309" s="5"/>
@@ -43671,15 +44117,15 @@
       <c r="M1309" s="5"/>
       <c r="N1309" s="10"/>
     </row>
-    <row r="1310" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1310" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1310" s="4" t="s">
-        <v>2312</v>
+        <v>2288</v>
       </c>
       <c r="B1310" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1310" s="5" t="s">
-        <v>2313</v>
+        <v>2289</v>
       </c>
       <c r="D1310" s="9"/>
       <c r="E1310" s="5"/>
@@ -43693,15 +44139,15 @@
       <c r="M1310" s="5"/>
       <c r="N1310" s="10"/>
     </row>
-    <row r="1311" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1311" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1311" s="4" t="s">
-        <v>2314</v>
+        <v>2290</v>
       </c>
       <c r="B1311" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1311" s="5" t="s">
-        <v>2316</v>
+        <v>2291</v>
       </c>
       <c r="D1311" s="9"/>
       <c r="E1311" s="5"/>
@@ -43717,13 +44163,13 @@
     </row>
     <row r="1312" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1312" s="4" t="s">
-        <v>2317</v>
+        <v>2292</v>
       </c>
       <c r="B1312" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1312" s="5" t="s">
-        <v>2318</v>
+        <v>2293</v>
       </c>
       <c r="D1312" s="9"/>
       <c r="E1312" s="5"/>
@@ -43737,15 +44183,15 @@
       <c r="M1312" s="5"/>
       <c r="N1312" s="10"/>
     </row>
-    <row r="1313" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1313" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1313" s="4" t="s">
-        <v>2319</v>
+        <v>2294</v>
       </c>
       <c r="B1313" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1313" s="5" t="s">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="D1313" s="9"/>
       <c r="E1313" s="5"/>
@@ -43759,15 +44205,15 @@
       <c r="M1313" s="5"/>
       <c r="N1313" s="10"/>
     </row>
-    <row r="1314" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1314" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1314" s="4" t="s">
-        <v>2321</v>
+        <v>2296</v>
       </c>
       <c r="B1314" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1314" s="5" t="s">
-        <v>2322</v>
+        <v>2297</v>
       </c>
       <c r="D1314" s="9"/>
       <c r="E1314" s="5"/>
@@ -43781,15 +44227,15 @@
       <c r="M1314" s="5"/>
       <c r="N1314" s="10"/>
     </row>
-    <row r="1315" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1315" s="4" t="s">
-        <v>2323</v>
+        <v>2298</v>
       </c>
       <c r="B1315" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1315" s="5" t="s">
-        <v>2324</v>
+        <v>2299</v>
       </c>
       <c r="D1315" s="9"/>
       <c r="E1315" s="5"/>
@@ -43803,15 +44249,15 @@
       <c r="M1315" s="5"/>
       <c r="N1315" s="10"/>
     </row>
-    <row r="1316" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1316" s="4" t="s">
-        <v>2325</v>
+        <v>2300</v>
       </c>
       <c r="B1316" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1316" s="5" t="s">
-        <v>2326</v>
+        <v>2301</v>
       </c>
       <c r="D1316" s="9"/>
       <c r="E1316" s="5"/>
@@ -43825,15 +44271,15 @@
       <c r="M1316" s="5"/>
       <c r="N1316" s="10"/>
     </row>
-    <row r="1317" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1317" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1317" s="4" t="s">
-        <v>2327</v>
+        <v>2302</v>
       </c>
       <c r="B1317" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1317" s="5" t="s">
-        <v>2328</v>
+        <v>2303</v>
       </c>
       <c r="D1317" s="9"/>
       <c r="E1317" s="5"/>
@@ -43849,13 +44295,13 @@
     </row>
     <row r="1318" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1318" s="4" t="s">
-        <v>2329</v>
+        <v>2304</v>
       </c>
       <c r="B1318" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1318" s="5" t="s">
-        <v>2330</v>
+        <v>2305</v>
       </c>
       <c r="D1318" s="9"/>
       <c r="E1318" s="5"/>
@@ -43869,15 +44315,15 @@
       <c r="M1318" s="5"/>
       <c r="N1318" s="10"/>
     </row>
-    <row r="1319" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1319" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1319" s="4" t="s">
-        <v>2331</v>
+        <v>2306</v>
       </c>
       <c r="B1319" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1319" s="5" t="s">
-        <v>2332</v>
+        <v>2307</v>
       </c>
       <c r="D1319" s="9"/>
       <c r="E1319" s="5"/>
@@ -43891,15 +44337,15 @@
       <c r="M1319" s="5"/>
       <c r="N1319" s="10"/>
     </row>
-    <row r="1320" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1320" s="4" t="s">
-        <v>2333</v>
+        <v>2308</v>
       </c>
       <c r="B1320" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1320" s="5" t="s">
-        <v>2334</v>
+        <v>2309</v>
       </c>
       <c r="D1320" s="9"/>
       <c r="E1320" s="5"/>
@@ -43913,15 +44359,15 @@
       <c r="M1320" s="5"/>
       <c r="N1320" s="10"/>
     </row>
-    <row r="1321" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1321" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1321" s="4" t="s">
-        <v>2335</v>
+        <v>2310</v>
       </c>
       <c r="B1321" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1321" s="5" t="s">
-        <v>2336</v>
+        <v>2311</v>
       </c>
       <c r="D1321" s="9"/>
       <c r="E1321" s="5"/>
@@ -43935,15 +44381,15 @@
       <c r="M1321" s="5"/>
       <c r="N1321" s="10"/>
     </row>
-    <row r="1322" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1322" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1322" s="4" t="s">
-        <v>2337</v>
+        <v>2312</v>
       </c>
       <c r="B1322" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1322" s="5" t="s">
-        <v>2338</v>
+        <v>2313</v>
       </c>
       <c r="D1322" s="9"/>
       <c r="E1322" s="5"/>
@@ -43959,13 +44405,13 @@
     </row>
     <row r="1323" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1323" s="4" t="s">
-        <v>2339</v>
+        <v>2314</v>
       </c>
       <c r="B1323" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1323" s="5" t="s">
-        <v>2340</v>
+        <v>2316</v>
       </c>
       <c r="D1323" s="9"/>
       <c r="E1323" s="5"/>
@@ -43981,13 +44427,13 @@
     </row>
     <row r="1324" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1324" s="4" t="s">
-        <v>2341</v>
+        <v>2317</v>
       </c>
       <c r="B1324" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1324" s="5" t="s">
-        <v>2342</v>
+        <v>2318</v>
       </c>
       <c r="D1324" s="9"/>
       <c r="E1324" s="5"/>
@@ -44003,13 +44449,13 @@
     </row>
     <row r="1325" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1325" s="4" t="s">
-        <v>2343</v>
+        <v>2319</v>
       </c>
       <c r="B1325" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1325" s="5" t="s">
-        <v>2344</v>
+        <v>2320</v>
       </c>
       <c r="D1325" s="9"/>
       <c r="E1325" s="5"/>
@@ -44025,13 +44471,13 @@
     </row>
     <row r="1326" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1326" s="4" t="s">
-        <v>2345</v>
+        <v>2321</v>
       </c>
       <c r="B1326" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1326" s="5" t="s">
-        <v>2346</v>
+        <v>2322</v>
       </c>
       <c r="D1326" s="9"/>
       <c r="E1326" s="5"/>
@@ -44047,13 +44493,13 @@
     </row>
     <row r="1327" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1327" s="4" t="s">
-        <v>2347</v>
+        <v>2323</v>
       </c>
       <c r="B1327" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1327" s="5" t="s">
-        <v>2348</v>
+        <v>2324</v>
       </c>
       <c r="D1327" s="9"/>
       <c r="E1327" s="5"/>
@@ -44069,13 +44515,13 @@
     </row>
     <row r="1328" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1328" s="4" t="s">
-        <v>2349</v>
+        <v>2325</v>
       </c>
       <c r="B1328" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1328" s="5" t="s">
-        <v>851</v>
+        <v>2326</v>
       </c>
       <c r="D1328" s="9"/>
       <c r="E1328" s="5"/>
@@ -44091,13 +44537,13 @@
     </row>
     <row r="1329" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1329" s="4" t="s">
-        <v>2350</v>
+        <v>2327</v>
       </c>
       <c r="B1329" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1329" s="5" t="s">
-        <v>2351</v>
+        <v>2328</v>
       </c>
       <c r="D1329" s="9"/>
       <c r="E1329" s="5"/>
@@ -44112,26 +44558,290 @@
       <c r="N1329" s="10"/>
     </row>
     <row r="1330" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A1330" s="6" t="s">
+      <c r="A1330" s="4" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B1330" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1330" s="5" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D1330" s="9"/>
+      <c r="E1330" s="5"/>
+      <c r="F1330" s="5"/>
+      <c r="G1330" s="5"/>
+      <c r="H1330" s="9"/>
+      <c r="I1330" s="9"/>
+      <c r="J1330" s="5"/>
+      <c r="K1330" s="5"/>
+      <c r="L1330" s="5"/>
+      <c r="M1330" s="5"/>
+      <c r="N1330" s="10"/>
+    </row>
+    <row r="1331" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1331" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1331" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1331" s="5" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D1331" s="9"/>
+      <c r="E1331" s="5"/>
+      <c r="F1331" s="5"/>
+      <c r="G1331" s="5"/>
+      <c r="H1331" s="9"/>
+      <c r="I1331" s="9"/>
+      <c r="J1331" s="5"/>
+      <c r="K1331" s="5"/>
+      <c r="L1331" s="5"/>
+      <c r="M1331" s="5"/>
+      <c r="N1331" s="10"/>
+    </row>
+    <row r="1332" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1332" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B1332" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1332" s="5" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D1332" s="9"/>
+      <c r="E1332" s="5"/>
+      <c r="F1332" s="5"/>
+      <c r="G1332" s="5"/>
+      <c r="H1332" s="9"/>
+      <c r="I1332" s="9"/>
+      <c r="J1332" s="5"/>
+      <c r="K1332" s="5"/>
+      <c r="L1332" s="5"/>
+      <c r="M1332" s="5"/>
+      <c r="N1332" s="10"/>
+    </row>
+    <row r="1333" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1333" s="4" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B1333" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1333" s="5" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D1333" s="9"/>
+      <c r="E1333" s="5"/>
+      <c r="F1333" s="5"/>
+      <c r="G1333" s="5"/>
+      <c r="H1333" s="9"/>
+      <c r="I1333" s="9"/>
+      <c r="J1333" s="5"/>
+      <c r="K1333" s="5"/>
+      <c r="L1333" s="5"/>
+      <c r="M1333" s="5"/>
+      <c r="N1333" s="10"/>
+    </row>
+    <row r="1334" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1334" s="4" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B1334" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1334" s="5" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1334" s="9"/>
+      <c r="E1334" s="5"/>
+      <c r="F1334" s="5"/>
+      <c r="G1334" s="5"/>
+      <c r="H1334" s="9"/>
+      <c r="I1334" s="9"/>
+      <c r="J1334" s="5"/>
+      <c r="K1334" s="5"/>
+      <c r="L1334" s="5"/>
+      <c r="M1334" s="5"/>
+      <c r="N1334" s="10"/>
+    </row>
+    <row r="1335" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1335" s="4" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B1335" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1335" s="5" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D1335" s="9"/>
+      <c r="E1335" s="5"/>
+      <c r="F1335" s="5"/>
+      <c r="G1335" s="5"/>
+      <c r="H1335" s="9"/>
+      <c r="I1335" s="9"/>
+      <c r="J1335" s="5"/>
+      <c r="K1335" s="5"/>
+      <c r="L1335" s="5"/>
+      <c r="M1335" s="5"/>
+      <c r="N1335" s="10"/>
+    </row>
+    <row r="1336" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1336" s="4" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B1336" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1336" s="5" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D1336" s="9"/>
+      <c r="E1336" s="5"/>
+      <c r="F1336" s="5"/>
+      <c r="G1336" s="5"/>
+      <c r="H1336" s="9"/>
+      <c r="I1336" s="9"/>
+      <c r="J1336" s="5"/>
+      <c r="K1336" s="5"/>
+      <c r="L1336" s="5"/>
+      <c r="M1336" s="5"/>
+      <c r="N1336" s="10"/>
+    </row>
+    <row r="1337" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1337" s="4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B1337" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1337" s="5" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D1337" s="9"/>
+      <c r="E1337" s="5"/>
+      <c r="F1337" s="5"/>
+      <c r="G1337" s="5"/>
+      <c r="H1337" s="9"/>
+      <c r="I1337" s="9"/>
+      <c r="J1337" s="5"/>
+      <c r="K1337" s="5"/>
+      <c r="L1337" s="5"/>
+      <c r="M1337" s="5"/>
+      <c r="N1337" s="10"/>
+    </row>
+    <row r="1338" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1338" s="4" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B1338" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1338" s="5" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D1338" s="9"/>
+      <c r="E1338" s="5"/>
+      <c r="F1338" s="5"/>
+      <c r="G1338" s="5"/>
+      <c r="H1338" s="9"/>
+      <c r="I1338" s="9"/>
+      <c r="J1338" s="5"/>
+      <c r="K1338" s="5"/>
+      <c r="L1338" s="5"/>
+      <c r="M1338" s="5"/>
+      <c r="N1338" s="10"/>
+    </row>
+    <row r="1339" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1339" s="4" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B1339" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1339" s="5" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D1339" s="9"/>
+      <c r="E1339" s="5"/>
+      <c r="F1339" s="5"/>
+      <c r="G1339" s="5"/>
+      <c r="H1339" s="9"/>
+      <c r="I1339" s="9"/>
+      <c r="J1339" s="5"/>
+      <c r="K1339" s="5"/>
+      <c r="L1339" s="5"/>
+      <c r="M1339" s="5"/>
+      <c r="N1339" s="10"/>
+    </row>
+    <row r="1340" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1340" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B1340" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1340" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="D1340" s="9"/>
+      <c r="E1340" s="5"/>
+      <c r="F1340" s="5"/>
+      <c r="G1340" s="5"/>
+      <c r="H1340" s="9"/>
+      <c r="I1340" s="9"/>
+      <c r="J1340" s="5"/>
+      <c r="K1340" s="5"/>
+      <c r="L1340" s="5"/>
+      <c r="M1340" s="5"/>
+      <c r="N1340" s="10"/>
+    </row>
+    <row r="1341" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1341" s="4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1341" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1341" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D1341" s="9"/>
+      <c r="E1341" s="5"/>
+      <c r="F1341" s="5"/>
+      <c r="G1341" s="5"/>
+      <c r="H1341" s="9"/>
+      <c r="I1341" s="9"/>
+      <c r="J1341" s="5"/>
+      <c r="K1341" s="5"/>
+      <c r="L1341" s="5"/>
+      <c r="M1341" s="5"/>
+      <c r="N1341" s="10"/>
+    </row>
+    <row r="1342" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1342" s="6" t="s">
         <v>2352</v>
       </c>
-      <c r="B1330" s="7" t="s">
+      <c r="B1342" s="7" t="s">
         <v>2315</v>
       </c>
-      <c r="C1330" s="7" t="s">
+      <c r="C1342" s="7" t="s">
         <v>2353</v>
       </c>
-      <c r="D1330" s="11"/>
-      <c r="E1330" s="7"/>
-      <c r="F1330" s="7"/>
-      <c r="G1330" s="7"/>
-      <c r="H1330" s="11"/>
-      <c r="I1330" s="11"/>
-      <c r="J1330" s="7"/>
-      <c r="K1330" s="7"/>
-      <c r="L1330" s="7"/>
-      <c r="M1330" s="7"/>
-      <c r="N1330" s="12"/>
+      <c r="D1342" s="11"/>
+      <c r="E1342" s="7"/>
+      <c r="F1342" s="7"/>
+      <c r="G1342" s="7"/>
+      <c r="H1342" s="11"/>
+      <c r="I1342" s="11"/>
+      <c r="J1342" s="7"/>
+      <c r="K1342" s="7"/>
+      <c r="L1342" s="7"/>
+      <c r="M1342" s="7"/>
+      <c r="N1342" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tsunami/v02_new/sample_tsunami_anotasi_v02_new.xlsx
+++ b/tsunami/v02_new/sample_tsunami_anotasi_v02_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharmapu\Documents\personal\ui\KA-AMSD_src\paper-submission\anotated_data\tsunami\v02_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A16060-9799-4862-BF8B-C996979FBC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C54C5A-758E-463A-8AF2-7D7940DE907F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7315" uniqueCount="2489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7591" uniqueCount="2494">
   <si>
     <t>id</t>
   </si>
@@ -7504,6 +7504,21 @@
   </si>
   <si>
     <t>Korban gempa &amp; tsunami mengakibatkan kerusakan material yang besar</t>
+  </si>
+  <si>
+    <t>Gempa &amp; tsunami mengakibat kerusakan dan korban jiwa</t>
+  </si>
+  <si>
+    <t>Total dampak: 250 orang meninggal</t>
+  </si>
+  <si>
+    <t>Gempa &amp; tsunami mengakibatkan kerusakan jaringan listrik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total dampak: 14 orang meninggal dunia, 150 orang luka-luka, 43 rumah rusak berat, 9 unit hotel rusak </t>
+  </si>
+  <si>
+    <t>Total dampak: 43 orang meninggal dunia, 584 orang luka-luka, 2 orang hilang, 430 rumah rusak berat, 9 hotel rusak</t>
   </si>
 </sst>
 </file>
@@ -8218,8 +8233,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0228019-6306-42E0-ABD2-717570931749}" name="Table1" displayName="Table1" ref="A1:N1342" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:N1342" xr:uid="{576E32E5-BE79-40B5-A33D-70AE3D67568F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0228019-6306-42E0-ABD2-717570931749}" name="Table1" displayName="Table1" ref="A1:N1357" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:N1357" xr:uid="{576E32E5-BE79-40B5-A33D-70AE3D67568F}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{DBAB9710-0C44-49A5-AA32-B0453B252B04}" name="id" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{EF67AD3D-E53F-4700-A378-B1F96AA43740}" name="source" dataDxfId="12"/>
@@ -8503,10 +8518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1342"/>
+  <dimension ref="A1:N1357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A944" workbookViewId="0">
-      <selection activeCell="A952" sqref="A952:D952"/>
+    <sheetView tabSelected="1" topLeftCell="A1008" workbookViewId="0">
+      <selection activeCell="D1017" sqref="D1017"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36273,73 +36288,117 @@
       <c r="C953" s="5" t="s">
         <v>1578</v>
       </c>
-      <c r="D953" s="9"/>
-      <c r="E953" s="5"/>
-      <c r="F953" s="5"/>
-      <c r="G953" s="5"/>
-      <c r="H953" s="9"/>
-      <c r="I953" s="9"/>
+      <c r="D953" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E953" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F953" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G953" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H953" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I953" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J953" s="5"/>
       <c r="K953" s="5"/>
       <c r="L953" s="5"/>
       <c r="M953" s="5"/>
-      <c r="N953" s="10"/>
+      <c r="N953" s="10" t="s">
+        <v>2489</v>
+      </c>
     </row>
     <row r="954" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A954" s="4" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B954" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C954" s="5" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D954" s="9"/>
-      <c r="E954" s="5"/>
-      <c r="F954" s="5"/>
-      <c r="G954" s="5"/>
-      <c r="H954" s="9"/>
-      <c r="I954" s="9"/>
+        <v>1578</v>
+      </c>
+      <c r="D954" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E954" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F954" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G954" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H954" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I954" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J954" s="5"/>
       <c r="K954" s="5"/>
       <c r="L954" s="5"/>
       <c r="M954" s="5"/>
-      <c r="N954" s="10"/>
+      <c r="N954" s="10" t="s">
+        <v>2489</v>
+      </c>
     </row>
     <row r="955" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A955" s="4" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="B955" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C955" s="5" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D955" s="9"/>
-      <c r="E955" s="5"/>
-      <c r="F955" s="5"/>
-      <c r="G955" s="5"/>
-      <c r="H955" s="9"/>
-      <c r="I955" s="9"/>
+        <v>1578</v>
+      </c>
+      <c r="D955" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E955" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F955" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G955" s="5" t="s">
+        <v>2435</v>
+      </c>
+      <c r="H955" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I955" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J955" s="5"/>
       <c r="K955" s="5"/>
       <c r="L955" s="5"/>
       <c r="M955" s="5"/>
-      <c r="N955" s="10"/>
+      <c r="N955" s="10" t="s">
+        <v>2489</v>
+      </c>
     </row>
     <row r="956" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A956" s="4" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="B956" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C956" s="5" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D956" s="9"/>
+        <v>1580</v>
+      </c>
+      <c r="D956" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E956" s="5"/>
       <c r="F956" s="5"/>
       <c r="G956" s="5"/>
@@ -36353,37 +36412,61 @@
     </row>
     <row r="957" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A957" s="4" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="B957" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C957" s="5" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D957" s="9"/>
-      <c r="E957" s="5"/>
-      <c r="F957" s="5"/>
-      <c r="G957" s="5"/>
-      <c r="H957" s="9"/>
-      <c r="I957" s="9"/>
-      <c r="J957" s="5"/>
-      <c r="K957" s="5"/>
-      <c r="L957" s="5"/>
-      <c r="M957" s="5"/>
-      <c r="N957" s="10"/>
+        <v>1582</v>
+      </c>
+      <c r="D957" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E957" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F957" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G957" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H957" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I957" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="J957" s="5">
+        <v>281</v>
+      </c>
+      <c r="K957" s="5">
+        <v>1061</v>
+      </c>
+      <c r="L957" s="5">
+        <v>11687</v>
+      </c>
+      <c r="M957" s="5">
+        <v>680</v>
+      </c>
+      <c r="N957" s="10" t="s">
+        <v>2405</v>
+      </c>
     </row>
     <row r="958" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A958" s="4" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="B958" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C958" s="5" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D958" s="9"/>
+        <v>1584</v>
+      </c>
+      <c r="D958" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E958" s="5"/>
       <c r="F958" s="5"/>
       <c r="G958" s="5"/>
@@ -36397,59 +36480,89 @@
     </row>
     <row r="959" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A959" s="4" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="B959" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C959" s="5" t="s">
-        <v>1590</v>
-      </c>
-      <c r="D959" s="9"/>
-      <c r="E959" s="5"/>
-      <c r="F959" s="5"/>
-      <c r="G959" s="5"/>
-      <c r="H959" s="9"/>
-      <c r="I959" s="9"/>
+        <v>1586</v>
+      </c>
+      <c r="D959" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E959" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F959" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G959" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H959" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I959" s="13" t="s">
+        <v>2366</v>
+      </c>
       <c r="J959" s="5"/>
       <c r="K959" s="5"/>
       <c r="L959" s="5"/>
       <c r="M959" s="5"/>
-      <c r="N959" s="10"/>
+      <c r="N959" s="10" t="s">
+        <v>2405</v>
+      </c>
     </row>
     <row r="960" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A960" s="4" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="B960" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C960" s="5" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D960" s="9"/>
-      <c r="E960" s="5"/>
-      <c r="F960" s="5"/>
-      <c r="G960" s="5"/>
-      <c r="H960" s="9"/>
-      <c r="I960" s="9"/>
+        <v>1586</v>
+      </c>
+      <c r="D960" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E960" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F960" s="5" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G960" s="13" t="s">
+        <v>2382</v>
+      </c>
+      <c r="H960" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I960" s="13" t="s">
+        <v>2366</v>
+      </c>
       <c r="J960" s="5"/>
       <c r="K960" s="5"/>
       <c r="L960" s="5"/>
       <c r="M960" s="5"/>
-      <c r="N960" s="10"/>
+      <c r="N960" s="10" t="s">
+        <v>2405</v>
+      </c>
     </row>
     <row r="961" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A961" s="4" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="B961" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C961" s="5" t="s">
-        <v>1594</v>
-      </c>
-      <c r="D961" s="9"/>
+        <v>1588</v>
+      </c>
+      <c r="D961" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E961" s="5"/>
       <c r="F961" s="5"/>
       <c r="G961" s="5"/>
@@ -36463,37 +36576,53 @@
     </row>
     <row r="962" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A962" s="4" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="B962" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C962" s="5" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D962" s="9"/>
-      <c r="E962" s="5"/>
-      <c r="F962" s="5"/>
-      <c r="G962" s="5"/>
-      <c r="H962" s="9"/>
-      <c r="I962" s="9"/>
+        <v>1590</v>
+      </c>
+      <c r="D962" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E962" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F962" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G962" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H962" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I962" s="13" t="s">
+        <v>2366</v>
+      </c>
       <c r="J962" s="5"/>
       <c r="K962" s="5"/>
       <c r="L962" s="5"/>
       <c r="M962" s="5"/>
-      <c r="N962" s="10"/>
+      <c r="N962" s="10" t="s">
+        <v>2405</v>
+      </c>
     </row>
     <row r="963" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A963" s="4" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="B963" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C963" s="5" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D963" s="9"/>
+        <v>1592</v>
+      </c>
+      <c r="D963" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E963" s="5"/>
       <c r="F963" s="5"/>
       <c r="G963" s="5"/>
@@ -36507,59 +36636,89 @@
     </row>
     <row r="964" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A964" s="4" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="B964" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C964" s="5" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D964" s="9"/>
-      <c r="E964" s="5"/>
-      <c r="F964" s="5"/>
-      <c r="G964" s="5"/>
-      <c r="H964" s="9"/>
-      <c r="I964" s="9"/>
+        <v>1594</v>
+      </c>
+      <c r="D964" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E964" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F964" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G964" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H964" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I964" s="13" t="s">
+        <v>2366</v>
+      </c>
       <c r="J964" s="5"/>
       <c r="K964" s="5"/>
       <c r="L964" s="5"/>
       <c r="M964" s="5"/>
-      <c r="N964" s="10"/>
+      <c r="N964" s="10" t="s">
+        <v>2405</v>
+      </c>
     </row>
     <row r="965" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A965" s="4" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="B965" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C965" s="5" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D965" s="9"/>
-      <c r="E965" s="5"/>
-      <c r="F965" s="5"/>
-      <c r="G965" s="5"/>
-      <c r="H965" s="9"/>
-      <c r="I965" s="9"/>
+        <v>1594</v>
+      </c>
+      <c r="D965" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E965" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F965" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G965" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H965" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I965" s="13" t="s">
+        <v>2366</v>
+      </c>
       <c r="J965" s="5"/>
       <c r="K965" s="5"/>
       <c r="L965" s="5"/>
       <c r="M965" s="5"/>
-      <c r="N965" s="10"/>
+      <c r="N965" s="10" t="s">
+        <v>2405</v>
+      </c>
     </row>
     <row r="966" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A966" s="4" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="B966" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C966" s="5" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D966" s="9"/>
+        <v>1596</v>
+      </c>
+      <c r="D966" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E966" s="5"/>
       <c r="F966" s="5"/>
       <c r="G966" s="5"/>
@@ -36573,15 +36732,17 @@
     </row>
     <row r="967" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A967" s="4" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="B967" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="C967" s="5" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D967" s="9"/>
+        <v>1598</v>
+      </c>
+      <c r="D967" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E967" s="5"/>
       <c r="F967" s="5"/>
       <c r="G967" s="5"/>
@@ -36593,17 +36754,19 @@
       <c r="M967" s="5"/>
       <c r="N967" s="10"/>
     </row>
-    <row r="968" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A968" s="4" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="B968" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C968" s="5" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D968" s="9"/>
+        <v>1600</v>
+      </c>
+      <c r="D968" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E968" s="5"/>
       <c r="F968" s="5"/>
       <c r="G968" s="5"/>
@@ -36615,83 +36778,127 @@
       <c r="M968" s="5"/>
       <c r="N968" s="10"/>
     </row>
-    <row r="969" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A969" s="4" t="s">
-        <v>1610</v>
+        <v>1601</v>
       </c>
       <c r="B969" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C969" s="5" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D969" s="9"/>
-      <c r="E969" s="5"/>
-      <c r="F969" s="5"/>
-      <c r="G969" s="5"/>
-      <c r="H969" s="9"/>
-      <c r="I969" s="9"/>
+        <v>1602</v>
+      </c>
+      <c r="D969" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E969" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F969" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G969" s="5" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H969" s="9" t="s">
+        <v>2430</v>
+      </c>
+      <c r="I969" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J969" s="5"/>
       <c r="K969" s="5"/>
       <c r="L969" s="5"/>
       <c r="M969" s="5"/>
-      <c r="N969" s="10"/>
-    </row>
-    <row r="970" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+      <c r="N969" s="10" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="970" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A970" s="4" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="B970" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C970" s="5" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D970" s="9"/>
-      <c r="E970" s="5"/>
-      <c r="F970" s="5"/>
-      <c r="G970" s="5"/>
-      <c r="H970" s="9"/>
-      <c r="I970" s="9"/>
+        <v>1604</v>
+      </c>
+      <c r="D970" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E970" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F970" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G970" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H970" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I970" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J970" s="5"/>
       <c r="K970" s="5"/>
       <c r="L970" s="5"/>
       <c r="M970" s="5"/>
-      <c r="N970" s="10"/>
-    </row>
-    <row r="971" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+      <c r="N970" s="10" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="971" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A971" s="4" t="s">
-        <v>1614</v>
+        <v>1603</v>
       </c>
       <c r="B971" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C971" s="5" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D971" s="9"/>
-      <c r="E971" s="5"/>
-      <c r="F971" s="5"/>
-      <c r="G971" s="5"/>
-      <c r="H971" s="9"/>
-      <c r="I971" s="9"/>
+        <v>1604</v>
+      </c>
+      <c r="D971" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E971" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F971" s="5" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G971" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H971" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I971" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J971" s="5"/>
       <c r="K971" s="5"/>
       <c r="L971" s="5"/>
       <c r="M971" s="5"/>
-      <c r="N971" s="10"/>
-    </row>
-    <row r="972" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+      <c r="N971" s="10" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="972" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A972" s="4" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
       <c r="B972" s="5" t="s">
-        <v>1608</v>
+        <v>1567</v>
       </c>
       <c r="C972" s="5" t="s">
-        <v>1617</v>
-      </c>
-      <c r="D972" s="9"/>
+        <v>1606</v>
+      </c>
+      <c r="D972" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E972" s="5"/>
       <c r="F972" s="5"/>
       <c r="G972" s="5"/>
@@ -36705,15 +36912,17 @@
     </row>
     <row r="973" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A973" s="4" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
       <c r="B973" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C973" s="5" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D973" s="9"/>
+        <v>1609</v>
+      </c>
+      <c r="D973" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E973" s="5"/>
       <c r="F973" s="5"/>
       <c r="G973" s="5"/>
@@ -36727,81 +36936,125 @@
     </row>
     <row r="974" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A974" s="4" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
       <c r="B974" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C974" s="5" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D974" s="9"/>
-      <c r="E974" s="5"/>
-      <c r="F974" s="5"/>
-      <c r="G974" s="5"/>
-      <c r="H974" s="9"/>
-      <c r="I974" s="9"/>
+        <v>1611</v>
+      </c>
+      <c r="D974" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E974" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F974" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G974" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H974" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I974" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J974" s="5"/>
       <c r="K974" s="5"/>
       <c r="L974" s="5"/>
       <c r="M974" s="5"/>
-      <c r="N974" s="10"/>
+      <c r="N974" s="10" t="s">
+        <v>2491</v>
+      </c>
     </row>
     <row r="975" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A975" s="4" t="s">
-        <v>1622</v>
+        <v>1610</v>
       </c>
       <c r="B975" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C975" s="5" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D975" s="9"/>
-      <c r="E975" s="5"/>
-      <c r="F975" s="5"/>
-      <c r="G975" s="5"/>
-      <c r="H975" s="9"/>
-      <c r="I975" s="9"/>
+        <v>1611</v>
+      </c>
+      <c r="D975" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E975" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F975" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G975" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H975" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I975" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J975" s="5"/>
       <c r="K975" s="5"/>
       <c r="L975" s="5"/>
       <c r="M975" s="5"/>
-      <c r="N975" s="10"/>
+      <c r="N975" s="10" t="s">
+        <v>2491</v>
+      </c>
     </row>
     <row r="976" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A976" s="4" t="s">
-        <v>1624</v>
+        <v>1610</v>
       </c>
       <c r="B976" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C976" s="5" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D976" s="9"/>
-      <c r="E976" s="5"/>
-      <c r="F976" s="5"/>
-      <c r="G976" s="5"/>
-      <c r="H976" s="9"/>
-      <c r="I976" s="9"/>
+        <v>1611</v>
+      </c>
+      <c r="D976" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E976" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F976" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G976" s="5" t="s">
+        <v>2435</v>
+      </c>
+      <c r="H976" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I976" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J976" s="5"/>
       <c r="K976" s="5"/>
       <c r="L976" s="5"/>
       <c r="M976" s="5"/>
-      <c r="N976" s="10"/>
+      <c r="N976" s="10" t="s">
+        <v>2491</v>
+      </c>
     </row>
     <row r="977" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A977" s="4" t="s">
-        <v>1626</v>
+        <v>1612</v>
       </c>
       <c r="B977" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C977" s="5" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D977" s="9"/>
+        <v>1613</v>
+      </c>
+      <c r="D977" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E977" s="5"/>
       <c r="F977" s="5"/>
       <c r="G977" s="5"/>
@@ -36815,59 +37068,89 @@
     </row>
     <row r="978" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A978" s="4" t="s">
-        <v>1628</v>
+        <v>1614</v>
       </c>
       <c r="B978" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C978" s="5" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D978" s="9"/>
-      <c r="E978" s="5"/>
-      <c r="F978" s="5"/>
-      <c r="G978" s="5"/>
-      <c r="H978" s="9"/>
-      <c r="I978" s="9"/>
+        <v>1615</v>
+      </c>
+      <c r="D978" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E978" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F978" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G978" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H978" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I978" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J978" s="5"/>
       <c r="K978" s="5"/>
       <c r="L978" s="5"/>
       <c r="M978" s="5"/>
-      <c r="N978" s="10"/>
+      <c r="N978" s="10" t="s">
+        <v>2491</v>
+      </c>
     </row>
     <row r="979" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A979" s="4" t="s">
-        <v>1630</v>
+        <v>1614</v>
       </c>
       <c r="B979" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C979" s="5" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D979" s="9"/>
-      <c r="E979" s="5"/>
-      <c r="F979" s="5"/>
-      <c r="G979" s="5"/>
-      <c r="H979" s="9"/>
-      <c r="I979" s="9"/>
+        <v>1615</v>
+      </c>
+      <c r="D979" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E979" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F979" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G979" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H979" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I979" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J979" s="5"/>
       <c r="K979" s="5"/>
       <c r="L979" s="5"/>
       <c r="M979" s="5"/>
-      <c r="N979" s="10"/>
+      <c r="N979" s="10" t="s">
+        <v>2491</v>
+      </c>
     </row>
     <row r="980" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A980" s="4" t="s">
-        <v>1632</v>
+        <v>1616</v>
       </c>
       <c r="B980" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C980" s="5" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D980" s="9"/>
+        <v>1617</v>
+      </c>
+      <c r="D980" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E980" s="5"/>
       <c r="F980" s="5"/>
       <c r="G980" s="5"/>
@@ -36881,15 +37164,17 @@
     </row>
     <row r="981" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A981" s="4" t="s">
-        <v>1634</v>
+        <v>1618</v>
       </c>
       <c r="B981" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C981" s="5" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D981" s="9"/>
+        <v>1619</v>
+      </c>
+      <c r="D981" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E981" s="5"/>
       <c r="F981" s="5"/>
       <c r="G981" s="5"/>
@@ -36903,15 +37188,17 @@
     </row>
     <row r="982" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A982" s="4" t="s">
-        <v>1636</v>
+        <v>1620</v>
       </c>
       <c r="B982" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C982" s="5" t="s">
-        <v>1637</v>
-      </c>
-      <c r="D982" s="9"/>
+        <v>1621</v>
+      </c>
+      <c r="D982" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E982" s="5"/>
       <c r="F982" s="5"/>
       <c r="G982" s="5"/>
@@ -36925,15 +37212,17 @@
     </row>
     <row r="983" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A983" s="4" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="B983" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C983" s="5" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D983" s="9"/>
+        <v>1623</v>
+      </c>
+      <c r="D983" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E983" s="5"/>
       <c r="F983" s="5"/>
       <c r="G983" s="5"/>
@@ -36947,15 +37236,17 @@
     </row>
     <row r="984" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A984" s="4" t="s">
-        <v>1640</v>
+        <v>1624</v>
       </c>
       <c r="B984" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C984" s="5" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D984" s="9"/>
+        <v>1625</v>
+      </c>
+      <c r="D984" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E984" s="5"/>
       <c r="F984" s="5"/>
       <c r="G984" s="5"/>
@@ -36969,15 +37260,17 @@
     </row>
     <row r="985" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A985" s="4" t="s">
-        <v>1642</v>
+        <v>1626</v>
       </c>
       <c r="B985" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C985" s="5" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D985" s="9"/>
+        <v>1627</v>
+      </c>
+      <c r="D985" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E985" s="5"/>
       <c r="F985" s="5"/>
       <c r="G985" s="5"/>
@@ -36991,15 +37284,17 @@
     </row>
     <row r="986" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A986" s="4" t="s">
-        <v>1644</v>
+        <v>1628</v>
       </c>
       <c r="B986" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C986" s="5" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D986" s="9"/>
+        <v>1629</v>
+      </c>
+      <c r="D986" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E986" s="5"/>
       <c r="F986" s="5"/>
       <c r="G986" s="5"/>
@@ -37013,15 +37308,17 @@
     </row>
     <row r="987" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A987" s="4" t="s">
-        <v>1646</v>
+        <v>1630</v>
       </c>
       <c r="B987" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C987" s="5" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D987" s="9"/>
+        <v>1631</v>
+      </c>
+      <c r="D987" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E987" s="5"/>
       <c r="F987" s="5"/>
       <c r="G987" s="5"/>
@@ -37033,39 +37330,55 @@
       <c r="M987" s="5"/>
       <c r="N987" s="10"/>
     </row>
-    <row r="988" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A988" s="4" t="s">
-        <v>1648</v>
+        <v>1632</v>
       </c>
       <c r="B988" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C988" s="5" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D988" s="9"/>
-      <c r="E988" s="5"/>
-      <c r="F988" s="5"/>
-      <c r="G988" s="5"/>
-      <c r="H988" s="9"/>
-      <c r="I988" s="9"/>
+        <v>1633</v>
+      </c>
+      <c r="D988" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E988" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F988" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G988" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H988" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I988" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J988" s="5"/>
       <c r="K988" s="5"/>
       <c r="L988" s="5"/>
       <c r="M988" s="5"/>
-      <c r="N988" s="10"/>
+      <c r="N988" s="10" t="s">
+        <v>2405</v>
+      </c>
     </row>
     <row r="989" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A989" s="4" t="s">
-        <v>1651</v>
+        <v>1634</v>
       </c>
       <c r="B989" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C989" s="5" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D989" s="9"/>
+        <v>1635</v>
+      </c>
+      <c r="D989" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E989" s="5"/>
       <c r="F989" s="5"/>
       <c r="G989" s="5"/>
@@ -37079,191 +37392,313 @@
     </row>
     <row r="990" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A990" s="4" t="s">
-        <v>1653</v>
+        <v>1636</v>
       </c>
       <c r="B990" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C990" s="5" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D990" s="9"/>
-      <c r="E990" s="5"/>
-      <c r="F990" s="5"/>
-      <c r="G990" s="5"/>
-      <c r="H990" s="9"/>
-      <c r="I990" s="9"/>
+        <v>1637</v>
+      </c>
+      <c r="D990" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E990" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F990" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G990" s="5" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H990" s="9" t="s">
+        <v>2430</v>
+      </c>
+      <c r="I990" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J990" s="5"/>
       <c r="K990" s="5"/>
       <c r="L990" s="5"/>
       <c r="M990" s="5"/>
-      <c r="N990" s="10"/>
+      <c r="N990" s="10" t="s">
+        <v>2492</v>
+      </c>
     </row>
     <row r="991" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A991" s="4" t="s">
-        <v>1655</v>
+        <v>1636</v>
       </c>
       <c r="B991" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C991" s="5" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D991" s="9"/>
-      <c r="E991" s="5"/>
-      <c r="F991" s="5"/>
-      <c r="G991" s="5"/>
-      <c r="H991" s="9"/>
-      <c r="I991" s="9"/>
+        <v>1637</v>
+      </c>
+      <c r="D991" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E991" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F991" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G991" s="5" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H991" s="9" t="s">
+        <v>2458</v>
+      </c>
+      <c r="I991" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J991" s="5"/>
       <c r="K991" s="5"/>
       <c r="L991" s="5"/>
       <c r="M991" s="5"/>
-      <c r="N991" s="10"/>
+      <c r="N991" s="10" t="s">
+        <v>2492</v>
+      </c>
     </row>
     <row r="992" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A992" s="4" t="s">
-        <v>1657</v>
+        <v>1636</v>
       </c>
       <c r="B992" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C992" s="5" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D992" s="9"/>
-      <c r="E992" s="5"/>
-      <c r="F992" s="5"/>
-      <c r="G992" s="5"/>
-      <c r="H992" s="9"/>
-      <c r="I992" s="9"/>
+        <v>1637</v>
+      </c>
+      <c r="D992" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E992" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F992" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G992" s="5" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H992" s="9" t="s">
+        <v>2457</v>
+      </c>
+      <c r="I992" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J992" s="5"/>
       <c r="K992" s="5"/>
       <c r="L992" s="5"/>
       <c r="M992" s="5"/>
-      <c r="N992" s="10"/>
+      <c r="N992" s="10" t="s">
+        <v>2492</v>
+      </c>
     </row>
     <row r="993" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A993" s="4" t="s">
-        <v>1659</v>
+        <v>1636</v>
       </c>
       <c r="B993" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C993" s="5" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D993" s="9"/>
-      <c r="E993" s="5"/>
-      <c r="F993" s="5"/>
-      <c r="G993" s="5"/>
-      <c r="H993" s="9"/>
-      <c r="I993" s="9"/>
-      <c r="J993" s="5"/>
-      <c r="K993" s="5"/>
+        <v>1637</v>
+      </c>
+      <c r="D993" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E993" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F993" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G993" s="5" t="s">
+        <v>2381</v>
+      </c>
+      <c r="H993" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I993" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="J993" s="9">
+        <v>5</v>
+      </c>
+      <c r="K993" s="9">
+        <v>4</v>
+      </c>
       <c r="L993" s="5"/>
       <c r="M993" s="5"/>
-      <c r="N993" s="10"/>
+      <c r="N993" s="10" t="s">
+        <v>2405</v>
+      </c>
     </row>
     <row r="994" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A994" s="4" t="s">
-        <v>1661</v>
+        <v>1636</v>
       </c>
       <c r="B994" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C994" s="5" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D994" s="9"/>
-      <c r="E994" s="5"/>
-      <c r="F994" s="5"/>
-      <c r="G994" s="5"/>
-      <c r="H994" s="9"/>
-      <c r="I994" s="9"/>
-      <c r="J994" s="5"/>
-      <c r="K994" s="5"/>
+        <v>1637</v>
+      </c>
+      <c r="D994" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E994" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F994" s="5" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G994" s="5" t="s">
+        <v>2382</v>
+      </c>
+      <c r="H994" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I994" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="J994" s="9">
+        <v>3</v>
+      </c>
+      <c r="K994" s="9">
+        <v>11</v>
+      </c>
       <c r="L994" s="5"/>
       <c r="M994" s="5"/>
-      <c r="N994" s="10"/>
-    </row>
-    <row r="995" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="N994" s="10" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="995" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A995" s="4" t="s">
-        <v>1663</v>
+        <v>1638</v>
       </c>
       <c r="B995" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C995" s="5" t="s">
-        <v>1664</v>
-      </c>
-      <c r="D995" s="9"/>
-      <c r="E995" s="5"/>
-      <c r="F995" s="5"/>
-      <c r="G995" s="5"/>
-      <c r="H995" s="9"/>
-      <c r="I995" s="9"/>
+        <v>1639</v>
+      </c>
+      <c r="D995" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E995" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F995" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G995" s="5" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H995" s="9" t="s">
+        <v>2457</v>
+      </c>
+      <c r="I995" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J995" s="5"/>
       <c r="K995" s="5"/>
       <c r="L995" s="5"/>
       <c r="M995" s="5"/>
-      <c r="N995" s="10"/>
+      <c r="N995" s="10" t="s">
+        <v>2493</v>
+      </c>
     </row>
     <row r="996" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A996" s="4" t="s">
-        <v>1665</v>
+        <v>1638</v>
       </c>
       <c r="B996" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C996" s="5" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D996" s="9"/>
-      <c r="E996" s="5"/>
-      <c r="F996" s="5"/>
-      <c r="G996" s="5"/>
-      <c r="H996" s="9"/>
-      <c r="I996" s="9"/>
+        <v>1639</v>
+      </c>
+      <c r="D996" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E996" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F996" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G996" s="5" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H996" s="9" t="s">
+        <v>2458</v>
+      </c>
+      <c r="I996" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J996" s="5"/>
       <c r="K996" s="5"/>
       <c r="L996" s="5"/>
       <c r="M996" s="5"/>
-      <c r="N996" s="10"/>
+      <c r="N996" s="10" t="s">
+        <v>2493</v>
+      </c>
     </row>
     <row r="997" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A997" s="4" t="s">
-        <v>1667</v>
+        <v>1638</v>
       </c>
       <c r="B997" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C997" s="5" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D997" s="9"/>
-      <c r="E997" s="5"/>
-      <c r="F997" s="5"/>
-      <c r="G997" s="5"/>
-      <c r="H997" s="9"/>
-      <c r="I997" s="9"/>
+        <v>1639</v>
+      </c>
+      <c r="D997" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E997" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F997" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G997" s="5" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H997" s="9" t="s">
+        <v>2430</v>
+      </c>
+      <c r="I997" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J997" s="5"/>
       <c r="K997" s="5"/>
       <c r="L997" s="5"/>
       <c r="M997" s="5"/>
-      <c r="N997" s="10"/>
-    </row>
-    <row r="998" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="N997" s="10" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="998" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A998" s="4" t="s">
-        <v>1669</v>
+        <v>1640</v>
       </c>
       <c r="B998" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C998" s="5" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D998" s="9"/>
+        <v>1641</v>
+      </c>
+      <c r="D998" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E998" s="5"/>
       <c r="F998" s="5"/>
       <c r="G998" s="5"/>
@@ -37277,15 +37712,17 @@
     </row>
     <row r="999" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A999" s="4" t="s">
-        <v>1671</v>
+        <v>1642</v>
       </c>
       <c r="B999" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C999" s="5" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D999" s="9"/>
+        <v>1643</v>
+      </c>
+      <c r="D999" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E999" s="5"/>
       <c r="F999" s="5"/>
       <c r="G999" s="5"/>
@@ -37297,17 +37734,19 @@
       <c r="M999" s="5"/>
       <c r="N999" s="10"/>
     </row>
-    <row r="1000" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1000" s="4" t="s">
-        <v>1673</v>
+        <v>1644</v>
       </c>
       <c r="B1000" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C1000" s="5" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D1000" s="9"/>
+        <v>1645</v>
+      </c>
+      <c r="D1000" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1000" s="5"/>
       <c r="F1000" s="5"/>
       <c r="G1000" s="5"/>
@@ -37321,59 +37760,85 @@
     </row>
     <row r="1001" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1001" s="4" t="s">
-        <v>1675</v>
+        <v>1646</v>
       </c>
       <c r="B1001" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C1001" s="5" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D1001" s="9"/>
-      <c r="E1001" s="5"/>
-      <c r="F1001" s="5"/>
-      <c r="G1001" s="5"/>
-      <c r="H1001" s="9"/>
-      <c r="I1001" s="9"/>
+        <v>1647</v>
+      </c>
+      <c r="D1001" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1001" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1001" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1001" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H1001" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1001" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1001" s="5"/>
       <c r="K1001" s="5"/>
       <c r="L1001" s="5"/>
       <c r="M1001" s="5"/>
       <c r="N1001" s="10"/>
     </row>
-    <row r="1002" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1002" s="4" t="s">
-        <v>1677</v>
+        <v>1646</v>
       </c>
       <c r="B1002" s="5" t="s">
-        <v>1649</v>
+        <v>1608</v>
       </c>
       <c r="C1002" s="5" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D1002" s="9"/>
-      <c r="E1002" s="5"/>
-      <c r="F1002" s="5"/>
-      <c r="G1002" s="5"/>
-      <c r="H1002" s="9"/>
-      <c r="I1002" s="9"/>
+        <v>1647</v>
+      </c>
+      <c r="D1002" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1002" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1002" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1002" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H1002" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1002" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1002" s="5"/>
       <c r="K1002" s="5"/>
       <c r="L1002" s="5"/>
       <c r="M1002" s="5"/>
       <c r="N1002" s="10"/>
     </row>
-    <row r="1003" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1003" s="4" t="s">
-        <v>1679</v>
+        <v>1648</v>
       </c>
       <c r="B1003" s="5" t="s">
         <v>1649</v>
       </c>
       <c r="C1003" s="5" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D1003" s="9"/>
+        <v>1650</v>
+      </c>
+      <c r="D1003" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1003" s="5"/>
       <c r="F1003" s="5"/>
       <c r="G1003" s="5"/>
@@ -37387,15 +37852,17 @@
     </row>
     <row r="1004" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1004" s="4" t="s">
-        <v>1681</v>
+        <v>1651</v>
       </c>
       <c r="B1004" s="5" t="s">
         <v>1649</v>
       </c>
       <c r="C1004" s="5" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D1004" s="9"/>
+        <v>1652</v>
+      </c>
+      <c r="D1004" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1004" s="5"/>
       <c r="F1004" s="5"/>
       <c r="G1004" s="5"/>
@@ -37407,17 +37874,19 @@
       <c r="M1004" s="5"/>
       <c r="N1004" s="10"/>
     </row>
-    <row r="1005" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1005" s="4" t="s">
-        <v>1683</v>
+        <v>1653</v>
       </c>
       <c r="B1005" s="5" t="s">
         <v>1649</v>
       </c>
       <c r="C1005" s="5" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D1005" s="9"/>
+        <v>1654</v>
+      </c>
+      <c r="D1005" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1005" s="5"/>
       <c r="F1005" s="5"/>
       <c r="G1005" s="5"/>
@@ -37431,15 +37900,17 @@
     </row>
     <row r="1006" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1006" s="4" t="s">
-        <v>1685</v>
+        <v>1655</v>
       </c>
       <c r="B1006" s="5" t="s">
         <v>1649</v>
       </c>
       <c r="C1006" s="5" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D1006" s="9"/>
+        <v>1656</v>
+      </c>
+      <c r="D1006" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1006" s="5"/>
       <c r="F1006" s="5"/>
       <c r="G1006" s="5"/>
@@ -37453,15 +37924,17 @@
     </row>
     <row r="1007" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1007" s="4" t="s">
-        <v>1687</v>
+        <v>1657</v>
       </c>
       <c r="B1007" s="5" t="s">
         <v>1649</v>
       </c>
       <c r="C1007" s="5" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D1007" s="9"/>
+        <v>1658</v>
+      </c>
+      <c r="D1007" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1007" s="5"/>
       <c r="F1007" s="5"/>
       <c r="G1007" s="5"/>
@@ -37473,17 +37946,19 @@
       <c r="M1007" s="5"/>
       <c r="N1007" s="10"/>
     </row>
-    <row r="1008" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1008" s="4" t="s">
-        <v>1689</v>
+        <v>1659</v>
       </c>
       <c r="B1008" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1008" s="5" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D1008" s="9"/>
+        <v>1660</v>
+      </c>
+      <c r="D1008" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1008" s="5"/>
       <c r="F1008" s="5"/>
       <c r="G1008" s="5"/>
@@ -37495,17 +37970,19 @@
       <c r="M1008" s="5"/>
       <c r="N1008" s="10"/>
     </row>
-    <row r="1009" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1009" s="4" t="s">
-        <v>1692</v>
+        <v>1661</v>
       </c>
       <c r="B1009" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1009" s="5" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D1009" s="9"/>
+        <v>1662</v>
+      </c>
+      <c r="D1009" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1009" s="5"/>
       <c r="F1009" s="5"/>
       <c r="G1009" s="5"/>
@@ -37519,15 +37996,17 @@
     </row>
     <row r="1010" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1010" s="4" t="s">
-        <v>1694</v>
+        <v>1663</v>
       </c>
       <c r="B1010" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1010" s="5" t="s">
-        <v>1695</v>
-      </c>
-      <c r="D1010" s="9"/>
+        <v>1664</v>
+      </c>
+      <c r="D1010" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1010" s="5"/>
       <c r="F1010" s="5"/>
       <c r="G1010" s="5"/>
@@ -37539,17 +38018,19 @@
       <c r="M1010" s="5"/>
       <c r="N1010" s="10"/>
     </row>
-    <row r="1011" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1011" s="4" t="s">
-        <v>1696</v>
+        <v>1665</v>
       </c>
       <c r="B1011" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1011" s="5" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D1011" s="9"/>
+        <v>1666</v>
+      </c>
+      <c r="D1011" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1011" s="5"/>
       <c r="F1011" s="5"/>
       <c r="G1011" s="5"/>
@@ -37561,17 +38042,19 @@
       <c r="M1011" s="5"/>
       <c r="N1011" s="10"/>
     </row>
-    <row r="1012" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1012" s="4" t="s">
-        <v>1698</v>
+        <v>1667</v>
       </c>
       <c r="B1012" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1012" s="5" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D1012" s="9"/>
+        <v>1668</v>
+      </c>
+      <c r="D1012" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1012" s="5"/>
       <c r="F1012" s="5"/>
       <c r="G1012" s="5"/>
@@ -37585,15 +38068,17 @@
     </row>
     <row r="1013" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1013" s="4" t="s">
-        <v>1700</v>
+        <v>1669</v>
       </c>
       <c r="B1013" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1013" s="5" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D1013" s="9"/>
+        <v>1670</v>
+      </c>
+      <c r="D1013" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1013" s="5"/>
       <c r="F1013" s="5"/>
       <c r="G1013" s="5"/>
@@ -37605,17 +38090,19 @@
       <c r="M1013" s="5"/>
       <c r="N1013" s="10"/>
     </row>
-    <row r="1014" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1014" s="4" t="s">
-        <v>1702</v>
+        <v>1671</v>
       </c>
       <c r="B1014" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1014" s="5" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D1014" s="9"/>
+        <v>1672</v>
+      </c>
+      <c r="D1014" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1014" s="5"/>
       <c r="F1014" s="5"/>
       <c r="G1014" s="5"/>
@@ -37629,15 +38116,17 @@
     </row>
     <row r="1015" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1015" s="4" t="s">
-        <v>1704</v>
+        <v>1673</v>
       </c>
       <c r="B1015" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1015" s="5" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D1015" s="9"/>
+        <v>1674</v>
+      </c>
+      <c r="D1015" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1015" s="5"/>
       <c r="F1015" s="5"/>
       <c r="G1015" s="5"/>
@@ -37649,17 +38138,19 @@
       <c r="M1015" s="5"/>
       <c r="N1015" s="10"/>
     </row>
-    <row r="1016" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1016" s="4" t="s">
-        <v>1706</v>
+        <v>1675</v>
       </c>
       <c r="B1016" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1016" s="5" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D1016" s="9"/>
+        <v>1676</v>
+      </c>
+      <c r="D1016" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1016" s="5"/>
       <c r="F1016" s="5"/>
       <c r="G1016" s="5"/>
@@ -37673,15 +38164,17 @@
     </row>
     <row r="1017" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1017" s="4" t="s">
-        <v>1708</v>
+        <v>1677</v>
       </c>
       <c r="B1017" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1017" s="5" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D1017" s="9"/>
+        <v>1678</v>
+      </c>
+      <c r="D1017" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1017" s="5"/>
       <c r="F1017" s="5"/>
       <c r="G1017" s="5"/>
@@ -37693,15 +38186,15 @@
       <c r="M1017" s="5"/>
       <c r="N1017" s="10"/>
     </row>
-    <row r="1018" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1018" s="4" t="s">
-        <v>1710</v>
+        <v>1679</v>
       </c>
       <c r="B1018" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1018" s="5" t="s">
-        <v>1711</v>
+        <v>1680</v>
       </c>
       <c r="D1018" s="9"/>
       <c r="E1018" s="5"/>
@@ -37715,15 +38208,15 @@
       <c r="M1018" s="5"/>
       <c r="N1018" s="10"/>
     </row>
-    <row r="1019" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1019" s="4" t="s">
-        <v>1712</v>
+        <v>1681</v>
       </c>
       <c r="B1019" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1019" s="5" t="s">
-        <v>1713</v>
+        <v>1682</v>
       </c>
       <c r="D1019" s="9"/>
       <c r="E1019" s="5"/>
@@ -37739,13 +38232,13 @@
     </row>
     <row r="1020" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1020" s="4" t="s">
-        <v>1714</v>
+        <v>1683</v>
       </c>
       <c r="B1020" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1020" s="5" t="s">
-        <v>1715</v>
+        <v>1684</v>
       </c>
       <c r="D1020" s="9"/>
       <c r="E1020" s="5"/>
@@ -37759,15 +38252,15 @@
       <c r="M1020" s="5"/>
       <c r="N1020" s="10"/>
     </row>
-    <row r="1021" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1021" s="4" t="s">
-        <v>1716</v>
+        <v>1685</v>
       </c>
       <c r="B1021" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1021" s="5" t="s">
-        <v>1717</v>
+        <v>1686</v>
       </c>
       <c r="D1021" s="9"/>
       <c r="E1021" s="5"/>
@@ -37781,15 +38274,15 @@
       <c r="M1021" s="5"/>
       <c r="N1021" s="10"/>
     </row>
-    <row r="1022" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1022" s="4" t="s">
-        <v>1718</v>
+        <v>1687</v>
       </c>
       <c r="B1022" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C1022" s="5" t="s">
-        <v>1719</v>
+        <v>1688</v>
       </c>
       <c r="D1022" s="9"/>
       <c r="E1022" s="5"/>
@@ -37805,13 +38298,13 @@
     </row>
     <row r="1023" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1023" s="4" t="s">
-        <v>1720</v>
+        <v>1689</v>
       </c>
       <c r="B1023" s="5" t="s">
         <v>1690</v>
       </c>
       <c r="C1023" s="5" t="s">
-        <v>1721</v>
+        <v>1691</v>
       </c>
       <c r="D1023" s="9"/>
       <c r="E1023" s="5"/>
@@ -37827,13 +38320,13 @@
     </row>
     <row r="1024" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1024" s="4" t="s">
-        <v>1722</v>
+        <v>1692</v>
       </c>
       <c r="B1024" s="5" t="s">
         <v>1690</v>
       </c>
       <c r="C1024" s="5" t="s">
-        <v>1723</v>
+        <v>1693</v>
       </c>
       <c r="D1024" s="9"/>
       <c r="E1024" s="5"/>
@@ -37849,13 +38342,13 @@
     </row>
     <row r="1025" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1025" s="4" t="s">
-        <v>1724</v>
+        <v>1694</v>
       </c>
       <c r="B1025" s="5" t="s">
         <v>1690</v>
       </c>
       <c r="C1025" s="5" t="s">
-        <v>1725</v>
+        <v>1695</v>
       </c>
       <c r="D1025" s="9"/>
       <c r="E1025" s="5"/>
@@ -37871,13 +38364,13 @@
     </row>
     <row r="1026" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1026" s="4" t="s">
-        <v>1726</v>
+        <v>1696</v>
       </c>
       <c r="B1026" s="5" t="s">
         <v>1690</v>
       </c>
       <c r="C1026" s="5" t="s">
-        <v>1727</v>
+        <v>1697</v>
       </c>
       <c r="D1026" s="9"/>
       <c r="E1026" s="5"/>
@@ -37893,13 +38386,13 @@
     </row>
     <row r="1027" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1027" s="4" t="s">
-        <v>1728</v>
+        <v>1698</v>
       </c>
       <c r="B1027" s="5" t="s">
         <v>1690</v>
       </c>
       <c r="C1027" s="5" t="s">
-        <v>1729</v>
+        <v>1699</v>
       </c>
       <c r="D1027" s="9"/>
       <c r="E1027" s="5"/>
@@ -37915,13 +38408,13 @@
     </row>
     <row r="1028" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1028" s="4" t="s">
-        <v>1730</v>
+        <v>1700</v>
       </c>
       <c r="B1028" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1028" s="5" t="s">
-        <v>1732</v>
+        <v>1701</v>
       </c>
       <c r="D1028" s="9"/>
       <c r="E1028" s="5"/>
@@ -37937,13 +38430,13 @@
     </row>
     <row r="1029" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1029" s="4" t="s">
-        <v>1733</v>
+        <v>1702</v>
       </c>
       <c r="B1029" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1029" s="5" t="s">
-        <v>1734</v>
+        <v>1703</v>
       </c>
       <c r="D1029" s="9"/>
       <c r="E1029" s="5"/>
@@ -37959,13 +38452,13 @@
     </row>
     <row r="1030" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1030" s="4" t="s">
-        <v>1735</v>
+        <v>1704</v>
       </c>
       <c r="B1030" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1030" s="5" t="s">
-        <v>1736</v>
+        <v>1705</v>
       </c>
       <c r="D1030" s="9"/>
       <c r="E1030" s="5"/>
@@ -37981,13 +38474,13 @@
     </row>
     <row r="1031" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1031" s="4" t="s">
-        <v>1737</v>
+        <v>1706</v>
       </c>
       <c r="B1031" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1031" s="5" t="s">
-        <v>1738</v>
+        <v>1707</v>
       </c>
       <c r="D1031" s="9"/>
       <c r="E1031" s="5"/>
@@ -38003,13 +38496,13 @@
     </row>
     <row r="1032" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1032" s="4" t="s">
-        <v>1739</v>
+        <v>1708</v>
       </c>
       <c r="B1032" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1032" s="5" t="s">
-        <v>1740</v>
+        <v>1709</v>
       </c>
       <c r="D1032" s="9"/>
       <c r="E1032" s="5"/>
@@ -38025,13 +38518,13 @@
     </row>
     <row r="1033" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1033" s="4" t="s">
-        <v>1741</v>
+        <v>1710</v>
       </c>
       <c r="B1033" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1033" s="5" t="s">
-        <v>1742</v>
+        <v>1711</v>
       </c>
       <c r="D1033" s="9"/>
       <c r="E1033" s="5"/>
@@ -38047,13 +38540,13 @@
     </row>
     <row r="1034" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1034" s="4" t="s">
-        <v>1743</v>
+        <v>1712</v>
       </c>
       <c r="B1034" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1034" s="5" t="s">
-        <v>1744</v>
+        <v>1713</v>
       </c>
       <c r="D1034" s="9"/>
       <c r="E1034" s="5"/>
@@ -38069,13 +38562,13 @@
     </row>
     <row r="1035" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1035" s="4" t="s">
-        <v>1745</v>
+        <v>1714</v>
       </c>
       <c r="B1035" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1035" s="5" t="s">
-        <v>1746</v>
+        <v>1715</v>
       </c>
       <c r="D1035" s="9"/>
       <c r="E1035" s="5"/>
@@ -38091,13 +38584,13 @@
     </row>
     <row r="1036" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1036" s="4" t="s">
-        <v>1747</v>
+        <v>1716</v>
       </c>
       <c r="B1036" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1036" s="5" t="s">
-        <v>1748</v>
+        <v>1717</v>
       </c>
       <c r="D1036" s="9"/>
       <c r="E1036" s="5"/>
@@ -38113,13 +38606,13 @@
     </row>
     <row r="1037" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1037" s="4" t="s">
-        <v>1749</v>
+        <v>1718</v>
       </c>
       <c r="B1037" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1037" s="5" t="s">
-        <v>1750</v>
+        <v>1719</v>
       </c>
       <c r="D1037" s="9"/>
       <c r="E1037" s="5"/>
@@ -38135,13 +38628,13 @@
     </row>
     <row r="1038" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1038" s="4" t="s">
-        <v>1751</v>
+        <v>1720</v>
       </c>
       <c r="B1038" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1038" s="5" t="s">
-        <v>1752</v>
+        <v>1721</v>
       </c>
       <c r="D1038" s="9"/>
       <c r="E1038" s="5"/>
@@ -38157,13 +38650,13 @@
     </row>
     <row r="1039" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1039" s="4" t="s">
-        <v>1753</v>
+        <v>1722</v>
       </c>
       <c r="B1039" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1039" s="5" t="s">
-        <v>1754</v>
+        <v>1723</v>
       </c>
       <c r="D1039" s="9"/>
       <c r="E1039" s="5"/>
@@ -38179,13 +38672,13 @@
     </row>
     <row r="1040" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1040" s="4" t="s">
-        <v>1755</v>
+        <v>1724</v>
       </c>
       <c r="B1040" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1040" s="5" t="s">
-        <v>1756</v>
+        <v>1725</v>
       </c>
       <c r="D1040" s="9"/>
       <c r="E1040" s="5"/>
@@ -38201,13 +38694,13 @@
     </row>
     <row r="1041" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1041" s="4" t="s">
-        <v>1757</v>
+        <v>1726</v>
       </c>
       <c r="B1041" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1041" s="5" t="s">
-        <v>1758</v>
+        <v>1727</v>
       </c>
       <c r="D1041" s="9"/>
       <c r="E1041" s="5"/>
@@ -38223,13 +38716,13 @@
     </row>
     <row r="1042" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1042" s="4" t="s">
-        <v>1759</v>
+        <v>1728</v>
       </c>
       <c r="B1042" s="5" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
       <c r="C1042" s="5" t="s">
-        <v>1760</v>
+        <v>1729</v>
       </c>
       <c r="D1042" s="9"/>
       <c r="E1042" s="5"/>
@@ -38245,13 +38738,13 @@
     </row>
     <row r="1043" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1043" s="4" t="s">
-        <v>1761</v>
+        <v>1730</v>
       </c>
       <c r="B1043" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1043" s="5" t="s">
-        <v>1762</v>
+        <v>1732</v>
       </c>
       <c r="D1043" s="9"/>
       <c r="E1043" s="5"/>
@@ -38267,13 +38760,13 @@
     </row>
     <row r="1044" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1044" s="4" t="s">
-        <v>1763</v>
+        <v>1733</v>
       </c>
       <c r="B1044" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1044" s="5" t="s">
-        <v>1764</v>
+        <v>1734</v>
       </c>
       <c r="D1044" s="9"/>
       <c r="E1044" s="5"/>
@@ -38289,13 +38782,13 @@
     </row>
     <row r="1045" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1045" s="4" t="s">
-        <v>1765</v>
+        <v>1735</v>
       </c>
       <c r="B1045" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1045" s="5" t="s">
-        <v>1766</v>
+        <v>1736</v>
       </c>
       <c r="D1045" s="9"/>
       <c r="E1045" s="5"/>
@@ -38311,13 +38804,13 @@
     </row>
     <row r="1046" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1046" s="4" t="s">
-        <v>1767</v>
+        <v>1737</v>
       </c>
       <c r="B1046" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1046" s="5" t="s">
-        <v>1768</v>
+        <v>1738</v>
       </c>
       <c r="D1046" s="9"/>
       <c r="E1046" s="5"/>
@@ -38333,13 +38826,13 @@
     </row>
     <row r="1047" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1047" s="4" t="s">
-        <v>1769</v>
+        <v>1739</v>
       </c>
       <c r="B1047" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1047" s="5" t="s">
-        <v>1770</v>
+        <v>1740</v>
       </c>
       <c r="D1047" s="9"/>
       <c r="E1047" s="5"/>
@@ -38353,15 +38846,15 @@
       <c r="M1047" s="5"/>
       <c r="N1047" s="10"/>
     </row>
-    <row r="1048" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1048" s="4" t="s">
-        <v>1771</v>
+        <v>1741</v>
       </c>
       <c r="B1048" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1048" s="5" t="s">
-        <v>1773</v>
+        <v>1742</v>
       </c>
       <c r="D1048" s="9"/>
       <c r="E1048" s="5"/>
@@ -38375,15 +38868,15 @@
       <c r="M1048" s="5"/>
       <c r="N1048" s="10"/>
     </row>
-    <row r="1049" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1049" s="4" t="s">
-        <v>1774</v>
+        <v>1743</v>
       </c>
       <c r="B1049" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1049" s="5" t="s">
-        <v>1775</v>
+        <v>1744</v>
       </c>
       <c r="D1049" s="9"/>
       <c r="E1049" s="5"/>
@@ -38397,15 +38890,15 @@
       <c r="M1049" s="5"/>
       <c r="N1049" s="10"/>
     </row>
-    <row r="1050" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1050" s="4" t="s">
-        <v>1776</v>
+        <v>1745</v>
       </c>
       <c r="B1050" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1050" s="5" t="s">
-        <v>1777</v>
+        <v>1746</v>
       </c>
       <c r="D1050" s="9"/>
       <c r="E1050" s="5"/>
@@ -38419,15 +38912,15 @@
       <c r="M1050" s="5"/>
       <c r="N1050" s="10"/>
     </row>
-    <row r="1051" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1051" s="4" t="s">
-        <v>1778</v>
+        <v>1747</v>
       </c>
       <c r="B1051" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1051" s="5" t="s">
-        <v>1779</v>
+        <v>1748</v>
       </c>
       <c r="D1051" s="9"/>
       <c r="E1051" s="5"/>
@@ -38441,15 +38934,15 @@
       <c r="M1051" s="5"/>
       <c r="N1051" s="10"/>
     </row>
-    <row r="1052" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1052" s="4" t="s">
-        <v>1780</v>
+        <v>1749</v>
       </c>
       <c r="B1052" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1052" s="5" t="s">
-        <v>1781</v>
+        <v>1750</v>
       </c>
       <c r="D1052" s="9"/>
       <c r="E1052" s="5"/>
@@ -38463,15 +38956,15 @@
       <c r="M1052" s="5"/>
       <c r="N1052" s="10"/>
     </row>
-    <row r="1053" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1053" s="4" t="s">
-        <v>1782</v>
+        <v>1751</v>
       </c>
       <c r="B1053" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1053" s="5" t="s">
-        <v>1783</v>
+        <v>1752</v>
       </c>
       <c r="D1053" s="9"/>
       <c r="E1053" s="5"/>
@@ -38485,15 +38978,15 @@
       <c r="M1053" s="5"/>
       <c r="N1053" s="10"/>
     </row>
-    <row r="1054" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1054" s="4" t="s">
-        <v>1784</v>
+        <v>1753</v>
       </c>
       <c r="B1054" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1054" s="5" t="s">
-        <v>1785</v>
+        <v>1754</v>
       </c>
       <c r="D1054" s="9"/>
       <c r="E1054" s="5"/>
@@ -38507,15 +39000,15 @@
       <c r="M1054" s="5"/>
       <c r="N1054" s="10"/>
     </row>
-    <row r="1055" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1055" s="4" t="s">
-        <v>1786</v>
+        <v>1755</v>
       </c>
       <c r="B1055" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1055" s="5" t="s">
-        <v>43</v>
+        <v>1756</v>
       </c>
       <c r="D1055" s="9"/>
       <c r="E1055" s="5"/>
@@ -38529,15 +39022,15 @@
       <c r="M1055" s="5"/>
       <c r="N1055" s="10"/>
     </row>
-    <row r="1056" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1056" s="4" t="s">
-        <v>1787</v>
+        <v>1757</v>
       </c>
       <c r="B1056" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1056" s="5" t="s">
-        <v>9</v>
+        <v>1758</v>
       </c>
       <c r="D1056" s="9"/>
       <c r="E1056" s="5"/>
@@ -38551,15 +39044,15 @@
       <c r="M1056" s="5"/>
       <c r="N1056" s="10"/>
     </row>
-    <row r="1057" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1057" s="4" t="s">
-        <v>1788</v>
+        <v>1759</v>
       </c>
       <c r="B1057" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1057" s="5" t="s">
-        <v>1789</v>
+        <v>1760</v>
       </c>
       <c r="D1057" s="9"/>
       <c r="E1057" s="5"/>
@@ -38573,15 +39066,15 @@
       <c r="M1057" s="5"/>
       <c r="N1057" s="10"/>
     </row>
-    <row r="1058" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1058" s="4" t="s">
-        <v>1790</v>
+        <v>1761</v>
       </c>
       <c r="B1058" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1058" s="5" t="s">
-        <v>1791</v>
+        <v>1762</v>
       </c>
       <c r="D1058" s="9"/>
       <c r="E1058" s="5"/>
@@ -38595,15 +39088,15 @@
       <c r="M1058" s="5"/>
       <c r="N1058" s="10"/>
     </row>
-    <row r="1059" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1059" s="4" t="s">
-        <v>1792</v>
+        <v>1763</v>
       </c>
       <c r="B1059" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1059" s="5" t="s">
-        <v>1793</v>
+        <v>1764</v>
       </c>
       <c r="D1059" s="9"/>
       <c r="E1059" s="5"/>
@@ -38617,15 +39110,15 @@
       <c r="M1059" s="5"/>
       <c r="N1059" s="10"/>
     </row>
-    <row r="1060" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1060" s="4" t="s">
-        <v>1794</v>
+        <v>1765</v>
       </c>
       <c r="B1060" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1060" s="5" t="s">
-        <v>1795</v>
+        <v>1766</v>
       </c>
       <c r="D1060" s="9"/>
       <c r="E1060" s="5"/>
@@ -38639,15 +39132,15 @@
       <c r="M1060" s="5"/>
       <c r="N1060" s="10"/>
     </row>
-    <row r="1061" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1061" s="4" t="s">
-        <v>1796</v>
+        <v>1767</v>
       </c>
       <c r="B1061" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1061" s="5" t="s">
-        <v>1797</v>
+        <v>1768</v>
       </c>
       <c r="D1061" s="9"/>
       <c r="E1061" s="5"/>
@@ -38661,15 +39154,15 @@
       <c r="M1061" s="5"/>
       <c r="N1061" s="10"/>
     </row>
-    <row r="1062" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1062" s="4" t="s">
-        <v>1798</v>
+        <v>1769</v>
       </c>
       <c r="B1062" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1062" s="5" t="s">
-        <v>1799</v>
+        <v>1770</v>
       </c>
       <c r="D1062" s="9"/>
       <c r="E1062" s="5"/>
@@ -38685,13 +39178,13 @@
     </row>
     <row r="1063" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1063" s="4" t="s">
-        <v>1800</v>
+        <v>1771</v>
       </c>
       <c r="B1063" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1063" s="5" t="s">
-        <v>11</v>
+        <v>1773</v>
       </c>
       <c r="D1063" s="9"/>
       <c r="E1063" s="5"/>
@@ -38707,13 +39200,13 @@
     </row>
     <row r="1064" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1064" s="4" t="s">
-        <v>1801</v>
+        <v>1774</v>
       </c>
       <c r="B1064" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1064" s="5" t="s">
-        <v>1802</v>
+        <v>1775</v>
       </c>
       <c r="D1064" s="9"/>
       <c r="E1064" s="5"/>
@@ -38729,13 +39222,13 @@
     </row>
     <row r="1065" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1065" s="4" t="s">
-        <v>1803</v>
+        <v>1776</v>
       </c>
       <c r="B1065" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1065" s="5" t="s">
-        <v>1804</v>
+        <v>1777</v>
       </c>
       <c r="D1065" s="9"/>
       <c r="E1065" s="5"/>
@@ -38751,13 +39244,13 @@
     </row>
     <row r="1066" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1066" s="4" t="s">
-        <v>1805</v>
+        <v>1778</v>
       </c>
       <c r="B1066" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1066" s="5" t="s">
-        <v>1773</v>
+        <v>1779</v>
       </c>
       <c r="D1066" s="9"/>
       <c r="E1066" s="5"/>
@@ -38773,13 +39266,13 @@
     </row>
     <row r="1067" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1067" s="4" t="s">
-        <v>1806</v>
+        <v>1780</v>
       </c>
       <c r="B1067" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1067" s="5" t="s">
-        <v>1807</v>
+        <v>1781</v>
       </c>
       <c r="D1067" s="9"/>
       <c r="E1067" s="5"/>
@@ -38793,15 +39286,15 @@
       <c r="M1067" s="5"/>
       <c r="N1067" s="10"/>
     </row>
-    <row r="1068" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1068" s="4" t="s">
-        <v>1808</v>
+        <v>1782</v>
       </c>
       <c r="B1068" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1068" s="5" t="s">
-        <v>1810</v>
+        <v>1783</v>
       </c>
       <c r="D1068" s="9"/>
       <c r="E1068" s="5"/>
@@ -38815,15 +39308,15 @@
       <c r="M1068" s="5"/>
       <c r="N1068" s="10"/>
     </row>
-    <row r="1069" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1069" s="4" t="s">
-        <v>1811</v>
+        <v>1784</v>
       </c>
       <c r="B1069" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1069" s="5" t="s">
-        <v>1812</v>
+        <v>1785</v>
       </c>
       <c r="D1069" s="9"/>
       <c r="E1069" s="5"/>
@@ -38837,15 +39330,15 @@
       <c r="M1069" s="5"/>
       <c r="N1069" s="10"/>
     </row>
-    <row r="1070" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1070" s="4" t="s">
-        <v>1813</v>
+        <v>1786</v>
       </c>
       <c r="B1070" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1070" s="5" t="s">
-        <v>1814</v>
+        <v>43</v>
       </c>
       <c r="D1070" s="9"/>
       <c r="E1070" s="5"/>
@@ -38859,15 +39352,15 @@
       <c r="M1070" s="5"/>
       <c r="N1070" s="10"/>
     </row>
-    <row r="1071" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1071" s="4" t="s">
-        <v>1815</v>
+        <v>1787</v>
       </c>
       <c r="B1071" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1071" s="5" t="s">
-        <v>1816</v>
+        <v>9</v>
       </c>
       <c r="D1071" s="9"/>
       <c r="E1071" s="5"/>
@@ -38881,15 +39374,15 @@
       <c r="M1071" s="5"/>
       <c r="N1071" s="10"/>
     </row>
-    <row r="1072" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1072" s="4" t="s">
-        <v>1817</v>
+        <v>1788</v>
       </c>
       <c r="B1072" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1072" s="5" t="s">
-        <v>1818</v>
+        <v>1789</v>
       </c>
       <c r="D1072" s="9"/>
       <c r="E1072" s="5"/>
@@ -38903,15 +39396,15 @@
       <c r="M1072" s="5"/>
       <c r="N1072" s="10"/>
     </row>
-    <row r="1073" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1073" s="4" t="s">
-        <v>1819</v>
+        <v>1790</v>
       </c>
       <c r="B1073" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1073" s="5" t="s">
-        <v>1820</v>
+        <v>1791</v>
       </c>
       <c r="D1073" s="9"/>
       <c r="E1073" s="5"/>
@@ -38925,15 +39418,15 @@
       <c r="M1073" s="5"/>
       <c r="N1073" s="10"/>
     </row>
-    <row r="1074" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1074" s="4" t="s">
-        <v>1821</v>
+        <v>1792</v>
       </c>
       <c r="B1074" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1074" s="5" t="s">
-        <v>1822</v>
+        <v>1793</v>
       </c>
       <c r="D1074" s="9"/>
       <c r="E1074" s="5"/>
@@ -38947,15 +39440,15 @@
       <c r="M1074" s="5"/>
       <c r="N1074" s="10"/>
     </row>
-    <row r="1075" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1075" s="4" t="s">
-        <v>1823</v>
+        <v>1794</v>
       </c>
       <c r="B1075" s="5" t="s">
-        <v>1824</v>
+        <v>1772</v>
       </c>
       <c r="C1075" s="5" t="s">
-        <v>1825</v>
+        <v>1795</v>
       </c>
       <c r="D1075" s="9"/>
       <c r="E1075" s="5"/>
@@ -38969,15 +39462,15 @@
       <c r="M1075" s="5"/>
       <c r="N1075" s="10"/>
     </row>
-    <row r="1076" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1076" s="4" t="s">
-        <v>1826</v>
+        <v>1796</v>
       </c>
       <c r="B1076" s="5" t="s">
-        <v>1824</v>
+        <v>1772</v>
       </c>
       <c r="C1076" s="5" t="s">
-        <v>1827</v>
+        <v>1797</v>
       </c>
       <c r="D1076" s="9"/>
       <c r="E1076" s="5"/>
@@ -38991,15 +39484,15 @@
       <c r="M1076" s="5"/>
       <c r="N1076" s="10"/>
     </row>
-    <row r="1077" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1077" s="4" t="s">
-        <v>1828</v>
+        <v>1798</v>
       </c>
       <c r="B1077" s="5" t="s">
-        <v>1824</v>
+        <v>1772</v>
       </c>
       <c r="C1077" s="5" t="s">
-        <v>1829</v>
+        <v>1799</v>
       </c>
       <c r="D1077" s="9"/>
       <c r="E1077" s="5"/>
@@ -39013,15 +39506,15 @@
       <c r="M1077" s="5"/>
       <c r="N1077" s="10"/>
     </row>
-    <row r="1078" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1078" s="4" t="s">
-        <v>1830</v>
+        <v>1800</v>
       </c>
       <c r="B1078" s="5" t="s">
-        <v>1824</v>
+        <v>1772</v>
       </c>
       <c r="C1078" s="5" t="s">
-        <v>1831</v>
+        <v>11</v>
       </c>
       <c r="D1078" s="9"/>
       <c r="E1078" s="5"/>
@@ -39035,15 +39528,15 @@
       <c r="M1078" s="5"/>
       <c r="N1078" s="10"/>
     </row>
-    <row r="1079" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1079" s="4" t="s">
-        <v>1832</v>
+        <v>1801</v>
       </c>
       <c r="B1079" s="5" t="s">
-        <v>1824</v>
+        <v>1772</v>
       </c>
       <c r="C1079" s="5" t="s">
-        <v>1833</v>
+        <v>1802</v>
       </c>
       <c r="D1079" s="9"/>
       <c r="E1079" s="5"/>
@@ -39057,15 +39550,15 @@
       <c r="M1079" s="5"/>
       <c r="N1079" s="10"/>
     </row>
-    <row r="1080" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1080" s="4" t="s">
-        <v>1834</v>
+        <v>1803</v>
       </c>
       <c r="B1080" s="5" t="s">
-        <v>1824</v>
+        <v>1772</v>
       </c>
       <c r="C1080" s="5" t="s">
-        <v>1586</v>
+        <v>1804</v>
       </c>
       <c r="D1080" s="9"/>
       <c r="E1080" s="5"/>
@@ -39079,15 +39572,15 @@
       <c r="M1080" s="5"/>
       <c r="N1080" s="10"/>
     </row>
-    <row r="1081" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1081" s="4" t="s">
-        <v>1835</v>
+        <v>1805</v>
       </c>
       <c r="B1081" s="5" t="s">
-        <v>1824</v>
+        <v>1772</v>
       </c>
       <c r="C1081" s="5" t="s">
-        <v>1836</v>
+        <v>1773</v>
       </c>
       <c r="D1081" s="9"/>
       <c r="E1081" s="5"/>
@@ -39101,15 +39594,15 @@
       <c r="M1081" s="5"/>
       <c r="N1081" s="10"/>
     </row>
-    <row r="1082" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1082" s="4" t="s">
-        <v>1837</v>
+        <v>1806</v>
       </c>
       <c r="B1082" s="5" t="s">
-        <v>1824</v>
+        <v>1772</v>
       </c>
       <c r="C1082" s="5" t="s">
-        <v>1838</v>
+        <v>1807</v>
       </c>
       <c r="D1082" s="9"/>
       <c r="E1082" s="5"/>
@@ -39125,13 +39618,13 @@
     </row>
     <row r="1083" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1083" s="4" t="s">
-        <v>1839</v>
+        <v>1808</v>
       </c>
       <c r="B1083" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1083" s="5" t="s">
-        <v>1840</v>
+        <v>1810</v>
       </c>
       <c r="D1083" s="9"/>
       <c r="E1083" s="5"/>
@@ -39147,13 +39640,13 @@
     </row>
     <row r="1084" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1084" s="4" t="s">
-        <v>1841</v>
+        <v>1811</v>
       </c>
       <c r="B1084" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1084" s="5" t="s">
-        <v>1842</v>
+        <v>1812</v>
       </c>
       <c r="D1084" s="9"/>
       <c r="E1084" s="5"/>
@@ -39169,13 +39662,13 @@
     </row>
     <row r="1085" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1085" s="4" t="s">
-        <v>1843</v>
+        <v>1813</v>
       </c>
       <c r="B1085" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1085" s="5" t="s">
-        <v>1844</v>
+        <v>1814</v>
       </c>
       <c r="D1085" s="9"/>
       <c r="E1085" s="5"/>
@@ -39191,13 +39684,13 @@
     </row>
     <row r="1086" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1086" s="4" t="s">
-        <v>1845</v>
+        <v>1815</v>
       </c>
       <c r="B1086" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1086" s="5" t="s">
-        <v>1846</v>
+        <v>1816</v>
       </c>
       <c r="D1086" s="9"/>
       <c r="E1086" s="5"/>
@@ -39213,13 +39706,13 @@
     </row>
     <row r="1087" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1087" s="4" t="s">
-        <v>1847</v>
+        <v>1817</v>
       </c>
       <c r="B1087" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1087" s="5" t="s">
-        <v>1848</v>
+        <v>1818</v>
       </c>
       <c r="D1087" s="9"/>
       <c r="E1087" s="5"/>
@@ -39235,13 +39728,13 @@
     </row>
     <row r="1088" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1088" s="4" t="s">
-        <v>1849</v>
+        <v>1819</v>
       </c>
       <c r="B1088" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1088" s="5" t="s">
-        <v>1850</v>
+        <v>1820</v>
       </c>
       <c r="D1088" s="9"/>
       <c r="E1088" s="5"/>
@@ -39257,13 +39750,13 @@
     </row>
     <row r="1089" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1089" s="4" t="s">
-        <v>1851</v>
+        <v>1821</v>
       </c>
       <c r="B1089" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1089" s="5" t="s">
-        <v>1852</v>
+        <v>1822</v>
       </c>
       <c r="D1089" s="9"/>
       <c r="E1089" s="5"/>
@@ -39279,13 +39772,13 @@
     </row>
     <row r="1090" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1090" s="4" t="s">
-        <v>1853</v>
+        <v>1823</v>
       </c>
       <c r="B1090" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1090" s="5" t="s">
-        <v>1586</v>
+        <v>1825</v>
       </c>
       <c r="D1090" s="9"/>
       <c r="E1090" s="5"/>
@@ -39301,13 +39794,13 @@
     </row>
     <row r="1091" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1091" s="4" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
       <c r="B1091" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1091" s="5" t="s">
-        <v>1855</v>
+        <v>1827</v>
       </c>
       <c r="D1091" s="9"/>
       <c r="E1091" s="5"/>
@@ -39323,13 +39816,13 @@
     </row>
     <row r="1092" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1092" s="4" t="s">
-        <v>1856</v>
+        <v>1828</v>
       </c>
       <c r="B1092" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1092" s="5" t="s">
-        <v>1857</v>
+        <v>1829</v>
       </c>
       <c r="D1092" s="9"/>
       <c r="E1092" s="5"/>
@@ -39345,13 +39838,13 @@
     </row>
     <row r="1093" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1093" s="4" t="s">
-        <v>1858</v>
+        <v>1830</v>
       </c>
       <c r="B1093" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1093" s="5" t="s">
-        <v>1859</v>
+        <v>1831</v>
       </c>
       <c r="D1093" s="9"/>
       <c r="E1093" s="5"/>
@@ -39367,13 +39860,13 @@
     </row>
     <row r="1094" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1094" s="4" t="s">
-        <v>1860</v>
+        <v>1832</v>
       </c>
       <c r="B1094" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1094" s="5" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="D1094" s="9"/>
       <c r="E1094" s="5"/>
@@ -39389,13 +39882,13 @@
     </row>
     <row r="1095" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1095" s="4" t="s">
-        <v>1862</v>
+        <v>1834</v>
       </c>
       <c r="B1095" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1095" s="5" t="s">
-        <v>1864</v>
+        <v>1586</v>
       </c>
       <c r="D1095" s="9"/>
       <c r="E1095" s="5"/>
@@ -39411,13 +39904,13 @@
     </row>
     <row r="1096" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1096" s="4" t="s">
-        <v>1865</v>
+        <v>1835</v>
       </c>
       <c r="B1096" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1096" s="5" t="s">
-        <v>1866</v>
+        <v>1836</v>
       </c>
       <c r="D1096" s="9"/>
       <c r="E1096" s="5"/>
@@ -39433,13 +39926,13 @@
     </row>
     <row r="1097" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1097" s="4" t="s">
-        <v>1867</v>
+        <v>1837</v>
       </c>
       <c r="B1097" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1097" s="5" t="s">
-        <v>1868</v>
+        <v>1838</v>
       </c>
       <c r="D1097" s="9"/>
       <c r="E1097" s="5"/>
@@ -39455,13 +39948,13 @@
     </row>
     <row r="1098" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1098" s="4" t="s">
-        <v>1869</v>
+        <v>1839</v>
       </c>
       <c r="B1098" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1098" s="5" t="s">
-        <v>1870</v>
+        <v>1840</v>
       </c>
       <c r="D1098" s="9"/>
       <c r="E1098" s="5"/>
@@ -39477,13 +39970,13 @@
     </row>
     <row r="1099" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1099" s="4" t="s">
-        <v>1871</v>
+        <v>1841</v>
       </c>
       <c r="B1099" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1099" s="5" t="s">
-        <v>1872</v>
+        <v>1842</v>
       </c>
       <c r="D1099" s="9"/>
       <c r="E1099" s="5"/>
@@ -39499,13 +39992,13 @@
     </row>
     <row r="1100" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1100" s="4" t="s">
-        <v>1873</v>
+        <v>1843</v>
       </c>
       <c r="B1100" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1100" s="5" t="s">
-        <v>1874</v>
+        <v>1844</v>
       </c>
       <c r="D1100" s="9"/>
       <c r="E1100" s="5"/>
@@ -39521,13 +40014,13 @@
     </row>
     <row r="1101" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1101" s="4" t="s">
-        <v>1875</v>
+        <v>1845</v>
       </c>
       <c r="B1101" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1101" s="5" t="s">
-        <v>1876</v>
+        <v>1846</v>
       </c>
       <c r="D1101" s="9"/>
       <c r="E1101" s="5"/>
@@ -39543,13 +40036,13 @@
     </row>
     <row r="1102" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1102" s="4" t="s">
-        <v>1877</v>
+        <v>1847</v>
       </c>
       <c r="B1102" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1102" s="5" t="s">
-        <v>1878</v>
+        <v>1848</v>
       </c>
       <c r="D1102" s="9"/>
       <c r="E1102" s="5"/>
@@ -39565,13 +40058,13 @@
     </row>
     <row r="1103" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1103" s="4" t="s">
-        <v>1879</v>
+        <v>1849</v>
       </c>
       <c r="B1103" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1103" s="5" t="s">
-        <v>1880</v>
+        <v>1850</v>
       </c>
       <c r="D1103" s="9"/>
       <c r="E1103" s="5"/>
@@ -39587,13 +40080,13 @@
     </row>
     <row r="1104" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1104" s="4" t="s">
-        <v>1881</v>
+        <v>1851</v>
       </c>
       <c r="B1104" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1104" s="5" t="s">
-        <v>1882</v>
+        <v>1852</v>
       </c>
       <c r="D1104" s="9"/>
       <c r="E1104" s="5"/>
@@ -39609,13 +40102,13 @@
     </row>
     <row r="1105" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1105" s="4" t="s">
-        <v>1883</v>
+        <v>1853</v>
       </c>
       <c r="B1105" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1105" s="5" t="s">
-        <v>1884</v>
+        <v>1586</v>
       </c>
       <c r="D1105" s="9"/>
       <c r="E1105" s="5"/>
@@ -39631,13 +40124,13 @@
     </row>
     <row r="1106" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1106" s="4" t="s">
-        <v>1885</v>
+        <v>1854</v>
       </c>
       <c r="B1106" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1106" s="5" t="s">
-        <v>1886</v>
+        <v>1855</v>
       </c>
       <c r="D1106" s="9"/>
       <c r="E1106" s="5"/>
@@ -39653,13 +40146,13 @@
     </row>
     <row r="1107" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1107" s="4" t="s">
-        <v>1887</v>
+        <v>1856</v>
       </c>
       <c r="B1107" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1107" s="5" t="s">
-        <v>1888</v>
+        <v>1857</v>
       </c>
       <c r="D1107" s="9"/>
       <c r="E1107" s="5"/>
@@ -39675,13 +40168,13 @@
     </row>
     <row r="1108" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1108" s="4" t="s">
-        <v>1889</v>
+        <v>1858</v>
       </c>
       <c r="B1108" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1108" s="5" t="s">
-        <v>1890</v>
+        <v>1859</v>
       </c>
       <c r="D1108" s="9"/>
       <c r="E1108" s="5"/>
@@ -39697,13 +40190,13 @@
     </row>
     <row r="1109" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1109" s="4" t="s">
-        <v>1891</v>
+        <v>1860</v>
       </c>
       <c r="B1109" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1109" s="5" t="s">
-        <v>1892</v>
+        <v>1861</v>
       </c>
       <c r="D1109" s="9"/>
       <c r="E1109" s="5"/>
@@ -39719,13 +40212,13 @@
     </row>
     <row r="1110" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1110" s="4" t="s">
-        <v>1893</v>
+        <v>1862</v>
       </c>
       <c r="B1110" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1110" s="5" t="s">
-        <v>1894</v>
+        <v>1864</v>
       </c>
       <c r="D1110" s="9"/>
       <c r="E1110" s="5"/>
@@ -39741,13 +40234,13 @@
     </row>
     <row r="1111" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1111" s="4" t="s">
-        <v>1895</v>
+        <v>1865</v>
       </c>
       <c r="B1111" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1111" s="5" t="s">
-        <v>1896</v>
+        <v>1866</v>
       </c>
       <c r="D1111" s="9"/>
       <c r="E1111" s="5"/>
@@ -39763,13 +40256,13 @@
     </row>
     <row r="1112" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1112" s="4" t="s">
-        <v>1897</v>
+        <v>1867</v>
       </c>
       <c r="B1112" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1112" s="5" t="s">
-        <v>1898</v>
+        <v>1868</v>
       </c>
       <c r="D1112" s="9"/>
       <c r="E1112" s="5"/>
@@ -39785,13 +40278,13 @@
     </row>
     <row r="1113" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1113" s="4" t="s">
-        <v>1899</v>
+        <v>1869</v>
       </c>
       <c r="B1113" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1113" s="5" t="s">
-        <v>1900</v>
+        <v>1870</v>
       </c>
       <c r="D1113" s="9"/>
       <c r="E1113" s="5"/>
@@ -39807,13 +40300,13 @@
     </row>
     <row r="1114" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1114" s="4" t="s">
-        <v>1901</v>
+        <v>1871</v>
       </c>
       <c r="B1114" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1114" s="5" t="s">
-        <v>1902</v>
+        <v>1872</v>
       </c>
       <c r="D1114" s="9"/>
       <c r="E1114" s="5"/>
@@ -39829,13 +40322,13 @@
     </row>
     <row r="1115" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1115" s="4" t="s">
-        <v>1903</v>
+        <v>1873</v>
       </c>
       <c r="B1115" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1115" s="5" t="s">
-        <v>1905</v>
+        <v>1874</v>
       </c>
       <c r="D1115" s="9"/>
       <c r="E1115" s="5"/>
@@ -39851,13 +40344,13 @@
     </row>
     <row r="1116" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1116" s="4" t="s">
-        <v>1906</v>
+        <v>1875</v>
       </c>
       <c r="B1116" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1116" s="5" t="s">
-        <v>1907</v>
+        <v>1876</v>
       </c>
       <c r="D1116" s="9"/>
       <c r="E1116" s="5"/>
@@ -39873,13 +40366,13 @@
     </row>
     <row r="1117" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1117" s="4" t="s">
-        <v>1908</v>
+        <v>1877</v>
       </c>
       <c r="B1117" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1117" s="5" t="s">
-        <v>1905</v>
+        <v>1878</v>
       </c>
       <c r="D1117" s="9"/>
       <c r="E1117" s="5"/>
@@ -39895,13 +40388,13 @@
     </row>
     <row r="1118" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1118" s="4" t="s">
-        <v>1909</v>
+        <v>1879</v>
       </c>
       <c r="B1118" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1118" s="5" t="s">
-        <v>1910</v>
+        <v>1880</v>
       </c>
       <c r="D1118" s="9"/>
       <c r="E1118" s="5"/>
@@ -39917,13 +40410,13 @@
     </row>
     <row r="1119" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1119" s="4" t="s">
-        <v>1911</v>
+        <v>1881</v>
       </c>
       <c r="B1119" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1119" s="5" t="s">
-        <v>1912</v>
+        <v>1882</v>
       </c>
       <c r="D1119" s="9"/>
       <c r="E1119" s="5"/>
@@ -39939,13 +40432,13 @@
     </row>
     <row r="1120" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1120" s="4" t="s">
-        <v>1913</v>
+        <v>1883</v>
       </c>
       <c r="B1120" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1120" s="5" t="s">
-        <v>1914</v>
+        <v>1884</v>
       </c>
       <c r="D1120" s="9"/>
       <c r="E1120" s="5"/>
@@ -39961,13 +40454,13 @@
     </row>
     <row r="1121" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1121" s="4" t="s">
-        <v>1915</v>
+        <v>1885</v>
       </c>
       <c r="B1121" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1121" s="5" t="s">
-        <v>1916</v>
+        <v>1886</v>
       </c>
       <c r="D1121" s="9"/>
       <c r="E1121" s="5"/>
@@ -39983,13 +40476,13 @@
     </row>
     <row r="1122" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1122" s="4" t="s">
-        <v>1917</v>
+        <v>1887</v>
       </c>
       <c r="B1122" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1122" s="5" t="s">
-        <v>1918</v>
+        <v>1888</v>
       </c>
       <c r="D1122" s="9"/>
       <c r="E1122" s="5"/>
@@ -40005,13 +40498,13 @@
     </row>
     <row r="1123" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1123" s="4" t="s">
-        <v>1919</v>
+        <v>1889</v>
       </c>
       <c r="B1123" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1123" s="5" t="s">
-        <v>1920</v>
+        <v>1890</v>
       </c>
       <c r="D1123" s="9"/>
       <c r="E1123" s="5"/>
@@ -40027,13 +40520,13 @@
     </row>
     <row r="1124" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1124" s="4" t="s">
-        <v>1921</v>
+        <v>1891</v>
       </c>
       <c r="B1124" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1124" s="5" t="s">
-        <v>1922</v>
+        <v>1892</v>
       </c>
       <c r="D1124" s="9"/>
       <c r="E1124" s="5"/>
@@ -40049,13 +40542,13 @@
     </row>
     <row r="1125" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1125" s="4" t="s">
-        <v>1923</v>
+        <v>1893</v>
       </c>
       <c r="B1125" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1125" s="5" t="s">
-        <v>1924</v>
+        <v>1894</v>
       </c>
       <c r="D1125" s="9"/>
       <c r="E1125" s="5"/>
@@ -40071,13 +40564,13 @@
     </row>
     <row r="1126" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1126" s="4" t="s">
-        <v>1925</v>
+        <v>1895</v>
       </c>
       <c r="B1126" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1126" s="5" t="s">
-        <v>1926</v>
+        <v>1896</v>
       </c>
       <c r="D1126" s="9"/>
       <c r="E1126" s="5"/>
@@ -40093,13 +40586,13 @@
     </row>
     <row r="1127" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1127" s="4" t="s">
-        <v>1927</v>
+        <v>1897</v>
       </c>
       <c r="B1127" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1127" s="5" t="s">
-        <v>1928</v>
+        <v>1898</v>
       </c>
       <c r="D1127" s="9"/>
       <c r="E1127" s="5"/>
@@ -40115,13 +40608,13 @@
     </row>
     <row r="1128" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1128" s="4" t="s">
-        <v>1929</v>
+        <v>1899</v>
       </c>
       <c r="B1128" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1128" s="5" t="s">
-        <v>1930</v>
+        <v>1900</v>
       </c>
       <c r="D1128" s="9"/>
       <c r="E1128" s="5"/>
@@ -40137,13 +40630,13 @@
     </row>
     <row r="1129" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1129" s="4" t="s">
-        <v>1931</v>
+        <v>1901</v>
       </c>
       <c r="B1129" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1129" s="5" t="s">
-        <v>1932</v>
+        <v>1902</v>
       </c>
       <c r="D1129" s="9"/>
       <c r="E1129" s="5"/>
@@ -40159,13 +40652,13 @@
     </row>
     <row r="1130" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1130" s="4" t="s">
-        <v>1933</v>
+        <v>1903</v>
       </c>
       <c r="B1130" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1130" s="5" t="s">
-        <v>1934</v>
+        <v>1905</v>
       </c>
       <c r="D1130" s="9"/>
       <c r="E1130" s="5"/>
@@ -40181,13 +40674,13 @@
     </row>
     <row r="1131" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1131" s="4" t="s">
-        <v>1935</v>
+        <v>1906</v>
       </c>
       <c r="B1131" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1131" s="5" t="s">
-        <v>1936</v>
+        <v>1907</v>
       </c>
       <c r="D1131" s="9"/>
       <c r="E1131" s="5"/>
@@ -40203,13 +40696,13 @@
     </row>
     <row r="1132" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1132" s="4" t="s">
-        <v>1937</v>
+        <v>1908</v>
       </c>
       <c r="B1132" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1132" s="5" t="s">
-        <v>1938</v>
+        <v>1905</v>
       </c>
       <c r="D1132" s="9"/>
       <c r="E1132" s="5"/>
@@ -40225,13 +40718,13 @@
     </row>
     <row r="1133" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1133" s="4" t="s">
-        <v>1939</v>
+        <v>1909</v>
       </c>
       <c r="B1133" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1133" s="5" t="s">
-        <v>1940</v>
+        <v>1910</v>
       </c>
       <c r="D1133" s="9"/>
       <c r="E1133" s="5"/>
@@ -40247,13 +40740,13 @@
     </row>
     <row r="1134" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1134" s="4" t="s">
-        <v>1941</v>
+        <v>1911</v>
       </c>
       <c r="B1134" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1134" s="5" t="s">
-        <v>1942</v>
+        <v>1912</v>
       </c>
       <c r="D1134" s="9"/>
       <c r="E1134" s="5"/>
@@ -40267,15 +40760,15 @@
       <c r="M1134" s="5"/>
       <c r="N1134" s="10"/>
     </row>
-    <row r="1135" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1135" s="4" t="s">
-        <v>1943</v>
+        <v>1913</v>
       </c>
       <c r="B1135" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1135" s="5" t="s">
-        <v>1945</v>
+        <v>1914</v>
       </c>
       <c r="D1135" s="9"/>
       <c r="E1135" s="5"/>
@@ -40289,15 +40782,15 @@
       <c r="M1135" s="5"/>
       <c r="N1135" s="10"/>
     </row>
-    <row r="1136" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1136" s="4" t="s">
-        <v>1946</v>
+        <v>1915</v>
       </c>
       <c r="B1136" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1136" s="5" t="s">
-        <v>1947</v>
+        <v>1916</v>
       </c>
       <c r="D1136" s="9"/>
       <c r="E1136" s="5"/>
@@ -40311,15 +40804,15 @@
       <c r="M1136" s="5"/>
       <c r="N1136" s="10"/>
     </row>
-    <row r="1137" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1137" s="4" t="s">
-        <v>1948</v>
+        <v>1917</v>
       </c>
       <c r="B1137" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1137" s="5" t="s">
-        <v>1949</v>
+        <v>1918</v>
       </c>
       <c r="D1137" s="9"/>
       <c r="E1137" s="5"/>
@@ -40333,15 +40826,15 @@
       <c r="M1137" s="5"/>
       <c r="N1137" s="10"/>
     </row>
-    <row r="1138" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1138" s="4" t="s">
-        <v>1950</v>
+        <v>1919</v>
       </c>
       <c r="B1138" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1138" s="5" t="s">
-        <v>1951</v>
+        <v>1920</v>
       </c>
       <c r="D1138" s="9"/>
       <c r="E1138" s="5"/>
@@ -40355,15 +40848,15 @@
       <c r="M1138" s="5"/>
       <c r="N1138" s="10"/>
     </row>
-    <row r="1139" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1139" s="4" t="s">
-        <v>1952</v>
+        <v>1921</v>
       </c>
       <c r="B1139" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1139" s="5" t="s">
-        <v>1945</v>
+        <v>1922</v>
       </c>
       <c r="D1139" s="9"/>
       <c r="E1139" s="5"/>
@@ -40377,15 +40870,15 @@
       <c r="M1139" s="5"/>
       <c r="N1139" s="10"/>
     </row>
-    <row r="1140" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1140" s="4" t="s">
-        <v>1953</v>
+        <v>1923</v>
       </c>
       <c r="B1140" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1140" s="5" t="s">
-        <v>1954</v>
+        <v>1924</v>
       </c>
       <c r="D1140" s="9"/>
       <c r="E1140" s="5"/>
@@ -40399,15 +40892,15 @@
       <c r="M1140" s="5"/>
       <c r="N1140" s="10"/>
     </row>
-    <row r="1141" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1141" s="4" t="s">
-        <v>1955</v>
+        <v>1925</v>
       </c>
       <c r="B1141" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1141" s="5" t="s">
-        <v>1949</v>
+        <v>1926</v>
       </c>
       <c r="D1141" s="9"/>
       <c r="E1141" s="5"/>
@@ -40421,15 +40914,15 @@
       <c r="M1141" s="5"/>
       <c r="N1141" s="10"/>
     </row>
-    <row r="1142" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1142" s="4" t="s">
-        <v>1956</v>
+        <v>1927</v>
       </c>
       <c r="B1142" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1142" s="5" t="s">
-        <v>1947</v>
+        <v>1928</v>
       </c>
       <c r="D1142" s="9"/>
       <c r="E1142" s="5"/>
@@ -40443,15 +40936,15 @@
       <c r="M1142" s="5"/>
       <c r="N1142" s="10"/>
     </row>
-    <row r="1143" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1143" s="4" t="s">
-        <v>1957</v>
+        <v>1929</v>
       </c>
       <c r="B1143" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>1949</v>
+        <v>1930</v>
       </c>
       <c r="D1143" s="9"/>
       <c r="E1143" s="5"/>
@@ -40465,15 +40958,15 @@
       <c r="M1143" s="5"/>
       <c r="N1143" s="10"/>
     </row>
-    <row r="1144" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1144" s="4" t="s">
-        <v>1958</v>
+        <v>1931</v>
       </c>
       <c r="B1144" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>1959</v>
+        <v>1932</v>
       </c>
       <c r="D1144" s="9"/>
       <c r="E1144" s="5"/>
@@ -40487,15 +40980,15 @@
       <c r="M1144" s="5"/>
       <c r="N1144" s="10"/>
     </row>
-    <row r="1145" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1145" s="4" t="s">
-        <v>1960</v>
+        <v>1933</v>
       </c>
       <c r="B1145" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>1961</v>
+        <v>1934</v>
       </c>
       <c r="D1145" s="9"/>
       <c r="E1145" s="5"/>
@@ -40509,15 +41002,15 @@
       <c r="M1145" s="5"/>
       <c r="N1145" s="10"/>
     </row>
-    <row r="1146" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1146" s="4" t="s">
-        <v>1962</v>
+        <v>1935</v>
       </c>
       <c r="B1146" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>1963</v>
+        <v>1936</v>
       </c>
       <c r="D1146" s="9"/>
       <c r="E1146" s="5"/>
@@ -40531,15 +41024,15 @@
       <c r="M1146" s="5"/>
       <c r="N1146" s="10"/>
     </row>
-    <row r="1147" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1147" s="4" t="s">
-        <v>1964</v>
+        <v>1937</v>
       </c>
       <c r="B1147" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>1965</v>
+        <v>1938</v>
       </c>
       <c r="D1147" s="9"/>
       <c r="E1147" s="5"/>
@@ -40553,15 +41046,15 @@
       <c r="M1147" s="5"/>
       <c r="N1147" s="10"/>
     </row>
-    <row r="1148" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1148" s="4" t="s">
-        <v>1966</v>
+        <v>1939</v>
       </c>
       <c r="B1148" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1148" s="5" t="s">
-        <v>1947</v>
+        <v>1940</v>
       </c>
       <c r="D1148" s="9"/>
       <c r="E1148" s="5"/>
@@ -40575,15 +41068,15 @@
       <c r="M1148" s="5"/>
       <c r="N1148" s="10"/>
     </row>
-    <row r="1149" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1149" s="4" t="s">
-        <v>1967</v>
+        <v>1941</v>
       </c>
       <c r="B1149" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="D1149" s="9"/>
       <c r="E1149" s="5"/>
@@ -40599,13 +41092,13 @@
     </row>
     <row r="1150" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1150" s="4" t="s">
-        <v>1968</v>
+        <v>1943</v>
       </c>
       <c r="B1150" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1150" s="5" t="s">
-        <v>1969</v>
+        <v>1945</v>
       </c>
       <c r="D1150" s="9"/>
       <c r="E1150" s="5"/>
@@ -40621,13 +41114,13 @@
     </row>
     <row r="1151" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1151" s="4" t="s">
-        <v>1970</v>
+        <v>1946</v>
       </c>
       <c r="B1151" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1151" s="5" t="s">
-        <v>1971</v>
+        <v>1947</v>
       </c>
       <c r="D1151" s="9"/>
       <c r="E1151" s="5"/>
@@ -40643,13 +41136,13 @@
     </row>
     <row r="1152" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1152" s="4" t="s">
-        <v>1972</v>
+        <v>1948</v>
       </c>
       <c r="B1152" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1152" s="5" t="s">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="D1152" s="9"/>
       <c r="E1152" s="5"/>
@@ -40665,13 +41158,13 @@
     </row>
     <row r="1153" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1153" s="4" t="s">
-        <v>1973</v>
+        <v>1950</v>
       </c>
       <c r="B1153" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1153" s="5" t="s">
-        <v>1974</v>
+        <v>1951</v>
       </c>
       <c r="D1153" s="9"/>
       <c r="E1153" s="5"/>
@@ -40687,13 +41180,13 @@
     </row>
     <row r="1154" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1154" s="4" t="s">
-        <v>1975</v>
+        <v>1952</v>
       </c>
       <c r="B1154" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1154" s="5" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="D1154" s="9"/>
       <c r="E1154" s="5"/>
@@ -40709,13 +41202,13 @@
     </row>
     <row r="1155" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1155" s="4" t="s">
-        <v>1976</v>
+        <v>1953</v>
       </c>
       <c r="B1155" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1155" s="5" t="s">
-        <v>1978</v>
+        <v>1954</v>
       </c>
       <c r="D1155" s="9"/>
       <c r="E1155" s="5"/>
@@ -40731,13 +41224,13 @@
     </row>
     <row r="1156" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1156" s="4" t="s">
-        <v>1979</v>
+        <v>1955</v>
       </c>
       <c r="B1156" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1156" s="5" t="s">
-        <v>1980</v>
+        <v>1949</v>
       </c>
       <c r="D1156" s="9"/>
       <c r="E1156" s="5"/>
@@ -40753,13 +41246,13 @@
     </row>
     <row r="1157" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1157" s="4" t="s">
-        <v>1981</v>
+        <v>1956</v>
       </c>
       <c r="B1157" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1157" s="5" t="s">
-        <v>1982</v>
+        <v>1947</v>
       </c>
       <c r="D1157" s="9"/>
       <c r="E1157" s="5"/>
@@ -40775,13 +41268,13 @@
     </row>
     <row r="1158" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1158" s="4" t="s">
-        <v>1983</v>
+        <v>1957</v>
       </c>
       <c r="B1158" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1158" s="5" t="s">
-        <v>1984</v>
+        <v>1949</v>
       </c>
       <c r="D1158" s="9"/>
       <c r="E1158" s="5"/>
@@ -40797,13 +41290,13 @@
     </row>
     <row r="1159" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1159" s="4" t="s">
-        <v>1985</v>
+        <v>1958</v>
       </c>
       <c r="B1159" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1159" s="5" t="s">
-        <v>1986</v>
+        <v>1959</v>
       </c>
       <c r="D1159" s="9"/>
       <c r="E1159" s="5"/>
@@ -40817,15 +41310,15 @@
       <c r="M1159" s="5"/>
       <c r="N1159" s="10"/>
     </row>
-    <row r="1160" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1160" s="4" t="s">
-        <v>1987</v>
+        <v>1960</v>
       </c>
       <c r="B1160" s="5" t="s">
-        <v>1988</v>
+        <v>1944</v>
       </c>
       <c r="C1160" s="5" t="s">
-        <v>1989</v>
+        <v>1961</v>
       </c>
       <c r="D1160" s="9"/>
       <c r="E1160" s="5"/>
@@ -40839,15 +41332,15 @@
       <c r="M1160" s="5"/>
       <c r="N1160" s="10"/>
     </row>
-    <row r="1161" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1161" s="4" t="s">
-        <v>1990</v>
+        <v>1962</v>
       </c>
       <c r="B1161" s="5" t="s">
-        <v>1988</v>
+        <v>1944</v>
       </c>
       <c r="C1161" s="5" t="s">
-        <v>1991</v>
+        <v>1963</v>
       </c>
       <c r="D1161" s="9"/>
       <c r="E1161" s="5"/>
@@ -40861,15 +41354,15 @@
       <c r="M1161" s="5"/>
       <c r="N1161" s="10"/>
     </row>
-    <row r="1162" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1162" s="4" t="s">
-        <v>1992</v>
+        <v>1964</v>
       </c>
       <c r="B1162" s="5" t="s">
-        <v>1988</v>
+        <v>1944</v>
       </c>
       <c r="C1162" s="5" t="s">
-        <v>1993</v>
+        <v>1965</v>
       </c>
       <c r="D1162" s="9"/>
       <c r="E1162" s="5"/>
@@ -40883,15 +41376,15 @@
       <c r="M1162" s="5"/>
       <c r="N1162" s="10"/>
     </row>
-    <row r="1163" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1163" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1163" s="4" t="s">
-        <v>1994</v>
+        <v>1966</v>
       </c>
       <c r="B1163" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1163" s="5" t="s">
-        <v>1996</v>
+        <v>1947</v>
       </c>
       <c r="D1163" s="9"/>
       <c r="E1163" s="5"/>
@@ -40905,15 +41398,15 @@
       <c r="M1163" s="5"/>
       <c r="N1163" s="10"/>
     </row>
-    <row r="1164" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1164" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1164" s="4" t="s">
-        <v>1997</v>
+        <v>1967</v>
       </c>
       <c r="B1164" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1164" s="5" t="s">
-        <v>1998</v>
+        <v>1949</v>
       </c>
       <c r="D1164" s="9"/>
       <c r="E1164" s="5"/>
@@ -40927,15 +41420,15 @@
       <c r="M1164" s="5"/>
       <c r="N1164" s="10"/>
     </row>
-    <row r="1165" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1165" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1165" s="4" t="s">
-        <v>1999</v>
+        <v>1968</v>
       </c>
       <c r="B1165" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1165" s="5" t="s">
-        <v>2000</v>
+        <v>1969</v>
       </c>
       <c r="D1165" s="9"/>
       <c r="E1165" s="5"/>
@@ -40949,15 +41442,15 @@
       <c r="M1165" s="5"/>
       <c r="N1165" s="10"/>
     </row>
-    <row r="1166" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1166" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1166" s="4" t="s">
-        <v>2001</v>
+        <v>1970</v>
       </c>
       <c r="B1166" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1166" s="5" t="s">
-        <v>2002</v>
+        <v>1971</v>
       </c>
       <c r="D1166" s="9"/>
       <c r="E1166" s="5"/>
@@ -40971,15 +41464,15 @@
       <c r="M1166" s="5"/>
       <c r="N1166" s="10"/>
     </row>
-    <row r="1167" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1167" s="4" t="s">
-        <v>2003</v>
+        <v>1972</v>
       </c>
       <c r="B1167" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1167" s="5" t="s">
-        <v>2004</v>
+        <v>1945</v>
       </c>
       <c r="D1167" s="9"/>
       <c r="E1167" s="5"/>
@@ -40993,15 +41486,15 @@
       <c r="M1167" s="5"/>
       <c r="N1167" s="10"/>
     </row>
-    <row r="1168" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1168" s="4" t="s">
-        <v>2005</v>
+        <v>1973</v>
       </c>
       <c r="B1168" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1168" s="5" t="s">
-        <v>2006</v>
+        <v>1974</v>
       </c>
       <c r="D1168" s="9"/>
       <c r="E1168" s="5"/>
@@ -41015,15 +41508,15 @@
       <c r="M1168" s="5"/>
       <c r="N1168" s="10"/>
     </row>
-    <row r="1169" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1169" s="4" t="s">
-        <v>2007</v>
+        <v>1975</v>
       </c>
       <c r="B1169" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1169" s="5" t="s">
-        <v>2008</v>
+        <v>1947</v>
       </c>
       <c r="D1169" s="9"/>
       <c r="E1169" s="5"/>
@@ -41037,15 +41530,15 @@
       <c r="M1169" s="5"/>
       <c r="N1169" s="10"/>
     </row>
-    <row r="1170" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1170" s="4" t="s">
-        <v>2009</v>
+        <v>1976</v>
       </c>
       <c r="B1170" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1170" s="5" t="s">
-        <v>2010</v>
+        <v>1978</v>
       </c>
       <c r="D1170" s="9"/>
       <c r="E1170" s="5"/>
@@ -41059,15 +41552,15 @@
       <c r="M1170" s="5"/>
       <c r="N1170" s="10"/>
     </row>
-    <row r="1171" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1171" s="4" t="s">
-        <v>2011</v>
+        <v>1979</v>
       </c>
       <c r="B1171" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1171" s="5" t="s">
-        <v>2012</v>
+        <v>1980</v>
       </c>
       <c r="D1171" s="9"/>
       <c r="E1171" s="5"/>
@@ -41081,15 +41574,15 @@
       <c r="M1171" s="5"/>
       <c r="N1171" s="10"/>
     </row>
-    <row r="1172" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1172" s="4" t="s">
-        <v>2013</v>
+        <v>1981</v>
       </c>
       <c r="B1172" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1172" s="5" t="s">
-        <v>2014</v>
+        <v>1982</v>
       </c>
       <c r="D1172" s="9"/>
       <c r="E1172" s="5"/>
@@ -41103,15 +41596,15 @@
       <c r="M1172" s="5"/>
       <c r="N1172" s="10"/>
     </row>
-    <row r="1173" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1173" s="4" t="s">
-        <v>2015</v>
+        <v>1983</v>
       </c>
       <c r="B1173" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1173" s="5" t="s">
-        <v>2016</v>
+        <v>1984</v>
       </c>
       <c r="D1173" s="9"/>
       <c r="E1173" s="5"/>
@@ -41125,15 +41618,15 @@
       <c r="M1173" s="5"/>
       <c r="N1173" s="10"/>
     </row>
-    <row r="1174" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1174" s="4" t="s">
-        <v>2017</v>
+        <v>1985</v>
       </c>
       <c r="B1174" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1174" s="5" t="s">
-        <v>2018</v>
+        <v>1986</v>
       </c>
       <c r="D1174" s="9"/>
       <c r="E1174" s="5"/>
@@ -41147,15 +41640,15 @@
       <c r="M1174" s="5"/>
       <c r="N1174" s="10"/>
     </row>
-    <row r="1175" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1175" s="4" t="s">
-        <v>2019</v>
+        <v>1987</v>
       </c>
       <c r="B1175" s="5" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C1175" s="5" t="s">
-        <v>2020</v>
+        <v>1989</v>
       </c>
       <c r="D1175" s="9"/>
       <c r="E1175" s="5"/>
@@ -41169,15 +41662,15 @@
       <c r="M1175" s="5"/>
       <c r="N1175" s="10"/>
     </row>
-    <row r="1176" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1176" s="4" t="s">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="B1176" s="5" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C1176" s="5" t="s">
-        <v>2022</v>
+        <v>1991</v>
       </c>
       <c r="D1176" s="9"/>
       <c r="E1176" s="5"/>
@@ -41191,15 +41684,15 @@
       <c r="M1176" s="5"/>
       <c r="N1176" s="10"/>
     </row>
-    <row r="1177" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1177" s="4" t="s">
-        <v>2023</v>
+        <v>1992</v>
       </c>
       <c r="B1177" s="5" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C1177" s="5" t="s">
-        <v>2024</v>
+        <v>1993</v>
       </c>
       <c r="D1177" s="9"/>
       <c r="E1177" s="5"/>
@@ -41215,13 +41708,13 @@
     </row>
     <row r="1178" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1178" s="4" t="s">
-        <v>2025</v>
+        <v>1994</v>
       </c>
       <c r="B1178" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1178" s="5" t="s">
-        <v>2026</v>
+        <v>1996</v>
       </c>
       <c r="D1178" s="9"/>
       <c r="E1178" s="5"/>
@@ -41237,13 +41730,13 @@
     </row>
     <row r="1179" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1179" s="4" t="s">
-        <v>2027</v>
+        <v>1997</v>
       </c>
       <c r="B1179" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1179" s="5" t="s">
-        <v>2028</v>
+        <v>1998</v>
       </c>
       <c r="D1179" s="9"/>
       <c r="E1179" s="5"/>
@@ -41259,13 +41752,13 @@
     </row>
     <row r="1180" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1180" s="4" t="s">
-        <v>2029</v>
+        <v>1999</v>
       </c>
       <c r="B1180" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1180" s="5" t="s">
-        <v>2030</v>
+        <v>2000</v>
       </c>
       <c r="D1180" s="9"/>
       <c r="E1180" s="5"/>
@@ -41281,13 +41774,13 @@
     </row>
     <row r="1181" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1181" s="4" t="s">
-        <v>2031</v>
+        <v>2001</v>
       </c>
       <c r="B1181" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1181" s="5" t="s">
-        <v>2032</v>
+        <v>2002</v>
       </c>
       <c r="D1181" s="9"/>
       <c r="E1181" s="5"/>
@@ -41303,13 +41796,13 @@
     </row>
     <row r="1182" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1182" s="4" t="s">
-        <v>2033</v>
+        <v>2003</v>
       </c>
       <c r="B1182" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1182" s="5" t="s">
-        <v>2034</v>
+        <v>2004</v>
       </c>
       <c r="D1182" s="9"/>
       <c r="E1182" s="5"/>
@@ -41323,15 +41816,15 @@
       <c r="M1182" s="5"/>
       <c r="N1182" s="10"/>
     </row>
-    <row r="1183" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1183" s="4" t="s">
-        <v>2035</v>
+        <v>2005</v>
       </c>
       <c r="B1183" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1183" s="5" t="s">
-        <v>2037</v>
+        <v>2006</v>
       </c>
       <c r="D1183" s="9"/>
       <c r="E1183" s="5"/>
@@ -41345,15 +41838,15 @@
       <c r="M1183" s="5"/>
       <c r="N1183" s="10"/>
     </row>
-    <row r="1184" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1184" s="4" t="s">
-        <v>2038</v>
+        <v>2007</v>
       </c>
       <c r="B1184" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1184" s="5" t="s">
-        <v>2039</v>
+        <v>2008</v>
       </c>
       <c r="D1184" s="9"/>
       <c r="E1184" s="5"/>
@@ -41367,15 +41860,15 @@
       <c r="M1184" s="5"/>
       <c r="N1184" s="10"/>
     </row>
-    <row r="1185" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1185" s="4" t="s">
-        <v>2040</v>
+        <v>2009</v>
       </c>
       <c r="B1185" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1185" s="5" t="s">
-        <v>2041</v>
+        <v>2010</v>
       </c>
       <c r="D1185" s="9"/>
       <c r="E1185" s="5"/>
@@ -41389,15 +41882,15 @@
       <c r="M1185" s="5"/>
       <c r="N1185" s="10"/>
     </row>
-    <row r="1186" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1186" s="4" t="s">
-        <v>2042</v>
+        <v>2011</v>
       </c>
       <c r="B1186" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1186" s="5" t="s">
-        <v>2043</v>
+        <v>2012</v>
       </c>
       <c r="D1186" s="9"/>
       <c r="E1186" s="5"/>
@@ -41413,13 +41906,13 @@
     </row>
     <row r="1187" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1187" s="4" t="s">
-        <v>2044</v>
+        <v>2013</v>
       </c>
       <c r="B1187" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1187" s="5" t="s">
-        <v>1141</v>
+        <v>2014</v>
       </c>
       <c r="D1187" s="9"/>
       <c r="E1187" s="5"/>
@@ -41433,15 +41926,15 @@
       <c r="M1187" s="5"/>
       <c r="N1187" s="10"/>
     </row>
-    <row r="1188" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1188" s="4" t="s">
-        <v>2045</v>
+        <v>2015</v>
       </c>
       <c r="B1188" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1188" s="5" t="s">
-        <v>2046</v>
+        <v>2016</v>
       </c>
       <c r="D1188" s="9"/>
       <c r="E1188" s="5"/>
@@ -41455,15 +41948,15 @@
       <c r="M1188" s="5"/>
       <c r="N1188" s="10"/>
     </row>
-    <row r="1189" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1189" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1189" s="4" t="s">
-        <v>2047</v>
+        <v>2017</v>
       </c>
       <c r="B1189" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1189" s="5" t="s">
-        <v>2048</v>
+        <v>2018</v>
       </c>
       <c r="D1189" s="9"/>
       <c r="E1189" s="5"/>
@@ -41477,15 +41970,15 @@
       <c r="M1189" s="5"/>
       <c r="N1189" s="10"/>
     </row>
-    <row r="1190" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1190" s="4" t="s">
-        <v>2049</v>
+        <v>2019</v>
       </c>
       <c r="B1190" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1190" s="5" t="s">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="D1190" s="9"/>
       <c r="E1190" s="5"/>
@@ -41499,15 +41992,15 @@
       <c r="M1190" s="5"/>
       <c r="N1190" s="10"/>
     </row>
-    <row r="1191" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1191" s="4" t="s">
-        <v>2051</v>
+        <v>2021</v>
       </c>
       <c r="B1191" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1191" s="5" t="s">
-        <v>1139</v>
+        <v>2022</v>
       </c>
       <c r="D1191" s="9"/>
       <c r="E1191" s="5"/>
@@ -41521,15 +42014,15 @@
       <c r="M1191" s="5"/>
       <c r="N1191" s="10"/>
     </row>
-    <row r="1192" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1192" s="4" t="s">
-        <v>2052</v>
+        <v>2023</v>
       </c>
       <c r="B1192" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1192" s="5" t="s">
-        <v>2053</v>
+        <v>2024</v>
       </c>
       <c r="D1192" s="9"/>
       <c r="E1192" s="5"/>
@@ -41543,15 +42036,15 @@
       <c r="M1192" s="5"/>
       <c r="N1192" s="10"/>
     </row>
-    <row r="1193" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1193" s="4" t="s">
-        <v>2054</v>
+        <v>2025</v>
       </c>
       <c r="B1193" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1193" s="5" t="s">
-        <v>2055</v>
+        <v>2026</v>
       </c>
       <c r="D1193" s="9"/>
       <c r="E1193" s="5"/>
@@ -41565,15 +42058,15 @@
       <c r="M1193" s="5"/>
       <c r="N1193" s="10"/>
     </row>
-    <row r="1194" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1194" s="4" t="s">
-        <v>2056</v>
+        <v>2027</v>
       </c>
       <c r="B1194" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1194" s="5" t="s">
-        <v>2046</v>
+        <v>2028</v>
       </c>
       <c r="D1194" s="9"/>
       <c r="E1194" s="5"/>
@@ -41587,15 +42080,15 @@
       <c r="M1194" s="5"/>
       <c r="N1194" s="10"/>
     </row>
-    <row r="1195" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1195" s="4" t="s">
-        <v>2057</v>
+        <v>2029</v>
       </c>
       <c r="B1195" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1195" s="5" t="s">
-        <v>2058</v>
+        <v>2030</v>
       </c>
       <c r="D1195" s="9"/>
       <c r="E1195" s="5"/>
@@ -41609,15 +42102,15 @@
       <c r="M1195" s="5"/>
       <c r="N1195" s="10"/>
     </row>
-    <row r="1196" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1196" s="4" t="s">
-        <v>2059</v>
+        <v>2031</v>
       </c>
       <c r="B1196" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1196" s="5" t="s">
-        <v>2060</v>
+        <v>2032</v>
       </c>
       <c r="D1196" s="9"/>
       <c r="E1196" s="5"/>
@@ -41631,15 +42124,15 @@
       <c r="M1196" s="5"/>
       <c r="N1196" s="10"/>
     </row>
-    <row r="1197" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1197" s="4" t="s">
-        <v>2061</v>
+        <v>2033</v>
       </c>
       <c r="B1197" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1197" s="5" t="s">
-        <v>2062</v>
+        <v>2034</v>
       </c>
       <c r="D1197" s="9"/>
       <c r="E1197" s="5"/>
@@ -41655,13 +42148,13 @@
     </row>
     <row r="1198" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1198" s="4" t="s">
-        <v>2063</v>
+        <v>2035</v>
       </c>
       <c r="B1198" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1198" s="5" t="s">
-        <v>2064</v>
+        <v>2037</v>
       </c>
       <c r="D1198" s="9"/>
       <c r="E1198" s="5"/>
@@ -41677,13 +42170,13 @@
     </row>
     <row r="1199" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1199" s="4" t="s">
-        <v>2065</v>
+        <v>2038</v>
       </c>
       <c r="B1199" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1199" s="5" t="s">
-        <v>1127</v>
+        <v>2039</v>
       </c>
       <c r="D1199" s="9"/>
       <c r="E1199" s="5"/>
@@ -41699,13 +42192,13 @@
     </row>
     <row r="1200" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1200" s="4" t="s">
-        <v>2066</v>
+        <v>2040</v>
       </c>
       <c r="B1200" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1200" s="5" t="s">
-        <v>1131</v>
+        <v>2041</v>
       </c>
       <c r="D1200" s="9"/>
       <c r="E1200" s="5"/>
@@ -41721,13 +42214,13 @@
     </row>
     <row r="1201" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1201" s="4" t="s">
-        <v>2067</v>
+        <v>2042</v>
       </c>
       <c r="B1201" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1201" s="5" t="s">
-        <v>2068</v>
+        <v>2043</v>
       </c>
       <c r="D1201" s="9"/>
       <c r="E1201" s="5"/>
@@ -41743,13 +42236,13 @@
     </row>
     <row r="1202" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1202" s="4" t="s">
-        <v>2069</v>
+        <v>2044</v>
       </c>
       <c r="B1202" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1202" s="5" t="s">
-        <v>2070</v>
+        <v>1141</v>
       </c>
       <c r="D1202" s="9"/>
       <c r="E1202" s="5"/>
@@ -41763,15 +42256,15 @@
       <c r="M1202" s="5"/>
       <c r="N1202" s="10"/>
     </row>
-    <row r="1203" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1203" s="4" t="s">
-        <v>2071</v>
+        <v>2045</v>
       </c>
       <c r="B1203" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1203" s="5" t="s">
-        <v>2073</v>
+        <v>2046</v>
       </c>
       <c r="D1203" s="9"/>
       <c r="E1203" s="5"/>
@@ -41785,15 +42278,15 @@
       <c r="M1203" s="5"/>
       <c r="N1203" s="10"/>
     </row>
-    <row r="1204" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1204" s="4" t="s">
-        <v>2074</v>
+        <v>2047</v>
       </c>
       <c r="B1204" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1204" s="5" t="s">
-        <v>2075</v>
+        <v>2048</v>
       </c>
       <c r="D1204" s="9"/>
       <c r="E1204" s="5"/>
@@ -41807,15 +42300,15 @@
       <c r="M1204" s="5"/>
       <c r="N1204" s="10"/>
     </row>
-    <row r="1205" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1205" s="4" t="s">
-        <v>2076</v>
+        <v>2049</v>
       </c>
       <c r="B1205" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1205" s="5" t="s">
-        <v>2077</v>
+        <v>2050</v>
       </c>
       <c r="D1205" s="9"/>
       <c r="E1205" s="5"/>
@@ -41829,15 +42322,15 @@
       <c r="M1205" s="5"/>
       <c r="N1205" s="10"/>
     </row>
-    <row r="1206" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1206" s="4" t="s">
-        <v>2078</v>
+        <v>2051</v>
       </c>
       <c r="B1206" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1206" s="5" t="s">
-        <v>2079</v>
+        <v>1139</v>
       </c>
       <c r="D1206" s="9"/>
       <c r="E1206" s="5"/>
@@ -41851,15 +42344,15 @@
       <c r="M1206" s="5"/>
       <c r="N1206" s="10"/>
     </row>
-    <row r="1207" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1207" s="4" t="s">
-        <v>2080</v>
+        <v>2052</v>
       </c>
       <c r="B1207" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1207" s="5" t="s">
-        <v>2081</v>
+        <v>2053</v>
       </c>
       <c r="D1207" s="9"/>
       <c r="E1207" s="5"/>
@@ -41873,15 +42366,15 @@
       <c r="M1207" s="5"/>
       <c r="N1207" s="10"/>
     </row>
-    <row r="1208" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1208" s="4" t="s">
-        <v>2082</v>
+        <v>2054</v>
       </c>
       <c r="B1208" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1208" s="5" t="s">
-        <v>2083</v>
+        <v>2055</v>
       </c>
       <c r="D1208" s="9"/>
       <c r="E1208" s="5"/>
@@ -41895,15 +42388,15 @@
       <c r="M1208" s="5"/>
       <c r="N1208" s="10"/>
     </row>
-    <row r="1209" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1209" s="4" t="s">
-        <v>2084</v>
+        <v>2056</v>
       </c>
       <c r="B1209" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1209" s="5" t="s">
-        <v>2085</v>
+        <v>2046</v>
       </c>
       <c r="D1209" s="9"/>
       <c r="E1209" s="5"/>
@@ -41917,15 +42410,15 @@
       <c r="M1209" s="5"/>
       <c r="N1209" s="10"/>
     </row>
-    <row r="1210" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1210" s="4" t="s">
-        <v>2086</v>
+        <v>2057</v>
       </c>
       <c r="B1210" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1210" s="5" t="s">
-        <v>2087</v>
+        <v>2058</v>
       </c>
       <c r="D1210" s="9"/>
       <c r="E1210" s="5"/>
@@ -41939,15 +42432,15 @@
       <c r="M1210" s="5"/>
       <c r="N1210" s="10"/>
     </row>
-    <row r="1211" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1211" s="4" t="s">
-        <v>2088</v>
+        <v>2059</v>
       </c>
       <c r="B1211" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1211" s="5" t="s">
-        <v>2089</v>
+        <v>2060</v>
       </c>
       <c r="D1211" s="9"/>
       <c r="E1211" s="5"/>
@@ -41961,15 +42454,15 @@
       <c r="M1211" s="5"/>
       <c r="N1211" s="10"/>
     </row>
-    <row r="1212" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1212" s="4" t="s">
-        <v>2090</v>
+        <v>2061</v>
       </c>
       <c r="B1212" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1212" s="5" t="s">
-        <v>2091</v>
+        <v>2062</v>
       </c>
       <c r="D1212" s="9"/>
       <c r="E1212" s="5"/>
@@ -41983,15 +42476,15 @@
       <c r="M1212" s="5"/>
       <c r="N1212" s="10"/>
     </row>
-    <row r="1213" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1213" s="4" t="s">
-        <v>2092</v>
+        <v>2063</v>
       </c>
       <c r="B1213" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1213" s="5" t="s">
-        <v>2093</v>
+        <v>2064</v>
       </c>
       <c r="D1213" s="9"/>
       <c r="E1213" s="5"/>
@@ -42005,15 +42498,15 @@
       <c r="M1213" s="5"/>
       <c r="N1213" s="10"/>
     </row>
-    <row r="1214" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1214" s="4" t="s">
-        <v>2094</v>
+        <v>2065</v>
       </c>
       <c r="B1214" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1214" s="5" t="s">
-        <v>2095</v>
+        <v>1127</v>
       </c>
       <c r="D1214" s="9"/>
       <c r="E1214" s="5"/>
@@ -42027,15 +42520,15 @@
       <c r="M1214" s="5"/>
       <c r="N1214" s="10"/>
     </row>
-    <row r="1215" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1215" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1215" s="4" t="s">
-        <v>2096</v>
+        <v>2066</v>
       </c>
       <c r="B1215" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1215" s="5" t="s">
-        <v>2097</v>
+        <v>1131</v>
       </c>
       <c r="D1215" s="9"/>
       <c r="E1215" s="5"/>
@@ -42049,15 +42542,15 @@
       <c r="M1215" s="5"/>
       <c r="N1215" s="10"/>
     </row>
-    <row r="1216" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1216" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1216" s="4" t="s">
-        <v>2098</v>
+        <v>2067</v>
       </c>
       <c r="B1216" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1216" s="5" t="s">
-        <v>2099</v>
+        <v>2068</v>
       </c>
       <c r="D1216" s="9"/>
       <c r="E1216" s="5"/>
@@ -42071,15 +42564,15 @@
       <c r="M1216" s="5"/>
       <c r="N1216" s="10"/>
     </row>
-    <row r="1217" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1217" s="4" t="s">
-        <v>2100</v>
+        <v>2069</v>
       </c>
       <c r="B1217" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1217" s="5" t="s">
-        <v>2101</v>
+        <v>2070</v>
       </c>
       <c r="D1217" s="9"/>
       <c r="E1217" s="5"/>
@@ -42095,13 +42588,13 @@
     </row>
     <row r="1218" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1218" s="4" t="s">
-        <v>2102</v>
+        <v>2071</v>
       </c>
       <c r="B1218" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1218" s="5" t="s">
-        <v>2103</v>
+        <v>2073</v>
       </c>
       <c r="D1218" s="9"/>
       <c r="E1218" s="5"/>
@@ -42117,13 +42610,13 @@
     </row>
     <row r="1219" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1219" s="4" t="s">
-        <v>2104</v>
+        <v>2074</v>
       </c>
       <c r="B1219" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1219" s="5" t="s">
-        <v>2105</v>
+        <v>2075</v>
       </c>
       <c r="D1219" s="9"/>
       <c r="E1219" s="5"/>
@@ -42139,13 +42632,13 @@
     </row>
     <row r="1220" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1220" s="4" t="s">
-        <v>2106</v>
+        <v>2076</v>
       </c>
       <c r="B1220" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1220" s="5" t="s">
-        <v>2107</v>
+        <v>2077</v>
       </c>
       <c r="D1220" s="9"/>
       <c r="E1220" s="5"/>
@@ -42159,15 +42652,15 @@
       <c r="M1220" s="5"/>
       <c r="N1220" s="10"/>
     </row>
-    <row r="1221" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1221" s="4" t="s">
-        <v>2108</v>
+        <v>2078</v>
       </c>
       <c r="B1221" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1221" s="5" t="s">
-        <v>2109</v>
+        <v>2079</v>
       </c>
       <c r="D1221" s="9"/>
       <c r="E1221" s="5"/>
@@ -42181,15 +42674,15 @@
       <c r="M1221" s="5"/>
       <c r="N1221" s="10"/>
     </row>
-    <row r="1222" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1222" s="4" t="s">
-        <v>2110</v>
+        <v>2080</v>
       </c>
       <c r="B1222" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1222" s="5" t="s">
-        <v>2111</v>
+        <v>2081</v>
       </c>
       <c r="D1222" s="9"/>
       <c r="E1222" s="5"/>
@@ -42203,15 +42696,15 @@
       <c r="M1222" s="5"/>
       <c r="N1222" s="10"/>
     </row>
-    <row r="1223" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1223" s="4" t="s">
-        <v>2112</v>
+        <v>2082</v>
       </c>
       <c r="B1223" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1223" s="5" t="s">
-        <v>2114</v>
+        <v>2083</v>
       </c>
       <c r="D1223" s="9"/>
       <c r="E1223" s="5"/>
@@ -42225,15 +42718,15 @@
       <c r="M1223" s="5"/>
       <c r="N1223" s="10"/>
     </row>
-    <row r="1224" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1224" s="4" t="s">
-        <v>2115</v>
+        <v>2084</v>
       </c>
       <c r="B1224" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1224" s="5" t="s">
-        <v>2116</v>
+        <v>2085</v>
       </c>
       <c r="D1224" s="9"/>
       <c r="E1224" s="5"/>
@@ -42247,15 +42740,15 @@
       <c r="M1224" s="5"/>
       <c r="N1224" s="10"/>
     </row>
-    <row r="1225" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1225" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1225" s="4" t="s">
-        <v>2117</v>
+        <v>2086</v>
       </c>
       <c r="B1225" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1225" s="5" t="s">
-        <v>2118</v>
+        <v>2087</v>
       </c>
       <c r="D1225" s="9"/>
       <c r="E1225" s="5"/>
@@ -42269,15 +42762,15 @@
       <c r="M1225" s="5"/>
       <c r="N1225" s="10"/>
     </row>
-    <row r="1226" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1226" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1226" s="4" t="s">
-        <v>2119</v>
+        <v>2088</v>
       </c>
       <c r="B1226" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1226" s="5" t="s">
-        <v>2120</v>
+        <v>2089</v>
       </c>
       <c r="D1226" s="9"/>
       <c r="E1226" s="5"/>
@@ -42291,15 +42784,15 @@
       <c r="M1226" s="5"/>
       <c r="N1226" s="10"/>
     </row>
-    <row r="1227" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1227" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1227" s="4" t="s">
-        <v>2121</v>
+        <v>2090</v>
       </c>
       <c r="B1227" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1227" s="5" t="s">
-        <v>2122</v>
+        <v>2091</v>
       </c>
       <c r="D1227" s="9"/>
       <c r="E1227" s="5"/>
@@ -42313,15 +42806,15 @@
       <c r="M1227" s="5"/>
       <c r="N1227" s="10"/>
     </row>
-    <row r="1228" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1228" s="4" t="s">
-        <v>2123</v>
+        <v>2092</v>
       </c>
       <c r="B1228" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1228" s="5" t="s">
-        <v>2124</v>
+        <v>2093</v>
       </c>
       <c r="D1228" s="9"/>
       <c r="E1228" s="5"/>
@@ -42335,15 +42828,15 @@
       <c r="M1228" s="5"/>
       <c r="N1228" s="10"/>
     </row>
-    <row r="1229" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1229" s="4" t="s">
-        <v>2125</v>
+        <v>2094</v>
       </c>
       <c r="B1229" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1229" s="5" t="s">
-        <v>2122</v>
+        <v>2095</v>
       </c>
       <c r="D1229" s="9"/>
       <c r="E1229" s="5"/>
@@ -42357,15 +42850,15 @@
       <c r="M1229" s="5"/>
       <c r="N1229" s="10"/>
     </row>
-    <row r="1230" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1230" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1230" s="4" t="s">
-        <v>2126</v>
+        <v>2096</v>
       </c>
       <c r="B1230" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1230" s="5" t="s">
-        <v>2127</v>
+        <v>2097</v>
       </c>
       <c r="D1230" s="9"/>
       <c r="E1230" s="5"/>
@@ -42379,15 +42872,15 @@
       <c r="M1230" s="5"/>
       <c r="N1230" s="10"/>
     </row>
-    <row r="1231" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1231" s="4" t="s">
-        <v>2128</v>
+        <v>2098</v>
       </c>
       <c r="B1231" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1231" s="5" t="s">
-        <v>2129</v>
+        <v>2099</v>
       </c>
       <c r="D1231" s="9"/>
       <c r="E1231" s="5"/>
@@ -42401,15 +42894,15 @@
       <c r="M1231" s="5"/>
       <c r="N1231" s="10"/>
     </row>
-    <row r="1232" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1232" s="4" t="s">
-        <v>2130</v>
+        <v>2100</v>
       </c>
       <c r="B1232" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1232" s="5" t="s">
-        <v>2131</v>
+        <v>2101</v>
       </c>
       <c r="D1232" s="9"/>
       <c r="E1232" s="5"/>
@@ -42423,15 +42916,15 @@
       <c r="M1232" s="5"/>
       <c r="N1232" s="10"/>
     </row>
-    <row r="1233" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1233" s="4" t="s">
-        <v>2132</v>
+        <v>2102</v>
       </c>
       <c r="B1233" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1233" s="5" t="s">
-        <v>2133</v>
+        <v>2103</v>
       </c>
       <c r="D1233" s="9"/>
       <c r="E1233" s="5"/>
@@ -42445,15 +42938,15 @@
       <c r="M1233" s="5"/>
       <c r="N1233" s="10"/>
     </row>
-    <row r="1234" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1234" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1234" s="4" t="s">
-        <v>2134</v>
+        <v>2104</v>
       </c>
       <c r="B1234" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1234" s="5" t="s">
-        <v>2135</v>
+        <v>2105</v>
       </c>
       <c r="D1234" s="9"/>
       <c r="E1234" s="5"/>
@@ -42467,15 +42960,15 @@
       <c r="M1234" s="5"/>
       <c r="N1234" s="10"/>
     </row>
-    <row r="1235" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1235" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1235" s="4" t="s">
-        <v>2136</v>
+        <v>2106</v>
       </c>
       <c r="B1235" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1235" s="5" t="s">
-        <v>2137</v>
+        <v>2107</v>
       </c>
       <c r="D1235" s="9"/>
       <c r="E1235" s="5"/>
@@ -42489,15 +42982,15 @@
       <c r="M1235" s="5"/>
       <c r="N1235" s="10"/>
     </row>
-    <row r="1236" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1236" s="4" t="s">
-        <v>2138</v>
+        <v>2108</v>
       </c>
       <c r="B1236" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1236" s="5" t="s">
-        <v>2139</v>
+        <v>2109</v>
       </c>
       <c r="D1236" s="9"/>
       <c r="E1236" s="5"/>
@@ -42511,15 +43004,15 @@
       <c r="M1236" s="5"/>
       <c r="N1236" s="10"/>
     </row>
-    <row r="1237" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1237" s="4" t="s">
-        <v>2140</v>
+        <v>2110</v>
       </c>
       <c r="B1237" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1237" s="5" t="s">
-        <v>2135</v>
+        <v>2111</v>
       </c>
       <c r="D1237" s="9"/>
       <c r="E1237" s="5"/>
@@ -42535,13 +43028,13 @@
     </row>
     <row r="1238" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1238" s="4" t="s">
-        <v>2141</v>
+        <v>2112</v>
       </c>
       <c r="B1238" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1238" s="5" t="s">
-        <v>2142</v>
+        <v>2114</v>
       </c>
       <c r="D1238" s="9"/>
       <c r="E1238" s="5"/>
@@ -42557,13 +43050,13 @@
     </row>
     <row r="1239" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1239" s="4" t="s">
-        <v>2143</v>
+        <v>2115</v>
       </c>
       <c r="B1239" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1239" s="5" t="s">
-        <v>2144</v>
+        <v>2116</v>
       </c>
       <c r="D1239" s="9"/>
       <c r="E1239" s="5"/>
@@ -42579,13 +43072,13 @@
     </row>
     <row r="1240" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1240" s="4" t="s">
-        <v>2145</v>
+        <v>2117</v>
       </c>
       <c r="B1240" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1240" s="5" t="s">
-        <v>2146</v>
+        <v>2118</v>
       </c>
       <c r="D1240" s="9"/>
       <c r="E1240" s="5"/>
@@ -42601,13 +43094,13 @@
     </row>
     <row r="1241" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1241" s="4" t="s">
-        <v>2147</v>
+        <v>2119</v>
       </c>
       <c r="B1241" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1241" s="5" t="s">
-        <v>2148</v>
+        <v>2120</v>
       </c>
       <c r="D1241" s="9"/>
       <c r="E1241" s="5"/>
@@ -42623,13 +43116,13 @@
     </row>
     <row r="1242" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1242" s="4" t="s">
-        <v>2149</v>
+        <v>2121</v>
       </c>
       <c r="B1242" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1242" s="5" t="s">
-        <v>2137</v>
+        <v>2122</v>
       </c>
       <c r="D1242" s="9"/>
       <c r="E1242" s="5"/>
@@ -42643,15 +43136,15 @@
       <c r="M1242" s="5"/>
       <c r="N1242" s="10"/>
     </row>
-    <row r="1243" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1243" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1243" s="4" t="s">
-        <v>2150</v>
+        <v>2123</v>
       </c>
       <c r="B1243" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1243" s="5" t="s">
-        <v>2152</v>
+        <v>2124</v>
       </c>
       <c r="D1243" s="9"/>
       <c r="E1243" s="5"/>
@@ -42665,15 +43158,15 @@
       <c r="M1243" s="5"/>
       <c r="N1243" s="10"/>
     </row>
-    <row r="1244" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1244" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1244" s="4" t="s">
-        <v>2153</v>
+        <v>2125</v>
       </c>
       <c r="B1244" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1244" s="5" t="s">
-        <v>2154</v>
+        <v>2122</v>
       </c>
       <c r="D1244" s="9"/>
       <c r="E1244" s="5"/>
@@ -42687,15 +43180,15 @@
       <c r="M1244" s="5"/>
       <c r="N1244" s="10"/>
     </row>
-    <row r="1245" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1245" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1245" s="4" t="s">
-        <v>2155</v>
+        <v>2126</v>
       </c>
       <c r="B1245" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1245" s="5" t="s">
-        <v>2156</v>
+        <v>2127</v>
       </c>
       <c r="D1245" s="9"/>
       <c r="E1245" s="5"/>
@@ -42709,15 +43202,15 @@
       <c r="M1245" s="5"/>
       <c r="N1245" s="10"/>
     </row>
-    <row r="1246" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1246" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1246" s="4" t="s">
-        <v>2157</v>
+        <v>2128</v>
       </c>
       <c r="B1246" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1246" s="5" t="s">
-        <v>2158</v>
+        <v>2129</v>
       </c>
       <c r="D1246" s="9"/>
       <c r="E1246" s="5"/>
@@ -42731,15 +43224,15 @@
       <c r="M1246" s="5"/>
       <c r="N1246" s="10"/>
     </row>
-    <row r="1247" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1247" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1247" s="4" t="s">
-        <v>2159</v>
+        <v>2130</v>
       </c>
       <c r="B1247" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1247" s="5" t="s">
-        <v>2160</v>
+        <v>2131</v>
       </c>
       <c r="D1247" s="9"/>
       <c r="E1247" s="5"/>
@@ -42753,15 +43246,15 @@
       <c r="M1247" s="5"/>
       <c r="N1247" s="10"/>
     </row>
-    <row r="1248" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1248" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1248" s="4" t="s">
-        <v>2161</v>
+        <v>2132</v>
       </c>
       <c r="B1248" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1248" s="5" t="s">
-        <v>2162</v>
+        <v>2133</v>
       </c>
       <c r="D1248" s="9"/>
       <c r="E1248" s="5"/>
@@ -42775,15 +43268,15 @@
       <c r="M1248" s="5"/>
       <c r="N1248" s="10"/>
     </row>
-    <row r="1249" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1249" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1249" s="4" t="s">
-        <v>2163</v>
+        <v>2134</v>
       </c>
       <c r="B1249" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1249" s="5" t="s">
-        <v>2164</v>
+        <v>2135</v>
       </c>
       <c r="D1249" s="9"/>
       <c r="E1249" s="5"/>
@@ -42797,15 +43290,15 @@
       <c r="M1249" s="5"/>
       <c r="N1249" s="10"/>
     </row>
-    <row r="1250" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1250" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1250" s="4" t="s">
-        <v>2165</v>
+        <v>2136</v>
       </c>
       <c r="B1250" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1250" s="5" t="s">
-        <v>2166</v>
+        <v>2137</v>
       </c>
       <c r="D1250" s="9"/>
       <c r="E1250" s="5"/>
@@ -42819,15 +43312,15 @@
       <c r="M1250" s="5"/>
       <c r="N1250" s="10"/>
     </row>
-    <row r="1251" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1251" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1251" s="4" t="s">
-        <v>2167</v>
+        <v>2138</v>
       </c>
       <c r="B1251" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1251" s="5" t="s">
-        <v>2168</v>
+        <v>2139</v>
       </c>
       <c r="D1251" s="9"/>
       <c r="E1251" s="5"/>
@@ -42841,15 +43334,15 @@
       <c r="M1251" s="5"/>
       <c r="N1251" s="10"/>
     </row>
-    <row r="1252" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1252" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1252" s="4" t="s">
-        <v>2169</v>
+        <v>2140</v>
       </c>
       <c r="B1252" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1252" s="5" t="s">
-        <v>2170</v>
+        <v>2135</v>
       </c>
       <c r="D1252" s="9"/>
       <c r="E1252" s="5"/>
@@ -42863,15 +43356,15 @@
       <c r="M1252" s="5"/>
       <c r="N1252" s="10"/>
     </row>
-    <row r="1253" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1253" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1253" s="4" t="s">
-        <v>2171</v>
+        <v>2141</v>
       </c>
       <c r="B1253" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1253" s="5" t="s">
-        <v>2172</v>
+        <v>2142</v>
       </c>
       <c r="D1253" s="9"/>
       <c r="E1253" s="5"/>
@@ -42885,15 +43378,15 @@
       <c r="M1253" s="5"/>
       <c r="N1253" s="10"/>
     </row>
-    <row r="1254" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1254" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1254" s="4" t="s">
-        <v>2173</v>
+        <v>2143</v>
       </c>
       <c r="B1254" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1254" s="5" t="s">
-        <v>2174</v>
+        <v>2144</v>
       </c>
       <c r="D1254" s="9"/>
       <c r="E1254" s="5"/>
@@ -42907,15 +43400,15 @@
       <c r="M1254" s="5"/>
       <c r="N1254" s="10"/>
     </row>
-    <row r="1255" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1255" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1255" s="4" t="s">
-        <v>2175</v>
+        <v>2145</v>
       </c>
       <c r="B1255" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1255" s="5" t="s">
-        <v>2176</v>
+        <v>2146</v>
       </c>
       <c r="D1255" s="9"/>
       <c r="E1255" s="5"/>
@@ -42929,15 +43422,15 @@
       <c r="M1255" s="5"/>
       <c r="N1255" s="10"/>
     </row>
-    <row r="1256" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1256" s="4" t="s">
-        <v>2177</v>
+        <v>2147</v>
       </c>
       <c r="B1256" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1256" s="5" t="s">
-        <v>2178</v>
+        <v>2148</v>
       </c>
       <c r="D1256" s="9"/>
       <c r="E1256" s="5"/>
@@ -42951,15 +43444,15 @@
       <c r="M1256" s="5"/>
       <c r="N1256" s="10"/>
     </row>
-    <row r="1257" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1257" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1257" s="4" t="s">
-        <v>2179</v>
+        <v>2149</v>
       </c>
       <c r="B1257" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1257" s="5" t="s">
-        <v>2180</v>
+        <v>2137</v>
       </c>
       <c r="D1257" s="9"/>
       <c r="E1257" s="5"/>
@@ -42975,13 +43468,13 @@
     </row>
     <row r="1258" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1258" s="4" t="s">
-        <v>2181</v>
+        <v>2150</v>
       </c>
       <c r="B1258" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1258" s="5" t="s">
-        <v>2182</v>
+        <v>2152</v>
       </c>
       <c r="D1258" s="9"/>
       <c r="E1258" s="5"/>
@@ -42997,13 +43490,13 @@
     </row>
     <row r="1259" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1259" s="4" t="s">
-        <v>2183</v>
+        <v>2153</v>
       </c>
       <c r="B1259" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1259" s="5" t="s">
-        <v>2184</v>
+        <v>2154</v>
       </c>
       <c r="D1259" s="9"/>
       <c r="E1259" s="5"/>
@@ -43019,13 +43512,13 @@
     </row>
     <row r="1260" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1260" s="4" t="s">
-        <v>2185</v>
+        <v>2155</v>
       </c>
       <c r="B1260" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1260" s="5" t="s">
-        <v>2186</v>
+        <v>2156</v>
       </c>
       <c r="D1260" s="9"/>
       <c r="E1260" s="5"/>
@@ -43041,13 +43534,13 @@
     </row>
     <row r="1261" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1261" s="4" t="s">
-        <v>2187</v>
+        <v>2157</v>
       </c>
       <c r="B1261" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1261" s="5" t="s">
-        <v>2188</v>
+        <v>2158</v>
       </c>
       <c r="D1261" s="9"/>
       <c r="E1261" s="5"/>
@@ -43063,13 +43556,13 @@
     </row>
     <row r="1262" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1262" s="4" t="s">
-        <v>2189</v>
+        <v>2159</v>
       </c>
       <c r="B1262" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1262" s="5" t="s">
-        <v>2190</v>
+        <v>2160</v>
       </c>
       <c r="D1262" s="9"/>
       <c r="E1262" s="5"/>
@@ -43085,13 +43578,13 @@
     </row>
     <row r="1263" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1263" s="4" t="s">
-        <v>2191</v>
+        <v>2161</v>
       </c>
       <c r="B1263" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1263" s="5" t="s">
-        <v>2193</v>
+        <v>2162</v>
       </c>
       <c r="D1263" s="9"/>
       <c r="E1263" s="5"/>
@@ -43107,13 +43600,13 @@
     </row>
     <row r="1264" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1264" s="4" t="s">
-        <v>2194</v>
+        <v>2163</v>
       </c>
       <c r="B1264" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1264" s="5" t="s">
-        <v>2195</v>
+        <v>2164</v>
       </c>
       <c r="D1264" s="9"/>
       <c r="E1264" s="5"/>
@@ -43129,13 +43622,13 @@
     </row>
     <row r="1265" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1265" s="4" t="s">
-        <v>2196</v>
+        <v>2165</v>
       </c>
       <c r="B1265" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1265" s="5" t="s">
-        <v>2197</v>
+        <v>2166</v>
       </c>
       <c r="D1265" s="9"/>
       <c r="E1265" s="5"/>
@@ -43151,13 +43644,13 @@
     </row>
     <row r="1266" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1266" s="4" t="s">
-        <v>2198</v>
+        <v>2167</v>
       </c>
       <c r="B1266" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1266" s="5" t="s">
-        <v>2199</v>
+        <v>2168</v>
       </c>
       <c r="D1266" s="9"/>
       <c r="E1266" s="5"/>
@@ -43173,13 +43666,13 @@
     </row>
     <row r="1267" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1267" s="4" t="s">
-        <v>2200</v>
+        <v>2169</v>
       </c>
       <c r="B1267" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1267" s="5" t="s">
-        <v>2201</v>
+        <v>2170</v>
       </c>
       <c r="D1267" s="9"/>
       <c r="E1267" s="5"/>
@@ -43195,13 +43688,13 @@
     </row>
     <row r="1268" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1268" s="4" t="s">
-        <v>2202</v>
+        <v>2171</v>
       </c>
       <c r="B1268" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1268" s="5" t="s">
-        <v>2203</v>
+        <v>2172</v>
       </c>
       <c r="D1268" s="9"/>
       <c r="E1268" s="5"/>
@@ -43217,13 +43710,13 @@
     </row>
     <row r="1269" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1269" s="4" t="s">
-        <v>2204</v>
+        <v>2173</v>
       </c>
       <c r="B1269" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1269" s="5" t="s">
-        <v>2205</v>
+        <v>2174</v>
       </c>
       <c r="D1269" s="9"/>
       <c r="E1269" s="5"/>
@@ -43239,13 +43732,13 @@
     </row>
     <row r="1270" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1270" s="4" t="s">
-        <v>2206</v>
+        <v>2175</v>
       </c>
       <c r="B1270" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1270" s="5" t="s">
-        <v>2207</v>
+        <v>2176</v>
       </c>
       <c r="D1270" s="9"/>
       <c r="E1270" s="5"/>
@@ -43261,13 +43754,13 @@
     </row>
     <row r="1271" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1271" s="4" t="s">
-        <v>2208</v>
+        <v>2177</v>
       </c>
       <c r="B1271" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1271" s="5" t="s">
-        <v>2209</v>
+        <v>2178</v>
       </c>
       <c r="D1271" s="9"/>
       <c r="E1271" s="5"/>
@@ -43283,13 +43776,13 @@
     </row>
     <row r="1272" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1272" s="4" t="s">
-        <v>2210</v>
+        <v>2179</v>
       </c>
       <c r="B1272" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1272" s="5" t="s">
-        <v>2211</v>
+        <v>2180</v>
       </c>
       <c r="D1272" s="9"/>
       <c r="E1272" s="5"/>
@@ -43305,13 +43798,13 @@
     </row>
     <row r="1273" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1273" s="4" t="s">
-        <v>2212</v>
+        <v>2181</v>
       </c>
       <c r="B1273" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1273" s="5" t="s">
-        <v>2213</v>
+        <v>2182</v>
       </c>
       <c r="D1273" s="9"/>
       <c r="E1273" s="5"/>
@@ -43327,13 +43820,13 @@
     </row>
     <row r="1274" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1274" s="4" t="s">
-        <v>2214</v>
+        <v>2183</v>
       </c>
       <c r="B1274" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1274" s="5" t="s">
-        <v>2215</v>
+        <v>2184</v>
       </c>
       <c r="D1274" s="9"/>
       <c r="E1274" s="5"/>
@@ -43349,13 +43842,13 @@
     </row>
     <row r="1275" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1275" s="4" t="s">
-        <v>2216</v>
+        <v>2185</v>
       </c>
       <c r="B1275" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1275" s="5" t="s">
-        <v>2217</v>
+        <v>2186</v>
       </c>
       <c r="D1275" s="9"/>
       <c r="E1275" s="5"/>
@@ -43371,13 +43864,13 @@
     </row>
     <row r="1276" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1276" s="4" t="s">
-        <v>2218</v>
+        <v>2187</v>
       </c>
       <c r="B1276" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1276" s="5" t="s">
-        <v>2219</v>
+        <v>2188</v>
       </c>
       <c r="D1276" s="9"/>
       <c r="E1276" s="5"/>
@@ -43393,13 +43886,13 @@
     </row>
     <row r="1277" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1277" s="4" t="s">
-        <v>2220</v>
+        <v>2189</v>
       </c>
       <c r="B1277" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1277" s="5" t="s">
-        <v>2221</v>
+        <v>2190</v>
       </c>
       <c r="D1277" s="9"/>
       <c r="E1277" s="5"/>
@@ -43415,13 +43908,13 @@
     </row>
     <row r="1278" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1278" s="4" t="s">
-        <v>2222</v>
+        <v>2191</v>
       </c>
       <c r="B1278" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1278" s="5" t="s">
-        <v>2223</v>
+        <v>2193</v>
       </c>
       <c r="D1278" s="9"/>
       <c r="E1278" s="5"/>
@@ -43437,13 +43930,13 @@
     </row>
     <row r="1279" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1279" s="4" t="s">
-        <v>2224</v>
+        <v>2194</v>
       </c>
       <c r="B1279" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1279" s="5" t="s">
-        <v>2225</v>
+        <v>2195</v>
       </c>
       <c r="D1279" s="9"/>
       <c r="E1279" s="5"/>
@@ -43459,13 +43952,13 @@
     </row>
     <row r="1280" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1280" s="4" t="s">
-        <v>2226</v>
+        <v>2196</v>
       </c>
       <c r="B1280" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1280" s="5" t="s">
-        <v>2227</v>
+        <v>2197</v>
       </c>
       <c r="D1280" s="9"/>
       <c r="E1280" s="5"/>
@@ -43481,13 +43974,13 @@
     </row>
     <row r="1281" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1281" s="4" t="s">
-        <v>2228</v>
+        <v>2198</v>
       </c>
       <c r="B1281" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1281" s="5" t="s">
-        <v>2229</v>
+        <v>2199</v>
       </c>
       <c r="D1281" s="9"/>
       <c r="E1281" s="5"/>
@@ -43503,13 +43996,13 @@
     </row>
     <row r="1282" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1282" s="4" t="s">
-        <v>2230</v>
+        <v>2200</v>
       </c>
       <c r="B1282" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1282" s="5" t="s">
-        <v>2231</v>
+        <v>2201</v>
       </c>
       <c r="D1282" s="9"/>
       <c r="E1282" s="5"/>
@@ -43525,13 +44018,13 @@
     </row>
     <row r="1283" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1283" s="4" t="s">
-        <v>2232</v>
+        <v>2202</v>
       </c>
       <c r="B1283" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1283" s="5" t="s">
-        <v>2234</v>
+        <v>2203</v>
       </c>
       <c r="D1283" s="9"/>
       <c r="E1283" s="5"/>
@@ -43547,13 +44040,13 @@
     </row>
     <row r="1284" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1284" s="4" t="s">
-        <v>2235</v>
+        <v>2204</v>
       </c>
       <c r="B1284" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1284" s="5" t="s">
-        <v>2236</v>
+        <v>2205</v>
       </c>
       <c r="D1284" s="9"/>
       <c r="E1284" s="5"/>
@@ -43569,13 +44062,13 @@
     </row>
     <row r="1285" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1285" s="4" t="s">
-        <v>2237</v>
+        <v>2206</v>
       </c>
       <c r="B1285" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1285" s="5" t="s">
-        <v>2238</v>
+        <v>2207</v>
       </c>
       <c r="D1285" s="9"/>
       <c r="E1285" s="5"/>
@@ -43591,13 +44084,13 @@
     </row>
     <row r="1286" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1286" s="4" t="s">
-        <v>2239</v>
+        <v>2208</v>
       </c>
       <c r="B1286" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1286" s="5" t="s">
-        <v>2240</v>
+        <v>2209</v>
       </c>
       <c r="D1286" s="9"/>
       <c r="E1286" s="5"/>
@@ -43613,13 +44106,13 @@
     </row>
     <row r="1287" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1287" s="4" t="s">
-        <v>2241</v>
+        <v>2210</v>
       </c>
       <c r="B1287" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1287" s="5" t="s">
-        <v>2242</v>
+        <v>2211</v>
       </c>
       <c r="D1287" s="9"/>
       <c r="E1287" s="5"/>
@@ -43635,13 +44128,13 @@
     </row>
     <row r="1288" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1288" s="4" t="s">
-        <v>2243</v>
+        <v>2212</v>
       </c>
       <c r="B1288" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1288" s="5" t="s">
-        <v>2244</v>
+        <v>2213</v>
       </c>
       <c r="D1288" s="9"/>
       <c r="E1288" s="5"/>
@@ -43657,13 +44150,13 @@
     </row>
     <row r="1289" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1289" s="4" t="s">
-        <v>2245</v>
+        <v>2214</v>
       </c>
       <c r="B1289" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1289" s="5" t="s">
-        <v>2246</v>
+        <v>2215</v>
       </c>
       <c r="D1289" s="9"/>
       <c r="E1289" s="5"/>
@@ -43679,13 +44172,13 @@
     </row>
     <row r="1290" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1290" s="4" t="s">
-        <v>2247</v>
+        <v>2216</v>
       </c>
       <c r="B1290" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1290" s="5" t="s">
-        <v>2248</v>
+        <v>2217</v>
       </c>
       <c r="D1290" s="9"/>
       <c r="E1290" s="5"/>
@@ -43701,13 +44194,13 @@
     </row>
     <row r="1291" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1291" s="4" t="s">
-        <v>2249</v>
+        <v>2218</v>
       </c>
       <c r="B1291" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1291" s="5" t="s">
-        <v>2250</v>
+        <v>2219</v>
       </c>
       <c r="D1291" s="9"/>
       <c r="E1291" s="5"/>
@@ -43723,13 +44216,13 @@
     </row>
     <row r="1292" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1292" s="4" t="s">
-        <v>2251</v>
+        <v>2220</v>
       </c>
       <c r="B1292" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1292" s="5" t="s">
-        <v>2252</v>
+        <v>2221</v>
       </c>
       <c r="D1292" s="9"/>
       <c r="E1292" s="5"/>
@@ -43745,13 +44238,13 @@
     </row>
     <row r="1293" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1293" s="4" t="s">
-        <v>2253</v>
+        <v>2222</v>
       </c>
       <c r="B1293" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1293" s="5" t="s">
-        <v>2254</v>
+        <v>2223</v>
       </c>
       <c r="D1293" s="9"/>
       <c r="E1293" s="5"/>
@@ -43767,13 +44260,13 @@
     </row>
     <row r="1294" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1294" s="4" t="s">
-        <v>2255</v>
+        <v>2224</v>
       </c>
       <c r="B1294" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1294" s="5" t="s">
-        <v>2256</v>
+        <v>2225</v>
       </c>
       <c r="D1294" s="9"/>
       <c r="E1294" s="5"/>
@@ -43789,13 +44282,13 @@
     </row>
     <row r="1295" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1295" s="4" t="s">
-        <v>2257</v>
+        <v>2226</v>
       </c>
       <c r="B1295" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1295" s="5" t="s">
-        <v>2258</v>
+        <v>2227</v>
       </c>
       <c r="D1295" s="9"/>
       <c r="E1295" s="5"/>
@@ -43811,13 +44304,13 @@
     </row>
     <row r="1296" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1296" s="4" t="s">
-        <v>2259</v>
+        <v>2228</v>
       </c>
       <c r="B1296" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1296" s="5" t="s">
-        <v>2260</v>
+        <v>2229</v>
       </c>
       <c r="D1296" s="9"/>
       <c r="E1296" s="5"/>
@@ -43833,13 +44326,13 @@
     </row>
     <row r="1297" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1297" s="4" t="s">
-        <v>2261</v>
+        <v>2230</v>
       </c>
       <c r="B1297" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1297" s="5" t="s">
-        <v>2262</v>
+        <v>2231</v>
       </c>
       <c r="D1297" s="9"/>
       <c r="E1297" s="5"/>
@@ -43855,13 +44348,13 @@
     </row>
     <row r="1298" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1298" s="4" t="s">
-        <v>2263</v>
+        <v>2232</v>
       </c>
       <c r="B1298" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1298" s="5" t="s">
-        <v>2264</v>
+        <v>2234</v>
       </c>
       <c r="D1298" s="9"/>
       <c r="E1298" s="5"/>
@@ -43877,13 +44370,13 @@
     </row>
     <row r="1299" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1299" s="4" t="s">
-        <v>2265</v>
+        <v>2235</v>
       </c>
       <c r="B1299" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1299" s="5" t="s">
-        <v>2266</v>
+        <v>2236</v>
       </c>
       <c r="D1299" s="9"/>
       <c r="E1299" s="5"/>
@@ -43899,13 +44392,13 @@
     </row>
     <row r="1300" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1300" s="4" t="s">
-        <v>2267</v>
+        <v>2237</v>
       </c>
       <c r="B1300" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1300" s="5" t="s">
-        <v>2268</v>
+        <v>2238</v>
       </c>
       <c r="D1300" s="9"/>
       <c r="E1300" s="5"/>
@@ -43921,13 +44414,13 @@
     </row>
     <row r="1301" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1301" s="4" t="s">
-        <v>2269</v>
+        <v>2239</v>
       </c>
       <c r="B1301" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1301" s="5" t="s">
-        <v>2270</v>
+        <v>2240</v>
       </c>
       <c r="D1301" s="9"/>
       <c r="E1301" s="5"/>
@@ -43943,13 +44436,13 @@
     </row>
     <row r="1302" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1302" s="4" t="s">
-        <v>2271</v>
+        <v>2241</v>
       </c>
       <c r="B1302" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1302" s="5" t="s">
-        <v>2272</v>
+        <v>2242</v>
       </c>
       <c r="D1302" s="9"/>
       <c r="E1302" s="5"/>
@@ -43963,15 +44456,15 @@
       <c r="M1302" s="5"/>
       <c r="N1302" s="10"/>
     </row>
-    <row r="1303" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1303" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1303" s="4" t="s">
-        <v>2273</v>
+        <v>2243</v>
       </c>
       <c r="B1303" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1303" s="5" t="s">
-        <v>2275</v>
+        <v>2244</v>
       </c>
       <c r="D1303" s="9"/>
       <c r="E1303" s="5"/>
@@ -43985,15 +44478,15 @@
       <c r="M1303" s="5"/>
       <c r="N1303" s="10"/>
     </row>
-    <row r="1304" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1304" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1304" s="4" t="s">
-        <v>2276</v>
+        <v>2245</v>
       </c>
       <c r="B1304" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1304" s="5" t="s">
-        <v>2277</v>
+        <v>2246</v>
       </c>
       <c r="D1304" s="9"/>
       <c r="E1304" s="5"/>
@@ -44007,15 +44500,15 @@
       <c r="M1304" s="5"/>
       <c r="N1304" s="10"/>
     </row>
-    <row r="1305" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1305" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1305" s="4" t="s">
-        <v>2278</v>
+        <v>2247</v>
       </c>
       <c r="B1305" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1305" s="5" t="s">
-        <v>2279</v>
+        <v>2248</v>
       </c>
       <c r="D1305" s="9"/>
       <c r="E1305" s="5"/>
@@ -44029,15 +44522,15 @@
       <c r="M1305" s="5"/>
       <c r="N1305" s="10"/>
     </row>
-    <row r="1306" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1306" s="4" t="s">
-        <v>2280</v>
+        <v>2249</v>
       </c>
       <c r="B1306" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1306" s="5" t="s">
-        <v>2281</v>
+        <v>2250</v>
       </c>
       <c r="D1306" s="9"/>
       <c r="E1306" s="5"/>
@@ -44051,15 +44544,15 @@
       <c r="M1306" s="5"/>
       <c r="N1306" s="10"/>
     </row>
-    <row r="1307" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1307" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1307" s="4" t="s">
-        <v>2282</v>
+        <v>2251</v>
       </c>
       <c r="B1307" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1307" s="5" t="s">
-        <v>2283</v>
+        <v>2252</v>
       </c>
       <c r="D1307" s="9"/>
       <c r="E1307" s="5"/>
@@ -44073,15 +44566,15 @@
       <c r="M1307" s="5"/>
       <c r="N1307" s="10"/>
     </row>
-    <row r="1308" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1308" s="4" t="s">
-        <v>2284</v>
+        <v>2253</v>
       </c>
       <c r="B1308" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1308" s="5" t="s">
-        <v>2285</v>
+        <v>2254</v>
       </c>
       <c r="D1308" s="9"/>
       <c r="E1308" s="5"/>
@@ -44095,15 +44588,15 @@
       <c r="M1308" s="5"/>
       <c r="N1308" s="10"/>
     </row>
-    <row r="1309" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1309" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1309" s="4" t="s">
-        <v>2286</v>
+        <v>2255</v>
       </c>
       <c r="B1309" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1309" s="5" t="s">
-        <v>2287</v>
+        <v>2256</v>
       </c>
       <c r="D1309" s="9"/>
       <c r="E1309" s="5"/>
@@ -44119,13 +44612,13 @@
     </row>
     <row r="1310" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1310" s="4" t="s">
-        <v>2288</v>
+        <v>2257</v>
       </c>
       <c r="B1310" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1310" s="5" t="s">
-        <v>2289</v>
+        <v>2258</v>
       </c>
       <c r="D1310" s="9"/>
       <c r="E1310" s="5"/>
@@ -44139,15 +44632,15 @@
       <c r="M1310" s="5"/>
       <c r="N1310" s="10"/>
     </row>
-    <row r="1311" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1311" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1311" s="4" t="s">
-        <v>2290</v>
+        <v>2259</v>
       </c>
       <c r="B1311" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1311" s="5" t="s">
-        <v>2291</v>
+        <v>2260</v>
       </c>
       <c r="D1311" s="9"/>
       <c r="E1311" s="5"/>
@@ -44163,13 +44656,13 @@
     </row>
     <row r="1312" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1312" s="4" t="s">
-        <v>2292</v>
+        <v>2261</v>
       </c>
       <c r="B1312" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1312" s="5" t="s">
-        <v>2293</v>
+        <v>2262</v>
       </c>
       <c r="D1312" s="9"/>
       <c r="E1312" s="5"/>
@@ -44183,15 +44676,15 @@
       <c r="M1312" s="5"/>
       <c r="N1312" s="10"/>
     </row>
-    <row r="1313" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1313" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1313" s="4" t="s">
-        <v>2294</v>
+        <v>2263</v>
       </c>
       <c r="B1313" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1313" s="5" t="s">
-        <v>2295</v>
+        <v>2264</v>
       </c>
       <c r="D1313" s="9"/>
       <c r="E1313" s="5"/>
@@ -44205,15 +44698,15 @@
       <c r="M1313" s="5"/>
       <c r="N1313" s="10"/>
     </row>
-    <row r="1314" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1314" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1314" s="4" t="s">
-        <v>2296</v>
+        <v>2265</v>
       </c>
       <c r="B1314" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1314" s="5" t="s">
-        <v>2297</v>
+        <v>2266</v>
       </c>
       <c r="D1314" s="9"/>
       <c r="E1314" s="5"/>
@@ -44227,15 +44720,15 @@
       <c r="M1314" s="5"/>
       <c r="N1314" s="10"/>
     </row>
-    <row r="1315" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1315" s="4" t="s">
-        <v>2298</v>
+        <v>2267</v>
       </c>
       <c r="B1315" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1315" s="5" t="s">
-        <v>2299</v>
+        <v>2268</v>
       </c>
       <c r="D1315" s="9"/>
       <c r="E1315" s="5"/>
@@ -44249,15 +44742,15 @@
       <c r="M1315" s="5"/>
       <c r="N1315" s="10"/>
     </row>
-    <row r="1316" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1316" s="4" t="s">
-        <v>2300</v>
+        <v>2269</v>
       </c>
       <c r="B1316" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1316" s="5" t="s">
-        <v>2301</v>
+        <v>2270</v>
       </c>
       <c r="D1316" s="9"/>
       <c r="E1316" s="5"/>
@@ -44271,15 +44764,15 @@
       <c r="M1316" s="5"/>
       <c r="N1316" s="10"/>
     </row>
-    <row r="1317" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1317" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1317" s="4" t="s">
-        <v>2302</v>
+        <v>2271</v>
       </c>
       <c r="B1317" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1317" s="5" t="s">
-        <v>2303</v>
+        <v>2272</v>
       </c>
       <c r="D1317" s="9"/>
       <c r="E1317" s="5"/>
@@ -44293,15 +44786,15 @@
       <c r="M1317" s="5"/>
       <c r="N1317" s="10"/>
     </row>
-    <row r="1318" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1318" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1318" s="4" t="s">
-        <v>2304</v>
+        <v>2273</v>
       </c>
       <c r="B1318" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1318" s="5" t="s">
-        <v>2305</v>
+        <v>2275</v>
       </c>
       <c r="D1318" s="9"/>
       <c r="E1318" s="5"/>
@@ -44317,13 +44810,13 @@
     </row>
     <row r="1319" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1319" s="4" t="s">
-        <v>2306</v>
+        <v>2276</v>
       </c>
       <c r="B1319" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1319" s="5" t="s">
-        <v>2307</v>
+        <v>2277</v>
       </c>
       <c r="D1319" s="9"/>
       <c r="E1319" s="5"/>
@@ -44339,13 +44832,13 @@
     </row>
     <row r="1320" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1320" s="4" t="s">
-        <v>2308</v>
+        <v>2278</v>
       </c>
       <c r="B1320" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1320" s="5" t="s">
-        <v>2309</v>
+        <v>2279</v>
       </c>
       <c r="D1320" s="9"/>
       <c r="E1320" s="5"/>
@@ -44361,13 +44854,13 @@
     </row>
     <row r="1321" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1321" s="4" t="s">
-        <v>2310</v>
+        <v>2280</v>
       </c>
       <c r="B1321" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1321" s="5" t="s">
-        <v>2311</v>
+        <v>2281</v>
       </c>
       <c r="D1321" s="9"/>
       <c r="E1321" s="5"/>
@@ -44383,13 +44876,13 @@
     </row>
     <row r="1322" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1322" s="4" t="s">
-        <v>2312</v>
+        <v>2282</v>
       </c>
       <c r="B1322" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1322" s="5" t="s">
-        <v>2313</v>
+        <v>2283</v>
       </c>
       <c r="D1322" s="9"/>
       <c r="E1322" s="5"/>
@@ -44403,15 +44896,15 @@
       <c r="M1322" s="5"/>
       <c r="N1322" s="10"/>
     </row>
-    <row r="1323" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1323" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1323" s="4" t="s">
-        <v>2314</v>
+        <v>2284</v>
       </c>
       <c r="B1323" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1323" s="5" t="s">
-        <v>2316</v>
+        <v>2285</v>
       </c>
       <c r="D1323" s="9"/>
       <c r="E1323" s="5"/>
@@ -44425,15 +44918,15 @@
       <c r="M1323" s="5"/>
       <c r="N1323" s="10"/>
     </row>
-    <row r="1324" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1324" s="4" t="s">
-        <v>2317</v>
+        <v>2286</v>
       </c>
       <c r="B1324" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1324" s="5" t="s">
-        <v>2318</v>
+        <v>2287</v>
       </c>
       <c r="D1324" s="9"/>
       <c r="E1324" s="5"/>
@@ -44449,13 +44942,13 @@
     </row>
     <row r="1325" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1325" s="4" t="s">
-        <v>2319</v>
+        <v>2288</v>
       </c>
       <c r="B1325" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1325" s="5" t="s">
-        <v>2320</v>
+        <v>2289</v>
       </c>
       <c r="D1325" s="9"/>
       <c r="E1325" s="5"/>
@@ -44469,15 +44962,15 @@
       <c r="M1325" s="5"/>
       <c r="N1325" s="10"/>
     </row>
-    <row r="1326" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1326" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1326" s="4" t="s">
-        <v>2321</v>
+        <v>2290</v>
       </c>
       <c r="B1326" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1326" s="5" t="s">
-        <v>2322</v>
+        <v>2291</v>
       </c>
       <c r="D1326" s="9"/>
       <c r="E1326" s="5"/>
@@ -44493,13 +44986,13 @@
     </row>
     <row r="1327" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1327" s="4" t="s">
-        <v>2323</v>
+        <v>2292</v>
       </c>
       <c r="B1327" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1327" s="5" t="s">
-        <v>2324</v>
+        <v>2293</v>
       </c>
       <c r="D1327" s="9"/>
       <c r="E1327" s="5"/>
@@ -44513,15 +45006,15 @@
       <c r="M1327" s="5"/>
       <c r="N1327" s="10"/>
     </row>
-    <row r="1328" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1328" s="4" t="s">
-        <v>2325</v>
+        <v>2294</v>
       </c>
       <c r="B1328" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1328" s="5" t="s">
-        <v>2326</v>
+        <v>2295</v>
       </c>
       <c r="D1328" s="9"/>
       <c r="E1328" s="5"/>
@@ -44535,15 +45028,15 @@
       <c r="M1328" s="5"/>
       <c r="N1328" s="10"/>
     </row>
-    <row r="1329" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1329" s="4" t="s">
-        <v>2327</v>
+        <v>2296</v>
       </c>
       <c r="B1329" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1329" s="5" t="s">
-        <v>2328</v>
+        <v>2297</v>
       </c>
       <c r="D1329" s="9"/>
       <c r="E1329" s="5"/>
@@ -44557,15 +45050,15 @@
       <c r="M1329" s="5"/>
       <c r="N1329" s="10"/>
     </row>
-    <row r="1330" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1330" s="4" t="s">
-        <v>2329</v>
+        <v>2298</v>
       </c>
       <c r="B1330" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1330" s="5" t="s">
-        <v>2330</v>
+        <v>2299</v>
       </c>
       <c r="D1330" s="9"/>
       <c r="E1330" s="5"/>
@@ -44579,15 +45072,15 @@
       <c r="M1330" s="5"/>
       <c r="N1330" s="10"/>
     </row>
-    <row r="1331" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1331" s="4" t="s">
-        <v>2331</v>
+        <v>2300</v>
       </c>
       <c r="B1331" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1331" s="5" t="s">
-        <v>2332</v>
+        <v>2301</v>
       </c>
       <c r="D1331" s="9"/>
       <c r="E1331" s="5"/>
@@ -44601,15 +45094,15 @@
       <c r="M1331" s="5"/>
       <c r="N1331" s="10"/>
     </row>
-    <row r="1332" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1332" s="4" t="s">
-        <v>2333</v>
+        <v>2302</v>
       </c>
       <c r="B1332" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1332" s="5" t="s">
-        <v>2334</v>
+        <v>2303</v>
       </c>
       <c r="D1332" s="9"/>
       <c r="E1332" s="5"/>
@@ -44625,13 +45118,13 @@
     </row>
     <row r="1333" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1333" s="4" t="s">
-        <v>2335</v>
+        <v>2304</v>
       </c>
       <c r="B1333" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1333" s="5" t="s">
-        <v>2336</v>
+        <v>2305</v>
       </c>
       <c r="D1333" s="9"/>
       <c r="E1333" s="5"/>
@@ -44645,15 +45138,15 @@
       <c r="M1333" s="5"/>
       <c r="N1333" s="10"/>
     </row>
-    <row r="1334" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1334" s="4" t="s">
-        <v>2337</v>
+        <v>2306</v>
       </c>
       <c r="B1334" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1334" s="5" t="s">
-        <v>2338</v>
+        <v>2307</v>
       </c>
       <c r="D1334" s="9"/>
       <c r="E1334" s="5"/>
@@ -44667,15 +45160,15 @@
       <c r="M1334" s="5"/>
       <c r="N1334" s="10"/>
     </row>
-    <row r="1335" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1335" s="4" t="s">
-        <v>2339</v>
+        <v>2308</v>
       </c>
       <c r="B1335" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1335" s="5" t="s">
-        <v>2340</v>
+        <v>2309</v>
       </c>
       <c r="D1335" s="9"/>
       <c r="E1335" s="5"/>
@@ -44689,15 +45182,15 @@
       <c r="M1335" s="5"/>
       <c r="N1335" s="10"/>
     </row>
-    <row r="1336" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1336" s="4" t="s">
-        <v>2341</v>
+        <v>2310</v>
       </c>
       <c r="B1336" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1336" s="5" t="s">
-        <v>2342</v>
+        <v>2311</v>
       </c>
       <c r="D1336" s="9"/>
       <c r="E1336" s="5"/>
@@ -44711,15 +45204,15 @@
       <c r="M1336" s="5"/>
       <c r="N1336" s="10"/>
     </row>
-    <row r="1337" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1337" s="4" t="s">
-        <v>2343</v>
+        <v>2312</v>
       </c>
       <c r="B1337" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1337" s="5" t="s">
-        <v>2344</v>
+        <v>2313</v>
       </c>
       <c r="D1337" s="9"/>
       <c r="E1337" s="5"/>
@@ -44735,13 +45228,13 @@
     </row>
     <row r="1338" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1338" s="4" t="s">
-        <v>2345</v>
+        <v>2314</v>
       </c>
       <c r="B1338" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1338" s="5" t="s">
-        <v>2346</v>
+        <v>2316</v>
       </c>
       <c r="D1338" s="9"/>
       <c r="E1338" s="5"/>
@@ -44757,13 +45250,13 @@
     </row>
     <row r="1339" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1339" s="4" t="s">
-        <v>2347</v>
+        <v>2317</v>
       </c>
       <c r="B1339" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1339" s="5" t="s">
-        <v>2348</v>
+        <v>2318</v>
       </c>
       <c r="D1339" s="9"/>
       <c r="E1339" s="5"/>
@@ -44779,13 +45272,13 @@
     </row>
     <row r="1340" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1340" s="4" t="s">
-        <v>2349</v>
+        <v>2319</v>
       </c>
       <c r="B1340" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1340" s="5" t="s">
-        <v>851</v>
+        <v>2320</v>
       </c>
       <c r="D1340" s="9"/>
       <c r="E1340" s="5"/>
@@ -44801,13 +45294,13 @@
     </row>
     <row r="1341" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1341" s="4" t="s">
-        <v>2350</v>
+        <v>2321</v>
       </c>
       <c r="B1341" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1341" s="5" t="s">
-        <v>2351</v>
+        <v>2322</v>
       </c>
       <c r="D1341" s="9"/>
       <c r="E1341" s="5"/>
@@ -44822,26 +45315,356 @@
       <c r="N1341" s="10"/>
     </row>
     <row r="1342" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A1342" s="6" t="s">
+      <c r="A1342" s="4" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B1342" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1342" s="5" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D1342" s="9"/>
+      <c r="E1342" s="5"/>
+      <c r="F1342" s="5"/>
+      <c r="G1342" s="5"/>
+      <c r="H1342" s="9"/>
+      <c r="I1342" s="9"/>
+      <c r="J1342" s="5"/>
+      <c r="K1342" s="5"/>
+      <c r="L1342" s="5"/>
+      <c r="M1342" s="5"/>
+      <c r="N1342" s="10"/>
+    </row>
+    <row r="1343" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1343" s="4" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B1343" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1343" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D1343" s="9"/>
+      <c r="E1343" s="5"/>
+      <c r="F1343" s="5"/>
+      <c r="G1343" s="5"/>
+      <c r="H1343" s="9"/>
+      <c r="I1343" s="9"/>
+      <c r="J1343" s="5"/>
+      <c r="K1343" s="5"/>
+      <c r="L1343" s="5"/>
+      <c r="M1343" s="5"/>
+      <c r="N1343" s="10"/>
+    </row>
+    <row r="1344" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1344" s="4" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B1344" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1344" s="5" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D1344" s="9"/>
+      <c r="E1344" s="5"/>
+      <c r="F1344" s="5"/>
+      <c r="G1344" s="5"/>
+      <c r="H1344" s="9"/>
+      <c r="I1344" s="9"/>
+      <c r="J1344" s="5"/>
+      <c r="K1344" s="5"/>
+      <c r="L1344" s="5"/>
+      <c r="M1344" s="5"/>
+      <c r="N1344" s="10"/>
+    </row>
+    <row r="1345" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1345" s="4" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B1345" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1345" s="5" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D1345" s="9"/>
+      <c r="E1345" s="5"/>
+      <c r="F1345" s="5"/>
+      <c r="G1345" s="5"/>
+      <c r="H1345" s="9"/>
+      <c r="I1345" s="9"/>
+      <c r="J1345" s="5"/>
+      <c r="K1345" s="5"/>
+      <c r="L1345" s="5"/>
+      <c r="M1345" s="5"/>
+      <c r="N1345" s="10"/>
+    </row>
+    <row r="1346" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1346" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1346" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1346" s="5" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D1346" s="9"/>
+      <c r="E1346" s="5"/>
+      <c r="F1346" s="5"/>
+      <c r="G1346" s="5"/>
+      <c r="H1346" s="9"/>
+      <c r="I1346" s="9"/>
+      <c r="J1346" s="5"/>
+      <c r="K1346" s="5"/>
+      <c r="L1346" s="5"/>
+      <c r="M1346" s="5"/>
+      <c r="N1346" s="10"/>
+    </row>
+    <row r="1347" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1347" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B1347" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1347" s="5" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D1347" s="9"/>
+      <c r="E1347" s="5"/>
+      <c r="F1347" s="5"/>
+      <c r="G1347" s="5"/>
+      <c r="H1347" s="9"/>
+      <c r="I1347" s="9"/>
+      <c r="J1347" s="5"/>
+      <c r="K1347" s="5"/>
+      <c r="L1347" s="5"/>
+      <c r="M1347" s="5"/>
+      <c r="N1347" s="10"/>
+    </row>
+    <row r="1348" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1348" s="4" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B1348" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1348" s="5" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D1348" s="9"/>
+      <c r="E1348" s="5"/>
+      <c r="F1348" s="5"/>
+      <c r="G1348" s="5"/>
+      <c r="H1348" s="9"/>
+      <c r="I1348" s="9"/>
+      <c r="J1348" s="5"/>
+      <c r="K1348" s="5"/>
+      <c r="L1348" s="5"/>
+      <c r="M1348" s="5"/>
+      <c r="N1348" s="10"/>
+    </row>
+    <row r="1349" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1349" s="4" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B1349" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1349" s="5" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1349" s="9"/>
+      <c r="E1349" s="5"/>
+      <c r="F1349" s="5"/>
+      <c r="G1349" s="5"/>
+      <c r="H1349" s="9"/>
+      <c r="I1349" s="9"/>
+      <c r="J1349" s="5"/>
+      <c r="K1349" s="5"/>
+      <c r="L1349" s="5"/>
+      <c r="M1349" s="5"/>
+      <c r="N1349" s="10"/>
+    </row>
+    <row r="1350" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1350" s="4" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B1350" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1350" s="5" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D1350" s="9"/>
+      <c r="E1350" s="5"/>
+      <c r="F1350" s="5"/>
+      <c r="G1350" s="5"/>
+      <c r="H1350" s="9"/>
+      <c r="I1350" s="9"/>
+      <c r="J1350" s="5"/>
+      <c r="K1350" s="5"/>
+      <c r="L1350" s="5"/>
+      <c r="M1350" s="5"/>
+      <c r="N1350" s="10"/>
+    </row>
+    <row r="1351" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1351" s="4" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B1351" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1351" s="5" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D1351" s="9"/>
+      <c r="E1351" s="5"/>
+      <c r="F1351" s="5"/>
+      <c r="G1351" s="5"/>
+      <c r="H1351" s="9"/>
+      <c r="I1351" s="9"/>
+      <c r="J1351" s="5"/>
+      <c r="K1351" s="5"/>
+      <c r="L1351" s="5"/>
+      <c r="M1351" s="5"/>
+      <c r="N1351" s="10"/>
+    </row>
+    <row r="1352" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1352" s="4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B1352" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1352" s="5" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D1352" s="9"/>
+      <c r="E1352" s="5"/>
+      <c r="F1352" s="5"/>
+      <c r="G1352" s="5"/>
+      <c r="H1352" s="9"/>
+      <c r="I1352" s="9"/>
+      <c r="J1352" s="5"/>
+      <c r="K1352" s="5"/>
+      <c r="L1352" s="5"/>
+      <c r="M1352" s="5"/>
+      <c r="N1352" s="10"/>
+    </row>
+    <row r="1353" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1353" s="4" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B1353" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1353" s="5" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D1353" s="9"/>
+      <c r="E1353" s="5"/>
+      <c r="F1353" s="5"/>
+      <c r="G1353" s="5"/>
+      <c r="H1353" s="9"/>
+      <c r="I1353" s="9"/>
+      <c r="J1353" s="5"/>
+      <c r="K1353" s="5"/>
+      <c r="L1353" s="5"/>
+      <c r="M1353" s="5"/>
+      <c r="N1353" s="10"/>
+    </row>
+    <row r="1354" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1354" s="4" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B1354" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1354" s="5" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D1354" s="9"/>
+      <c r="E1354" s="5"/>
+      <c r="F1354" s="5"/>
+      <c r="G1354" s="5"/>
+      <c r="H1354" s="9"/>
+      <c r="I1354" s="9"/>
+      <c r="J1354" s="5"/>
+      <c r="K1354" s="5"/>
+      <c r="L1354" s="5"/>
+      <c r="M1354" s="5"/>
+      <c r="N1354" s="10"/>
+    </row>
+    <row r="1355" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1355" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B1355" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1355" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="D1355" s="9"/>
+      <c r="E1355" s="5"/>
+      <c r="F1355" s="5"/>
+      <c r="G1355" s="5"/>
+      <c r="H1355" s="9"/>
+      <c r="I1355" s="9"/>
+      <c r="J1355" s="5"/>
+      <c r="K1355" s="5"/>
+      <c r="L1355" s="5"/>
+      <c r="M1355" s="5"/>
+      <c r="N1355" s="10"/>
+    </row>
+    <row r="1356" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1356" s="4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1356" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1356" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D1356" s="9"/>
+      <c r="E1356" s="5"/>
+      <c r="F1356" s="5"/>
+      <c r="G1356" s="5"/>
+      <c r="H1356" s="9"/>
+      <c r="I1356" s="9"/>
+      <c r="J1356" s="5"/>
+      <c r="K1356" s="5"/>
+      <c r="L1356" s="5"/>
+      <c r="M1356" s="5"/>
+      <c r="N1356" s="10"/>
+    </row>
+    <row r="1357" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1357" s="6" t="s">
         <v>2352</v>
       </c>
-      <c r="B1342" s="7" t="s">
+      <c r="B1357" s="7" t="s">
         <v>2315</v>
       </c>
-      <c r="C1342" s="7" t="s">
+      <c r="C1357" s="7" t="s">
         <v>2353</v>
       </c>
-      <c r="D1342" s="11"/>
-      <c r="E1342" s="7"/>
-      <c r="F1342" s="7"/>
-      <c r="G1342" s="7"/>
-      <c r="H1342" s="11"/>
-      <c r="I1342" s="11"/>
-      <c r="J1342" s="7"/>
-      <c r="K1342" s="7"/>
-      <c r="L1342" s="7"/>
-      <c r="M1342" s="7"/>
-      <c r="N1342" s="12"/>
+      <c r="D1357" s="11"/>
+      <c r="E1357" s="7"/>
+      <c r="F1357" s="7"/>
+      <c r="G1357" s="7"/>
+      <c r="H1357" s="11"/>
+      <c r="I1357" s="11"/>
+      <c r="J1357" s="7"/>
+      <c r="K1357" s="7"/>
+      <c r="L1357" s="7"/>
+      <c r="M1357" s="7"/>
+      <c r="N1357" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tsunami/v02_new/sample_tsunami_anotasi_v02_new.xlsx
+++ b/tsunami/v02_new/sample_tsunami_anotasi_v02_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharmapu\Documents\personal\ui\KA-AMSD_src\paper-submission\anotated_data\tsunami\v02_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C54C5A-758E-463A-8AF2-7D7940DE907F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC21D4B-DE89-49D6-A2F1-7C37E3892BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7591" uniqueCount="2494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7759" uniqueCount="2496">
   <si>
     <t>id</t>
   </si>
@@ -7519,6 +7519,12 @@
   </si>
   <si>
     <t>Total dampak: 43 orang meninggal dunia, 584 orang luka-luka, 2 orang hilang, 430 rumah rusak berat, 9 hotel rusak</t>
+  </si>
+  <si>
+    <t>Korban akibat gempa &amp; tsunami adalah meninggal: 832</t>
+  </si>
+  <si>
+    <t>Total meninggal di lampung selatan 7 orang</t>
   </si>
 </sst>
 </file>
@@ -7684,7 +7690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7731,6 +7737,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8233,8 +8242,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0228019-6306-42E0-ABD2-717570931749}" name="Table1" displayName="Table1" ref="A1:N1357" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:N1357" xr:uid="{576E32E5-BE79-40B5-A33D-70AE3D67568F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0228019-6306-42E0-ABD2-717570931749}" name="Table1" displayName="Table1" ref="A1:N1364" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:N1364" xr:uid="{576E32E5-BE79-40B5-A33D-70AE3D67568F}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{DBAB9710-0C44-49A5-AA32-B0453B252B04}" name="id" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{EF67AD3D-E53F-4700-A378-B1F96AA43740}" name="source" dataDxfId="12"/>
@@ -8518,10 +8527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1357"/>
+  <dimension ref="A1:N1364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1008" workbookViewId="0">
-      <selection activeCell="D1017" sqref="D1017"/>
+    <sheetView tabSelected="1" topLeftCell="A1062" workbookViewId="0">
+      <selection activeCell="D1074" sqref="D1074"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38196,7 +38205,9 @@
       <c r="C1018" s="5" t="s">
         <v>1680</v>
       </c>
-      <c r="D1018" s="9"/>
+      <c r="D1018" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1018" s="5"/>
       <c r="F1018" s="5"/>
       <c r="G1018" s="5"/>
@@ -38218,7 +38229,9 @@
       <c r="C1019" s="5" t="s">
         <v>1682</v>
       </c>
-      <c r="D1019" s="9"/>
+      <c r="D1019" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1019" s="5"/>
       <c r="F1019" s="5"/>
       <c r="G1019" s="5"/>
@@ -38240,7 +38253,9 @@
       <c r="C1020" s="5" t="s">
         <v>1684</v>
       </c>
-      <c r="D1020" s="9"/>
+      <c r="D1020" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1020" s="5"/>
       <c r="F1020" s="5"/>
       <c r="G1020" s="5"/>
@@ -38262,7 +38277,9 @@
       <c r="C1021" s="5" t="s">
         <v>1686</v>
       </c>
-      <c r="D1021" s="9"/>
+      <c r="D1021" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1021" s="5"/>
       <c r="F1021" s="5"/>
       <c r="G1021" s="5"/>
@@ -38284,7 +38301,9 @@
       <c r="C1022" s="5" t="s">
         <v>1688</v>
       </c>
-      <c r="D1022" s="9"/>
+      <c r="D1022" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1022" s="5"/>
       <c r="F1022" s="5"/>
       <c r="G1022" s="5"/>
@@ -38306,7 +38325,9 @@
       <c r="C1023" s="5" t="s">
         <v>1691</v>
       </c>
-      <c r="D1023" s="9"/>
+      <c r="D1023" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1023" s="5"/>
       <c r="F1023" s="5"/>
       <c r="G1023" s="5"/>
@@ -38328,7 +38349,9 @@
       <c r="C1024" s="5" t="s">
         <v>1693</v>
       </c>
-      <c r="D1024" s="9"/>
+      <c r="D1024" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1024" s="5"/>
       <c r="F1024" s="5"/>
       <c r="G1024" s="5"/>
@@ -38350,7 +38373,9 @@
       <c r="C1025" s="5" t="s">
         <v>1695</v>
       </c>
-      <c r="D1025" s="9"/>
+      <c r="D1025" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1025" s="5"/>
       <c r="F1025" s="5"/>
       <c r="G1025" s="5"/>
@@ -38372,7 +38397,9 @@
       <c r="C1026" s="5" t="s">
         <v>1697</v>
       </c>
-      <c r="D1026" s="9"/>
+      <c r="D1026" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1026" s="5"/>
       <c r="F1026" s="5"/>
       <c r="G1026" s="5"/>
@@ -38394,7 +38421,9 @@
       <c r="C1027" s="5" t="s">
         <v>1699</v>
       </c>
-      <c r="D1027" s="9"/>
+      <c r="D1027" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1027" s="5"/>
       <c r="F1027" s="5"/>
       <c r="G1027" s="5"/>
@@ -38416,7 +38445,9 @@
       <c r="C1028" s="5" t="s">
         <v>1701</v>
       </c>
-      <c r="D1028" s="9"/>
+      <c r="D1028" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1028" s="5"/>
       <c r="F1028" s="5"/>
       <c r="G1028" s="5"/>
@@ -38438,7 +38469,9 @@
       <c r="C1029" s="5" t="s">
         <v>1703</v>
       </c>
-      <c r="D1029" s="9"/>
+      <c r="D1029" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1029" s="5"/>
       <c r="F1029" s="5"/>
       <c r="G1029" s="5"/>
@@ -38460,7 +38493,9 @@
       <c r="C1030" s="5" t="s">
         <v>1705</v>
       </c>
-      <c r="D1030" s="9"/>
+      <c r="D1030" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1030" s="5"/>
       <c r="F1030" s="5"/>
       <c r="G1030" s="5"/>
@@ -38482,7 +38517,9 @@
       <c r="C1031" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="D1031" s="9"/>
+      <c r="D1031" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1031" s="5"/>
       <c r="F1031" s="5"/>
       <c r="G1031" s="5"/>
@@ -38504,7 +38541,9 @@
       <c r="C1032" s="5" t="s">
         <v>1709</v>
       </c>
-      <c r="D1032" s="9"/>
+      <c r="D1032" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1032" s="5"/>
       <c r="F1032" s="5"/>
       <c r="G1032" s="5"/>
@@ -38526,7 +38565,9 @@
       <c r="C1033" s="5" t="s">
         <v>1711</v>
       </c>
-      <c r="D1033" s="9"/>
+      <c r="D1033" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1033" s="5"/>
       <c r="F1033" s="5"/>
       <c r="G1033" s="5"/>
@@ -38548,7 +38589,9 @@
       <c r="C1034" s="5" t="s">
         <v>1713</v>
       </c>
-      <c r="D1034" s="9"/>
+      <c r="D1034" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1034" s="5"/>
       <c r="F1034" s="5"/>
       <c r="G1034" s="5"/>
@@ -38570,7 +38613,9 @@
       <c r="C1035" s="5" t="s">
         <v>1715</v>
       </c>
-      <c r="D1035" s="9"/>
+      <c r="D1035" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1035" s="5"/>
       <c r="F1035" s="5"/>
       <c r="G1035" s="5"/>
@@ -38592,7 +38637,9 @@
       <c r="C1036" s="5" t="s">
         <v>1717</v>
       </c>
-      <c r="D1036" s="9"/>
+      <c r="D1036" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1036" s="5"/>
       <c r="F1036" s="5"/>
       <c r="G1036" s="5"/>
@@ -38614,7 +38661,9 @@
       <c r="C1037" s="5" t="s">
         <v>1719</v>
       </c>
-      <c r="D1037" s="9"/>
+      <c r="D1037" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1037" s="5"/>
       <c r="F1037" s="5"/>
       <c r="G1037" s="5"/>
@@ -38636,7 +38685,9 @@
       <c r="C1038" s="5" t="s">
         <v>1721</v>
       </c>
-      <c r="D1038" s="9"/>
+      <c r="D1038" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1038" s="5"/>
       <c r="F1038" s="5"/>
       <c r="G1038" s="5"/>
@@ -38658,7 +38709,9 @@
       <c r="C1039" s="5" t="s">
         <v>1723</v>
       </c>
-      <c r="D1039" s="9"/>
+      <c r="D1039" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1039" s="5"/>
       <c r="F1039" s="5"/>
       <c r="G1039" s="5"/>
@@ -38680,7 +38733,9 @@
       <c r="C1040" s="5" t="s">
         <v>1725</v>
       </c>
-      <c r="D1040" s="9"/>
+      <c r="D1040" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1040" s="5"/>
       <c r="F1040" s="5"/>
       <c r="G1040" s="5"/>
@@ -38702,7 +38757,9 @@
       <c r="C1041" s="5" t="s">
         <v>1727</v>
       </c>
-      <c r="D1041" s="9"/>
+      <c r="D1041" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1041" s="5"/>
       <c r="F1041" s="5"/>
       <c r="G1041" s="5"/>
@@ -38724,7 +38781,9 @@
       <c r="C1042" s="5" t="s">
         <v>1729</v>
       </c>
-      <c r="D1042" s="9"/>
+      <c r="D1042" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1042" s="5"/>
       <c r="F1042" s="5"/>
       <c r="G1042" s="5"/>
@@ -38746,95 +38805,153 @@
       <c r="C1043" s="5" t="s">
         <v>1732</v>
       </c>
-      <c r="D1043" s="9"/>
-      <c r="E1043" s="5"/>
-      <c r="F1043" s="5"/>
-      <c r="G1043" s="5"/>
-      <c r="H1043" s="9"/>
-      <c r="I1043" s="9"/>
+      <c r="D1043" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1043" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1043" s="5" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G1043" s="5" t="s">
+        <v>2368</v>
+      </c>
+      <c r="H1043" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1043" s="5" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1043" s="5"/>
       <c r="K1043" s="5"/>
       <c r="L1043" s="5"/>
       <c r="M1043" s="5"/>
-      <c r="N1043" s="10"/>
+      <c r="N1043" s="10" t="s">
+        <v>2393</v>
+      </c>
     </row>
     <row r="1044" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1044" s="4" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="B1044" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1044" s="5" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D1044" s="9"/>
-      <c r="E1044" s="5"/>
-      <c r="F1044" s="5"/>
-      <c r="G1044" s="5"/>
-      <c r="H1044" s="9"/>
-      <c r="I1044" s="9"/>
+        <v>1732</v>
+      </c>
+      <c r="D1044" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1044" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1044" s="5" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G1044" s="5" t="s">
+        <v>2382</v>
+      </c>
+      <c r="H1044" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1044" s="5" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1044" s="5"/>
       <c r="K1044" s="5"/>
       <c r="L1044" s="5"/>
       <c r="M1044" s="5"/>
-      <c r="N1044" s="10"/>
+      <c r="N1044" s="10" t="s">
+        <v>2393</v>
+      </c>
     </row>
     <row r="1045" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1045" s="4" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="B1045" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1045" s="5" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D1045" s="9"/>
-      <c r="E1045" s="5"/>
-      <c r="F1045" s="5"/>
-      <c r="G1045" s="5"/>
-      <c r="H1045" s="9"/>
-      <c r="I1045" s="9"/>
+        <v>1732</v>
+      </c>
+      <c r="D1045" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1045" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1045" s="5" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G1045" s="5" t="s">
+        <v>2427</v>
+      </c>
+      <c r="H1045" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1045" s="5" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1045" s="5"/>
       <c r="K1045" s="5"/>
       <c r="L1045" s="5"/>
       <c r="M1045" s="5"/>
-      <c r="N1045" s="10"/>
+      <c r="N1045" s="10" t="s">
+        <v>2393</v>
+      </c>
     </row>
     <row r="1046" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1046" s="4" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="B1046" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1046" s="5" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D1046" s="9"/>
-      <c r="E1046" s="5"/>
-      <c r="F1046" s="5"/>
-      <c r="G1046" s="5"/>
-      <c r="H1046" s="9"/>
-      <c r="I1046" s="9"/>
+        <v>1734</v>
+      </c>
+      <c r="D1046" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1046" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1046" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1046" s="5" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H1046" s="9" t="s">
+        <v>2430</v>
+      </c>
+      <c r="I1046" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1046" s="5"/>
       <c r="K1046" s="5"/>
       <c r="L1046" s="5"/>
       <c r="M1046" s="5"/>
-      <c r="N1046" s="10"/>
+      <c r="N1046" s="10" t="s">
+        <v>2405</v>
+      </c>
     </row>
     <row r="1047" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1047" s="4" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="B1047" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1047" s="5" t="s">
-        <v>1740</v>
-      </c>
-      <c r="D1047" s="9"/>
+        <v>1736</v>
+      </c>
+      <c r="D1047" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1047" s="5"/>
       <c r="F1047" s="5"/>
       <c r="G1047" s="5"/>
@@ -38848,15 +38965,17 @@
     </row>
     <row r="1048" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1048" s="4" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="B1048" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1048" s="5" t="s">
-        <v>1742</v>
-      </c>
-      <c r="D1048" s="9"/>
+        <v>1738</v>
+      </c>
+      <c r="D1048" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1048" s="5"/>
       <c r="F1048" s="5"/>
       <c r="G1048" s="5"/>
@@ -38870,15 +38989,17 @@
     </row>
     <row r="1049" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1049" s="4" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="B1049" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1049" s="5" t="s">
-        <v>1744</v>
-      </c>
-      <c r="D1049" s="9"/>
+        <v>1740</v>
+      </c>
+      <c r="D1049" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1049" s="5"/>
       <c r="F1049" s="5"/>
       <c r="G1049" s="5"/>
@@ -38892,15 +39013,17 @@
     </row>
     <row r="1050" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1050" s="4" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="B1050" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1050" s="5" t="s">
-        <v>1746</v>
-      </c>
-      <c r="D1050" s="9"/>
+        <v>1742</v>
+      </c>
+      <c r="D1050" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1050" s="5"/>
       <c r="F1050" s="5"/>
       <c r="G1050" s="5"/>
@@ -38914,37 +39037,53 @@
     </row>
     <row r="1051" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1051" s="4" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="B1051" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1051" s="5" t="s">
-        <v>1748</v>
-      </c>
-      <c r="D1051" s="9"/>
-      <c r="E1051" s="5"/>
-      <c r="F1051" s="5"/>
-      <c r="G1051" s="5"/>
-      <c r="H1051" s="9"/>
-      <c r="I1051" s="9"/>
+        <v>1744</v>
+      </c>
+      <c r="D1051" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1051" s="17" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1051" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1051" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H1051" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1051" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1051" s="5"/>
       <c r="K1051" s="5"/>
       <c r="L1051" s="5"/>
       <c r="M1051" s="5"/>
-      <c r="N1051" s="10"/>
+      <c r="N1051" s="10" t="s">
+        <v>2405</v>
+      </c>
     </row>
     <row r="1052" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1052" s="4" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="B1052" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1052" s="5" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D1052" s="9"/>
+        <v>1746</v>
+      </c>
+      <c r="D1052" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1052" s="5"/>
       <c r="F1052" s="5"/>
       <c r="G1052" s="5"/>
@@ -38958,15 +39097,17 @@
     </row>
     <row r="1053" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1053" s="4" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="B1053" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1053" s="5" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D1053" s="9"/>
+        <v>1748</v>
+      </c>
+      <c r="D1053" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1053" s="5"/>
       <c r="F1053" s="5"/>
       <c r="G1053" s="5"/>
@@ -38980,15 +39121,17 @@
     </row>
     <row r="1054" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1054" s="4" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="B1054" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1054" s="5" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D1054" s="9"/>
+        <v>1750</v>
+      </c>
+      <c r="D1054" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1054" s="5"/>
       <c r="F1054" s="5"/>
       <c r="G1054" s="5"/>
@@ -39002,15 +39145,17 @@
     </row>
     <row r="1055" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1055" s="4" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="B1055" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1055" s="5" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D1055" s="9"/>
+        <v>1752</v>
+      </c>
+      <c r="D1055" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1055" s="5"/>
       <c r="F1055" s="5"/>
       <c r="G1055" s="5"/>
@@ -39024,15 +39169,17 @@
     </row>
     <row r="1056" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1056" s="4" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="B1056" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1056" s="5" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D1056" s="9"/>
+        <v>1754</v>
+      </c>
+      <c r="D1056" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1056" s="5"/>
       <c r="F1056" s="5"/>
       <c r="G1056" s="5"/>
@@ -39046,169 +39193,285 @@
     </row>
     <row r="1057" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1057" s="4" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="B1057" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1057" s="5" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D1057" s="9"/>
-      <c r="E1057" s="5"/>
-      <c r="F1057" s="5"/>
-      <c r="G1057" s="5"/>
-      <c r="H1057" s="9"/>
-      <c r="I1057" s="9"/>
+        <v>1756</v>
+      </c>
+      <c r="D1057" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1057" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F1057" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1057" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H1057" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1057" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1057" s="5"/>
       <c r="K1057" s="5"/>
       <c r="L1057" s="5"/>
       <c r="M1057" s="5"/>
-      <c r="N1057" s="10"/>
+      <c r="N1057" s="10" t="s">
+        <v>2405</v>
+      </c>
     </row>
     <row r="1058" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1058" s="4" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="B1058" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1058" s="5" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D1058" s="9"/>
-      <c r="E1058" s="5"/>
-      <c r="F1058" s="5"/>
-      <c r="G1058" s="5"/>
-      <c r="H1058" s="9"/>
-      <c r="I1058" s="9"/>
+        <v>1758</v>
+      </c>
+      <c r="D1058" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1058" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1058" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1058" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H1058" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1058" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1058" s="5"/>
       <c r="K1058" s="5"/>
       <c r="L1058" s="5"/>
       <c r="M1058" s="5"/>
-      <c r="N1058" s="10"/>
+      <c r="N1058" s="10" t="s">
+        <v>2494</v>
+      </c>
     </row>
     <row r="1059" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1059" s="4" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="B1059" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1059" s="5" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D1059" s="9"/>
-      <c r="E1059" s="5"/>
-      <c r="F1059" s="5"/>
-      <c r="G1059" s="5"/>
-      <c r="H1059" s="9"/>
-      <c r="I1059" s="9"/>
+        <v>1758</v>
+      </c>
+      <c r="D1059" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1059" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1059" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1059" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H1059" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1059" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1059" s="5"/>
       <c r="K1059" s="5"/>
       <c r="L1059" s="5"/>
       <c r="M1059" s="5"/>
-      <c r="N1059" s="10"/>
+      <c r="N1059" s="10" t="s">
+        <v>2494</v>
+      </c>
     </row>
     <row r="1060" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1060" s="4" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="B1060" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1060" s="5" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D1060" s="9"/>
-      <c r="E1060" s="5"/>
-      <c r="F1060" s="5"/>
-      <c r="G1060" s="5"/>
-      <c r="H1060" s="9"/>
-      <c r="I1060" s="9"/>
-      <c r="J1060" s="5"/>
-      <c r="K1060" s="5"/>
+        <v>1760</v>
+      </c>
+      <c r="D1060" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1060" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1060" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1060" s="5" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H1060" s="9" t="s">
+        <v>2430</v>
+      </c>
+      <c r="I1060" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="J1060" s="9">
+        <v>166</v>
+      </c>
+      <c r="K1060" s="5">
+        <v>623</v>
+      </c>
       <c r="L1060" s="5"/>
-      <c r="M1060" s="5"/>
-      <c r="N1060" s="10"/>
+      <c r="M1060" s="5">
+        <v>446</v>
+      </c>
+      <c r="N1060" s="10" t="s">
+        <v>2405</v>
+      </c>
     </row>
     <row r="1061" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1061" s="4" t="s">
-        <v>1767</v>
+        <v>1759</v>
       </c>
       <c r="B1061" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1061" s="5" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D1061" s="9"/>
-      <c r="E1061" s="5"/>
-      <c r="F1061" s="5"/>
-      <c r="G1061" s="5"/>
-      <c r="H1061" s="9"/>
-      <c r="I1061" s="9"/>
-      <c r="J1061" s="5"/>
-      <c r="K1061" s="5"/>
+        <v>1760</v>
+      </c>
+      <c r="D1061" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1061" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1061" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1061" s="5" t="s">
+        <v>2381</v>
+      </c>
+      <c r="H1061" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1061" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="J1061" s="9">
+        <v>37</v>
+      </c>
+      <c r="K1061" s="9">
+        <v>22</v>
+      </c>
       <c r="L1061" s="5"/>
       <c r="M1061" s="5"/>
-      <c r="N1061" s="10"/>
+      <c r="N1061" s="10" t="s">
+        <v>2405</v>
+      </c>
     </row>
     <row r="1062" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1062" s="4" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
       <c r="B1062" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="C1062" s="5" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D1062" s="9"/>
-      <c r="E1062" s="5"/>
-      <c r="F1062" s="5"/>
-      <c r="G1062" s="5"/>
-      <c r="H1062" s="9"/>
-      <c r="I1062" s="9"/>
-      <c r="J1062" s="5"/>
-      <c r="K1062" s="5"/>
-      <c r="L1062" s="5"/>
+        <v>1760</v>
+      </c>
+      <c r="D1062" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1062" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1062" s="5" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G1062" s="5" t="s">
+        <v>2382</v>
+      </c>
+      <c r="H1062" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1062" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="J1062" s="9">
+        <v>48</v>
+      </c>
+      <c r="K1062" s="9">
+        <v>213</v>
+      </c>
+      <c r="L1062" s="5">
+        <v>110</v>
+      </c>
       <c r="M1062" s="5"/>
-      <c r="N1062" s="10"/>
-    </row>
-    <row r="1063" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="N1062" s="10" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1063" s="4" t="s">
-        <v>1771</v>
+        <v>1761</v>
       </c>
       <c r="B1063" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1063" s="5" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D1063" s="9"/>
-      <c r="E1063" s="5"/>
-      <c r="F1063" s="5"/>
-      <c r="G1063" s="5"/>
-      <c r="H1063" s="9"/>
-      <c r="I1063" s="9"/>
+        <v>1762</v>
+      </c>
+      <c r="D1063" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1063" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F1063" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1063" s="5" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H1063" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1063" s="9" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1063" s="5"/>
       <c r="K1063" s="5"/>
       <c r="L1063" s="5"/>
       <c r="M1063" s="5"/>
-      <c r="N1063" s="10"/>
-    </row>
-    <row r="1064" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="N1063" s="10" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1064" s="4" t="s">
-        <v>1774</v>
+        <v>1763</v>
       </c>
       <c r="B1064" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1064" s="5" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D1064" s="9"/>
+        <v>1764</v>
+      </c>
+      <c r="D1064" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1064" s="5"/>
       <c r="F1064" s="5"/>
       <c r="G1064" s="5"/>
@@ -39220,83 +39483,129 @@
       <c r="M1064" s="5"/>
       <c r="N1064" s="10"/>
     </row>
-    <row r="1065" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1065" s="4" t="s">
-        <v>1776</v>
+        <v>1765</v>
       </c>
       <c r="B1065" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1065" s="5" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D1065" s="9"/>
-      <c r="E1065" s="5"/>
-      <c r="F1065" s="5"/>
-      <c r="G1065" s="5"/>
-      <c r="H1065" s="9"/>
-      <c r="I1065" s="9"/>
-      <c r="J1065" s="5"/>
+        <v>1766</v>
+      </c>
+      <c r="D1065" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1065" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F1065" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1065" s="5" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H1065" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1065" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="J1065" s="5">
+        <v>29</v>
+      </c>
       <c r="K1065" s="5"/>
       <c r="L1065" s="5"/>
       <c r="M1065" s="5"/>
-      <c r="N1065" s="10"/>
-    </row>
-    <row r="1066" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="N1065" s="10" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1066" s="4" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
       <c r="B1066" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1066" s="5" t="s">
-        <v>1779</v>
-      </c>
-      <c r="D1066" s="9"/>
-      <c r="E1066" s="5"/>
-      <c r="F1066" s="5"/>
-      <c r="G1066" s="5"/>
-      <c r="H1066" s="9"/>
-      <c r="I1066" s="9"/>
+        <v>1766</v>
+      </c>
+      <c r="D1066" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1066" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F1066" s="5" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G1066" s="5" t="s">
+        <v>2382</v>
+      </c>
+      <c r="H1066" s="5" t="s">
+        <v>2453</v>
+      </c>
+      <c r="I1066" s="5" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1066" s="5"/>
       <c r="K1066" s="5"/>
       <c r="L1066" s="5"/>
       <c r="M1066" s="5"/>
-      <c r="N1066" s="10"/>
-    </row>
-    <row r="1067" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="N1066" s="10" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1067" s="4" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
       <c r="B1067" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1067" s="5" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D1067" s="9"/>
-      <c r="E1067" s="5"/>
-      <c r="F1067" s="5"/>
-      <c r="G1067" s="5"/>
-      <c r="H1067" s="9"/>
-      <c r="I1067" s="9"/>
+        <v>1766</v>
+      </c>
+      <c r="D1067" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1067" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F1067" s="5" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G1067" s="5" t="s">
+        <v>2382</v>
+      </c>
+      <c r="H1067" s="5" t="s">
+        <v>2454</v>
+      </c>
+      <c r="I1067" s="5" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1067" s="5"/>
       <c r="K1067" s="5"/>
       <c r="L1067" s="5"/>
       <c r="M1067" s="5"/>
-      <c r="N1067" s="10"/>
-    </row>
-    <row r="1068" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="N1067" s="10" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1068" s="4" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
       <c r="B1068" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1068" s="5" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D1068" s="9"/>
+        <v>1768</v>
+      </c>
+      <c r="D1068" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1068" s="5"/>
       <c r="F1068" s="5"/>
       <c r="G1068" s="5"/>
@@ -39308,17 +39617,19 @@
       <c r="M1068" s="5"/>
       <c r="N1068" s="10"/>
     </row>
-    <row r="1069" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1069" s="4" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
       <c r="B1069" s="5" t="s">
-        <v>1772</v>
+        <v>1731</v>
       </c>
       <c r="C1069" s="5" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D1069" s="9"/>
+        <v>1770</v>
+      </c>
+      <c r="D1069" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1069" s="5"/>
       <c r="F1069" s="5"/>
       <c r="G1069" s="5"/>
@@ -39332,15 +39643,17 @@
     </row>
     <row r="1070" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1070" s="4" t="s">
-        <v>1786</v>
+        <v>1771</v>
       </c>
       <c r="B1070" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1070" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1070" s="9"/>
+        <v>1773</v>
+      </c>
+      <c r="D1070" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1070" s="5"/>
       <c r="F1070" s="5"/>
       <c r="G1070" s="5"/>
@@ -39354,15 +39667,17 @@
     </row>
     <row r="1071" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1071" s="4" t="s">
-        <v>1787</v>
+        <v>1774</v>
       </c>
       <c r="B1071" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1071" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1071" s="9"/>
+        <v>1775</v>
+      </c>
+      <c r="D1071" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1071" s="5"/>
       <c r="F1071" s="5"/>
       <c r="G1071" s="5"/>
@@ -39376,15 +39691,17 @@
     </row>
     <row r="1072" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1072" s="4" t="s">
-        <v>1788</v>
+        <v>1776</v>
       </c>
       <c r="B1072" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1072" s="5" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D1072" s="9"/>
+        <v>1777</v>
+      </c>
+      <c r="D1072" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1072" s="5"/>
       <c r="F1072" s="5"/>
       <c r="G1072" s="5"/>
@@ -39398,15 +39715,17 @@
     </row>
     <row r="1073" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1073" s="4" t="s">
-        <v>1790</v>
+        <v>1778</v>
       </c>
       <c r="B1073" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1073" s="5" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D1073" s="9"/>
+        <v>1779</v>
+      </c>
+      <c r="D1073" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1073" s="5"/>
       <c r="F1073" s="5"/>
       <c r="G1073" s="5"/>
@@ -39420,15 +39739,17 @@
     </row>
     <row r="1074" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1074" s="4" t="s">
-        <v>1792</v>
+        <v>1780</v>
       </c>
       <c r="B1074" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1074" s="5" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D1074" s="9"/>
+        <v>1781</v>
+      </c>
+      <c r="D1074" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1074" s="5"/>
       <c r="F1074" s="5"/>
       <c r="G1074" s="5"/>
@@ -39442,13 +39763,13 @@
     </row>
     <row r="1075" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1075" s="4" t="s">
-        <v>1794</v>
+        <v>1782</v>
       </c>
       <c r="B1075" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1075" s="5" t="s">
-        <v>1795</v>
+        <v>1783</v>
       </c>
       <c r="D1075" s="9"/>
       <c r="E1075" s="5"/>
@@ -39464,13 +39785,13 @@
     </row>
     <row r="1076" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1076" s="4" t="s">
-        <v>1796</v>
+        <v>1784</v>
       </c>
       <c r="B1076" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1076" s="5" t="s">
-        <v>1797</v>
+        <v>1785</v>
       </c>
       <c r="D1076" s="9"/>
       <c r="E1076" s="5"/>
@@ -39486,13 +39807,13 @@
     </row>
     <row r="1077" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1077" s="4" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
       <c r="B1077" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1077" s="5" t="s">
-        <v>1799</v>
+        <v>43</v>
       </c>
       <c r="D1077" s="9"/>
       <c r="E1077" s="5"/>
@@ -39508,13 +39829,13 @@
     </row>
     <row r="1078" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1078" s="4" t="s">
-        <v>1800</v>
+        <v>1787</v>
       </c>
       <c r="B1078" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1078" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1078" s="9"/>
       <c r="E1078" s="5"/>
@@ -39530,13 +39851,13 @@
     </row>
     <row r="1079" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1079" s="4" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
       <c r="B1079" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1079" s="5" t="s">
-        <v>1802</v>
+        <v>1789</v>
       </c>
       <c r="D1079" s="9"/>
       <c r="E1079" s="5"/>
@@ -39552,13 +39873,13 @@
     </row>
     <row r="1080" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1080" s="4" t="s">
-        <v>1803</v>
+        <v>1790</v>
       </c>
       <c r="B1080" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1080" s="5" t="s">
-        <v>1804</v>
+        <v>1791</v>
       </c>
       <c r="D1080" s="9"/>
       <c r="E1080" s="5"/>
@@ -39574,13 +39895,13 @@
     </row>
     <row r="1081" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1081" s="4" t="s">
-        <v>1805</v>
+        <v>1792</v>
       </c>
       <c r="B1081" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1081" s="5" t="s">
-        <v>1773</v>
+        <v>1793</v>
       </c>
       <c r="D1081" s="9"/>
       <c r="E1081" s="5"/>
@@ -39596,13 +39917,13 @@
     </row>
     <row r="1082" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1082" s="4" t="s">
-        <v>1806</v>
+        <v>1794</v>
       </c>
       <c r="B1082" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="C1082" s="5" t="s">
-        <v>1807</v>
+        <v>1795</v>
       </c>
       <c r="D1082" s="9"/>
       <c r="E1082" s="5"/>
@@ -39616,15 +39937,15 @@
       <c r="M1082" s="5"/>
       <c r="N1082" s="10"/>
     </row>
-    <row r="1083" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1083" s="4" t="s">
-        <v>1808</v>
+        <v>1796</v>
       </c>
       <c r="B1083" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1083" s="5" t="s">
-        <v>1810</v>
+        <v>1797</v>
       </c>
       <c r="D1083" s="9"/>
       <c r="E1083" s="5"/>
@@ -39638,15 +39959,15 @@
       <c r="M1083" s="5"/>
       <c r="N1083" s="10"/>
     </row>
-    <row r="1084" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1084" s="4" t="s">
-        <v>1811</v>
+        <v>1798</v>
       </c>
       <c r="B1084" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1084" s="5" t="s">
-        <v>1812</v>
+        <v>1799</v>
       </c>
       <c r="D1084" s="9"/>
       <c r="E1084" s="5"/>
@@ -39660,15 +39981,15 @@
       <c r="M1084" s="5"/>
       <c r="N1084" s="10"/>
     </row>
-    <row r="1085" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1085" s="4" t="s">
-        <v>1813</v>
+        <v>1800</v>
       </c>
       <c r="B1085" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1085" s="5" t="s">
-        <v>1814</v>
+        <v>11</v>
       </c>
       <c r="D1085" s="9"/>
       <c r="E1085" s="5"/>
@@ -39682,15 +40003,15 @@
       <c r="M1085" s="5"/>
       <c r="N1085" s="10"/>
     </row>
-    <row r="1086" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1086" s="4" t="s">
-        <v>1815</v>
+        <v>1801</v>
       </c>
       <c r="B1086" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1086" s="5" t="s">
-        <v>1816</v>
+        <v>1802</v>
       </c>
       <c r="D1086" s="9"/>
       <c r="E1086" s="5"/>
@@ -39704,15 +40025,15 @@
       <c r="M1086" s="5"/>
       <c r="N1086" s="10"/>
     </row>
-    <row r="1087" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1087" s="4" t="s">
-        <v>1817</v>
+        <v>1803</v>
       </c>
       <c r="B1087" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1087" s="5" t="s">
-        <v>1818</v>
+        <v>1804</v>
       </c>
       <c r="D1087" s="9"/>
       <c r="E1087" s="5"/>
@@ -39726,15 +40047,15 @@
       <c r="M1087" s="5"/>
       <c r="N1087" s="10"/>
     </row>
-    <row r="1088" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1088" s="4" t="s">
-        <v>1819</v>
+        <v>1805</v>
       </c>
       <c r="B1088" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1088" s="5" t="s">
-        <v>1820</v>
+        <v>1773</v>
       </c>
       <c r="D1088" s="9"/>
       <c r="E1088" s="5"/>
@@ -39748,15 +40069,15 @@
       <c r="M1088" s="5"/>
       <c r="N1088" s="10"/>
     </row>
-    <row r="1089" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1089" s="4" t="s">
-        <v>1821</v>
+        <v>1806</v>
       </c>
       <c r="B1089" s="5" t="s">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="C1089" s="5" t="s">
-        <v>1822</v>
+        <v>1807</v>
       </c>
       <c r="D1089" s="9"/>
       <c r="E1089" s="5"/>
@@ -39772,13 +40093,13 @@
     </row>
     <row r="1090" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1090" s="4" t="s">
-        <v>1823</v>
+        <v>1808</v>
       </c>
       <c r="B1090" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1090" s="5" t="s">
-        <v>1825</v>
+        <v>1810</v>
       </c>
       <c r="D1090" s="9"/>
       <c r="E1090" s="5"/>
@@ -39794,13 +40115,13 @@
     </row>
     <row r="1091" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1091" s="4" t="s">
-        <v>1826</v>
+        <v>1811</v>
       </c>
       <c r="B1091" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1091" s="5" t="s">
-        <v>1827</v>
+        <v>1812</v>
       </c>
       <c r="D1091" s="9"/>
       <c r="E1091" s="5"/>
@@ -39816,13 +40137,13 @@
     </row>
     <row r="1092" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1092" s="4" t="s">
-        <v>1828</v>
+        <v>1813</v>
       </c>
       <c r="B1092" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1092" s="5" t="s">
-        <v>1829</v>
+        <v>1814</v>
       </c>
       <c r="D1092" s="9"/>
       <c r="E1092" s="5"/>
@@ -39838,13 +40159,13 @@
     </row>
     <row r="1093" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1093" s="4" t="s">
-        <v>1830</v>
+        <v>1815</v>
       </c>
       <c r="B1093" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1093" s="5" t="s">
-        <v>1831</v>
+        <v>1816</v>
       </c>
       <c r="D1093" s="9"/>
       <c r="E1093" s="5"/>
@@ -39860,13 +40181,13 @@
     </row>
     <row r="1094" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1094" s="4" t="s">
-        <v>1832</v>
+        <v>1817</v>
       </c>
       <c r="B1094" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1094" s="5" t="s">
-        <v>1833</v>
+        <v>1818</v>
       </c>
       <c r="D1094" s="9"/>
       <c r="E1094" s="5"/>
@@ -39882,13 +40203,13 @@
     </row>
     <row r="1095" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1095" s="4" t="s">
-        <v>1834</v>
+        <v>1819</v>
       </c>
       <c r="B1095" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1095" s="5" t="s">
-        <v>1586</v>
+        <v>1820</v>
       </c>
       <c r="D1095" s="9"/>
       <c r="E1095" s="5"/>
@@ -39904,13 +40225,13 @@
     </row>
     <row r="1096" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1096" s="4" t="s">
-        <v>1835</v>
+        <v>1821</v>
       </c>
       <c r="B1096" s="5" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C1096" s="5" t="s">
-        <v>1836</v>
+        <v>1822</v>
       </c>
       <c r="D1096" s="9"/>
       <c r="E1096" s="5"/>
@@ -39926,13 +40247,13 @@
     </row>
     <row r="1097" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1097" s="4" t="s">
-        <v>1837</v>
+        <v>1823</v>
       </c>
       <c r="B1097" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1097" s="5" t="s">
-        <v>1838</v>
+        <v>1825</v>
       </c>
       <c r="D1097" s="9"/>
       <c r="E1097" s="5"/>
@@ -39948,13 +40269,13 @@
     </row>
     <row r="1098" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1098" s="4" t="s">
-        <v>1839</v>
+        <v>1826</v>
       </c>
       <c r="B1098" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1098" s="5" t="s">
-        <v>1840</v>
+        <v>1827</v>
       </c>
       <c r="D1098" s="9"/>
       <c r="E1098" s="5"/>
@@ -39970,13 +40291,13 @@
     </row>
     <row r="1099" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1099" s="4" t="s">
-        <v>1841</v>
+        <v>1828</v>
       </c>
       <c r="B1099" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1099" s="5" t="s">
-        <v>1842</v>
+        <v>1829</v>
       </c>
       <c r="D1099" s="9"/>
       <c r="E1099" s="5"/>
@@ -39992,13 +40313,13 @@
     </row>
     <row r="1100" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1100" s="4" t="s">
-        <v>1843</v>
+        <v>1830</v>
       </c>
       <c r="B1100" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1100" s="5" t="s">
-        <v>1844</v>
+        <v>1831</v>
       </c>
       <c r="D1100" s="9"/>
       <c r="E1100" s="5"/>
@@ -40014,13 +40335,13 @@
     </row>
     <row r="1101" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1101" s="4" t="s">
-        <v>1845</v>
+        <v>1832</v>
       </c>
       <c r="B1101" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1101" s="5" t="s">
-        <v>1846</v>
+        <v>1833</v>
       </c>
       <c r="D1101" s="9"/>
       <c r="E1101" s="5"/>
@@ -40036,13 +40357,13 @@
     </row>
     <row r="1102" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1102" s="4" t="s">
-        <v>1847</v>
+        <v>1834</v>
       </c>
       <c r="B1102" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1102" s="5" t="s">
-        <v>1848</v>
+        <v>1586</v>
       </c>
       <c r="D1102" s="9"/>
       <c r="E1102" s="5"/>
@@ -40058,13 +40379,13 @@
     </row>
     <row r="1103" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1103" s="4" t="s">
-        <v>1849</v>
+        <v>1835</v>
       </c>
       <c r="B1103" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1103" s="5" t="s">
-        <v>1850</v>
+        <v>1836</v>
       </c>
       <c r="D1103" s="9"/>
       <c r="E1103" s="5"/>
@@ -40080,13 +40401,13 @@
     </row>
     <row r="1104" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1104" s="4" t="s">
-        <v>1851</v>
+        <v>1837</v>
       </c>
       <c r="B1104" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1104" s="5" t="s">
-        <v>1852</v>
+        <v>1838</v>
       </c>
       <c r="D1104" s="9"/>
       <c r="E1104" s="5"/>
@@ -40102,13 +40423,13 @@
     </row>
     <row r="1105" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1105" s="4" t="s">
-        <v>1853</v>
+        <v>1839</v>
       </c>
       <c r="B1105" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1105" s="5" t="s">
-        <v>1586</v>
+        <v>1840</v>
       </c>
       <c r="D1105" s="9"/>
       <c r="E1105" s="5"/>
@@ -40124,13 +40445,13 @@
     </row>
     <row r="1106" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1106" s="4" t="s">
-        <v>1854</v>
+        <v>1841</v>
       </c>
       <c r="B1106" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1106" s="5" t="s">
-        <v>1855</v>
+        <v>1842</v>
       </c>
       <c r="D1106" s="9"/>
       <c r="E1106" s="5"/>
@@ -40146,13 +40467,13 @@
     </row>
     <row r="1107" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1107" s="4" t="s">
-        <v>1856</v>
+        <v>1843</v>
       </c>
       <c r="B1107" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1107" s="5" t="s">
-        <v>1857</v>
+        <v>1844</v>
       </c>
       <c r="D1107" s="9"/>
       <c r="E1107" s="5"/>
@@ -40168,13 +40489,13 @@
     </row>
     <row r="1108" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1108" s="4" t="s">
-        <v>1858</v>
+        <v>1845</v>
       </c>
       <c r="B1108" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1108" s="5" t="s">
-        <v>1859</v>
+        <v>1846</v>
       </c>
       <c r="D1108" s="9"/>
       <c r="E1108" s="5"/>
@@ -40190,13 +40511,13 @@
     </row>
     <row r="1109" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1109" s="4" t="s">
-        <v>1860</v>
+        <v>1847</v>
       </c>
       <c r="B1109" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C1109" s="5" t="s">
-        <v>1861</v>
+        <v>1848</v>
       </c>
       <c r="D1109" s="9"/>
       <c r="E1109" s="5"/>
@@ -40212,13 +40533,13 @@
     </row>
     <row r="1110" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1110" s="4" t="s">
-        <v>1862</v>
+        <v>1849</v>
       </c>
       <c r="B1110" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1110" s="5" t="s">
-        <v>1864</v>
+        <v>1850</v>
       </c>
       <c r="D1110" s="9"/>
       <c r="E1110" s="5"/>
@@ -40234,13 +40555,13 @@
     </row>
     <row r="1111" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1111" s="4" t="s">
-        <v>1865</v>
+        <v>1851</v>
       </c>
       <c r="B1111" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1111" s="5" t="s">
-        <v>1866</v>
+        <v>1852</v>
       </c>
       <c r="D1111" s="9"/>
       <c r="E1111" s="5"/>
@@ -40256,13 +40577,13 @@
     </row>
     <row r="1112" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1112" s="4" t="s">
-        <v>1867</v>
+        <v>1853</v>
       </c>
       <c r="B1112" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1112" s="5" t="s">
-        <v>1868</v>
+        <v>1586</v>
       </c>
       <c r="D1112" s="9"/>
       <c r="E1112" s="5"/>
@@ -40278,13 +40599,13 @@
     </row>
     <row r="1113" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1113" s="4" t="s">
-        <v>1869</v>
+        <v>1854</v>
       </c>
       <c r="B1113" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1113" s="5" t="s">
-        <v>1870</v>
+        <v>1855</v>
       </c>
       <c r="D1113" s="9"/>
       <c r="E1113" s="5"/>
@@ -40300,13 +40621,13 @@
     </row>
     <row r="1114" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1114" s="4" t="s">
-        <v>1871</v>
+        <v>1856</v>
       </c>
       <c r="B1114" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1114" s="5" t="s">
-        <v>1872</v>
+        <v>1857</v>
       </c>
       <c r="D1114" s="9"/>
       <c r="E1114" s="5"/>
@@ -40322,13 +40643,13 @@
     </row>
     <row r="1115" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1115" s="4" t="s">
-        <v>1873</v>
+        <v>1858</v>
       </c>
       <c r="B1115" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1115" s="5" t="s">
-        <v>1874</v>
+        <v>1859</v>
       </c>
       <c r="D1115" s="9"/>
       <c r="E1115" s="5"/>
@@ -40344,13 +40665,13 @@
     </row>
     <row r="1116" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1116" s="4" t="s">
-        <v>1875</v>
+        <v>1860</v>
       </c>
       <c r="B1116" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C1116" s="5" t="s">
-        <v>1876</v>
+        <v>1861</v>
       </c>
       <c r="D1116" s="9"/>
       <c r="E1116" s="5"/>
@@ -40366,13 +40687,13 @@
     </row>
     <row r="1117" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1117" s="4" t="s">
-        <v>1877</v>
+        <v>1862</v>
       </c>
       <c r="B1117" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1117" s="5" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="D1117" s="9"/>
       <c r="E1117" s="5"/>
@@ -40388,13 +40709,13 @@
     </row>
     <row r="1118" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1118" s="4" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="B1118" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1118" s="5" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="D1118" s="9"/>
       <c r="E1118" s="5"/>
@@ -40410,13 +40731,13 @@
     </row>
     <row r="1119" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1119" s="4" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="B1119" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1119" s="5" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="D1119" s="9"/>
       <c r="E1119" s="5"/>
@@ -40432,13 +40753,13 @@
     </row>
     <row r="1120" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1120" s="4" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="B1120" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1120" s="5" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="D1120" s="9"/>
       <c r="E1120" s="5"/>
@@ -40454,13 +40775,13 @@
     </row>
     <row r="1121" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1121" s="4" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="B1121" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1121" s="5" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="D1121" s="9"/>
       <c r="E1121" s="5"/>
@@ -40476,13 +40797,13 @@
     </row>
     <row r="1122" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1122" s="4" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="B1122" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1122" s="5" t="s">
-        <v>1888</v>
+        <v>1874</v>
       </c>
       <c r="D1122" s="9"/>
       <c r="E1122" s="5"/>
@@ -40498,13 +40819,13 @@
     </row>
     <row r="1123" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1123" s="4" t="s">
-        <v>1889</v>
+        <v>1875</v>
       </c>
       <c r="B1123" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1123" s="5" t="s">
-        <v>1890</v>
+        <v>1876</v>
       </c>
       <c r="D1123" s="9"/>
       <c r="E1123" s="5"/>
@@ -40520,13 +40841,13 @@
     </row>
     <row r="1124" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1124" s="4" t="s">
-        <v>1891</v>
+        <v>1877</v>
       </c>
       <c r="B1124" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1124" s="5" t="s">
-        <v>1892</v>
+        <v>1878</v>
       </c>
       <c r="D1124" s="9"/>
       <c r="E1124" s="5"/>
@@ -40542,13 +40863,13 @@
     </row>
     <row r="1125" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1125" s="4" t="s">
-        <v>1893</v>
+        <v>1879</v>
       </c>
       <c r="B1125" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1125" s="5" t="s">
-        <v>1894</v>
+        <v>1880</v>
       </c>
       <c r="D1125" s="9"/>
       <c r="E1125" s="5"/>
@@ -40564,13 +40885,13 @@
     </row>
     <row r="1126" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1126" s="4" t="s">
-        <v>1895</v>
+        <v>1881</v>
       </c>
       <c r="B1126" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1126" s="5" t="s">
-        <v>1896</v>
+        <v>1882</v>
       </c>
       <c r="D1126" s="9"/>
       <c r="E1126" s="5"/>
@@ -40586,13 +40907,13 @@
     </row>
     <row r="1127" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1127" s="4" t="s">
-        <v>1897</v>
+        <v>1883</v>
       </c>
       <c r="B1127" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1127" s="5" t="s">
-        <v>1898</v>
+        <v>1884</v>
       </c>
       <c r="D1127" s="9"/>
       <c r="E1127" s="5"/>
@@ -40608,13 +40929,13 @@
     </row>
     <row r="1128" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1128" s="4" t="s">
-        <v>1899</v>
+        <v>1885</v>
       </c>
       <c r="B1128" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1128" s="5" t="s">
-        <v>1900</v>
+        <v>1886</v>
       </c>
       <c r="D1128" s="9"/>
       <c r="E1128" s="5"/>
@@ -40630,13 +40951,13 @@
     </row>
     <row r="1129" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1129" s="4" t="s">
-        <v>1901</v>
+        <v>1887</v>
       </c>
       <c r="B1129" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1129" s="5" t="s">
-        <v>1902</v>
+        <v>1888</v>
       </c>
       <c r="D1129" s="9"/>
       <c r="E1129" s="5"/>
@@ -40652,13 +40973,13 @@
     </row>
     <row r="1130" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1130" s="4" t="s">
-        <v>1903</v>
+        <v>1889</v>
       </c>
       <c r="B1130" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1130" s="5" t="s">
-        <v>1905</v>
+        <v>1890</v>
       </c>
       <c r="D1130" s="9"/>
       <c r="E1130" s="5"/>
@@ -40674,13 +40995,13 @@
     </row>
     <row r="1131" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1131" s="4" t="s">
-        <v>1906</v>
+        <v>1891</v>
       </c>
       <c r="B1131" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1131" s="5" t="s">
-        <v>1907</v>
+        <v>1892</v>
       </c>
       <c r="D1131" s="9"/>
       <c r="E1131" s="5"/>
@@ -40696,13 +41017,13 @@
     </row>
     <row r="1132" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1132" s="4" t="s">
-        <v>1908</v>
+        <v>1893</v>
       </c>
       <c r="B1132" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1132" s="5" t="s">
-        <v>1905</v>
+        <v>1894</v>
       </c>
       <c r="D1132" s="9"/>
       <c r="E1132" s="5"/>
@@ -40718,13 +41039,13 @@
     </row>
     <row r="1133" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1133" s="4" t="s">
-        <v>1909</v>
+        <v>1895</v>
       </c>
       <c r="B1133" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1133" s="5" t="s">
-        <v>1910</v>
+        <v>1896</v>
       </c>
       <c r="D1133" s="9"/>
       <c r="E1133" s="5"/>
@@ -40740,13 +41061,13 @@
     </row>
     <row r="1134" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1134" s="4" t="s">
-        <v>1911</v>
+        <v>1897</v>
       </c>
       <c r="B1134" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1134" s="5" t="s">
-        <v>1912</v>
+        <v>1898</v>
       </c>
       <c r="D1134" s="9"/>
       <c r="E1134" s="5"/>
@@ -40762,13 +41083,13 @@
     </row>
     <row r="1135" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1135" s="4" t="s">
-        <v>1913</v>
+        <v>1899</v>
       </c>
       <c r="B1135" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1135" s="5" t="s">
-        <v>1914</v>
+        <v>1900</v>
       </c>
       <c r="D1135" s="9"/>
       <c r="E1135" s="5"/>
@@ -40784,13 +41105,13 @@
     </row>
     <row r="1136" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1136" s="4" t="s">
-        <v>1915</v>
+        <v>1901</v>
       </c>
       <c r="B1136" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1136" s="5" t="s">
-        <v>1916</v>
+        <v>1902</v>
       </c>
       <c r="D1136" s="9"/>
       <c r="E1136" s="5"/>
@@ -40806,13 +41127,13 @@
     </row>
     <row r="1137" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1137" s="4" t="s">
-        <v>1917</v>
+        <v>1903</v>
       </c>
       <c r="B1137" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1137" s="5" t="s">
-        <v>1918</v>
+        <v>1905</v>
       </c>
       <c r="D1137" s="9"/>
       <c r="E1137" s="5"/>
@@ -40828,13 +41149,13 @@
     </row>
     <row r="1138" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1138" s="4" t="s">
-        <v>1919</v>
+        <v>1906</v>
       </c>
       <c r="B1138" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1138" s="5" t="s">
-        <v>1920</v>
+        <v>1907</v>
       </c>
       <c r="D1138" s="9"/>
       <c r="E1138" s="5"/>
@@ -40850,13 +41171,13 @@
     </row>
     <row r="1139" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1139" s="4" t="s">
-        <v>1921</v>
+        <v>1908</v>
       </c>
       <c r="B1139" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1139" s="5" t="s">
-        <v>1922</v>
+        <v>1905</v>
       </c>
       <c r="D1139" s="9"/>
       <c r="E1139" s="5"/>
@@ -40872,13 +41193,13 @@
     </row>
     <row r="1140" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1140" s="4" t="s">
-        <v>1923</v>
+        <v>1909</v>
       </c>
       <c r="B1140" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1140" s="5" t="s">
-        <v>1924</v>
+        <v>1910</v>
       </c>
       <c r="D1140" s="9"/>
       <c r="E1140" s="5"/>
@@ -40894,13 +41215,13 @@
     </row>
     <row r="1141" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1141" s="4" t="s">
-        <v>1925</v>
+        <v>1911</v>
       </c>
       <c r="B1141" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1141" s="5" t="s">
-        <v>1926</v>
+        <v>1912</v>
       </c>
       <c r="D1141" s="9"/>
       <c r="E1141" s="5"/>
@@ -40916,13 +41237,13 @@
     </row>
     <row r="1142" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1142" s="4" t="s">
-        <v>1927</v>
+        <v>1913</v>
       </c>
       <c r="B1142" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1142" s="5" t="s">
-        <v>1928</v>
+        <v>1914</v>
       </c>
       <c r="D1142" s="9"/>
       <c r="E1142" s="5"/>
@@ -40938,13 +41259,13 @@
     </row>
     <row r="1143" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1143" s="4" t="s">
-        <v>1929</v>
+        <v>1915</v>
       </c>
       <c r="B1143" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>1930</v>
+        <v>1916</v>
       </c>
       <c r="D1143" s="9"/>
       <c r="E1143" s="5"/>
@@ -40960,13 +41281,13 @@
     </row>
     <row r="1144" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1144" s="4" t="s">
-        <v>1931</v>
+        <v>1917</v>
       </c>
       <c r="B1144" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>1932</v>
+        <v>1918</v>
       </c>
       <c r="D1144" s="9"/>
       <c r="E1144" s="5"/>
@@ -40982,13 +41303,13 @@
     </row>
     <row r="1145" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1145" s="4" t="s">
-        <v>1933</v>
+        <v>1919</v>
       </c>
       <c r="B1145" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>1934</v>
+        <v>1920</v>
       </c>
       <c r="D1145" s="9"/>
       <c r="E1145" s="5"/>
@@ -41004,13 +41325,13 @@
     </row>
     <row r="1146" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1146" s="4" t="s">
-        <v>1935</v>
+        <v>1921</v>
       </c>
       <c r="B1146" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>1936</v>
+        <v>1922</v>
       </c>
       <c r="D1146" s="9"/>
       <c r="E1146" s="5"/>
@@ -41026,13 +41347,13 @@
     </row>
     <row r="1147" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1147" s="4" t="s">
-        <v>1937</v>
+        <v>1923</v>
       </c>
       <c r="B1147" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>1938</v>
+        <v>1924</v>
       </c>
       <c r="D1147" s="9"/>
       <c r="E1147" s="5"/>
@@ -41048,13 +41369,13 @@
     </row>
     <row r="1148" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1148" s="4" t="s">
-        <v>1939</v>
+        <v>1925</v>
       </c>
       <c r="B1148" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1148" s="5" t="s">
-        <v>1940</v>
+        <v>1926</v>
       </c>
       <c r="D1148" s="9"/>
       <c r="E1148" s="5"/>
@@ -41070,13 +41391,13 @@
     </row>
     <row r="1149" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1149" s="4" t="s">
-        <v>1941</v>
+        <v>1927</v>
       </c>
       <c r="B1149" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>1942</v>
+        <v>1928</v>
       </c>
       <c r="D1149" s="9"/>
       <c r="E1149" s="5"/>
@@ -41090,15 +41411,15 @@
       <c r="M1149" s="5"/>
       <c r="N1149" s="10"/>
     </row>
-    <row r="1150" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1150" s="4" t="s">
-        <v>1943</v>
+        <v>1929</v>
       </c>
       <c r="B1150" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1150" s="5" t="s">
-        <v>1945</v>
+        <v>1930</v>
       </c>
       <c r="D1150" s="9"/>
       <c r="E1150" s="5"/>
@@ -41112,15 +41433,15 @@
       <c r="M1150" s="5"/>
       <c r="N1150" s="10"/>
     </row>
-    <row r="1151" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1151" s="4" t="s">
-        <v>1946</v>
+        <v>1931</v>
       </c>
       <c r="B1151" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1151" s="5" t="s">
-        <v>1947</v>
+        <v>1932</v>
       </c>
       <c r="D1151" s="9"/>
       <c r="E1151" s="5"/>
@@ -41134,15 +41455,15 @@
       <c r="M1151" s="5"/>
       <c r="N1151" s="10"/>
     </row>
-    <row r="1152" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1152" s="4" t="s">
-        <v>1948</v>
+        <v>1933</v>
       </c>
       <c r="B1152" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1152" s="5" t="s">
-        <v>1949</v>
+        <v>1934</v>
       </c>
       <c r="D1152" s="9"/>
       <c r="E1152" s="5"/>
@@ -41156,15 +41477,15 @@
       <c r="M1152" s="5"/>
       <c r="N1152" s="10"/>
     </row>
-    <row r="1153" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1153" s="4" t="s">
-        <v>1950</v>
+        <v>1935</v>
       </c>
       <c r="B1153" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1153" s="5" t="s">
-        <v>1951</v>
+        <v>1936</v>
       </c>
       <c r="D1153" s="9"/>
       <c r="E1153" s="5"/>
@@ -41178,15 +41499,15 @@
       <c r="M1153" s="5"/>
       <c r="N1153" s="10"/>
     </row>
-    <row r="1154" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1154" s="4" t="s">
-        <v>1952</v>
+        <v>1937</v>
       </c>
       <c r="B1154" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1154" s="5" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
       <c r="D1154" s="9"/>
       <c r="E1154" s="5"/>
@@ -41200,15 +41521,15 @@
       <c r="M1154" s="5"/>
       <c r="N1154" s="10"/>
     </row>
-    <row r="1155" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1155" s="4" t="s">
-        <v>1953</v>
+        <v>1939</v>
       </c>
       <c r="B1155" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1155" s="5" t="s">
-        <v>1954</v>
+        <v>1940</v>
       </c>
       <c r="D1155" s="9"/>
       <c r="E1155" s="5"/>
@@ -41222,15 +41543,15 @@
       <c r="M1155" s="5"/>
       <c r="N1155" s="10"/>
     </row>
-    <row r="1156" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1156" s="4" t="s">
-        <v>1955</v>
+        <v>1941</v>
       </c>
       <c r="B1156" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1156" s="5" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="D1156" s="9"/>
       <c r="E1156" s="5"/>
@@ -41246,13 +41567,13 @@
     </row>
     <row r="1157" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1157" s="4" t="s">
-        <v>1956</v>
+        <v>1943</v>
       </c>
       <c r="B1157" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1157" s="5" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="D1157" s="9"/>
       <c r="E1157" s="5"/>
@@ -41268,13 +41589,13 @@
     </row>
     <row r="1158" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1158" s="4" t="s">
-        <v>1957</v>
+        <v>1946</v>
       </c>
       <c r="B1158" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1158" s="5" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="D1158" s="9"/>
       <c r="E1158" s="5"/>
@@ -41290,13 +41611,13 @@
     </row>
     <row r="1159" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1159" s="4" t="s">
-        <v>1958</v>
+        <v>1948</v>
       </c>
       <c r="B1159" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1159" s="5" t="s">
-        <v>1959</v>
+        <v>1949</v>
       </c>
       <c r="D1159" s="9"/>
       <c r="E1159" s="5"/>
@@ -41312,13 +41633,13 @@
     </row>
     <row r="1160" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1160" s="4" t="s">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B1160" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1160" s="5" t="s">
-        <v>1961</v>
+        <v>1951</v>
       </c>
       <c r="D1160" s="9"/>
       <c r="E1160" s="5"/>
@@ -41334,13 +41655,13 @@
     </row>
     <row r="1161" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1161" s="4" t="s">
-        <v>1962</v>
+        <v>1952</v>
       </c>
       <c r="B1161" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1161" s="5" t="s">
-        <v>1963</v>
+        <v>1945</v>
       </c>
       <c r="D1161" s="9"/>
       <c r="E1161" s="5"/>
@@ -41356,13 +41677,13 @@
     </row>
     <row r="1162" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1162" s="4" t="s">
-        <v>1964</v>
+        <v>1953</v>
       </c>
       <c r="B1162" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1162" s="5" t="s">
-        <v>1965</v>
+        <v>1954</v>
       </c>
       <c r="D1162" s="9"/>
       <c r="E1162" s="5"/>
@@ -41378,13 +41699,13 @@
     </row>
     <row r="1163" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1163" s="4" t="s">
-        <v>1966</v>
+        <v>1955</v>
       </c>
       <c r="B1163" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1163" s="5" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="D1163" s="9"/>
       <c r="E1163" s="5"/>
@@ -41400,13 +41721,13 @@
     </row>
     <row r="1164" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1164" s="4" t="s">
-        <v>1967</v>
+        <v>1956</v>
       </c>
       <c r="B1164" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1164" s="5" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="D1164" s="9"/>
       <c r="E1164" s="5"/>
@@ -41422,13 +41743,13 @@
     </row>
     <row r="1165" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1165" s="4" t="s">
-        <v>1968</v>
+        <v>1957</v>
       </c>
       <c r="B1165" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1165" s="5" t="s">
-        <v>1969</v>
+        <v>1949</v>
       </c>
       <c r="D1165" s="9"/>
       <c r="E1165" s="5"/>
@@ -41444,13 +41765,13 @@
     </row>
     <row r="1166" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1166" s="4" t="s">
-        <v>1970</v>
+        <v>1958</v>
       </c>
       <c r="B1166" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1166" s="5" t="s">
-        <v>1971</v>
+        <v>1959</v>
       </c>
       <c r="D1166" s="9"/>
       <c r="E1166" s="5"/>
@@ -41466,13 +41787,13 @@
     </row>
     <row r="1167" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1167" s="4" t="s">
-        <v>1972</v>
+        <v>1960</v>
       </c>
       <c r="B1167" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1167" s="5" t="s">
-        <v>1945</v>
+        <v>1961</v>
       </c>
       <c r="D1167" s="9"/>
       <c r="E1167" s="5"/>
@@ -41488,13 +41809,13 @@
     </row>
     <row r="1168" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1168" s="4" t="s">
-        <v>1973</v>
+        <v>1962</v>
       </c>
       <c r="B1168" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1168" s="5" t="s">
-        <v>1974</v>
+        <v>1963</v>
       </c>
       <c r="D1168" s="9"/>
       <c r="E1168" s="5"/>
@@ -41510,13 +41831,13 @@
     </row>
     <row r="1169" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1169" s="4" t="s">
-        <v>1975</v>
+        <v>1964</v>
       </c>
       <c r="B1169" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1169" s="5" t="s">
-        <v>1947</v>
+        <v>1965</v>
       </c>
       <c r="D1169" s="9"/>
       <c r="E1169" s="5"/>
@@ -41532,13 +41853,13 @@
     </row>
     <row r="1170" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1170" s="4" t="s">
-        <v>1976</v>
+        <v>1966</v>
       </c>
       <c r="B1170" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1170" s="5" t="s">
-        <v>1978</v>
+        <v>1947</v>
       </c>
       <c r="D1170" s="9"/>
       <c r="E1170" s="5"/>
@@ -41554,13 +41875,13 @@
     </row>
     <row r="1171" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1171" s="4" t="s">
-        <v>1979</v>
+        <v>1967</v>
       </c>
       <c r="B1171" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1171" s="5" t="s">
-        <v>1980</v>
+        <v>1949</v>
       </c>
       <c r="D1171" s="9"/>
       <c r="E1171" s="5"/>
@@ -41576,13 +41897,13 @@
     </row>
     <row r="1172" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1172" s="4" t="s">
-        <v>1981</v>
+        <v>1968</v>
       </c>
       <c r="B1172" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1172" s="5" t="s">
-        <v>1982</v>
+        <v>1969</v>
       </c>
       <c r="D1172" s="9"/>
       <c r="E1172" s="5"/>
@@ -41598,13 +41919,13 @@
     </row>
     <row r="1173" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1173" s="4" t="s">
-        <v>1983</v>
+        <v>1970</v>
       </c>
       <c r="B1173" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1173" s="5" t="s">
-        <v>1984</v>
+        <v>1971</v>
       </c>
       <c r="D1173" s="9"/>
       <c r="E1173" s="5"/>
@@ -41620,13 +41941,13 @@
     </row>
     <row r="1174" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1174" s="4" t="s">
-        <v>1985</v>
+        <v>1972</v>
       </c>
       <c r="B1174" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1174" s="5" t="s">
-        <v>1986</v>
+        <v>1945</v>
       </c>
       <c r="D1174" s="9"/>
       <c r="E1174" s="5"/>
@@ -41640,15 +41961,15 @@
       <c r="M1174" s="5"/>
       <c r="N1174" s="10"/>
     </row>
-    <row r="1175" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1175" s="4" t="s">
-        <v>1987</v>
+        <v>1973</v>
       </c>
       <c r="B1175" s="5" t="s">
-        <v>1988</v>
+        <v>1944</v>
       </c>
       <c r="C1175" s="5" t="s">
-        <v>1989</v>
+        <v>1974</v>
       </c>
       <c r="D1175" s="9"/>
       <c r="E1175" s="5"/>
@@ -41662,15 +41983,15 @@
       <c r="M1175" s="5"/>
       <c r="N1175" s="10"/>
     </row>
-    <row r="1176" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1176" s="4" t="s">
-        <v>1990</v>
+        <v>1975</v>
       </c>
       <c r="B1176" s="5" t="s">
-        <v>1988</v>
+        <v>1944</v>
       </c>
       <c r="C1176" s="5" t="s">
-        <v>1991</v>
+        <v>1947</v>
       </c>
       <c r="D1176" s="9"/>
       <c r="E1176" s="5"/>
@@ -41684,15 +42005,15 @@
       <c r="M1176" s="5"/>
       <c r="N1176" s="10"/>
     </row>
-    <row r="1177" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1177" s="4" t="s">
-        <v>1992</v>
+        <v>1976</v>
       </c>
       <c r="B1177" s="5" t="s">
-        <v>1988</v>
+        <v>1977</v>
       </c>
       <c r="C1177" s="5" t="s">
-        <v>1993</v>
+        <v>1978</v>
       </c>
       <c r="D1177" s="9"/>
       <c r="E1177" s="5"/>
@@ -41706,15 +42027,15 @@
       <c r="M1177" s="5"/>
       <c r="N1177" s="10"/>
     </row>
-    <row r="1178" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1178" s="4" t="s">
-        <v>1994</v>
+        <v>1979</v>
       </c>
       <c r="B1178" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1178" s="5" t="s">
-        <v>1996</v>
+        <v>1980</v>
       </c>
       <c r="D1178" s="9"/>
       <c r="E1178" s="5"/>
@@ -41728,15 +42049,15 @@
       <c r="M1178" s="5"/>
       <c r="N1178" s="10"/>
     </row>
-    <row r="1179" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1179" s="4" t="s">
-        <v>1997</v>
+        <v>1981</v>
       </c>
       <c r="B1179" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1179" s="5" t="s">
-        <v>1998</v>
+        <v>1982</v>
       </c>
       <c r="D1179" s="9"/>
       <c r="E1179" s="5"/>
@@ -41750,15 +42071,15 @@
       <c r="M1179" s="5"/>
       <c r="N1179" s="10"/>
     </row>
-    <row r="1180" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1180" s="4" t="s">
-        <v>1999</v>
+        <v>1983</v>
       </c>
       <c r="B1180" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1180" s="5" t="s">
-        <v>2000</v>
+        <v>1984</v>
       </c>
       <c r="D1180" s="9"/>
       <c r="E1180" s="5"/>
@@ -41772,15 +42093,15 @@
       <c r="M1180" s="5"/>
       <c r="N1180" s="10"/>
     </row>
-    <row r="1181" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1181" s="4" t="s">
-        <v>2001</v>
+        <v>1985</v>
       </c>
       <c r="B1181" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1181" s="5" t="s">
-        <v>2002</v>
+        <v>1986</v>
       </c>
       <c r="D1181" s="9"/>
       <c r="E1181" s="5"/>
@@ -41794,15 +42115,15 @@
       <c r="M1181" s="5"/>
       <c r="N1181" s="10"/>
     </row>
-    <row r="1182" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1182" s="4" t="s">
-        <v>2003</v>
+        <v>1987</v>
       </c>
       <c r="B1182" s="5" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C1182" s="5" t="s">
-        <v>2004</v>
+        <v>1989</v>
       </c>
       <c r="D1182" s="9"/>
       <c r="E1182" s="5"/>
@@ -41816,15 +42137,15 @@
       <c r="M1182" s="5"/>
       <c r="N1182" s="10"/>
     </row>
-    <row r="1183" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1183" s="4" t="s">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="B1183" s="5" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C1183" s="5" t="s">
-        <v>2006</v>
+        <v>1991</v>
       </c>
       <c r="D1183" s="9"/>
       <c r="E1183" s="5"/>
@@ -41838,15 +42159,15 @@
       <c r="M1183" s="5"/>
       <c r="N1183" s="10"/>
     </row>
-    <row r="1184" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1184" s="4" t="s">
-        <v>2007</v>
+        <v>1992</v>
       </c>
       <c r="B1184" s="5" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C1184" s="5" t="s">
-        <v>2008</v>
+        <v>1993</v>
       </c>
       <c r="D1184" s="9"/>
       <c r="E1184" s="5"/>
@@ -41862,13 +42183,13 @@
     </row>
     <row r="1185" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1185" s="4" t="s">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="B1185" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1185" s="5" t="s">
-        <v>2010</v>
+        <v>1996</v>
       </c>
       <c r="D1185" s="9"/>
       <c r="E1185" s="5"/>
@@ -41884,13 +42205,13 @@
     </row>
     <row r="1186" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1186" s="4" t="s">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="B1186" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1186" s="5" t="s">
-        <v>2012</v>
+        <v>1998</v>
       </c>
       <c r="D1186" s="9"/>
       <c r="E1186" s="5"/>
@@ -41906,13 +42227,13 @@
     </row>
     <row r="1187" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1187" s="4" t="s">
-        <v>2013</v>
+        <v>1999</v>
       </c>
       <c r="B1187" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1187" s="5" t="s">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="D1187" s="9"/>
       <c r="E1187" s="5"/>
@@ -41928,13 +42249,13 @@
     </row>
     <row r="1188" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1188" s="4" t="s">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="B1188" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1188" s="5" t="s">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="D1188" s="9"/>
       <c r="E1188" s="5"/>
@@ -41950,13 +42271,13 @@
     </row>
     <row r="1189" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1189" s="4" t="s">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="B1189" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1189" s="5" t="s">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="D1189" s="9"/>
       <c r="E1189" s="5"/>
@@ -41972,13 +42293,13 @@
     </row>
     <row r="1190" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1190" s="4" t="s">
-        <v>2019</v>
+        <v>2005</v>
       </c>
       <c r="B1190" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1190" s="5" t="s">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="D1190" s="9"/>
       <c r="E1190" s="5"/>
@@ -41994,13 +42315,13 @@
     </row>
     <row r="1191" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1191" s="4" t="s">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="B1191" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1191" s="5" t="s">
-        <v>2022</v>
+        <v>2008</v>
       </c>
       <c r="D1191" s="9"/>
       <c r="E1191" s="5"/>
@@ -42016,13 +42337,13 @@
     </row>
     <row r="1192" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1192" s="4" t="s">
-        <v>2023</v>
+        <v>2009</v>
       </c>
       <c r="B1192" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1192" s="5" t="s">
-        <v>2024</v>
+        <v>2010</v>
       </c>
       <c r="D1192" s="9"/>
       <c r="E1192" s="5"/>
@@ -42038,13 +42359,13 @@
     </row>
     <row r="1193" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1193" s="4" t="s">
-        <v>2025</v>
+        <v>2011</v>
       </c>
       <c r="B1193" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1193" s="5" t="s">
-        <v>2026</v>
+        <v>2012</v>
       </c>
       <c r="D1193" s="9"/>
       <c r="E1193" s="5"/>
@@ -42060,13 +42381,13 @@
     </row>
     <row r="1194" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1194" s="4" t="s">
-        <v>2027</v>
+        <v>2013</v>
       </c>
       <c r="B1194" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1194" s="5" t="s">
-        <v>2028</v>
+        <v>2014</v>
       </c>
       <c r="D1194" s="9"/>
       <c r="E1194" s="5"/>
@@ -42082,13 +42403,13 @@
     </row>
     <row r="1195" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1195" s="4" t="s">
-        <v>2029</v>
+        <v>2015</v>
       </c>
       <c r="B1195" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1195" s="5" t="s">
-        <v>2030</v>
+        <v>2016</v>
       </c>
       <c r="D1195" s="9"/>
       <c r="E1195" s="5"/>
@@ -42104,13 +42425,13 @@
     </row>
     <row r="1196" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1196" s="4" t="s">
-        <v>2031</v>
+        <v>2017</v>
       </c>
       <c r="B1196" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1196" s="5" t="s">
-        <v>2032</v>
+        <v>2018</v>
       </c>
       <c r="D1196" s="9"/>
       <c r="E1196" s="5"/>
@@ -42126,13 +42447,13 @@
     </row>
     <row r="1197" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1197" s="4" t="s">
-        <v>2033</v>
+        <v>2019</v>
       </c>
       <c r="B1197" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1197" s="5" t="s">
-        <v>2034</v>
+        <v>2020</v>
       </c>
       <c r="D1197" s="9"/>
       <c r="E1197" s="5"/>
@@ -42146,15 +42467,15 @@
       <c r="M1197" s="5"/>
       <c r="N1197" s="10"/>
     </row>
-    <row r="1198" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1198" s="4" t="s">
-        <v>2035</v>
+        <v>2021</v>
       </c>
       <c r="B1198" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1198" s="5" t="s">
-        <v>2037</v>
+        <v>2022</v>
       </c>
       <c r="D1198" s="9"/>
       <c r="E1198" s="5"/>
@@ -42168,15 +42489,15 @@
       <c r="M1198" s="5"/>
       <c r="N1198" s="10"/>
     </row>
-    <row r="1199" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1199" s="4" t="s">
-        <v>2038</v>
+        <v>2023</v>
       </c>
       <c r="B1199" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1199" s="5" t="s">
-        <v>2039</v>
+        <v>2024</v>
       </c>
       <c r="D1199" s="9"/>
       <c r="E1199" s="5"/>
@@ -42190,15 +42511,15 @@
       <c r="M1199" s="5"/>
       <c r="N1199" s="10"/>
     </row>
-    <row r="1200" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1200" s="4" t="s">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="B1200" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1200" s="5" t="s">
-        <v>2041</v>
+        <v>2026</v>
       </c>
       <c r="D1200" s="9"/>
       <c r="E1200" s="5"/>
@@ -42212,15 +42533,15 @@
       <c r="M1200" s="5"/>
       <c r="N1200" s="10"/>
     </row>
-    <row r="1201" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1201" s="4" t="s">
-        <v>2042</v>
+        <v>2027</v>
       </c>
       <c r="B1201" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1201" s="5" t="s">
-        <v>2043</v>
+        <v>2028</v>
       </c>
       <c r="D1201" s="9"/>
       <c r="E1201" s="5"/>
@@ -42236,13 +42557,13 @@
     </row>
     <row r="1202" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1202" s="4" t="s">
-        <v>2044</v>
+        <v>2029</v>
       </c>
       <c r="B1202" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1202" s="5" t="s">
-        <v>1141</v>
+        <v>2030</v>
       </c>
       <c r="D1202" s="9"/>
       <c r="E1202" s="5"/>
@@ -42256,15 +42577,15 @@
       <c r="M1202" s="5"/>
       <c r="N1202" s="10"/>
     </row>
-    <row r="1203" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1203" s="4" t="s">
-        <v>2045</v>
+        <v>2031</v>
       </c>
       <c r="B1203" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1203" s="5" t="s">
-        <v>2046</v>
+        <v>2032</v>
       </c>
       <c r="D1203" s="9"/>
       <c r="E1203" s="5"/>
@@ -42278,15 +42599,15 @@
       <c r="M1203" s="5"/>
       <c r="N1203" s="10"/>
     </row>
-    <row r="1204" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1204" s="4" t="s">
-        <v>2047</v>
+        <v>2033</v>
       </c>
       <c r="B1204" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1204" s="5" t="s">
-        <v>2048</v>
+        <v>2034</v>
       </c>
       <c r="D1204" s="9"/>
       <c r="E1204" s="5"/>
@@ -42302,13 +42623,13 @@
     </row>
     <row r="1205" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1205" s="4" t="s">
-        <v>2049</v>
+        <v>2035</v>
       </c>
       <c r="B1205" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1205" s="5" t="s">
-        <v>2050</v>
+        <v>2037</v>
       </c>
       <c r="D1205" s="9"/>
       <c r="E1205" s="5"/>
@@ -42324,13 +42645,13 @@
     </row>
     <row r="1206" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1206" s="4" t="s">
-        <v>2051</v>
+        <v>2038</v>
       </c>
       <c r="B1206" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1206" s="5" t="s">
-        <v>1139</v>
+        <v>2039</v>
       </c>
       <c r="D1206" s="9"/>
       <c r="E1206" s="5"/>
@@ -42346,13 +42667,13 @@
     </row>
     <row r="1207" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1207" s="4" t="s">
-        <v>2052</v>
+        <v>2040</v>
       </c>
       <c r="B1207" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1207" s="5" t="s">
-        <v>2053</v>
+        <v>2041</v>
       </c>
       <c r="D1207" s="9"/>
       <c r="E1207" s="5"/>
@@ -42368,13 +42689,13 @@
     </row>
     <row r="1208" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1208" s="4" t="s">
-        <v>2054</v>
+        <v>2042</v>
       </c>
       <c r="B1208" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1208" s="5" t="s">
-        <v>2055</v>
+        <v>2043</v>
       </c>
       <c r="D1208" s="9"/>
       <c r="E1208" s="5"/>
@@ -42388,15 +42709,15 @@
       <c r="M1208" s="5"/>
       <c r="N1208" s="10"/>
     </row>
-    <row r="1209" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1209" s="4" t="s">
-        <v>2056</v>
+        <v>2044</v>
       </c>
       <c r="B1209" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1209" s="5" t="s">
-        <v>2046</v>
+        <v>1141</v>
       </c>
       <c r="D1209" s="9"/>
       <c r="E1209" s="5"/>
@@ -42412,13 +42733,13 @@
     </row>
     <row r="1210" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1210" s="4" t="s">
-        <v>2057</v>
+        <v>2045</v>
       </c>
       <c r="B1210" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1210" s="5" t="s">
-        <v>2058</v>
+        <v>2046</v>
       </c>
       <c r="D1210" s="9"/>
       <c r="E1210" s="5"/>
@@ -42434,13 +42755,13 @@
     </row>
     <row r="1211" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1211" s="4" t="s">
-        <v>2059</v>
+        <v>2047</v>
       </c>
       <c r="B1211" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1211" s="5" t="s">
-        <v>2060</v>
+        <v>2048</v>
       </c>
       <c r="D1211" s="9"/>
       <c r="E1211" s="5"/>
@@ -42456,13 +42777,13 @@
     </row>
     <row r="1212" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1212" s="4" t="s">
-        <v>2061</v>
+        <v>2049</v>
       </c>
       <c r="B1212" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1212" s="5" t="s">
-        <v>2062</v>
+        <v>2050</v>
       </c>
       <c r="D1212" s="9"/>
       <c r="E1212" s="5"/>
@@ -42478,13 +42799,13 @@
     </row>
     <row r="1213" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1213" s="4" t="s">
-        <v>2063</v>
+        <v>2051</v>
       </c>
       <c r="B1213" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1213" s="5" t="s">
-        <v>2064</v>
+        <v>1139</v>
       </c>
       <c r="D1213" s="9"/>
       <c r="E1213" s="5"/>
@@ -42500,13 +42821,13 @@
     </row>
     <row r="1214" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1214" s="4" t="s">
-        <v>2065</v>
+        <v>2052</v>
       </c>
       <c r="B1214" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1214" s="5" t="s">
-        <v>1127</v>
+        <v>2053</v>
       </c>
       <c r="D1214" s="9"/>
       <c r="E1214" s="5"/>
@@ -42522,13 +42843,13 @@
     </row>
     <row r="1215" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1215" s="4" t="s">
-        <v>2066</v>
+        <v>2054</v>
       </c>
       <c r="B1215" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1215" s="5" t="s">
-        <v>1131</v>
+        <v>2055</v>
       </c>
       <c r="D1215" s="9"/>
       <c r="E1215" s="5"/>
@@ -42544,13 +42865,13 @@
     </row>
     <row r="1216" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1216" s="4" t="s">
-        <v>2067</v>
+        <v>2056</v>
       </c>
       <c r="B1216" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1216" s="5" t="s">
-        <v>2068</v>
+        <v>2046</v>
       </c>
       <c r="D1216" s="9"/>
       <c r="E1216" s="5"/>
@@ -42564,15 +42885,15 @@
       <c r="M1216" s="5"/>
       <c r="N1216" s="10"/>
     </row>
-    <row r="1217" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1217" s="4" t="s">
-        <v>2069</v>
+        <v>2057</v>
       </c>
       <c r="B1217" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1217" s="5" t="s">
-        <v>2070</v>
+        <v>2058</v>
       </c>
       <c r="D1217" s="9"/>
       <c r="E1217" s="5"/>
@@ -42586,15 +42907,15 @@
       <c r="M1217" s="5"/>
       <c r="N1217" s="10"/>
     </row>
-    <row r="1218" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1218" s="4" t="s">
-        <v>2071</v>
+        <v>2059</v>
       </c>
       <c r="B1218" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1218" s="5" t="s">
-        <v>2073</v>
+        <v>2060</v>
       </c>
       <c r="D1218" s="9"/>
       <c r="E1218" s="5"/>
@@ -42608,15 +42929,15 @@
       <c r="M1218" s="5"/>
       <c r="N1218" s="10"/>
     </row>
-    <row r="1219" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1219" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1219" s="4" t="s">
-        <v>2074</v>
+        <v>2061</v>
       </c>
       <c r="B1219" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1219" s="5" t="s">
-        <v>2075</v>
+        <v>2062</v>
       </c>
       <c r="D1219" s="9"/>
       <c r="E1219" s="5"/>
@@ -42630,15 +42951,15 @@
       <c r="M1219" s="5"/>
       <c r="N1219" s="10"/>
     </row>
-    <row r="1220" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1220" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1220" s="4" t="s">
-        <v>2076</v>
+        <v>2063</v>
       </c>
       <c r="B1220" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1220" s="5" t="s">
-        <v>2077</v>
+        <v>2064</v>
       </c>
       <c r="D1220" s="9"/>
       <c r="E1220" s="5"/>
@@ -42652,15 +42973,15 @@
       <c r="M1220" s="5"/>
       <c r="N1220" s="10"/>
     </row>
-    <row r="1221" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1221" s="4" t="s">
-        <v>2078</v>
+        <v>2065</v>
       </c>
       <c r="B1221" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1221" s="5" t="s">
-        <v>2079</v>
+        <v>1127</v>
       </c>
       <c r="D1221" s="9"/>
       <c r="E1221" s="5"/>
@@ -42674,15 +42995,15 @@
       <c r="M1221" s="5"/>
       <c r="N1221" s="10"/>
     </row>
-    <row r="1222" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1222" s="4" t="s">
-        <v>2080</v>
+        <v>2066</v>
       </c>
       <c r="B1222" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1222" s="5" t="s">
-        <v>2081</v>
+        <v>1131</v>
       </c>
       <c r="D1222" s="9"/>
       <c r="E1222" s="5"/>
@@ -42696,15 +43017,15 @@
       <c r="M1222" s="5"/>
       <c r="N1222" s="10"/>
     </row>
-    <row r="1223" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1223" s="4" t="s">
-        <v>2082</v>
+        <v>2067</v>
       </c>
       <c r="B1223" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1223" s="5" t="s">
-        <v>2083</v>
+        <v>2068</v>
       </c>
       <c r="D1223" s="9"/>
       <c r="E1223" s="5"/>
@@ -42718,15 +43039,15 @@
       <c r="M1223" s="5"/>
       <c r="N1223" s="10"/>
     </row>
-    <row r="1224" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1224" s="4" t="s">
-        <v>2084</v>
+        <v>2069</v>
       </c>
       <c r="B1224" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1224" s="5" t="s">
-        <v>2085</v>
+        <v>2070</v>
       </c>
       <c r="D1224" s="9"/>
       <c r="E1224" s="5"/>
@@ -42740,15 +43061,15 @@
       <c r="M1224" s="5"/>
       <c r="N1224" s="10"/>
     </row>
-    <row r="1225" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1225" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1225" s="4" t="s">
-        <v>2086</v>
+        <v>2071</v>
       </c>
       <c r="B1225" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1225" s="5" t="s">
-        <v>2087</v>
+        <v>2073</v>
       </c>
       <c r="D1225" s="9"/>
       <c r="E1225" s="5"/>
@@ -42764,13 +43085,13 @@
     </row>
     <row r="1226" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1226" s="4" t="s">
-        <v>2088</v>
+        <v>2074</v>
       </c>
       <c r="B1226" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1226" s="5" t="s">
-        <v>2089</v>
+        <v>2075</v>
       </c>
       <c r="D1226" s="9"/>
       <c r="E1226" s="5"/>
@@ -42786,13 +43107,13 @@
     </row>
     <row r="1227" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1227" s="4" t="s">
-        <v>2090</v>
+        <v>2076</v>
       </c>
       <c r="B1227" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1227" s="5" t="s">
-        <v>2091</v>
+        <v>2077</v>
       </c>
       <c r="D1227" s="9"/>
       <c r="E1227" s="5"/>
@@ -42806,15 +43127,15 @@
       <c r="M1227" s="5"/>
       <c r="N1227" s="10"/>
     </row>
-    <row r="1228" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1228" s="4" t="s">
-        <v>2092</v>
+        <v>2078</v>
       </c>
       <c r="B1228" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1228" s="5" t="s">
-        <v>2093</v>
+        <v>2079</v>
       </c>
       <c r="D1228" s="9"/>
       <c r="E1228" s="5"/>
@@ -42830,13 +43151,13 @@
     </row>
     <row r="1229" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1229" s="4" t="s">
-        <v>2094</v>
+        <v>2080</v>
       </c>
       <c r="B1229" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1229" s="5" t="s">
-        <v>2095</v>
+        <v>2081</v>
       </c>
       <c r="D1229" s="9"/>
       <c r="E1229" s="5"/>
@@ -42850,15 +43171,15 @@
       <c r="M1229" s="5"/>
       <c r="N1229" s="10"/>
     </row>
-    <row r="1230" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1230" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1230" s="4" t="s">
-        <v>2096</v>
+        <v>2082</v>
       </c>
       <c r="B1230" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1230" s="5" t="s">
-        <v>2097</v>
+        <v>2083</v>
       </c>
       <c r="D1230" s="9"/>
       <c r="E1230" s="5"/>
@@ -42874,13 +43195,13 @@
     </row>
     <row r="1231" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1231" s="4" t="s">
-        <v>2098</v>
+        <v>2084</v>
       </c>
       <c r="B1231" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1231" s="5" t="s">
-        <v>2099</v>
+        <v>2085</v>
       </c>
       <c r="D1231" s="9"/>
       <c r="E1231" s="5"/>
@@ -42894,15 +43215,15 @@
       <c r="M1231" s="5"/>
       <c r="N1231" s="10"/>
     </row>
-    <row r="1232" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1232" s="4" t="s">
-        <v>2100</v>
+        <v>2086</v>
       </c>
       <c r="B1232" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1232" s="5" t="s">
-        <v>2101</v>
+        <v>2087</v>
       </c>
       <c r="D1232" s="9"/>
       <c r="E1232" s="5"/>
@@ -42918,13 +43239,13 @@
     </row>
     <row r="1233" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1233" s="4" t="s">
-        <v>2102</v>
+        <v>2088</v>
       </c>
       <c r="B1233" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1233" s="5" t="s">
-        <v>2103</v>
+        <v>2089</v>
       </c>
       <c r="D1233" s="9"/>
       <c r="E1233" s="5"/>
@@ -42940,13 +43261,13 @@
     </row>
     <row r="1234" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1234" s="4" t="s">
-        <v>2104</v>
+        <v>2090</v>
       </c>
       <c r="B1234" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1234" s="5" t="s">
-        <v>2105</v>
+        <v>2091</v>
       </c>
       <c r="D1234" s="9"/>
       <c r="E1234" s="5"/>
@@ -42962,13 +43283,13 @@
     </row>
     <row r="1235" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1235" s="4" t="s">
-        <v>2106</v>
+        <v>2092</v>
       </c>
       <c r="B1235" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1235" s="5" t="s">
-        <v>2107</v>
+        <v>2093</v>
       </c>
       <c r="D1235" s="9"/>
       <c r="E1235" s="5"/>
@@ -42984,13 +43305,13 @@
     </row>
     <row r="1236" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1236" s="4" t="s">
-        <v>2108</v>
+        <v>2094</v>
       </c>
       <c r="B1236" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1236" s="5" t="s">
-        <v>2109</v>
+        <v>2095</v>
       </c>
       <c r="D1236" s="9"/>
       <c r="E1236" s="5"/>
@@ -43006,13 +43327,13 @@
     </row>
     <row r="1237" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1237" s="4" t="s">
-        <v>2110</v>
+        <v>2096</v>
       </c>
       <c r="B1237" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1237" s="5" t="s">
-        <v>2111</v>
+        <v>2097</v>
       </c>
       <c r="D1237" s="9"/>
       <c r="E1237" s="5"/>
@@ -43026,15 +43347,15 @@
       <c r="M1237" s="5"/>
       <c r="N1237" s="10"/>
     </row>
-    <row r="1238" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1238" s="4" t="s">
-        <v>2112</v>
+        <v>2098</v>
       </c>
       <c r="B1238" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1238" s="5" t="s">
-        <v>2114</v>
+        <v>2099</v>
       </c>
       <c r="D1238" s="9"/>
       <c r="E1238" s="5"/>
@@ -43048,15 +43369,15 @@
       <c r="M1238" s="5"/>
       <c r="N1238" s="10"/>
     </row>
-    <row r="1239" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1239" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1239" s="4" t="s">
-        <v>2115</v>
+        <v>2100</v>
       </c>
       <c r="B1239" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1239" s="5" t="s">
-        <v>2116</v>
+        <v>2101</v>
       </c>
       <c r="D1239" s="9"/>
       <c r="E1239" s="5"/>
@@ -43070,15 +43391,15 @@
       <c r="M1239" s="5"/>
       <c r="N1239" s="10"/>
     </row>
-    <row r="1240" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1240" s="4" t="s">
-        <v>2117</v>
+        <v>2102</v>
       </c>
       <c r="B1240" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1240" s="5" t="s">
-        <v>2118</v>
+        <v>2103</v>
       </c>
       <c r="D1240" s="9"/>
       <c r="E1240" s="5"/>
@@ -43092,15 +43413,15 @@
       <c r="M1240" s="5"/>
       <c r="N1240" s="10"/>
     </row>
-    <row r="1241" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1241" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1241" s="4" t="s">
-        <v>2119</v>
+        <v>2104</v>
       </c>
       <c r="B1241" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1241" s="5" t="s">
-        <v>2120</v>
+        <v>2105</v>
       </c>
       <c r="D1241" s="9"/>
       <c r="E1241" s="5"/>
@@ -43114,15 +43435,15 @@
       <c r="M1241" s="5"/>
       <c r="N1241" s="10"/>
     </row>
-    <row r="1242" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1242" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1242" s="4" t="s">
-        <v>2121</v>
+        <v>2106</v>
       </c>
       <c r="B1242" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1242" s="5" t="s">
-        <v>2122</v>
+        <v>2107</v>
       </c>
       <c r="D1242" s="9"/>
       <c r="E1242" s="5"/>
@@ -43136,15 +43457,15 @@
       <c r="M1242" s="5"/>
       <c r="N1242" s="10"/>
     </row>
-    <row r="1243" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1243" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1243" s="4" t="s">
-        <v>2123</v>
+        <v>2108</v>
       </c>
       <c r="B1243" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1243" s="5" t="s">
-        <v>2124</v>
+        <v>2109</v>
       </c>
       <c r="D1243" s="9"/>
       <c r="E1243" s="5"/>
@@ -43158,15 +43479,15 @@
       <c r="M1243" s="5"/>
       <c r="N1243" s="10"/>
     </row>
-    <row r="1244" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="1244" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1244" s="4" t="s">
-        <v>2125</v>
+        <v>2110</v>
       </c>
       <c r="B1244" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1244" s="5" t="s">
-        <v>2122</v>
+        <v>2111</v>
       </c>
       <c r="D1244" s="9"/>
       <c r="E1244" s="5"/>
@@ -43182,13 +43503,13 @@
     </row>
     <row r="1245" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1245" s="4" t="s">
-        <v>2126</v>
+        <v>2112</v>
       </c>
       <c r="B1245" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1245" s="5" t="s">
-        <v>2127</v>
+        <v>2114</v>
       </c>
       <c r="D1245" s="9"/>
       <c r="E1245" s="5"/>
@@ -43204,13 +43525,13 @@
     </row>
     <row r="1246" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1246" s="4" t="s">
-        <v>2128</v>
+        <v>2115</v>
       </c>
       <c r="B1246" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1246" s="5" t="s">
-        <v>2129</v>
+        <v>2116</v>
       </c>
       <c r="D1246" s="9"/>
       <c r="E1246" s="5"/>
@@ -43226,13 +43547,13 @@
     </row>
     <row r="1247" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1247" s="4" t="s">
-        <v>2130</v>
+        <v>2117</v>
       </c>
       <c r="B1247" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1247" s="5" t="s">
-        <v>2131</v>
+        <v>2118</v>
       </c>
       <c r="D1247" s="9"/>
       <c r="E1247" s="5"/>
@@ -43248,13 +43569,13 @@
     </row>
     <row r="1248" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1248" s="4" t="s">
-        <v>2132</v>
+        <v>2119</v>
       </c>
       <c r="B1248" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1248" s="5" t="s">
-        <v>2133</v>
+        <v>2120</v>
       </c>
       <c r="D1248" s="9"/>
       <c r="E1248" s="5"/>
@@ -43270,13 +43591,13 @@
     </row>
     <row r="1249" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1249" s="4" t="s">
-        <v>2134</v>
+        <v>2121</v>
       </c>
       <c r="B1249" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1249" s="5" t="s">
-        <v>2135</v>
+        <v>2122</v>
       </c>
       <c r="D1249" s="9"/>
       <c r="E1249" s="5"/>
@@ -43292,13 +43613,13 @@
     </row>
     <row r="1250" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1250" s="4" t="s">
-        <v>2136</v>
+        <v>2123</v>
       </c>
       <c r="B1250" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1250" s="5" t="s">
-        <v>2137</v>
+        <v>2124</v>
       </c>
       <c r="D1250" s="9"/>
       <c r="E1250" s="5"/>
@@ -43314,13 +43635,13 @@
     </row>
     <row r="1251" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1251" s="4" t="s">
-        <v>2138</v>
+        <v>2125</v>
       </c>
       <c r="B1251" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1251" s="5" t="s">
-        <v>2139</v>
+        <v>2122</v>
       </c>
       <c r="D1251" s="9"/>
       <c r="E1251" s="5"/>
@@ -43336,13 +43657,13 @@
     </row>
     <row r="1252" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1252" s="4" t="s">
-        <v>2140</v>
+        <v>2126</v>
       </c>
       <c r="B1252" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1252" s="5" t="s">
-        <v>2135</v>
+        <v>2127</v>
       </c>
       <c r="D1252" s="9"/>
       <c r="E1252" s="5"/>
@@ -43358,13 +43679,13 @@
     </row>
     <row r="1253" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1253" s="4" t="s">
-        <v>2141</v>
+        <v>2128</v>
       </c>
       <c r="B1253" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1253" s="5" t="s">
-        <v>2142</v>
+        <v>2129</v>
       </c>
       <c r="D1253" s="9"/>
       <c r="E1253" s="5"/>
@@ -43380,13 +43701,13 @@
     </row>
     <row r="1254" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1254" s="4" t="s">
-        <v>2143</v>
+        <v>2130</v>
       </c>
       <c r="B1254" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1254" s="5" t="s">
-        <v>2144</v>
+        <v>2131</v>
       </c>
       <c r="D1254" s="9"/>
       <c r="E1254" s="5"/>
@@ -43402,13 +43723,13 @@
     </row>
     <row r="1255" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1255" s="4" t="s">
-        <v>2145</v>
+        <v>2132</v>
       </c>
       <c r="B1255" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1255" s="5" t="s">
-        <v>2146</v>
+        <v>2133</v>
       </c>
       <c r="D1255" s="9"/>
       <c r="E1255" s="5"/>
@@ -43424,13 +43745,13 @@
     </row>
     <row r="1256" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1256" s="4" t="s">
-        <v>2147</v>
+        <v>2134</v>
       </c>
       <c r="B1256" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1256" s="5" t="s">
-        <v>2148</v>
+        <v>2135</v>
       </c>
       <c r="D1256" s="9"/>
       <c r="E1256" s="5"/>
@@ -43446,7 +43767,7 @@
     </row>
     <row r="1257" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1257" s="4" t="s">
-        <v>2149</v>
+        <v>2136</v>
       </c>
       <c r="B1257" s="5" t="s">
         <v>2113</v>
@@ -43466,15 +43787,15 @@
       <c r="M1257" s="5"/>
       <c r="N1257" s="10"/>
     </row>
-    <row r="1258" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1258" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1258" s="4" t="s">
-        <v>2150</v>
+        <v>2138</v>
       </c>
       <c r="B1258" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1258" s="5" t="s">
-        <v>2152</v>
+        <v>2139</v>
       </c>
       <c r="D1258" s="9"/>
       <c r="E1258" s="5"/>
@@ -43488,15 +43809,15 @@
       <c r="M1258" s="5"/>
       <c r="N1258" s="10"/>
     </row>
-    <row r="1259" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1259" s="4" t="s">
-        <v>2153</v>
+        <v>2140</v>
       </c>
       <c r="B1259" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1259" s="5" t="s">
-        <v>2154</v>
+        <v>2135</v>
       </c>
       <c r="D1259" s="9"/>
       <c r="E1259" s="5"/>
@@ -43510,15 +43831,15 @@
       <c r="M1259" s="5"/>
       <c r="N1259" s="10"/>
     </row>
-    <row r="1260" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1260" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1260" s="4" t="s">
-        <v>2155</v>
+        <v>2141</v>
       </c>
       <c r="B1260" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1260" s="5" t="s">
-        <v>2156</v>
+        <v>2142</v>
       </c>
       <c r="D1260" s="9"/>
       <c r="E1260" s="5"/>
@@ -43532,15 +43853,15 @@
       <c r="M1260" s="5"/>
       <c r="N1260" s="10"/>
     </row>
-    <row r="1261" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1261" s="4" t="s">
-        <v>2157</v>
+        <v>2143</v>
       </c>
       <c r="B1261" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1261" s="5" t="s">
-        <v>2158</v>
+        <v>2144</v>
       </c>
       <c r="D1261" s="9"/>
       <c r="E1261" s="5"/>
@@ -43554,15 +43875,15 @@
       <c r="M1261" s="5"/>
       <c r="N1261" s="10"/>
     </row>
-    <row r="1262" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1262" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1262" s="4" t="s">
-        <v>2159</v>
+        <v>2145</v>
       </c>
       <c r="B1262" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1262" s="5" t="s">
-        <v>2160</v>
+        <v>2146</v>
       </c>
       <c r="D1262" s="9"/>
       <c r="E1262" s="5"/>
@@ -43576,15 +43897,15 @@
       <c r="M1262" s="5"/>
       <c r="N1262" s="10"/>
     </row>
-    <row r="1263" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1263" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1263" s="4" t="s">
-        <v>2161</v>
+        <v>2147</v>
       </c>
       <c r="B1263" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1263" s="5" t="s">
-        <v>2162</v>
+        <v>2148</v>
       </c>
       <c r="D1263" s="9"/>
       <c r="E1263" s="5"/>
@@ -43598,15 +43919,15 @@
       <c r="M1263" s="5"/>
       <c r="N1263" s="10"/>
     </row>
-    <row r="1264" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1264" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A1264" s="4" t="s">
-        <v>2163</v>
+        <v>2149</v>
       </c>
       <c r="B1264" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1264" s="5" t="s">
-        <v>2164</v>
+        <v>2137</v>
       </c>
       <c r="D1264" s="9"/>
       <c r="E1264" s="5"/>
@@ -43622,13 +43943,13 @@
     </row>
     <row r="1265" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1265" s="4" t="s">
-        <v>2165</v>
+        <v>2150</v>
       </c>
       <c r="B1265" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1265" s="5" t="s">
-        <v>2166</v>
+        <v>2152</v>
       </c>
       <c r="D1265" s="9"/>
       <c r="E1265" s="5"/>
@@ -43644,13 +43965,13 @@
     </row>
     <row r="1266" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1266" s="4" t="s">
-        <v>2167</v>
+        <v>2153</v>
       </c>
       <c r="B1266" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1266" s="5" t="s">
-        <v>2168</v>
+        <v>2154</v>
       </c>
       <c r="D1266" s="9"/>
       <c r="E1266" s="5"/>
@@ -43666,13 +43987,13 @@
     </row>
     <row r="1267" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1267" s="4" t="s">
-        <v>2169</v>
+        <v>2155</v>
       </c>
       <c r="B1267" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1267" s="5" t="s">
-        <v>2170</v>
+        <v>2156</v>
       </c>
       <c r="D1267" s="9"/>
       <c r="E1267" s="5"/>
@@ -43688,13 +44009,13 @@
     </row>
     <row r="1268" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1268" s="4" t="s">
-        <v>2171</v>
+        <v>2157</v>
       </c>
       <c r="B1268" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1268" s="5" t="s">
-        <v>2172</v>
+        <v>2158</v>
       </c>
       <c r="D1268" s="9"/>
       <c r="E1268" s="5"/>
@@ -43710,13 +44031,13 @@
     </row>
     <row r="1269" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1269" s="4" t="s">
-        <v>2173</v>
+        <v>2159</v>
       </c>
       <c r="B1269" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1269" s="5" t="s">
-        <v>2174</v>
+        <v>2160</v>
       </c>
       <c r="D1269" s="9"/>
       <c r="E1269" s="5"/>
@@ -43732,13 +44053,13 @@
     </row>
     <row r="1270" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1270" s="4" t="s">
-        <v>2175</v>
+        <v>2161</v>
       </c>
       <c r="B1270" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1270" s="5" t="s">
-        <v>2176</v>
+        <v>2162</v>
       </c>
       <c r="D1270" s="9"/>
       <c r="E1270" s="5"/>
@@ -43754,13 +44075,13 @@
     </row>
     <row r="1271" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1271" s="4" t="s">
-        <v>2177</v>
+        <v>2163</v>
       </c>
       <c r="B1271" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1271" s="5" t="s">
-        <v>2178</v>
+        <v>2164</v>
       </c>
       <c r="D1271" s="9"/>
       <c r="E1271" s="5"/>
@@ -43776,13 +44097,13 @@
     </row>
     <row r="1272" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1272" s="4" t="s">
-        <v>2179</v>
+        <v>2165</v>
       </c>
       <c r="B1272" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1272" s="5" t="s">
-        <v>2180</v>
+        <v>2166</v>
       </c>
       <c r="D1272" s="9"/>
       <c r="E1272" s="5"/>
@@ -43798,13 +44119,13 @@
     </row>
     <row r="1273" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1273" s="4" t="s">
-        <v>2181</v>
+        <v>2167</v>
       </c>
       <c r="B1273" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1273" s="5" t="s">
-        <v>2182</v>
+        <v>2168</v>
       </c>
       <c r="D1273" s="9"/>
       <c r="E1273" s="5"/>
@@ -43820,13 +44141,13 @@
     </row>
     <row r="1274" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1274" s="4" t="s">
-        <v>2183</v>
+        <v>2169</v>
       </c>
       <c r="B1274" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1274" s="5" t="s">
-        <v>2184</v>
+        <v>2170</v>
       </c>
       <c r="D1274" s="9"/>
       <c r="E1274" s="5"/>
@@ -43842,13 +44163,13 @@
     </row>
     <row r="1275" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1275" s="4" t="s">
-        <v>2185</v>
+        <v>2171</v>
       </c>
       <c r="B1275" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1275" s="5" t="s">
-        <v>2186</v>
+        <v>2172</v>
       </c>
       <c r="D1275" s="9"/>
       <c r="E1275" s="5"/>
@@ -43864,13 +44185,13 @@
     </row>
     <row r="1276" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1276" s="4" t="s">
-        <v>2187</v>
+        <v>2173</v>
       </c>
       <c r="B1276" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1276" s="5" t="s">
-        <v>2188</v>
+        <v>2174</v>
       </c>
       <c r="D1276" s="9"/>
       <c r="E1276" s="5"/>
@@ -43886,13 +44207,13 @@
     </row>
     <row r="1277" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1277" s="4" t="s">
-        <v>2189</v>
+        <v>2175</v>
       </c>
       <c r="B1277" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1277" s="5" t="s">
-        <v>2190</v>
+        <v>2176</v>
       </c>
       <c r="D1277" s="9"/>
       <c r="E1277" s="5"/>
@@ -43908,13 +44229,13 @@
     </row>
     <row r="1278" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1278" s="4" t="s">
-        <v>2191</v>
+        <v>2177</v>
       </c>
       <c r="B1278" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1278" s="5" t="s">
-        <v>2193</v>
+        <v>2178</v>
       </c>
       <c r="D1278" s="9"/>
       <c r="E1278" s="5"/>
@@ -43930,13 +44251,13 @@
     </row>
     <row r="1279" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1279" s="4" t="s">
-        <v>2194</v>
+        <v>2179</v>
       </c>
       <c r="B1279" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1279" s="5" t="s">
-        <v>2195</v>
+        <v>2180</v>
       </c>
       <c r="D1279" s="9"/>
       <c r="E1279" s="5"/>
@@ -43952,13 +44273,13 @@
     </row>
     <row r="1280" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1280" s="4" t="s">
-        <v>2196</v>
+        <v>2181</v>
       </c>
       <c r="B1280" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1280" s="5" t="s">
-        <v>2197</v>
+        <v>2182</v>
       </c>
       <c r="D1280" s="9"/>
       <c r="E1280" s="5"/>
@@ -43974,13 +44295,13 @@
     </row>
     <row r="1281" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1281" s="4" t="s">
-        <v>2198</v>
+        <v>2183</v>
       </c>
       <c r="B1281" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1281" s="5" t="s">
-        <v>2199</v>
+        <v>2184</v>
       </c>
       <c r="D1281" s="9"/>
       <c r="E1281" s="5"/>
@@ -43996,13 +44317,13 @@
     </row>
     <row r="1282" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1282" s="4" t="s">
-        <v>2200</v>
+        <v>2185</v>
       </c>
       <c r="B1282" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1282" s="5" t="s">
-        <v>2201</v>
+        <v>2186</v>
       </c>
       <c r="D1282" s="9"/>
       <c r="E1282" s="5"/>
@@ -44018,13 +44339,13 @@
     </row>
     <row r="1283" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1283" s="4" t="s">
-        <v>2202</v>
+        <v>2187</v>
       </c>
       <c r="B1283" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1283" s="5" t="s">
-        <v>2203</v>
+        <v>2188</v>
       </c>
       <c r="D1283" s="9"/>
       <c r="E1283" s="5"/>
@@ -44040,13 +44361,13 @@
     </row>
     <row r="1284" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1284" s="4" t="s">
-        <v>2204</v>
+        <v>2189</v>
       </c>
       <c r="B1284" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1284" s="5" t="s">
-        <v>2205</v>
+        <v>2190</v>
       </c>
       <c r="D1284" s="9"/>
       <c r="E1284" s="5"/>
@@ -44062,13 +44383,13 @@
     </row>
     <row r="1285" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1285" s="4" t="s">
-        <v>2206</v>
+        <v>2191</v>
       </c>
       <c r="B1285" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1285" s="5" t="s">
-        <v>2207</v>
+        <v>2193</v>
       </c>
       <c r="D1285" s="9"/>
       <c r="E1285" s="5"/>
@@ -44084,13 +44405,13 @@
     </row>
     <row r="1286" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1286" s="4" t="s">
-        <v>2208</v>
+        <v>2194</v>
       </c>
       <c r="B1286" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1286" s="5" t="s">
-        <v>2209</v>
+        <v>2195</v>
       </c>
       <c r="D1286" s="9"/>
       <c r="E1286" s="5"/>
@@ -44106,13 +44427,13 @@
     </row>
     <row r="1287" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1287" s="4" t="s">
-        <v>2210</v>
+        <v>2196</v>
       </c>
       <c r="B1287" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1287" s="5" t="s">
-        <v>2211</v>
+        <v>2197</v>
       </c>
       <c r="D1287" s="9"/>
       <c r="E1287" s="5"/>
@@ -44128,13 +44449,13 @@
     </row>
     <row r="1288" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1288" s="4" t="s">
-        <v>2212</v>
+        <v>2198</v>
       </c>
       <c r="B1288" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1288" s="5" t="s">
-        <v>2213</v>
+        <v>2199</v>
       </c>
       <c r="D1288" s="9"/>
       <c r="E1288" s="5"/>
@@ -44150,13 +44471,13 @@
     </row>
     <row r="1289" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1289" s="4" t="s">
-        <v>2214</v>
+        <v>2200</v>
       </c>
       <c r="B1289" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1289" s="5" t="s">
-        <v>2215</v>
+        <v>2201</v>
       </c>
       <c r="D1289" s="9"/>
       <c r="E1289" s="5"/>
@@ -44172,13 +44493,13 @@
     </row>
     <row r="1290" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1290" s="4" t="s">
-        <v>2216</v>
+        <v>2202</v>
       </c>
       <c r="B1290" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1290" s="5" t="s">
-        <v>2217</v>
+        <v>2203</v>
       </c>
       <c r="D1290" s="9"/>
       <c r="E1290" s="5"/>
@@ -44194,13 +44515,13 @@
     </row>
     <row r="1291" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1291" s="4" t="s">
-        <v>2218</v>
+        <v>2204</v>
       </c>
       <c r="B1291" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1291" s="5" t="s">
-        <v>2219</v>
+        <v>2205</v>
       </c>
       <c r="D1291" s="9"/>
       <c r="E1291" s="5"/>
@@ -44216,13 +44537,13 @@
     </row>
     <row r="1292" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1292" s="4" t="s">
-        <v>2220</v>
+        <v>2206</v>
       </c>
       <c r="B1292" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1292" s="5" t="s">
-        <v>2221</v>
+        <v>2207</v>
       </c>
       <c r="D1292" s="9"/>
       <c r="E1292" s="5"/>
@@ -44238,13 +44559,13 @@
     </row>
     <row r="1293" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1293" s="4" t="s">
-        <v>2222</v>
+        <v>2208</v>
       </c>
       <c r="B1293" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1293" s="5" t="s">
-        <v>2223</v>
+        <v>2209</v>
       </c>
       <c r="D1293" s="9"/>
       <c r="E1293" s="5"/>
@@ -44260,13 +44581,13 @@
     </row>
     <row r="1294" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1294" s="4" t="s">
-        <v>2224</v>
+        <v>2210</v>
       </c>
       <c r="B1294" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1294" s="5" t="s">
-        <v>2225</v>
+        <v>2211</v>
       </c>
       <c r="D1294" s="9"/>
       <c r="E1294" s="5"/>
@@ -44282,13 +44603,13 @@
     </row>
     <row r="1295" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1295" s="4" t="s">
-        <v>2226</v>
+        <v>2212</v>
       </c>
       <c r="B1295" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1295" s="5" t="s">
-        <v>2227</v>
+        <v>2213</v>
       </c>
       <c r="D1295" s="9"/>
       <c r="E1295" s="5"/>
@@ -44304,13 +44625,13 @@
     </row>
     <row r="1296" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1296" s="4" t="s">
-        <v>2228</v>
+        <v>2214</v>
       </c>
       <c r="B1296" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1296" s="5" t="s">
-        <v>2229</v>
+        <v>2215</v>
       </c>
       <c r="D1296" s="9"/>
       <c r="E1296" s="5"/>
@@ -44326,13 +44647,13 @@
     </row>
     <row r="1297" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1297" s="4" t="s">
-        <v>2230</v>
+        <v>2216</v>
       </c>
       <c r="B1297" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1297" s="5" t="s">
-        <v>2231</v>
+        <v>2217</v>
       </c>
       <c r="D1297" s="9"/>
       <c r="E1297" s="5"/>
@@ -44348,13 +44669,13 @@
     </row>
     <row r="1298" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1298" s="4" t="s">
-        <v>2232</v>
+        <v>2218</v>
       </c>
       <c r="B1298" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1298" s="5" t="s">
-        <v>2234</v>
+        <v>2219</v>
       </c>
       <c r="D1298" s="9"/>
       <c r="E1298" s="5"/>
@@ -44370,13 +44691,13 @@
     </row>
     <row r="1299" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1299" s="4" t="s">
-        <v>2235</v>
+        <v>2220</v>
       </c>
       <c r="B1299" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1299" s="5" t="s">
-        <v>2236</v>
+        <v>2221</v>
       </c>
       <c r="D1299" s="9"/>
       <c r="E1299" s="5"/>
@@ -44392,13 +44713,13 @@
     </row>
     <row r="1300" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1300" s="4" t="s">
-        <v>2237</v>
+        <v>2222</v>
       </c>
       <c r="B1300" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1300" s="5" t="s">
-        <v>2238</v>
+        <v>2223</v>
       </c>
       <c r="D1300" s="9"/>
       <c r="E1300" s="5"/>
@@ -44414,13 +44735,13 @@
     </row>
     <row r="1301" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1301" s="4" t="s">
-        <v>2239</v>
+        <v>2224</v>
       </c>
       <c r="B1301" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1301" s="5" t="s">
-        <v>2240</v>
+        <v>2225</v>
       </c>
       <c r="D1301" s="9"/>
       <c r="E1301" s="5"/>
@@ -44436,13 +44757,13 @@
     </row>
     <row r="1302" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1302" s="4" t="s">
-        <v>2241</v>
+        <v>2226</v>
       </c>
       <c r="B1302" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1302" s="5" t="s">
-        <v>2242</v>
+        <v>2227</v>
       </c>
       <c r="D1302" s="9"/>
       <c r="E1302" s="5"/>
@@ -44458,13 +44779,13 @@
     </row>
     <row r="1303" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1303" s="4" t="s">
-        <v>2243</v>
+        <v>2228</v>
       </c>
       <c r="B1303" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1303" s="5" t="s">
-        <v>2244</v>
+        <v>2229</v>
       </c>
       <c r="D1303" s="9"/>
       <c r="E1303" s="5"/>
@@ -44480,13 +44801,13 @@
     </row>
     <row r="1304" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1304" s="4" t="s">
-        <v>2245</v>
+        <v>2230</v>
       </c>
       <c r="B1304" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1304" s="5" t="s">
-        <v>2246</v>
+        <v>2231</v>
       </c>
       <c r="D1304" s="9"/>
       <c r="E1304" s="5"/>
@@ -44502,13 +44823,13 @@
     </row>
     <row r="1305" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1305" s="4" t="s">
-        <v>2247</v>
+        <v>2232</v>
       </c>
       <c r="B1305" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1305" s="5" t="s">
-        <v>2248</v>
+        <v>2234</v>
       </c>
       <c r="D1305" s="9"/>
       <c r="E1305" s="5"/>
@@ -44524,13 +44845,13 @@
     </row>
     <row r="1306" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1306" s="4" t="s">
-        <v>2249</v>
+        <v>2235</v>
       </c>
       <c r="B1306" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1306" s="5" t="s">
-        <v>2250</v>
+        <v>2236</v>
       </c>
       <c r="D1306" s="9"/>
       <c r="E1306" s="5"/>
@@ -44546,13 +44867,13 @@
     </row>
     <row r="1307" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1307" s="4" t="s">
-        <v>2251</v>
+        <v>2237</v>
       </c>
       <c r="B1307" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1307" s="5" t="s">
-        <v>2252</v>
+        <v>2238</v>
       </c>
       <c r="D1307" s="9"/>
       <c r="E1307" s="5"/>
@@ -44568,13 +44889,13 @@
     </row>
     <row r="1308" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1308" s="4" t="s">
-        <v>2253</v>
+        <v>2239</v>
       </c>
       <c r="B1308" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1308" s="5" t="s">
-        <v>2254</v>
+        <v>2240</v>
       </c>
       <c r="D1308" s="9"/>
       <c r="E1308" s="5"/>
@@ -44590,13 +44911,13 @@
     </row>
     <row r="1309" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1309" s="4" t="s">
-        <v>2255</v>
+        <v>2241</v>
       </c>
       <c r="B1309" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1309" s="5" t="s">
-        <v>2256</v>
+        <v>2242</v>
       </c>
       <c r="D1309" s="9"/>
       <c r="E1309" s="5"/>
@@ -44612,13 +44933,13 @@
     </row>
     <row r="1310" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1310" s="4" t="s">
-        <v>2257</v>
+        <v>2243</v>
       </c>
       <c r="B1310" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1310" s="5" t="s">
-        <v>2258</v>
+        <v>2244</v>
       </c>
       <c r="D1310" s="9"/>
       <c r="E1310" s="5"/>
@@ -44634,13 +44955,13 @@
     </row>
     <row r="1311" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1311" s="4" t="s">
-        <v>2259</v>
+        <v>2245</v>
       </c>
       <c r="B1311" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1311" s="5" t="s">
-        <v>2260</v>
+        <v>2246</v>
       </c>
       <c r="D1311" s="9"/>
       <c r="E1311" s="5"/>
@@ -44656,13 +44977,13 @@
     </row>
     <row r="1312" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1312" s="4" t="s">
-        <v>2261</v>
+        <v>2247</v>
       </c>
       <c r="B1312" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1312" s="5" t="s">
-        <v>2262</v>
+        <v>2248</v>
       </c>
       <c r="D1312" s="9"/>
       <c r="E1312" s="5"/>
@@ -44678,13 +44999,13 @@
     </row>
     <row r="1313" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1313" s="4" t="s">
-        <v>2263</v>
+        <v>2249</v>
       </c>
       <c r="B1313" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1313" s="5" t="s">
-        <v>2264</v>
+        <v>2250</v>
       </c>
       <c r="D1313" s="9"/>
       <c r="E1313" s="5"/>
@@ -44700,13 +45021,13 @@
     </row>
     <row r="1314" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1314" s="4" t="s">
-        <v>2265</v>
+        <v>2251</v>
       </c>
       <c r="B1314" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1314" s="5" t="s">
-        <v>2266</v>
+        <v>2252</v>
       </c>
       <c r="D1314" s="9"/>
       <c r="E1314" s="5"/>
@@ -44722,13 +45043,13 @@
     </row>
     <row r="1315" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1315" s="4" t="s">
-        <v>2267</v>
+        <v>2253</v>
       </c>
       <c r="B1315" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1315" s="5" t="s">
-        <v>2268</v>
+        <v>2254</v>
       </c>
       <c r="D1315" s="9"/>
       <c r="E1315" s="5"/>
@@ -44744,13 +45065,13 @@
     </row>
     <row r="1316" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1316" s="4" t="s">
-        <v>2269</v>
+        <v>2255</v>
       </c>
       <c r="B1316" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1316" s="5" t="s">
-        <v>2270</v>
+        <v>2256</v>
       </c>
       <c r="D1316" s="9"/>
       <c r="E1316" s="5"/>
@@ -44766,13 +45087,13 @@
     </row>
     <row r="1317" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1317" s="4" t="s">
-        <v>2271</v>
+        <v>2257</v>
       </c>
       <c r="B1317" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1317" s="5" t="s">
-        <v>2272</v>
+        <v>2258</v>
       </c>
       <c r="D1317" s="9"/>
       <c r="E1317" s="5"/>
@@ -44786,15 +45107,15 @@
       <c r="M1317" s="5"/>
       <c r="N1317" s="10"/>
     </row>
-    <row r="1318" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1318" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1318" s="4" t="s">
-        <v>2273</v>
+        <v>2259</v>
       </c>
       <c r="B1318" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1318" s="5" t="s">
-        <v>2275</v>
+        <v>2260</v>
       </c>
       <c r="D1318" s="9"/>
       <c r="E1318" s="5"/>
@@ -44808,15 +45129,15 @@
       <c r="M1318" s="5"/>
       <c r="N1318" s="10"/>
     </row>
-    <row r="1319" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1319" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1319" s="4" t="s">
-        <v>2276</v>
+        <v>2261</v>
       </c>
       <c r="B1319" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1319" s="5" t="s">
-        <v>2277</v>
+        <v>2262</v>
       </c>
       <c r="D1319" s="9"/>
       <c r="E1319" s="5"/>
@@ -44830,15 +45151,15 @@
       <c r="M1319" s="5"/>
       <c r="N1319" s="10"/>
     </row>
-    <row r="1320" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1320" s="4" t="s">
-        <v>2278</v>
+        <v>2263</v>
       </c>
       <c r="B1320" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1320" s="5" t="s">
-        <v>2279</v>
+        <v>2264</v>
       </c>
       <c r="D1320" s="9"/>
       <c r="E1320" s="5"/>
@@ -44852,15 +45173,15 @@
       <c r="M1320" s="5"/>
       <c r="N1320" s="10"/>
     </row>
-    <row r="1321" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1321" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1321" s="4" t="s">
-        <v>2280</v>
+        <v>2265</v>
       </c>
       <c r="B1321" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1321" s="5" t="s">
-        <v>2281</v>
+        <v>2266</v>
       </c>
       <c r="D1321" s="9"/>
       <c r="E1321" s="5"/>
@@ -44874,15 +45195,15 @@
       <c r="M1321" s="5"/>
       <c r="N1321" s="10"/>
     </row>
-    <row r="1322" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1322" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1322" s="4" t="s">
-        <v>2282</v>
+        <v>2267</v>
       </c>
       <c r="B1322" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1322" s="5" t="s">
-        <v>2283</v>
+        <v>2268</v>
       </c>
       <c r="D1322" s="9"/>
       <c r="E1322" s="5"/>
@@ -44896,15 +45217,15 @@
       <c r="M1322" s="5"/>
       <c r="N1322" s="10"/>
     </row>
-    <row r="1323" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1323" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1323" s="4" t="s">
-        <v>2284</v>
+        <v>2269</v>
       </c>
       <c r="B1323" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1323" s="5" t="s">
-        <v>2285</v>
+        <v>2270</v>
       </c>
       <c r="D1323" s="9"/>
       <c r="E1323" s="5"/>
@@ -44918,15 +45239,15 @@
       <c r="M1323" s="5"/>
       <c r="N1323" s="10"/>
     </row>
-    <row r="1324" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1324" s="4" t="s">
-        <v>2286</v>
+        <v>2271</v>
       </c>
       <c r="B1324" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1324" s="5" t="s">
-        <v>2287</v>
+        <v>2272</v>
       </c>
       <c r="D1324" s="9"/>
       <c r="E1324" s="5"/>
@@ -44940,15 +45261,15 @@
       <c r="M1324" s="5"/>
       <c r="N1324" s="10"/>
     </row>
-    <row r="1325" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1325" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1325" s="4" t="s">
-        <v>2288</v>
+        <v>2273</v>
       </c>
       <c r="B1325" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1325" s="5" t="s">
-        <v>2289</v>
+        <v>2275</v>
       </c>
       <c r="D1325" s="9"/>
       <c r="E1325" s="5"/>
@@ -44964,13 +45285,13 @@
     </row>
     <row r="1326" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1326" s="4" t="s">
-        <v>2290</v>
+        <v>2276</v>
       </c>
       <c r="B1326" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1326" s="5" t="s">
-        <v>2291</v>
+        <v>2277</v>
       </c>
       <c r="D1326" s="9"/>
       <c r="E1326" s="5"/>
@@ -44984,15 +45305,15 @@
       <c r="M1326" s="5"/>
       <c r="N1326" s="10"/>
     </row>
-    <row r="1327" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1327" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1327" s="4" t="s">
-        <v>2292</v>
+        <v>2278</v>
       </c>
       <c r="B1327" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1327" s="5" t="s">
-        <v>2293</v>
+        <v>2279</v>
       </c>
       <c r="D1327" s="9"/>
       <c r="E1327" s="5"/>
@@ -45008,13 +45329,13 @@
     </row>
     <row r="1328" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1328" s="4" t="s">
-        <v>2294</v>
+        <v>2280</v>
       </c>
       <c r="B1328" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1328" s="5" t="s">
-        <v>2295</v>
+        <v>2281</v>
       </c>
       <c r="D1328" s="9"/>
       <c r="E1328" s="5"/>
@@ -45030,13 +45351,13 @@
     </row>
     <row r="1329" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1329" s="4" t="s">
-        <v>2296</v>
+        <v>2282</v>
       </c>
       <c r="B1329" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1329" s="5" t="s">
-        <v>2297</v>
+        <v>2283</v>
       </c>
       <c r="D1329" s="9"/>
       <c r="E1329" s="5"/>
@@ -45052,13 +45373,13 @@
     </row>
     <row r="1330" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1330" s="4" t="s">
-        <v>2298</v>
+        <v>2284</v>
       </c>
       <c r="B1330" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1330" s="5" t="s">
-        <v>2299</v>
+        <v>2285</v>
       </c>
       <c r="D1330" s="9"/>
       <c r="E1330" s="5"/>
@@ -45074,13 +45395,13 @@
     </row>
     <row r="1331" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1331" s="4" t="s">
-        <v>2300</v>
+        <v>2286</v>
       </c>
       <c r="B1331" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1331" s="5" t="s">
-        <v>2301</v>
+        <v>2287</v>
       </c>
       <c r="D1331" s="9"/>
       <c r="E1331" s="5"/>
@@ -45094,15 +45415,15 @@
       <c r="M1331" s="5"/>
       <c r="N1331" s="10"/>
     </row>
-    <row r="1332" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1332" s="4" t="s">
-        <v>2302</v>
+        <v>2288</v>
       </c>
       <c r="B1332" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1332" s="5" t="s">
-        <v>2303</v>
+        <v>2289</v>
       </c>
       <c r="D1332" s="9"/>
       <c r="E1332" s="5"/>
@@ -45116,15 +45437,15 @@
       <c r="M1332" s="5"/>
       <c r="N1332" s="10"/>
     </row>
-    <row r="1333" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1333" s="4" t="s">
-        <v>2304</v>
+        <v>2290</v>
       </c>
       <c r="B1333" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1333" s="5" t="s">
-        <v>2305</v>
+        <v>2291</v>
       </c>
       <c r="D1333" s="9"/>
       <c r="E1333" s="5"/>
@@ -45138,15 +45459,15 @@
       <c r="M1333" s="5"/>
       <c r="N1333" s="10"/>
     </row>
-    <row r="1334" spans="1:14" ht="54" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1334" s="4" t="s">
-        <v>2306</v>
+        <v>2292</v>
       </c>
       <c r="B1334" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1334" s="5" t="s">
-        <v>2307</v>
+        <v>2293</v>
       </c>
       <c r="D1334" s="9"/>
       <c r="E1334" s="5"/>
@@ -45162,13 +45483,13 @@
     </row>
     <row r="1335" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1335" s="4" t="s">
-        <v>2308</v>
+        <v>2294</v>
       </c>
       <c r="B1335" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1335" s="5" t="s">
-        <v>2309</v>
+        <v>2295</v>
       </c>
       <c r="D1335" s="9"/>
       <c r="E1335" s="5"/>
@@ -45184,13 +45505,13 @@
     </row>
     <row r="1336" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1336" s="4" t="s">
-        <v>2310</v>
+        <v>2296</v>
       </c>
       <c r="B1336" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1336" s="5" t="s">
-        <v>2311</v>
+        <v>2297</v>
       </c>
       <c r="D1336" s="9"/>
       <c r="E1336" s="5"/>
@@ -45206,13 +45527,13 @@
     </row>
     <row r="1337" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1337" s="4" t="s">
-        <v>2312</v>
+        <v>2298</v>
       </c>
       <c r="B1337" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1337" s="5" t="s">
-        <v>2313</v>
+        <v>2299</v>
       </c>
       <c r="D1337" s="9"/>
       <c r="E1337" s="5"/>
@@ -45226,15 +45547,15 @@
       <c r="M1337" s="5"/>
       <c r="N1337" s="10"/>
     </row>
-    <row r="1338" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1338" s="4" t="s">
-        <v>2314</v>
+        <v>2300</v>
       </c>
       <c r="B1338" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1338" s="5" t="s">
-        <v>2316</v>
+        <v>2301</v>
       </c>
       <c r="D1338" s="9"/>
       <c r="E1338" s="5"/>
@@ -45248,15 +45569,15 @@
       <c r="M1338" s="5"/>
       <c r="N1338" s="10"/>
     </row>
-    <row r="1339" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1339" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1339" s="4" t="s">
-        <v>2317</v>
+        <v>2302</v>
       </c>
       <c r="B1339" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1339" s="5" t="s">
-        <v>2318</v>
+        <v>2303</v>
       </c>
       <c r="D1339" s="9"/>
       <c r="E1339" s="5"/>
@@ -45272,13 +45593,13 @@
     </row>
     <row r="1340" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1340" s="4" t="s">
-        <v>2319</v>
+        <v>2304</v>
       </c>
       <c r="B1340" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1340" s="5" t="s">
-        <v>2320</v>
+        <v>2305</v>
       </c>
       <c r="D1340" s="9"/>
       <c r="E1340" s="5"/>
@@ -45292,15 +45613,15 @@
       <c r="M1340" s="5"/>
       <c r="N1340" s="10"/>
     </row>
-    <row r="1341" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1341" s="4" t="s">
-        <v>2321</v>
+        <v>2306</v>
       </c>
       <c r="B1341" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1341" s="5" t="s">
-        <v>2322</v>
+        <v>2307</v>
       </c>
       <c r="D1341" s="9"/>
       <c r="E1341" s="5"/>
@@ -45314,15 +45635,15 @@
       <c r="M1341" s="5"/>
       <c r="N1341" s="10"/>
     </row>
-    <row r="1342" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1342" s="4" t="s">
-        <v>2323</v>
+        <v>2308</v>
       </c>
       <c r="B1342" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1342" s="5" t="s">
-        <v>2324</v>
+        <v>2309</v>
       </c>
       <c r="D1342" s="9"/>
       <c r="E1342" s="5"/>
@@ -45336,15 +45657,15 @@
       <c r="M1342" s="5"/>
       <c r="N1342" s="10"/>
     </row>
-    <row r="1343" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1343" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1343" s="4" t="s">
-        <v>2325</v>
+        <v>2310</v>
       </c>
       <c r="B1343" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1343" s="5" t="s">
-        <v>2326</v>
+        <v>2311</v>
       </c>
       <c r="D1343" s="9"/>
       <c r="E1343" s="5"/>
@@ -45358,15 +45679,15 @@
       <c r="M1343" s="5"/>
       <c r="N1343" s="10"/>
     </row>
-    <row r="1344" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A1344" s="4" t="s">
-        <v>2327</v>
+        <v>2312</v>
       </c>
       <c r="B1344" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1344" s="5" t="s">
-        <v>2328</v>
+        <v>2313</v>
       </c>
       <c r="D1344" s="9"/>
       <c r="E1344" s="5"/>
@@ -45382,13 +45703,13 @@
     </row>
     <row r="1345" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1345" s="4" t="s">
-        <v>2329</v>
+        <v>2314</v>
       </c>
       <c r="B1345" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1345" s="5" t="s">
-        <v>2330</v>
+        <v>2316</v>
       </c>
       <c r="D1345" s="9"/>
       <c r="E1345" s="5"/>
@@ -45404,13 +45725,13 @@
     </row>
     <row r="1346" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1346" s="4" t="s">
-        <v>2331</v>
+        <v>2317</v>
       </c>
       <c r="B1346" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1346" s="5" t="s">
-        <v>2332</v>
+        <v>2318</v>
       </c>
       <c r="D1346" s="9"/>
       <c r="E1346" s="5"/>
@@ -45426,13 +45747,13 @@
     </row>
     <row r="1347" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1347" s="4" t="s">
-        <v>2333</v>
+        <v>2319</v>
       </c>
       <c r="B1347" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1347" s="5" t="s">
-        <v>2334</v>
+        <v>2320</v>
       </c>
       <c r="D1347" s="9"/>
       <c r="E1347" s="5"/>
@@ -45448,13 +45769,13 @@
     </row>
     <row r="1348" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1348" s="4" t="s">
-        <v>2335</v>
+        <v>2321</v>
       </c>
       <c r="B1348" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1348" s="5" t="s">
-        <v>2336</v>
+        <v>2322</v>
       </c>
       <c r="D1348" s="9"/>
       <c r="E1348" s="5"/>
@@ -45470,13 +45791,13 @@
     </row>
     <row r="1349" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1349" s="4" t="s">
-        <v>2337</v>
+        <v>2323</v>
       </c>
       <c r="B1349" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1349" s="5" t="s">
-        <v>2338</v>
+        <v>2324</v>
       </c>
       <c r="D1349" s="9"/>
       <c r="E1349" s="5"/>
@@ -45492,13 +45813,13 @@
     </row>
     <row r="1350" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1350" s="4" t="s">
-        <v>2339</v>
+        <v>2325</v>
       </c>
       <c r="B1350" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1350" s="5" t="s">
-        <v>2340</v>
+        <v>2326</v>
       </c>
       <c r="D1350" s="9"/>
       <c r="E1350" s="5"/>
@@ -45514,13 +45835,13 @@
     </row>
     <row r="1351" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1351" s="4" t="s">
-        <v>2341</v>
+        <v>2327</v>
       </c>
       <c r="B1351" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1351" s="5" t="s">
-        <v>2342</v>
+        <v>2328</v>
       </c>
       <c r="D1351" s="9"/>
       <c r="E1351" s="5"/>
@@ -45536,13 +45857,13 @@
     </row>
     <row r="1352" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1352" s="4" t="s">
-        <v>2343</v>
+        <v>2329</v>
       </c>
       <c r="B1352" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1352" s="5" t="s">
-        <v>2344</v>
+        <v>2330</v>
       </c>
       <c r="D1352" s="9"/>
       <c r="E1352" s="5"/>
@@ -45558,13 +45879,13 @@
     </row>
     <row r="1353" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1353" s="4" t="s">
-        <v>2345</v>
+        <v>2331</v>
       </c>
       <c r="B1353" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1353" s="5" t="s">
-        <v>2346</v>
+        <v>2332</v>
       </c>
       <c r="D1353" s="9"/>
       <c r="E1353" s="5"/>
@@ -45580,13 +45901,13 @@
     </row>
     <row r="1354" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1354" s="4" t="s">
-        <v>2347</v>
+        <v>2333</v>
       </c>
       <c r="B1354" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1354" s="5" t="s">
-        <v>2348</v>
+        <v>2334</v>
       </c>
       <c r="D1354" s="9"/>
       <c r="E1354" s="5"/>
@@ -45602,13 +45923,13 @@
     </row>
     <row r="1355" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1355" s="4" t="s">
-        <v>2349</v>
+        <v>2335</v>
       </c>
       <c r="B1355" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1355" s="5" t="s">
-        <v>851</v>
+        <v>2336</v>
       </c>
       <c r="D1355" s="9"/>
       <c r="E1355" s="5"/>
@@ -45624,13 +45945,13 @@
     </row>
     <row r="1356" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1356" s="4" t="s">
-        <v>2350</v>
+        <v>2337</v>
       </c>
       <c r="B1356" s="5" t="s">
         <v>2315</v>
       </c>
       <c r="C1356" s="5" t="s">
-        <v>2351</v>
+        <v>2338</v>
       </c>
       <c r="D1356" s="9"/>
       <c r="E1356" s="5"/>
@@ -45645,26 +45966,180 @@
       <c r="N1356" s="10"/>
     </row>
     <row r="1357" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A1357" s="6" t="s">
+      <c r="A1357" s="4" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B1357" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1357" s="5" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D1357" s="9"/>
+      <c r="E1357" s="5"/>
+      <c r="F1357" s="5"/>
+      <c r="G1357" s="5"/>
+      <c r="H1357" s="9"/>
+      <c r="I1357" s="9"/>
+      <c r="J1357" s="5"/>
+      <c r="K1357" s="5"/>
+      <c r="L1357" s="5"/>
+      <c r="M1357" s="5"/>
+      <c r="N1357" s="10"/>
+    </row>
+    <row r="1358" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1358" s="4" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B1358" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1358" s="5" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D1358" s="9"/>
+      <c r="E1358" s="5"/>
+      <c r="F1358" s="5"/>
+      <c r="G1358" s="5"/>
+      <c r="H1358" s="9"/>
+      <c r="I1358" s="9"/>
+      <c r="J1358" s="5"/>
+      <c r="K1358" s="5"/>
+      <c r="L1358" s="5"/>
+      <c r="M1358" s="5"/>
+      <c r="N1358" s="10"/>
+    </row>
+    <row r="1359" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1359" s="4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B1359" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1359" s="5" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D1359" s="9"/>
+      <c r="E1359" s="5"/>
+      <c r="F1359" s="5"/>
+      <c r="G1359" s="5"/>
+      <c r="H1359" s="9"/>
+      <c r="I1359" s="9"/>
+      <c r="J1359" s="5"/>
+      <c r="K1359" s="5"/>
+      <c r="L1359" s="5"/>
+      <c r="M1359" s="5"/>
+      <c r="N1359" s="10"/>
+    </row>
+    <row r="1360" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1360" s="4" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B1360" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1360" s="5" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D1360" s="9"/>
+      <c r="E1360" s="5"/>
+      <c r="F1360" s="5"/>
+      <c r="G1360" s="5"/>
+      <c r="H1360" s="9"/>
+      <c r="I1360" s="9"/>
+      <c r="J1360" s="5"/>
+      <c r="K1360" s="5"/>
+      <c r="L1360" s="5"/>
+      <c r="M1360" s="5"/>
+      <c r="N1360" s="10"/>
+    </row>
+    <row r="1361" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1361" s="4" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B1361" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1361" s="5" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D1361" s="9"/>
+      <c r="E1361" s="5"/>
+      <c r="F1361" s="5"/>
+      <c r="G1361" s="5"/>
+      <c r="H1361" s="9"/>
+      <c r="I1361" s="9"/>
+      <c r="J1361" s="5"/>
+      <c r="K1361" s="5"/>
+      <c r="L1361" s="5"/>
+      <c r="M1361" s="5"/>
+      <c r="N1361" s="10"/>
+    </row>
+    <row r="1362" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1362" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B1362" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1362" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="D1362" s="9"/>
+      <c r="E1362" s="5"/>
+      <c r="F1362" s="5"/>
+      <c r="G1362" s="5"/>
+      <c r="H1362" s="9"/>
+      <c r="I1362" s="9"/>
+      <c r="J1362" s="5"/>
+      <c r="K1362" s="5"/>
+      <c r="L1362" s="5"/>
+      <c r="M1362" s="5"/>
+      <c r="N1362" s="10"/>
+    </row>
+    <row r="1363" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1363" s="4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1363" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1363" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D1363" s="9"/>
+      <c r="E1363" s="5"/>
+      <c r="F1363" s="5"/>
+      <c r="G1363" s="5"/>
+      <c r="H1363" s="9"/>
+      <c r="I1363" s="9"/>
+      <c r="J1363" s="5"/>
+      <c r="K1363" s="5"/>
+      <c r="L1363" s="5"/>
+      <c r="M1363" s="5"/>
+      <c r="N1363" s="10"/>
+    </row>
+    <row r="1364" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1364" s="6" t="s">
         <v>2352</v>
       </c>
-      <c r="B1357" s="7" t="s">
+      <c r="B1364" s="7" t="s">
         <v>2315</v>
       </c>
-      <c r="C1357" s="7" t="s">
+      <c r="C1364" s="7" t="s">
         <v>2353</v>
       </c>
-      <c r="D1357" s="11"/>
-      <c r="E1357" s="7"/>
-      <c r="F1357" s="7"/>
-      <c r="G1357" s="7"/>
-      <c r="H1357" s="11"/>
-      <c r="I1357" s="11"/>
-      <c r="J1357" s="7"/>
-      <c r="K1357" s="7"/>
-      <c r="L1357" s="7"/>
-      <c r="M1357" s="7"/>
-      <c r="N1357" s="12"/>
+      <c r="D1364" s="11"/>
+      <c r="E1364" s="7"/>
+      <c r="F1364" s="7"/>
+      <c r="G1364" s="7"/>
+      <c r="H1364" s="11"/>
+      <c r="I1364" s="11"/>
+      <c r="J1364" s="7"/>
+      <c r="K1364" s="7"/>
+      <c r="L1364" s="7"/>
+      <c r="M1364" s="7"/>
+      <c r="N1364" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tsunami/v02_new/sample_tsunami_anotasi_v02_new.xlsx
+++ b/tsunami/v02_new/sample_tsunami_anotasi_v02_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharmapu\Documents\personal\ui\KA-AMSD_src\paper-submission\anotated_data\tsunami\v02_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2EC3C9-88E1-4C45-AB93-13C63AF27911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB34F456-A3E1-406D-8552-6682BDCE600E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7983" uniqueCount="2499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8355" uniqueCount="2502">
   <si>
     <t>id</t>
   </si>
@@ -7534,6 +7534,15 @@
   </si>
   <si>
     <t>Korban gempa &amp; tsunami  membutuhkan bantuan</t>
+  </si>
+  <si>
+    <t>Total dampak: tercatat 373 orang meninggal dunia, 1.459 orang luka-luka, 128 orang hilang, dan 5.665 orang mengungs</t>
+  </si>
+  <si>
+    <t>Gempa &amp; tsunami mengakibatkan korban jiwa</t>
+  </si>
+  <si>
+    <t>2018-09-22</t>
   </si>
 </sst>
 </file>
@@ -7758,6 +7767,31 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Overpass"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -8030,78 +8064,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Overpass"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Overpass"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Overpass"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -8218,10 +8180,57 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Overpass"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Overpass"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -8238,23 +8247,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0228019-6306-42E0-ABD2-717570931749}" name="Table1" displayName="Table1" ref="A1:N1372" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="A1:N1372" xr:uid="{576E32E5-BE79-40B5-A33D-70AE3D67568F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0228019-6306-42E0-ABD2-717570931749}" name="Table1" displayName="Table1" ref="A1:N1391" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:N1391" xr:uid="{576E32E5-BE79-40B5-A33D-70AE3D67568F}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{DBAB9710-0C44-49A5-AA32-B0453B252B04}" name="id" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{EF67AD3D-E53F-4700-A378-B1F96AA43740}" name="source" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{EFEE120C-A6A0-4502-9769-C2DDC13E6609}" name="date" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{4CE0FB0B-FD3F-4E8E-8995-8EFC16CBCEA8}" name="Positif Bencana Alam" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{85A69EA6-027B-4979-BAB8-CCB97A0762EE}" name="Tanggal Kejadian" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{BF9FC754-3A11-405E-B194-BB294E1EDC74}" name="Lokasi ADM1" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{8C34BAF0-F542-4EF5-B052-D4F16601B7C5}" name="Lokasi ADM2" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{62A37330-AF7F-432B-A0C2-FFAF6D35DFE7}" name="Lokasi ADM3" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{97F2191F-4B66-4235-906E-E13275B572E4}" name="Lokasi Lainnya" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{E6431EEC-CEAC-44CB-AF0A-3F94BECBE74D}" name="Korban Meninggal &amp; Hilang" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{6819FE31-8203-4814-9C47-0FDA8A876C65}" name="Korban Luka-Luka/Cedera" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{B1FFC39B-1D78-4ED2-A836-F76329D02A64}" name="Korban Mengungsi" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{B2627B7D-6CD6-4BED-BB03-4C561474DE90}" name="Kerusakan Bangunan" dataDxfId="0"/>
-    <tableColumn id="14" xr3:uid="{002D2877-9AE5-4EF4-9630-3C00DFE24E29}" name="Dampak Lainnya" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{DBAB9710-0C44-49A5-AA32-B0453B252B04}" name="id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{EF67AD3D-E53F-4700-A378-B1F96AA43740}" name="source" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{EFEE120C-A6A0-4502-9769-C2DDC13E6609}" name="date" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{4CE0FB0B-FD3F-4E8E-8995-8EFC16CBCEA8}" name="Positif Bencana Alam" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{85A69EA6-027B-4979-BAB8-CCB97A0762EE}" name="Tanggal Kejadian" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{BF9FC754-3A11-405E-B194-BB294E1EDC74}" name="Lokasi ADM1" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{8C34BAF0-F542-4EF5-B052-D4F16601B7C5}" name="Lokasi ADM2" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{62A37330-AF7F-432B-A0C2-FFAF6D35DFE7}" name="Lokasi ADM3" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{97F2191F-4B66-4235-906E-E13275B572E4}" name="Lokasi Lainnya" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{E6431EEC-CEAC-44CB-AF0A-3F94BECBE74D}" name="Korban Meninggal &amp; Hilang" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{6819FE31-8203-4814-9C47-0FDA8A876C65}" name="Korban Luka-Luka/Cedera" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{B1FFC39B-1D78-4ED2-A836-F76329D02A64}" name="Korban Mengungsi" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{B2627B7D-6CD6-4BED-BB03-4C561474DE90}" name="Kerusakan Bangunan" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{002D2877-9AE5-4EF4-9630-3C00DFE24E29}" name="Dampak Lainnya" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8523,10 +8532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1372"/>
+  <dimension ref="A1:N1391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1120" workbookViewId="0">
-      <selection activeCell="I1079" sqref="I1079"/>
+    <sheetView tabSelected="1" topLeftCell="A1193" workbookViewId="0">
+      <selection activeCell="E1201" sqref="E1201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41479,17 +41488,31 @@
       <c r="C1133" s="5" t="s">
         <v>1880</v>
       </c>
-      <c r="D1133" s="6"/>
-      <c r="E1133" s="6"/>
-      <c r="F1133" s="6"/>
-      <c r="G1133" s="6"/>
-      <c r="H1133" s="6"/>
-      <c r="I1133" s="6"/>
+      <c r="D1133" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1133" s="9" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F1133" s="6" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1133" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H1133" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1133" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1133" s="6"/>
       <c r="K1133" s="6"/>
       <c r="L1133" s="6"/>
       <c r="M1133" s="6"/>
-      <c r="N1133" s="7"/>
+      <c r="N1133" s="7" t="s">
+        <v>2395</v>
+      </c>
     </row>
     <row r="1134" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1134" s="4" t="s">
@@ -41501,7 +41524,9 @@
       <c r="C1134" s="5" t="s">
         <v>1882</v>
       </c>
-      <c r="D1134" s="6"/>
+      <c r="D1134" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1134" s="6"/>
       <c r="F1134" s="6"/>
       <c r="G1134" s="6"/>
@@ -41523,139 +41548,225 @@
       <c r="C1135" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="D1135" s="6"/>
-      <c r="E1135" s="6"/>
-      <c r="F1135" s="6"/>
-      <c r="G1135" s="6"/>
-      <c r="H1135" s="6"/>
-      <c r="I1135" s="6"/>
+      <c r="D1135" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1135" s="9" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F1135" s="6" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1135" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H1135" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1135" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1135" s="6"/>
       <c r="K1135" s="6"/>
       <c r="L1135" s="6"/>
       <c r="M1135" s="6"/>
-      <c r="N1135" s="7"/>
+      <c r="N1135" s="7" t="s">
+        <v>2395</v>
+      </c>
     </row>
     <row r="1136" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1136" s="4" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B1136" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1136" s="5" t="s">
-        <v>1886</v>
-      </c>
-      <c r="D1136" s="6"/>
-      <c r="E1136" s="6"/>
-      <c r="F1136" s="6"/>
-      <c r="G1136" s="6"/>
-      <c r="H1136" s="6"/>
-      <c r="I1136" s="6"/>
+        <v>1884</v>
+      </c>
+      <c r="D1136" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1136" s="9" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F1136" s="6" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G1136" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H1136" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1136" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1136" s="6"/>
       <c r="K1136" s="6"/>
       <c r="L1136" s="6"/>
       <c r="M1136" s="6"/>
-      <c r="N1136" s="7"/>
+      <c r="N1136" s="7" t="s">
+        <v>2395</v>
+      </c>
     </row>
     <row r="1137" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1137" s="4" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B1137" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1137" s="5" t="s">
-        <v>1888</v>
-      </c>
-      <c r="D1137" s="6"/>
-      <c r="E1137" s="6"/>
-      <c r="F1137" s="6"/>
-      <c r="G1137" s="6"/>
-      <c r="H1137" s="6"/>
-      <c r="I1137" s="6"/>
+        <v>1886</v>
+      </c>
+      <c r="D1137" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1137" s="9" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F1137" s="6" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1137" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H1137" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1137" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1137" s="6"/>
       <c r="K1137" s="6"/>
       <c r="L1137" s="6"/>
       <c r="M1137" s="6"/>
-      <c r="N1137" s="7"/>
+      <c r="N1137" s="7" t="s">
+        <v>2395</v>
+      </c>
     </row>
     <row r="1138" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1138" s="4" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B1138" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1138" s="5" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D1138" s="6"/>
-      <c r="E1138" s="6"/>
-      <c r="F1138" s="6"/>
-      <c r="G1138" s="6"/>
-      <c r="H1138" s="6"/>
-      <c r="I1138" s="6"/>
+        <v>1888</v>
+      </c>
+      <c r="D1138" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1138" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1138" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1138" s="6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H1138" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1138" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1138" s="6"/>
       <c r="K1138" s="6"/>
       <c r="L1138" s="6"/>
       <c r="M1138" s="6"/>
-      <c r="N1138" s="7"/>
-    </row>
-    <row r="1139" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="N1138" s="7" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1139" s="4" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="B1139" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1139" s="5" t="s">
-        <v>1892</v>
-      </c>
-      <c r="D1139" s="6"/>
-      <c r="E1139" s="6"/>
-      <c r="F1139" s="6"/>
-      <c r="G1139" s="6"/>
-      <c r="H1139" s="6"/>
-      <c r="I1139" s="6"/>
+        <v>1888</v>
+      </c>
+      <c r="D1139" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1139" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1139" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1139" s="6" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H1139" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1139" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1139" s="6"/>
       <c r="K1139" s="6"/>
       <c r="L1139" s="6"/>
       <c r="M1139" s="6"/>
-      <c r="N1139" s="7"/>
+      <c r="N1139" s="7" t="s">
+        <v>2471</v>
+      </c>
     </row>
     <row r="1140" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1140" s="4" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="B1140" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1140" s="5" t="s">
-        <v>1894</v>
-      </c>
-      <c r="D1140" s="6"/>
-      <c r="E1140" s="6"/>
-      <c r="F1140" s="6"/>
-      <c r="G1140" s="6"/>
-      <c r="H1140" s="6"/>
-      <c r="I1140" s="6"/>
+        <v>1890</v>
+      </c>
+      <c r="D1140" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1140" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1140" s="6" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1140" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H1140" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1140" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1140" s="6"/>
       <c r="K1140" s="6"/>
       <c r="L1140" s="6"/>
       <c r="M1140" s="6"/>
-      <c r="N1140" s="7"/>
-    </row>
-    <row r="1141" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N1140" s="7" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1141" s="4" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="B1141" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1141" s="5" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D1141" s="6"/>
+        <v>1892</v>
+      </c>
+      <c r="D1141" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1141" s="6"/>
       <c r="F1141" s="6"/>
       <c r="G1141" s="6"/>
@@ -41669,15 +41780,17 @@
     </row>
     <row r="1142" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1142" s="4" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="B1142" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1142" s="5" t="s">
-        <v>1898</v>
-      </c>
-      <c r="D1142" s="6"/>
+        <v>1894</v>
+      </c>
+      <c r="D1142" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1142" s="6"/>
       <c r="F1142" s="6"/>
       <c r="G1142" s="6"/>
@@ -41689,61 +41802,91 @@
       <c r="M1142" s="6"/>
       <c r="N1142" s="7"/>
     </row>
-    <row r="1143" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1143" s="4" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="B1143" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>1900</v>
-      </c>
-      <c r="D1143" s="6"/>
-      <c r="E1143" s="6"/>
-      <c r="F1143" s="6"/>
-      <c r="G1143" s="6"/>
-      <c r="H1143" s="6"/>
-      <c r="I1143" s="6"/>
+        <v>1896</v>
+      </c>
+      <c r="D1143" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1143" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1143" s="6" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1143" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H1143" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1143" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1143" s="6"/>
       <c r="K1143" s="6"/>
       <c r="L1143" s="6"/>
       <c r="M1143" s="6"/>
-      <c r="N1143" s="7"/>
-    </row>
-    <row r="1144" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="N1143" s="7" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1144" s="4" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="B1144" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>1902</v>
-      </c>
-      <c r="D1144" s="6"/>
-      <c r="E1144" s="6"/>
-      <c r="F1144" s="6"/>
-      <c r="G1144" s="6"/>
-      <c r="H1144" s="6"/>
-      <c r="I1144" s="6"/>
+        <v>1896</v>
+      </c>
+      <c r="D1144" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1144" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1144" s="6" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G1144" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H1144" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1144" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1144" s="6"/>
       <c r="K1144" s="6"/>
       <c r="L1144" s="6"/>
       <c r="M1144" s="6"/>
-      <c r="N1144" s="7"/>
+      <c r="N1144" s="7" t="s">
+        <v>2393</v>
+      </c>
     </row>
     <row r="1145" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1145" s="4" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
       <c r="B1145" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D1145" s="6"/>
+        <v>1898</v>
+      </c>
+      <c r="D1145" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1145" s="6"/>
       <c r="F1145" s="6"/>
       <c r="G1145" s="6"/>
@@ -41755,17 +41898,19 @@
       <c r="M1145" s="6"/>
       <c r="N1145" s="7"/>
     </row>
-    <row r="1146" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1146" s="4" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
       <c r="B1146" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D1146" s="6"/>
+        <v>1900</v>
+      </c>
+      <c r="D1146" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1146" s="6"/>
       <c r="F1146" s="6"/>
       <c r="G1146" s="6"/>
@@ -41777,17 +41922,19 @@
       <c r="M1146" s="6"/>
       <c r="N1146" s="7"/>
     </row>
-    <row r="1147" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1147" s="4" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
       <c r="B1147" s="5" t="s">
-        <v>1904</v>
+        <v>1863</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D1147" s="6"/>
+        <v>1902</v>
+      </c>
+      <c r="D1147" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1147" s="6"/>
       <c r="F1147" s="6"/>
       <c r="G1147" s="6"/>
@@ -41801,125 +41948,203 @@
     </row>
     <row r="1148" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1148" s="4" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="B1148" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1148" s="5" t="s">
-        <v>1910</v>
-      </c>
-      <c r="D1148" s="6"/>
-      <c r="E1148" s="6"/>
-      <c r="F1148" s="6"/>
-      <c r="G1148" s="6"/>
-      <c r="H1148" s="6"/>
-      <c r="I1148" s="6"/>
+        <v>1905</v>
+      </c>
+      <c r="D1148" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1148" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1148" s="6" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1148" s="6" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H1148" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1148" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1148" s="6"/>
       <c r="K1148" s="6"/>
       <c r="L1148" s="6"/>
       <c r="M1148" s="6"/>
-      <c r="N1148" s="7"/>
+      <c r="N1148" s="7" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="1149" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1149" s="4" t="s">
-        <v>1911</v>
+        <v>1903</v>
       </c>
       <c r="B1149" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>1912</v>
-      </c>
-      <c r="D1149" s="6"/>
-      <c r="E1149" s="6"/>
-      <c r="F1149" s="6"/>
-      <c r="G1149" s="6"/>
-      <c r="H1149" s="6"/>
-      <c r="I1149" s="6"/>
+        <v>1905</v>
+      </c>
+      <c r="D1149" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1149" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1149" s="6" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G1149" s="6" t="s">
+        <v>2382</v>
+      </c>
+      <c r="H1149" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1149" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1149" s="6"/>
       <c r="K1149" s="6"/>
       <c r="L1149" s="6"/>
       <c r="M1149" s="6"/>
-      <c r="N1149" s="7"/>
+      <c r="N1149" s="7" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="1150" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1150" s="4" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
       <c r="B1150" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1150" s="5" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D1150" s="6"/>
-      <c r="E1150" s="6"/>
-      <c r="F1150" s="6"/>
-      <c r="G1150" s="6"/>
-      <c r="H1150" s="6"/>
-      <c r="I1150" s="6"/>
-      <c r="J1150" s="6"/>
-      <c r="K1150" s="6"/>
+        <v>1907</v>
+      </c>
+      <c r="D1150" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1150" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1150" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="G1150" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H1150" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1150" s="6" t="s">
+        <v>2373</v>
+      </c>
+      <c r="J1150" s="6">
+        <v>82</v>
+      </c>
+      <c r="K1150" s="6">
+        <v>584</v>
+      </c>
       <c r="L1150" s="6"/>
-      <c r="M1150" s="6"/>
-      <c r="N1150" s="7"/>
-    </row>
-    <row r="1151" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M1150" s="6">
+        <v>430</v>
+      </c>
+      <c r="N1150" s="7" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1151" s="4" t="s">
-        <v>1915</v>
+        <v>1908</v>
       </c>
       <c r="B1151" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1151" s="5" t="s">
-        <v>1916</v>
-      </c>
-      <c r="D1151" s="6"/>
-      <c r="E1151" s="6"/>
-      <c r="F1151" s="6"/>
-      <c r="G1151" s="6"/>
-      <c r="H1151" s="6"/>
-      <c r="I1151" s="6"/>
+        <v>1905</v>
+      </c>
+      <c r="D1151" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1151" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1151" s="6" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1151" s="6" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H1151" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1151" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1151" s="6"/>
       <c r="K1151" s="6"/>
       <c r="L1151" s="6"/>
       <c r="M1151" s="6"/>
-      <c r="N1151" s="7"/>
+      <c r="N1151" s="7" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="1152" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1152" s="4" t="s">
-        <v>1917</v>
+        <v>1908</v>
       </c>
       <c r="B1152" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1152" s="5" t="s">
-        <v>1918</v>
-      </c>
-      <c r="D1152" s="6"/>
-      <c r="E1152" s="6"/>
-      <c r="F1152" s="6"/>
-      <c r="G1152" s="6"/>
-      <c r="H1152" s="6"/>
-      <c r="I1152" s="6"/>
+        <v>1905</v>
+      </c>
+      <c r="D1152" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1152" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1152" s="6" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G1152" s="6" t="s">
+        <v>2382</v>
+      </c>
+      <c r="H1152" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1152" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1152" s="6"/>
       <c r="K1152" s="6"/>
       <c r="L1152" s="6"/>
       <c r="M1152" s="6"/>
-      <c r="N1152" s="7"/>
+      <c r="N1152" s="7" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="1153" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1153" s="4" t="s">
-        <v>1919</v>
+        <v>1909</v>
       </c>
       <c r="B1153" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1153" s="5" t="s">
-        <v>1920</v>
-      </c>
-      <c r="D1153" s="6"/>
+        <v>1910</v>
+      </c>
+      <c r="D1153" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1153" s="6"/>
       <c r="F1153" s="6"/>
       <c r="G1153" s="6"/>
@@ -41931,17 +42156,19 @@
       <c r="M1153" s="6"/>
       <c r="N1153" s="7"/>
     </row>
-    <row r="1154" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1154" s="4" t="s">
-        <v>1921</v>
+        <v>1911</v>
       </c>
       <c r="B1154" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1154" s="5" t="s">
-        <v>1922</v>
-      </c>
-      <c r="D1154" s="6"/>
+        <v>1912</v>
+      </c>
+      <c r="D1154" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1154" s="6"/>
       <c r="F1154" s="6"/>
       <c r="G1154" s="6"/>
@@ -41955,15 +42182,17 @@
     </row>
     <row r="1155" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1155" s="4" t="s">
-        <v>1923</v>
+        <v>1913</v>
       </c>
       <c r="B1155" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1155" s="5" t="s">
-        <v>1924</v>
-      </c>
-      <c r="D1155" s="6"/>
+        <v>1914</v>
+      </c>
+      <c r="D1155" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1155" s="6"/>
       <c r="F1155" s="6"/>
       <c r="G1155" s="6"/>
@@ -41975,17 +42204,19 @@
       <c r="M1155" s="6"/>
       <c r="N1155" s="7"/>
     </row>
-    <row r="1156" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1156" s="4" t="s">
-        <v>1925</v>
+        <v>1915</v>
       </c>
       <c r="B1156" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1156" s="5" t="s">
-        <v>1926</v>
-      </c>
-      <c r="D1156" s="6"/>
+        <v>1916</v>
+      </c>
+      <c r="D1156" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1156" s="6"/>
       <c r="F1156" s="6"/>
       <c r="G1156" s="6"/>
@@ -41999,15 +42230,17 @@
     </row>
     <row r="1157" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1157" s="4" t="s">
-        <v>1927</v>
+        <v>1917</v>
       </c>
       <c r="B1157" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1157" s="5" t="s">
-        <v>1928</v>
-      </c>
-      <c r="D1157" s="6"/>
+        <v>1918</v>
+      </c>
+      <c r="D1157" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1157" s="6"/>
       <c r="F1157" s="6"/>
       <c r="G1157" s="6"/>
@@ -42021,147 +42254,233 @@
     </row>
     <row r="1158" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1158" s="4" t="s">
-        <v>1929</v>
+        <v>1919</v>
       </c>
       <c r="B1158" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1158" s="5" t="s">
-        <v>1930</v>
-      </c>
-      <c r="D1158" s="6"/>
-      <c r="E1158" s="6"/>
-      <c r="F1158" s="6"/>
-      <c r="G1158" s="6"/>
-      <c r="H1158" s="6"/>
-      <c r="I1158" s="6"/>
+        <v>1920</v>
+      </c>
+      <c r="D1158" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1158" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1158" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1158" s="6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H1158" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1158" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1158" s="6"/>
       <c r="K1158" s="6"/>
       <c r="L1158" s="6"/>
       <c r="M1158" s="6"/>
-      <c r="N1158" s="7"/>
+      <c r="N1158" s="7" t="s">
+        <v>2452</v>
+      </c>
     </row>
     <row r="1159" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1159" s="4" t="s">
-        <v>1931</v>
+        <v>1919</v>
       </c>
       <c r="B1159" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1159" s="5" t="s">
-        <v>1932</v>
-      </c>
-      <c r="D1159" s="6"/>
-      <c r="E1159" s="6"/>
-      <c r="F1159" s="6"/>
-      <c r="G1159" s="6"/>
-      <c r="H1159" s="6"/>
-      <c r="I1159" s="6"/>
+        <v>1920</v>
+      </c>
+      <c r="D1159" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1159" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1159" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1159" s="6" t="s">
+        <v>2422</v>
+      </c>
+      <c r="H1159" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1159" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1159" s="6"/>
       <c r="K1159" s="6"/>
       <c r="L1159" s="6"/>
       <c r="M1159" s="6"/>
-      <c r="N1159" s="7"/>
+      <c r="N1159" s="7" t="s">
+        <v>2452</v>
+      </c>
     </row>
     <row r="1160" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1160" s="4" t="s">
-        <v>1933</v>
+        <v>1919</v>
       </c>
       <c r="B1160" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1160" s="5" t="s">
-        <v>1934</v>
-      </c>
-      <c r="D1160" s="6"/>
-      <c r="E1160" s="6"/>
-      <c r="F1160" s="6"/>
-      <c r="G1160" s="6"/>
-      <c r="H1160" s="6"/>
-      <c r="I1160" s="6"/>
+        <v>1920</v>
+      </c>
+      <c r="D1160" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1160" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1160" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1160" s="6" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H1160" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1160" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1160" s="6"/>
       <c r="K1160" s="6"/>
       <c r="L1160" s="6"/>
       <c r="M1160" s="6"/>
-      <c r="N1160" s="7"/>
-    </row>
-    <row r="1161" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N1160" s="7" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1161" s="4" t="s">
-        <v>1935</v>
+        <v>1921</v>
       </c>
       <c r="B1161" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1161" s="5" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D1161" s="6"/>
-      <c r="E1161" s="6"/>
-      <c r="F1161" s="6"/>
-      <c r="G1161" s="6"/>
-      <c r="H1161" s="6"/>
-      <c r="I1161" s="6"/>
+        <v>1922</v>
+      </c>
+      <c r="D1161" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1161" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1161" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1161" s="6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H1161" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1161" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1161" s="6"/>
       <c r="K1161" s="6"/>
       <c r="L1161" s="6"/>
       <c r="M1161" s="6"/>
-      <c r="N1161" s="7"/>
+      <c r="N1161" s="7" t="s">
+        <v>2452</v>
+      </c>
     </row>
     <row r="1162" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1162" s="4" t="s">
-        <v>1937</v>
+        <v>1921</v>
       </c>
       <c r="B1162" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1162" s="5" t="s">
-        <v>1938</v>
-      </c>
-      <c r="D1162" s="6"/>
-      <c r="E1162" s="6"/>
-      <c r="F1162" s="6"/>
-      <c r="G1162" s="6"/>
-      <c r="H1162" s="6"/>
-      <c r="I1162" s="6"/>
+        <v>1922</v>
+      </c>
+      <c r="D1162" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1162" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1162" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1162" s="6" t="s">
+        <v>2422</v>
+      </c>
+      <c r="H1162" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1162" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1162" s="6"/>
       <c r="K1162" s="6"/>
       <c r="L1162" s="6"/>
       <c r="M1162" s="6"/>
-      <c r="N1162" s="7"/>
-    </row>
-    <row r="1163" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N1162" s="7" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1163" s="4" t="s">
-        <v>1939</v>
+        <v>1921</v>
       </c>
       <c r="B1163" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1163" s="5" t="s">
-        <v>1940</v>
-      </c>
-      <c r="D1163" s="6"/>
-      <c r="E1163" s="6"/>
-      <c r="F1163" s="6"/>
-      <c r="G1163" s="6"/>
-      <c r="H1163" s="6"/>
-      <c r="I1163" s="6"/>
+        <v>1922</v>
+      </c>
+      <c r="D1163" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1163" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1163" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1163" s="6" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H1163" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1163" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1163" s="6"/>
       <c r="K1163" s="6"/>
       <c r="L1163" s="6"/>
       <c r="M1163" s="6"/>
-      <c r="N1163" s="7"/>
+      <c r="N1163" s="7" t="s">
+        <v>2452</v>
+      </c>
     </row>
     <row r="1164" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1164" s="4" t="s">
-        <v>1941</v>
+        <v>1923</v>
       </c>
       <c r="B1164" s="5" t="s">
         <v>1904</v>
       </c>
       <c r="C1164" s="5" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D1164" s="6"/>
+        <v>1924</v>
+      </c>
+      <c r="D1164" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1164" s="6"/>
       <c r="F1164" s="6"/>
       <c r="G1164" s="6"/>
@@ -42173,17 +42492,19 @@
       <c r="M1164" s="6"/>
       <c r="N1164" s="7"/>
     </row>
-    <row r="1165" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1165" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1165" s="4" t="s">
-        <v>1943</v>
+        <v>1925</v>
       </c>
       <c r="B1165" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1165" s="5" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D1165" s="6"/>
+        <v>1926</v>
+      </c>
+      <c r="D1165" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1165" s="6"/>
       <c r="F1165" s="6"/>
       <c r="G1165" s="6"/>
@@ -42195,17 +42516,19 @@
       <c r="M1165" s="6"/>
       <c r="N1165" s="7"/>
     </row>
-    <row r="1166" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1166" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1166" s="4" t="s">
-        <v>1946</v>
+        <v>1927</v>
       </c>
       <c r="B1166" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1166" s="5" t="s">
-        <v>1947</v>
-      </c>
-      <c r="D1166" s="6"/>
+        <v>1928</v>
+      </c>
+      <c r="D1166" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1166" s="6"/>
       <c r="F1166" s="6"/>
       <c r="G1166" s="6"/>
@@ -42217,17 +42540,19 @@
       <c r="M1166" s="6"/>
       <c r="N1166" s="7"/>
     </row>
-    <row r="1167" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1167" s="4" t="s">
-        <v>1948</v>
+        <v>1929</v>
       </c>
       <c r="B1167" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1167" s="5" t="s">
-        <v>1949</v>
-      </c>
-      <c r="D1167" s="6"/>
+        <v>1930</v>
+      </c>
+      <c r="D1167" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1167" s="6"/>
       <c r="F1167" s="6"/>
       <c r="G1167" s="6"/>
@@ -42239,17 +42564,19 @@
       <c r="M1167" s="6"/>
       <c r="N1167" s="7"/>
     </row>
-    <row r="1168" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1168" s="4" t="s">
-        <v>1950</v>
+        <v>1931</v>
       </c>
       <c r="B1168" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1168" s="5" t="s">
-        <v>1951</v>
-      </c>
-      <c r="D1168" s="6"/>
+        <v>1932</v>
+      </c>
+      <c r="D1168" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1168" s="6"/>
       <c r="F1168" s="6"/>
       <c r="G1168" s="6"/>
@@ -42261,17 +42588,19 @@
       <c r="M1168" s="6"/>
       <c r="N1168" s="7"/>
     </row>
-    <row r="1169" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1169" s="4" t="s">
-        <v>1952</v>
+        <v>1933</v>
       </c>
       <c r="B1169" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1169" s="5" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D1169" s="6"/>
+        <v>1934</v>
+      </c>
+      <c r="D1169" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1169" s="6"/>
       <c r="F1169" s="6"/>
       <c r="G1169" s="6"/>
@@ -42283,39 +42612,57 @@
       <c r="M1169" s="6"/>
       <c r="N1169" s="7"/>
     </row>
-    <row r="1170" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1170" s="4" t="s">
-        <v>1953</v>
+        <v>1935</v>
       </c>
       <c r="B1170" s="5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C1170" s="5" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D1170" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1170" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1170" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1170" s="6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H1170" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1170" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="J1170" s="6">
         <v>1944</v>
       </c>
-      <c r="C1170" s="5" t="s">
-        <v>1954</v>
-      </c>
-      <c r="D1170" s="6"/>
-      <c r="E1170" s="6"/>
-      <c r="F1170" s="6"/>
-      <c r="G1170" s="6"/>
-      <c r="H1170" s="6"/>
-      <c r="I1170" s="6"/>
-      <c r="J1170" s="6"/>
       <c r="K1170" s="6"/>
       <c r="L1170" s="6"/>
       <c r="M1170" s="6"/>
-      <c r="N1170" s="7"/>
+      <c r="N1170" s="7" t="s">
+        <v>2500</v>
+      </c>
     </row>
     <row r="1171" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1171" s="4" t="s">
-        <v>1955</v>
+        <v>1937</v>
       </c>
       <c r="B1171" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1171" s="5" t="s">
-        <v>1949</v>
-      </c>
-      <c r="D1171" s="6"/>
+        <v>1938</v>
+      </c>
+      <c r="D1171" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1171" s="6"/>
       <c r="F1171" s="6"/>
       <c r="G1171" s="6"/>
@@ -42327,39 +42674,55 @@
       <c r="M1171" s="6"/>
       <c r="N1171" s="7"/>
     </row>
-    <row r="1172" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1172" s="4" t="s">
-        <v>1956</v>
+        <v>1939</v>
       </c>
       <c r="B1172" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1172" s="5" t="s">
-        <v>1947</v>
-      </c>
-      <c r="D1172" s="6"/>
-      <c r="E1172" s="6"/>
-      <c r="F1172" s="6"/>
-      <c r="G1172" s="6"/>
-      <c r="H1172" s="6"/>
-      <c r="I1172" s="6"/>
+        <v>1940</v>
+      </c>
+      <c r="D1172" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1172" s="9" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F1172" s="6" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1172" s="6" t="s">
+        <v>2381</v>
+      </c>
+      <c r="H1172" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1172" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1172" s="6"/>
       <c r="K1172" s="6"/>
       <c r="L1172" s="6"/>
       <c r="M1172" s="6"/>
-      <c r="N1172" s="7"/>
-    </row>
-    <row r="1173" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="N1172" s="7" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1173" s="4" t="s">
-        <v>1957</v>
+        <v>1941</v>
       </c>
       <c r="B1173" s="5" t="s">
-        <v>1944</v>
+        <v>1904</v>
       </c>
       <c r="C1173" s="5" t="s">
-        <v>1949</v>
-      </c>
-      <c r="D1173" s="6"/>
+        <v>1942</v>
+      </c>
+      <c r="D1173" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1173" s="6"/>
       <c r="F1173" s="6"/>
       <c r="G1173" s="6"/>
@@ -42373,15 +42736,17 @@
     </row>
     <row r="1174" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1174" s="4" t="s">
-        <v>1958</v>
+        <v>1943</v>
       </c>
       <c r="B1174" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1174" s="5" t="s">
-        <v>1959</v>
-      </c>
-      <c r="D1174" s="6"/>
+        <v>1945</v>
+      </c>
+      <c r="D1174" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1174" s="6"/>
       <c r="F1174" s="6"/>
       <c r="G1174" s="6"/>
@@ -42395,59 +42760,89 @@
     </row>
     <row r="1175" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1175" s="4" t="s">
-        <v>1960</v>
+        <v>1946</v>
       </c>
       <c r="B1175" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1175" s="5" t="s">
-        <v>1961</v>
-      </c>
-      <c r="D1175" s="6"/>
-      <c r="E1175" s="6"/>
-      <c r="F1175" s="6"/>
-      <c r="G1175" s="6"/>
-      <c r="H1175" s="6"/>
-      <c r="I1175" s="6"/>
+        <v>1947</v>
+      </c>
+      <c r="D1175" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1175" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1175" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1175" s="6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H1175" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1175" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1175" s="6"/>
       <c r="K1175" s="6"/>
       <c r="L1175" s="6"/>
       <c r="M1175" s="6"/>
-      <c r="N1175" s="7"/>
+      <c r="N1175" s="7" t="s">
+        <v>2500</v>
+      </c>
     </row>
     <row r="1176" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1176" s="4" t="s">
-        <v>1962</v>
+        <v>1946</v>
       </c>
       <c r="B1176" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1176" s="5" t="s">
-        <v>1963</v>
-      </c>
-      <c r="D1176" s="6"/>
-      <c r="E1176" s="6"/>
-      <c r="F1176" s="6"/>
-      <c r="G1176" s="6"/>
-      <c r="H1176" s="6"/>
-      <c r="I1176" s="6"/>
+        <v>1947</v>
+      </c>
+      <c r="D1176" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1176" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1176" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1176" s="6" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H1176" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1176" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1176" s="6"/>
       <c r="K1176" s="6"/>
       <c r="L1176" s="6"/>
       <c r="M1176" s="6"/>
-      <c r="N1176" s="7"/>
+      <c r="N1176" s="7" t="s">
+        <v>2500</v>
+      </c>
     </row>
     <row r="1177" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1177" s="4" t="s">
-        <v>1964</v>
+        <v>1948</v>
       </c>
       <c r="B1177" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1177" s="5" t="s">
-        <v>1965</v>
-      </c>
-      <c r="D1177" s="6"/>
+        <v>1949</v>
+      </c>
+      <c r="D1177" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1177" s="6"/>
       <c r="F1177" s="6"/>
       <c r="G1177" s="6"/>
@@ -42461,15 +42856,17 @@
     </row>
     <row r="1178" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1178" s="4" t="s">
-        <v>1966</v>
+        <v>1950</v>
       </c>
       <c r="B1178" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1178" s="5" t="s">
-        <v>1947</v>
-      </c>
-      <c r="D1178" s="6"/>
+        <v>1951</v>
+      </c>
+      <c r="D1178" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1178" s="6"/>
       <c r="F1178" s="6"/>
       <c r="G1178" s="6"/>
@@ -42483,15 +42880,17 @@
     </row>
     <row r="1179" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1179" s="4" t="s">
-        <v>1967</v>
+        <v>1952</v>
       </c>
       <c r="B1179" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1179" s="5" t="s">
-        <v>1949</v>
-      </c>
-      <c r="D1179" s="6"/>
+        <v>1945</v>
+      </c>
+      <c r="D1179" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1179" s="6"/>
       <c r="F1179" s="6"/>
       <c r="G1179" s="6"/>
@@ -42505,15 +42904,17 @@
     </row>
     <row r="1180" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1180" s="4" t="s">
-        <v>1968</v>
+        <v>1953</v>
       </c>
       <c r="B1180" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1180" s="5" t="s">
-        <v>1969</v>
-      </c>
-      <c r="D1180" s="6"/>
+        <v>1954</v>
+      </c>
+      <c r="D1180" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1180" s="6"/>
       <c r="F1180" s="6"/>
       <c r="G1180" s="6"/>
@@ -42527,73 +42928,115 @@
     </row>
     <row r="1181" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1181" s="4" t="s">
-        <v>1970</v>
+        <v>1955</v>
       </c>
       <c r="B1181" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1181" s="5" t="s">
-        <v>1971</v>
-      </c>
-      <c r="D1181" s="6"/>
-      <c r="E1181" s="6"/>
-      <c r="F1181" s="6"/>
-      <c r="G1181" s="6"/>
-      <c r="H1181" s="6"/>
-      <c r="I1181" s="6"/>
+        <v>1949</v>
+      </c>
+      <c r="D1181" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1181" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1181" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1181" s="6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H1181" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1181" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1181" s="6"/>
       <c r="K1181" s="6"/>
       <c r="L1181" s="6"/>
       <c r="M1181" s="6"/>
-      <c r="N1181" s="7"/>
+      <c r="N1181" s="7" t="s">
+        <v>2471</v>
+      </c>
     </row>
     <row r="1182" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1182" s="4" t="s">
-        <v>1972</v>
+        <v>1955</v>
       </c>
       <c r="B1182" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1182" s="5" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D1182" s="6"/>
-      <c r="E1182" s="6"/>
-      <c r="F1182" s="6"/>
-      <c r="G1182" s="6"/>
-      <c r="H1182" s="6"/>
-      <c r="I1182" s="6"/>
+        <v>1949</v>
+      </c>
+      <c r="D1182" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1182" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1182" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1182" s="6" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H1182" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1182" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1182" s="6"/>
       <c r="K1182" s="6"/>
       <c r="L1182" s="6"/>
       <c r="M1182" s="6"/>
-      <c r="N1182" s="7"/>
+      <c r="N1182" s="7" t="s">
+        <v>2471</v>
+      </c>
     </row>
     <row r="1183" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1183" s="4" t="s">
-        <v>1973</v>
+        <v>1956</v>
       </c>
       <c r="B1183" s="5" t="s">
         <v>1944</v>
       </c>
       <c r="C1183" s="5" t="s">
-        <v>1974</v>
-      </c>
-      <c r="D1183" s="6"/>
-      <c r="E1183" s="6"/>
-      <c r="F1183" s="6"/>
-      <c r="G1183" s="6"/>
-      <c r="H1183" s="6"/>
-      <c r="I1183" s="6"/>
+        <v>1947</v>
+      </c>
+      <c r="D1183" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1183" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1183" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1183" s="6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H1183" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1183" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1183" s="6"/>
       <c r="K1183" s="6"/>
       <c r="L1183" s="6"/>
       <c r="M1183" s="6"/>
-      <c r="N1183" s="7"/>
+      <c r="N1183" s="7" t="s">
+        <v>2485</v>
+      </c>
     </row>
     <row r="1184" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1184" s="4" t="s">
-        <v>1975</v>
+        <v>1956</v>
       </c>
       <c r="B1184" s="5" t="s">
         <v>1944</v>
@@ -42601,139 +43044,225 @@
       <c r="C1184" s="5" t="s">
         <v>1947</v>
       </c>
-      <c r="D1184" s="6"/>
-      <c r="E1184" s="6"/>
-      <c r="F1184" s="6"/>
-      <c r="G1184" s="6"/>
-      <c r="H1184" s="6"/>
-      <c r="I1184" s="6"/>
+      <c r="D1184" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1184" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1184" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1184" s="6" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H1184" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1184" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1184" s="6"/>
       <c r="K1184" s="6"/>
       <c r="L1184" s="6"/>
       <c r="M1184" s="6"/>
-      <c r="N1184" s="7"/>
+      <c r="N1184" s="7" t="s">
+        <v>2485</v>
+      </c>
     </row>
     <row r="1185" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1185" s="4" t="s">
-        <v>1976</v>
+        <v>1956</v>
       </c>
       <c r="B1185" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1185" s="5" t="s">
-        <v>1978</v>
-      </c>
-      <c r="D1185" s="6"/>
-      <c r="E1185" s="6"/>
-      <c r="F1185" s="6"/>
-      <c r="G1185" s="6"/>
-      <c r="H1185" s="6"/>
-      <c r="I1185" s="6"/>
+        <v>1947</v>
+      </c>
+      <c r="D1185" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1185" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1185" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1185" s="6" t="s">
+        <v>2435</v>
+      </c>
+      <c r="H1185" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1185" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1185" s="6"/>
       <c r="K1185" s="6"/>
       <c r="L1185" s="6"/>
       <c r="M1185" s="6"/>
-      <c r="N1185" s="7"/>
+      <c r="N1185" s="7" t="s">
+        <v>2485</v>
+      </c>
     </row>
     <row r="1186" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1186" s="4" t="s">
-        <v>1979</v>
+        <v>1957</v>
       </c>
       <c r="B1186" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1186" s="5" t="s">
-        <v>1980</v>
-      </c>
-      <c r="D1186" s="6"/>
-      <c r="E1186" s="6"/>
-      <c r="F1186" s="6"/>
-      <c r="G1186" s="6"/>
-      <c r="H1186" s="6"/>
-      <c r="I1186" s="6"/>
+        <v>1949</v>
+      </c>
+      <c r="D1186" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1186" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1186" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1186" s="6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H1186" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1186" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1186" s="6"/>
       <c r="K1186" s="6"/>
       <c r="L1186" s="6"/>
       <c r="M1186" s="6"/>
-      <c r="N1186" s="7"/>
+      <c r="N1186" s="7" t="s">
+        <v>2485</v>
+      </c>
     </row>
     <row r="1187" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1187" s="4" t="s">
-        <v>1981</v>
+        <v>1957</v>
       </c>
       <c r="B1187" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1187" s="5" t="s">
-        <v>1982</v>
-      </c>
-      <c r="D1187" s="6"/>
-      <c r="E1187" s="6"/>
-      <c r="F1187" s="6"/>
-      <c r="G1187" s="6"/>
-      <c r="H1187" s="6"/>
-      <c r="I1187" s="6"/>
+        <v>1949</v>
+      </c>
+      <c r="D1187" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1187" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1187" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1187" s="6" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H1187" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1187" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1187" s="6"/>
       <c r="K1187" s="6"/>
       <c r="L1187" s="6"/>
       <c r="M1187" s="6"/>
-      <c r="N1187" s="7"/>
+      <c r="N1187" s="7" t="s">
+        <v>2485</v>
+      </c>
     </row>
     <row r="1188" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1188" s="4" t="s">
-        <v>1983</v>
+        <v>1958</v>
       </c>
       <c r="B1188" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1188" s="5" t="s">
-        <v>1984</v>
-      </c>
-      <c r="D1188" s="6"/>
-      <c r="E1188" s="6"/>
-      <c r="F1188" s="6"/>
-      <c r="G1188" s="6"/>
-      <c r="H1188" s="6"/>
-      <c r="I1188" s="6"/>
+        <v>1959</v>
+      </c>
+      <c r="D1188" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1188" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1188" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1188" s="6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H1188" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1188" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1188" s="6"/>
       <c r="K1188" s="6"/>
       <c r="L1188" s="6"/>
       <c r="M1188" s="6"/>
-      <c r="N1188" s="7"/>
+      <c r="N1188" s="7" t="s">
+        <v>2485</v>
+      </c>
     </row>
     <row r="1189" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1189" s="4" t="s">
-        <v>1985</v>
+        <v>1958</v>
       </c>
       <c r="B1189" s="5" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="C1189" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="D1189" s="6"/>
-      <c r="E1189" s="6"/>
-      <c r="F1189" s="6"/>
-      <c r="G1189" s="6"/>
-      <c r="H1189" s="6"/>
-      <c r="I1189" s="6"/>
+        <v>1959</v>
+      </c>
+      <c r="D1189" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1189" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1189" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1189" s="6" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H1189" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1189" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1189" s="6"/>
       <c r="K1189" s="6"/>
       <c r="L1189" s="6"/>
       <c r="M1189" s="6"/>
-      <c r="N1189" s="7"/>
-    </row>
-    <row r="1190" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N1189" s="7" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1190" s="4" t="s">
-        <v>1987</v>
+        <v>1960</v>
       </c>
       <c r="B1190" s="5" t="s">
-        <v>1988</v>
+        <v>1944</v>
       </c>
       <c r="C1190" s="5" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D1190" s="6"/>
+        <v>1961</v>
+      </c>
+      <c r="D1190" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1190" s="6"/>
       <c r="F1190" s="6"/>
       <c r="G1190" s="6"/>
@@ -42745,17 +43274,19 @@
       <c r="M1190" s="6"/>
       <c r="N1190" s="7"/>
     </row>
-    <row r="1191" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1191" s="4" t="s">
-        <v>1990</v>
+        <v>1962</v>
       </c>
       <c r="B1191" s="5" t="s">
-        <v>1988</v>
+        <v>1944</v>
       </c>
       <c r="C1191" s="5" t="s">
-        <v>1991</v>
-      </c>
-      <c r="D1191" s="6"/>
+        <v>1963</v>
+      </c>
+      <c r="D1191" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1191" s="6"/>
       <c r="F1191" s="6"/>
       <c r="G1191" s="6"/>
@@ -42767,17 +43298,19 @@
       <c r="M1191" s="6"/>
       <c r="N1191" s="7"/>
     </row>
-    <row r="1192" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1192" s="4" t="s">
-        <v>1992</v>
+        <v>1964</v>
       </c>
       <c r="B1192" s="5" t="s">
-        <v>1988</v>
+        <v>1944</v>
       </c>
       <c r="C1192" s="5" t="s">
-        <v>1993</v>
-      </c>
-      <c r="D1192" s="6"/>
+        <v>1965</v>
+      </c>
+      <c r="D1192" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1192" s="6"/>
       <c r="F1192" s="6"/>
       <c r="G1192" s="6"/>
@@ -42789,149 +43322,237 @@
       <c r="M1192" s="6"/>
       <c r="N1192" s="7"/>
     </row>
-    <row r="1193" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1193" s="4" t="s">
-        <v>1994</v>
+        <v>1966</v>
       </c>
       <c r="B1193" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1193" s="5" t="s">
-        <v>1996</v>
-      </c>
-      <c r="D1193" s="6"/>
-      <c r="E1193" s="6"/>
-      <c r="F1193" s="6"/>
-      <c r="G1193" s="6"/>
-      <c r="H1193" s="6"/>
-      <c r="I1193" s="6"/>
+        <v>1947</v>
+      </c>
+      <c r="D1193" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1193" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1193" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1193" s="6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H1193" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1193" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1193" s="6"/>
       <c r="K1193" s="6"/>
       <c r="L1193" s="6"/>
       <c r="M1193" s="6"/>
-      <c r="N1193" s="7"/>
-    </row>
-    <row r="1194" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N1193" s="7" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1194" s="4" t="s">
-        <v>1997</v>
+        <v>1966</v>
       </c>
       <c r="B1194" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1194" s="5" t="s">
-        <v>1998</v>
-      </c>
-      <c r="D1194" s="6"/>
-      <c r="E1194" s="6"/>
-      <c r="F1194" s="6"/>
-      <c r="G1194" s="6"/>
-      <c r="H1194" s="6"/>
-      <c r="I1194" s="6"/>
+        <v>1947</v>
+      </c>
+      <c r="D1194" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1194" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1194" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1194" s="6" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H1194" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1194" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1194" s="6"/>
       <c r="K1194" s="6"/>
       <c r="L1194" s="6"/>
       <c r="M1194" s="6"/>
-      <c r="N1194" s="7"/>
-    </row>
-    <row r="1195" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N1194" s="7" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1195" s="4" t="s">
-        <v>1999</v>
+        <v>1966</v>
       </c>
       <c r="B1195" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1195" s="5" t="s">
-        <v>2000</v>
-      </c>
-      <c r="D1195" s="6"/>
-      <c r="E1195" s="6"/>
-      <c r="F1195" s="6"/>
-      <c r="G1195" s="6"/>
-      <c r="H1195" s="6"/>
-      <c r="I1195" s="6"/>
+        <v>1947</v>
+      </c>
+      <c r="D1195" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1195" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1195" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1195" s="6" t="s">
+        <v>2435</v>
+      </c>
+      <c r="H1195" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1195" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1195" s="6"/>
       <c r="K1195" s="6"/>
       <c r="L1195" s="6"/>
       <c r="M1195" s="6"/>
-      <c r="N1195" s="7"/>
-    </row>
-    <row r="1196" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N1195" s="7" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1196" s="4" t="s">
-        <v>2001</v>
+        <v>1967</v>
       </c>
       <c r="B1196" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1196" s="5" t="s">
-        <v>2002</v>
-      </c>
-      <c r="D1196" s="6"/>
-      <c r="E1196" s="6"/>
-      <c r="F1196" s="6"/>
-      <c r="G1196" s="6"/>
-      <c r="H1196" s="6"/>
-      <c r="I1196" s="6"/>
+        <v>1949</v>
+      </c>
+      <c r="D1196" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1196" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1196" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1196" s="6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H1196" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1196" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1196" s="6"/>
       <c r="K1196" s="6"/>
       <c r="L1196" s="6"/>
       <c r="M1196" s="6"/>
-      <c r="N1196" s="7"/>
-    </row>
-    <row r="1197" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N1196" s="7" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1197" s="4" t="s">
-        <v>2003</v>
+        <v>1967</v>
       </c>
       <c r="B1197" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1197" s="5" t="s">
-        <v>2004</v>
-      </c>
-      <c r="D1197" s="6"/>
-      <c r="E1197" s="6"/>
-      <c r="F1197" s="6"/>
-      <c r="G1197" s="6"/>
-      <c r="H1197" s="6"/>
-      <c r="I1197" s="6"/>
+        <v>1949</v>
+      </c>
+      <c r="D1197" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1197" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1197" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1197" s="6" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H1197" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1197" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1197" s="6"/>
       <c r="K1197" s="6"/>
       <c r="L1197" s="6"/>
       <c r="M1197" s="6"/>
-      <c r="N1197" s="7"/>
-    </row>
-    <row r="1198" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N1197" s="7" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1198" s="4" t="s">
-        <v>2005</v>
+        <v>1968</v>
       </c>
       <c r="B1198" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1198" s="5" t="s">
-        <v>2006</v>
-      </c>
-      <c r="D1198" s="6"/>
-      <c r="E1198" s="6"/>
-      <c r="F1198" s="6"/>
-      <c r="G1198" s="6"/>
-      <c r="H1198" s="6"/>
-      <c r="I1198" s="6"/>
-      <c r="J1198" s="6"/>
+        <v>1969</v>
+      </c>
+      <c r="D1198" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1198" s="9" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F1198" s="6" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1198" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H1198" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1198" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="J1198" s="6">
+        <v>1</v>
+      </c>
       <c r="K1198" s="6"/>
       <c r="L1198" s="6"/>
       <c r="M1198" s="6"/>
-      <c r="N1198" s="7"/>
-    </row>
-    <row r="1199" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N1198" s="7" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1199" s="4" t="s">
-        <v>2007</v>
+        <v>1970</v>
       </c>
       <c r="B1199" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1199" s="5" t="s">
-        <v>2008</v>
-      </c>
-      <c r="D1199" s="6"/>
+        <v>1971</v>
+      </c>
+      <c r="D1199" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="E1199" s="6"/>
       <c r="F1199" s="6"/>
       <c r="G1199" s="6"/>
@@ -42943,59 +43564,87 @@
       <c r="M1199" s="6"/>
       <c r="N1199" s="7"/>
     </row>
-    <row r="1200" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1200" s="4" t="s">
-        <v>2009</v>
+        <v>1972</v>
       </c>
       <c r="B1200" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1200" s="5" t="s">
-        <v>2010</v>
-      </c>
-      <c r="D1200" s="6"/>
-      <c r="E1200" s="6"/>
-      <c r="F1200" s="6"/>
-      <c r="G1200" s="6"/>
-      <c r="H1200" s="6"/>
-      <c r="I1200" s="6"/>
+        <v>1945</v>
+      </c>
+      <c r="D1200" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1200" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1200" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1200" s="6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H1200" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1200" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1200" s="6"/>
       <c r="K1200" s="6"/>
       <c r="L1200" s="6"/>
       <c r="M1200" s="6"/>
-      <c r="N1200" s="7"/>
-    </row>
-    <row r="1201" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N1200" s="7" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1201" s="4" t="s">
-        <v>2011</v>
+        <v>1972</v>
       </c>
       <c r="B1201" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1201" s="5" t="s">
-        <v>2012</v>
-      </c>
-      <c r="D1201" s="6"/>
-      <c r="E1201" s="6"/>
-      <c r="F1201" s="6"/>
-      <c r="G1201" s="6"/>
-      <c r="H1201" s="6"/>
-      <c r="I1201" s="6"/>
+        <v>1945</v>
+      </c>
+      <c r="D1201" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E1201" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1201" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1201" s="6" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H1201" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I1201" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="J1201" s="6"/>
       <c r="K1201" s="6"/>
       <c r="L1201" s="6"/>
       <c r="M1201" s="6"/>
-      <c r="N1201" s="7"/>
-    </row>
-    <row r="1202" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N1201" s="7" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1202" s="4" t="s">
-        <v>2013</v>
+        <v>1973</v>
       </c>
       <c r="B1202" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1202" s="5" t="s">
-        <v>2014</v>
+        <v>1974</v>
       </c>
       <c r="D1202" s="6"/>
       <c r="E1202" s="6"/>
@@ -43009,15 +43658,15 @@
       <c r="M1202" s="6"/>
       <c r="N1202" s="7"/>
     </row>
-    <row r="1203" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1203" s="4" t="s">
-        <v>2015</v>
+        <v>1975</v>
       </c>
       <c r="B1203" s="5" t="s">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="C1203" s="5" t="s">
-        <v>2016</v>
+        <v>1947</v>
       </c>
       <c r="D1203" s="6"/>
       <c r="E1203" s="6"/>
@@ -43031,15 +43680,15 @@
       <c r="M1203" s="6"/>
       <c r="N1203" s="7"/>
     </row>
-    <row r="1204" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1204" s="4" t="s">
-        <v>2017</v>
+        <v>1976</v>
       </c>
       <c r="B1204" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1204" s="5" t="s">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="D1204" s="6"/>
       <c r="E1204" s="6"/>
@@ -43053,15 +43702,15 @@
       <c r="M1204" s="6"/>
       <c r="N1204" s="7"/>
     </row>
-    <row r="1205" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1205" s="4" t="s">
-        <v>2019</v>
+        <v>1979</v>
       </c>
       <c r="B1205" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1205" s="5" t="s">
-        <v>2020</v>
+        <v>1980</v>
       </c>
       <c r="D1205" s="6"/>
       <c r="E1205" s="6"/>
@@ -43075,15 +43724,15 @@
       <c r="M1205" s="6"/>
       <c r="N1205" s="7"/>
     </row>
-    <row r="1206" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1206" s="4" t="s">
-        <v>2021</v>
+        <v>1981</v>
       </c>
       <c r="B1206" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1206" s="5" t="s">
-        <v>2022</v>
+        <v>1982</v>
       </c>
       <c r="D1206" s="6"/>
       <c r="E1206" s="6"/>
@@ -43097,15 +43746,15 @@
       <c r="M1206" s="6"/>
       <c r="N1206" s="7"/>
     </row>
-    <row r="1207" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1207" s="4" t="s">
-        <v>2023</v>
+        <v>1983</v>
       </c>
       <c r="B1207" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1207" s="5" t="s">
-        <v>2024</v>
+        <v>1984</v>
       </c>
       <c r="D1207" s="6"/>
       <c r="E1207" s="6"/>
@@ -43119,15 +43768,15 @@
       <c r="M1207" s="6"/>
       <c r="N1207" s="7"/>
     </row>
-    <row r="1208" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1208" s="4" t="s">
-        <v>2025</v>
+        <v>1985</v>
       </c>
       <c r="B1208" s="5" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="C1208" s="5" t="s">
-        <v>2026</v>
+        <v>1986</v>
       </c>
       <c r="D1208" s="6"/>
       <c r="E1208" s="6"/>
@@ -43143,13 +43792,13 @@
     </row>
     <row r="1209" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1209" s="4" t="s">
-        <v>2027</v>
+        <v>1987</v>
       </c>
       <c r="B1209" s="5" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C1209" s="5" t="s">
-        <v>2028</v>
+        <v>1989</v>
       </c>
       <c r="D1209" s="6"/>
       <c r="E1209" s="6"/>
@@ -43165,13 +43814,13 @@
     </row>
     <row r="1210" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1210" s="4" t="s">
-        <v>2029</v>
+        <v>1990</v>
       </c>
       <c r="B1210" s="5" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C1210" s="5" t="s">
-        <v>2030</v>
+        <v>1991</v>
       </c>
       <c r="D1210" s="6"/>
       <c r="E1210" s="6"/>
@@ -43187,13 +43836,13 @@
     </row>
     <row r="1211" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1211" s="4" t="s">
-        <v>2031</v>
+        <v>1992</v>
       </c>
       <c r="B1211" s="5" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C1211" s="5" t="s">
-        <v>2032</v>
+        <v>1993</v>
       </c>
       <c r="D1211" s="6"/>
       <c r="E1211" s="6"/>
@@ -43209,13 +43858,13 @@
     </row>
     <row r="1212" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1212" s="4" t="s">
-        <v>2033</v>
+        <v>1994</v>
       </c>
       <c r="B1212" s="5" t="s">
         <v>1995</v>
       </c>
       <c r="C1212" s="5" t="s">
-        <v>2034</v>
+        <v>1996</v>
       </c>
       <c r="D1212" s="6"/>
       <c r="E1212" s="6"/>
@@ -43229,15 +43878,15 @@
       <c r="M1212" s="6"/>
       <c r="N1212" s="7"/>
     </row>
-    <row r="1213" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1213" s="4" t="s">
-        <v>2035</v>
+        <v>1997</v>
       </c>
       <c r="B1213" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1213" s="5" t="s">
-        <v>2037</v>
+        <v>1998</v>
       </c>
       <c r="D1213" s="6"/>
       <c r="E1213" s="6"/>
@@ -43251,15 +43900,15 @@
       <c r="M1213" s="6"/>
       <c r="N1213" s="7"/>
     </row>
-    <row r="1214" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1214" s="4" t="s">
-        <v>2038</v>
+        <v>1999</v>
       </c>
       <c r="B1214" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1214" s="5" t="s">
-        <v>2039</v>
+        <v>2000</v>
       </c>
       <c r="D1214" s="6"/>
       <c r="E1214" s="6"/>
@@ -43273,15 +43922,15 @@
       <c r="M1214" s="6"/>
       <c r="N1214" s="7"/>
     </row>
-    <row r="1215" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1215" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1215" s="4" t="s">
-        <v>2040</v>
+        <v>2001</v>
       </c>
       <c r="B1215" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1215" s="5" t="s">
-        <v>2041</v>
+        <v>2002</v>
       </c>
       <c r="D1215" s="6"/>
       <c r="E1215" s="6"/>
@@ -43295,15 +43944,15 @@
       <c r="M1215" s="6"/>
       <c r="N1215" s="7"/>
     </row>
-    <row r="1216" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1216" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1216" s="4" t="s">
-        <v>2042</v>
+        <v>2003</v>
       </c>
       <c r="B1216" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1216" s="5" t="s">
-        <v>2043</v>
+        <v>2004</v>
       </c>
       <c r="D1216" s="6"/>
       <c r="E1216" s="6"/>
@@ -43317,15 +43966,15 @@
       <c r="M1216" s="6"/>
       <c r="N1216" s="7"/>
     </row>
-    <row r="1217" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1217" s="4" t="s">
-        <v>2044</v>
+        <v>2005</v>
       </c>
       <c r="B1217" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1217" s="5" t="s">
-        <v>1141</v>
+        <v>2006</v>
       </c>
       <c r="D1217" s="6"/>
       <c r="E1217" s="6"/>
@@ -43339,15 +43988,15 @@
       <c r="M1217" s="6"/>
       <c r="N1217" s="7"/>
     </row>
-    <row r="1218" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1218" s="4" t="s">
-        <v>2045</v>
+        <v>2007</v>
       </c>
       <c r="B1218" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1218" s="5" t="s">
-        <v>2046</v>
+        <v>2008</v>
       </c>
       <c r="D1218" s="6"/>
       <c r="E1218" s="6"/>
@@ -43361,15 +44010,15 @@
       <c r="M1218" s="6"/>
       <c r="N1218" s="7"/>
     </row>
-    <row r="1219" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1219" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1219" s="4" t="s">
-        <v>2047</v>
+        <v>2009</v>
       </c>
       <c r="B1219" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1219" s="5" t="s">
-        <v>2048</v>
+        <v>2010</v>
       </c>
       <c r="D1219" s="6"/>
       <c r="E1219" s="6"/>
@@ -43383,15 +44032,15 @@
       <c r="M1219" s="6"/>
       <c r="N1219" s="7"/>
     </row>
-    <row r="1220" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1220" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1220" s="4" t="s">
-        <v>2049</v>
+        <v>2011</v>
       </c>
       <c r="B1220" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1220" s="5" t="s">
-        <v>2050</v>
+        <v>2012</v>
       </c>
       <c r="D1220" s="6"/>
       <c r="E1220" s="6"/>
@@ -43405,15 +44054,15 @@
       <c r="M1220" s="6"/>
       <c r="N1220" s="7"/>
     </row>
-    <row r="1221" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1221" s="4" t="s">
-        <v>2051</v>
+        <v>2013</v>
       </c>
       <c r="B1221" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1221" s="5" t="s">
-        <v>1139</v>
+        <v>2014</v>
       </c>
       <c r="D1221" s="6"/>
       <c r="E1221" s="6"/>
@@ -43427,15 +44076,15 @@
       <c r="M1221" s="6"/>
       <c r="N1221" s="7"/>
     </row>
-    <row r="1222" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1222" s="4" t="s">
-        <v>2052</v>
+        <v>2015</v>
       </c>
       <c r="B1222" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1222" s="5" t="s">
-        <v>2053</v>
+        <v>2016</v>
       </c>
       <c r="D1222" s="6"/>
       <c r="E1222" s="6"/>
@@ -43449,15 +44098,15 @@
       <c r="M1222" s="6"/>
       <c r="N1222" s="7"/>
     </row>
-    <row r="1223" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1223" s="4" t="s">
-        <v>2054</v>
+        <v>2017</v>
       </c>
       <c r="B1223" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1223" s="5" t="s">
-        <v>2055</v>
+        <v>2018</v>
       </c>
       <c r="D1223" s="6"/>
       <c r="E1223" s="6"/>
@@ -43471,15 +44120,15 @@
       <c r="M1223" s="6"/>
       <c r="N1223" s="7"/>
     </row>
-    <row r="1224" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1224" s="4" t="s">
-        <v>2056</v>
+        <v>2019</v>
       </c>
       <c r="B1224" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1224" s="5" t="s">
-        <v>2046</v>
+        <v>2020</v>
       </c>
       <c r="D1224" s="6"/>
       <c r="E1224" s="6"/>
@@ -43493,15 +44142,15 @@
       <c r="M1224" s="6"/>
       <c r="N1224" s="7"/>
     </row>
-    <row r="1225" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1225" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1225" s="4" t="s">
-        <v>2057</v>
+        <v>2021</v>
       </c>
       <c r="B1225" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1225" s="5" t="s">
-        <v>2058</v>
+        <v>2022</v>
       </c>
       <c r="D1225" s="6"/>
       <c r="E1225" s="6"/>
@@ -43515,15 +44164,15 @@
       <c r="M1225" s="6"/>
       <c r="N1225" s="7"/>
     </row>
-    <row r="1226" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1226" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1226" s="4" t="s">
-        <v>2059</v>
+        <v>2023</v>
       </c>
       <c r="B1226" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1226" s="5" t="s">
-        <v>2060</v>
+        <v>2024</v>
       </c>
       <c r="D1226" s="6"/>
       <c r="E1226" s="6"/>
@@ -43537,15 +44186,15 @@
       <c r="M1226" s="6"/>
       <c r="N1226" s="7"/>
     </row>
-    <row r="1227" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1227" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1227" s="4" t="s">
-        <v>2061</v>
+        <v>2025</v>
       </c>
       <c r="B1227" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1227" s="5" t="s">
-        <v>2062</v>
+        <v>2026</v>
       </c>
       <c r="D1227" s="6"/>
       <c r="E1227" s="6"/>
@@ -43559,15 +44208,15 @@
       <c r="M1227" s="6"/>
       <c r="N1227" s="7"/>
     </row>
-    <row r="1228" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1228" s="4" t="s">
-        <v>2063</v>
+        <v>2027</v>
       </c>
       <c r="B1228" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1228" s="5" t="s">
-        <v>2064</v>
+        <v>2028</v>
       </c>
       <c r="D1228" s="6"/>
       <c r="E1228" s="6"/>
@@ -43581,15 +44230,15 @@
       <c r="M1228" s="6"/>
       <c r="N1228" s="7"/>
     </row>
-    <row r="1229" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1229" s="4" t="s">
-        <v>2065</v>
+        <v>2029</v>
       </c>
       <c r="B1229" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1229" s="5" t="s">
-        <v>1127</v>
+        <v>2030</v>
       </c>
       <c r="D1229" s="6"/>
       <c r="E1229" s="6"/>
@@ -43603,15 +44252,15 @@
       <c r="M1229" s="6"/>
       <c r="N1229" s="7"/>
     </row>
-    <row r="1230" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1230" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1230" s="4" t="s">
-        <v>2066</v>
+        <v>2031</v>
       </c>
       <c r="B1230" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1230" s="5" t="s">
-        <v>1131</v>
+        <v>2032</v>
       </c>
       <c r="D1230" s="6"/>
       <c r="E1230" s="6"/>
@@ -43625,15 +44274,15 @@
       <c r="M1230" s="6"/>
       <c r="N1230" s="7"/>
     </row>
-    <row r="1231" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1231" s="4" t="s">
-        <v>2067</v>
+        <v>2033</v>
       </c>
       <c r="B1231" s="5" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="C1231" s="5" t="s">
-        <v>2068</v>
+        <v>2034</v>
       </c>
       <c r="D1231" s="6"/>
       <c r="E1231" s="6"/>
@@ -43649,13 +44298,13 @@
     </row>
     <row r="1232" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1232" s="4" t="s">
-        <v>2069</v>
+        <v>2035</v>
       </c>
       <c r="B1232" s="5" t="s">
         <v>2036</v>
       </c>
       <c r="C1232" s="5" t="s">
-        <v>2070</v>
+        <v>2037</v>
       </c>
       <c r="D1232" s="6"/>
       <c r="E1232" s="6"/>
@@ -43669,15 +44318,15 @@
       <c r="M1232" s="6"/>
       <c r="N1232" s="7"/>
     </row>
-    <row r="1233" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1233" s="4" t="s">
-        <v>2071</v>
+        <v>2038</v>
       </c>
       <c r="B1233" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1233" s="5" t="s">
-        <v>2073</v>
+        <v>2039</v>
       </c>
       <c r="D1233" s="6"/>
       <c r="E1233" s="6"/>
@@ -43691,15 +44340,15 @@
       <c r="M1233" s="6"/>
       <c r="N1233" s="7"/>
     </row>
-    <row r="1234" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1234" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1234" s="4" t="s">
-        <v>2074</v>
+        <v>2040</v>
       </c>
       <c r="B1234" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1234" s="5" t="s">
-        <v>2075</v>
+        <v>2041</v>
       </c>
       <c r="D1234" s="6"/>
       <c r="E1234" s="6"/>
@@ -43713,15 +44362,15 @@
       <c r="M1234" s="6"/>
       <c r="N1234" s="7"/>
     </row>
-    <row r="1235" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1235" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1235" s="4" t="s">
-        <v>2076</v>
+        <v>2042</v>
       </c>
       <c r="B1235" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1235" s="5" t="s">
-        <v>2077</v>
+        <v>2043</v>
       </c>
       <c r="D1235" s="6"/>
       <c r="E1235" s="6"/>
@@ -43735,15 +44384,15 @@
       <c r="M1235" s="6"/>
       <c r="N1235" s="7"/>
     </row>
-    <row r="1236" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1236" s="4" t="s">
-        <v>2078</v>
+        <v>2044</v>
       </c>
       <c r="B1236" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1236" s="5" t="s">
-        <v>2079</v>
+        <v>1141</v>
       </c>
       <c r="D1236" s="6"/>
       <c r="E1236" s="6"/>
@@ -43757,15 +44406,15 @@
       <c r="M1236" s="6"/>
       <c r="N1236" s="7"/>
     </row>
-    <row r="1237" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1237" s="4" t="s">
-        <v>2080</v>
+        <v>2045</v>
       </c>
       <c r="B1237" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1237" s="5" t="s">
-        <v>2081</v>
+        <v>2046</v>
       </c>
       <c r="D1237" s="6"/>
       <c r="E1237" s="6"/>
@@ -43779,15 +44428,15 @@
       <c r="M1237" s="6"/>
       <c r="N1237" s="7"/>
     </row>
-    <row r="1238" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1238" s="4" t="s">
-        <v>2082</v>
+        <v>2047</v>
       </c>
       <c r="B1238" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1238" s="5" t="s">
-        <v>2083</v>
+        <v>2048</v>
       </c>
       <c r="D1238" s="6"/>
       <c r="E1238" s="6"/>
@@ -43801,15 +44450,15 @@
       <c r="M1238" s="6"/>
       <c r="N1238" s="7"/>
     </row>
-    <row r="1239" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1239" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1239" s="4" t="s">
-        <v>2084</v>
+        <v>2049</v>
       </c>
       <c r="B1239" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1239" s="5" t="s">
-        <v>2085</v>
+        <v>2050</v>
       </c>
       <c r="D1239" s="6"/>
       <c r="E1239" s="6"/>
@@ -43823,15 +44472,15 @@
       <c r="M1239" s="6"/>
       <c r="N1239" s="7"/>
     </row>
-    <row r="1240" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1240" s="4" t="s">
-        <v>2086</v>
+        <v>2051</v>
       </c>
       <c r="B1240" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1240" s="5" t="s">
-        <v>2087</v>
+        <v>1139</v>
       </c>
       <c r="D1240" s="6"/>
       <c r="E1240" s="6"/>
@@ -43845,15 +44494,15 @@
       <c r="M1240" s="6"/>
       <c r="N1240" s="7"/>
     </row>
-    <row r="1241" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1241" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1241" s="4" t="s">
-        <v>2088</v>
+        <v>2052</v>
       </c>
       <c r="B1241" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1241" s="5" t="s">
-        <v>2089</v>
+        <v>2053</v>
       </c>
       <c r="D1241" s="6"/>
       <c r="E1241" s="6"/>
@@ -43867,15 +44516,15 @@
       <c r="M1241" s="6"/>
       <c r="N1241" s="7"/>
     </row>
-    <row r="1242" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1242" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1242" s="4" t="s">
-        <v>2090</v>
+        <v>2054</v>
       </c>
       <c r="B1242" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1242" s="5" t="s">
-        <v>2091</v>
+        <v>2055</v>
       </c>
       <c r="D1242" s="6"/>
       <c r="E1242" s="6"/>
@@ -43889,15 +44538,15 @@
       <c r="M1242" s="6"/>
       <c r="N1242" s="7"/>
     </row>
-    <row r="1243" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1243" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1243" s="4" t="s">
-        <v>2092</v>
+        <v>2056</v>
       </c>
       <c r="B1243" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1243" s="5" t="s">
-        <v>2093</v>
+        <v>2046</v>
       </c>
       <c r="D1243" s="6"/>
       <c r="E1243" s="6"/>
@@ -43911,15 +44560,15 @@
       <c r="M1243" s="6"/>
       <c r="N1243" s="7"/>
     </row>
-    <row r="1244" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1244" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1244" s="4" t="s">
-        <v>2094</v>
+        <v>2057</v>
       </c>
       <c r="B1244" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1244" s="5" t="s">
-        <v>2095</v>
+        <v>2058</v>
       </c>
       <c r="D1244" s="6"/>
       <c r="E1244" s="6"/>
@@ -43933,15 +44582,15 @@
       <c r="M1244" s="6"/>
       <c r="N1244" s="7"/>
     </row>
-    <row r="1245" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1245" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1245" s="4" t="s">
-        <v>2096</v>
+        <v>2059</v>
       </c>
       <c r="B1245" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1245" s="5" t="s">
-        <v>2097</v>
+        <v>2060</v>
       </c>
       <c r="D1245" s="6"/>
       <c r="E1245" s="6"/>
@@ -43955,15 +44604,15 @@
       <c r="M1245" s="6"/>
       <c r="N1245" s="7"/>
     </row>
-    <row r="1246" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1246" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1246" s="4" t="s">
-        <v>2098</v>
+        <v>2061</v>
       </c>
       <c r="B1246" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1246" s="5" t="s">
-        <v>2099</v>
+        <v>2062</v>
       </c>
       <c r="D1246" s="6"/>
       <c r="E1246" s="6"/>
@@ -43977,15 +44626,15 @@
       <c r="M1246" s="6"/>
       <c r="N1246" s="7"/>
     </row>
-    <row r="1247" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1247" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1247" s="4" t="s">
-        <v>2100</v>
+        <v>2063</v>
       </c>
       <c r="B1247" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1247" s="5" t="s">
-        <v>2101</v>
+        <v>2064</v>
       </c>
       <c r="D1247" s="6"/>
       <c r="E1247" s="6"/>
@@ -43999,15 +44648,15 @@
       <c r="M1247" s="6"/>
       <c r="N1247" s="7"/>
     </row>
-    <row r="1248" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1248" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1248" s="4" t="s">
-        <v>2102</v>
+        <v>2065</v>
       </c>
       <c r="B1248" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1248" s="5" t="s">
-        <v>2103</v>
+        <v>1127</v>
       </c>
       <c r="D1248" s="6"/>
       <c r="E1248" s="6"/>
@@ -44021,15 +44670,15 @@
       <c r="M1248" s="6"/>
       <c r="N1248" s="7"/>
     </row>
-    <row r="1249" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1249" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1249" s="4" t="s">
-        <v>2104</v>
+        <v>2066</v>
       </c>
       <c r="B1249" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1249" s="5" t="s">
-        <v>2105</v>
+        <v>1131</v>
       </c>
       <c r="D1249" s="6"/>
       <c r="E1249" s="6"/>
@@ -44043,15 +44692,15 @@
       <c r="M1249" s="6"/>
       <c r="N1249" s="7"/>
     </row>
-    <row r="1250" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1250" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1250" s="4" t="s">
-        <v>2106</v>
+        <v>2067</v>
       </c>
       <c r="B1250" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1250" s="5" t="s">
-        <v>2107</v>
+        <v>2068</v>
       </c>
       <c r="D1250" s="6"/>
       <c r="E1250" s="6"/>
@@ -44065,15 +44714,15 @@
       <c r="M1250" s="6"/>
       <c r="N1250" s="7"/>
     </row>
-    <row r="1251" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1251" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1251" s="4" t="s">
-        <v>2108</v>
+        <v>2069</v>
       </c>
       <c r="B1251" s="5" t="s">
-        <v>2072</v>
+        <v>2036</v>
       </c>
       <c r="C1251" s="5" t="s">
-        <v>2109</v>
+        <v>2070</v>
       </c>
       <c r="D1251" s="6"/>
       <c r="E1251" s="6"/>
@@ -44089,13 +44738,13 @@
     </row>
     <row r="1252" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1252" s="4" t="s">
-        <v>2110</v>
+        <v>2071</v>
       </c>
       <c r="B1252" s="5" t="s">
         <v>2072</v>
       </c>
       <c r="C1252" s="5" t="s">
-        <v>2111</v>
+        <v>2073</v>
       </c>
       <c r="D1252" s="6"/>
       <c r="E1252" s="6"/>
@@ -44109,15 +44758,15 @@
       <c r="M1252" s="6"/>
       <c r="N1252" s="7"/>
     </row>
-    <row r="1253" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1253" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1253" s="4" t="s">
-        <v>2112</v>
+        <v>2074</v>
       </c>
       <c r="B1253" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1253" s="5" t="s">
-        <v>2114</v>
+        <v>2075</v>
       </c>
       <c r="D1253" s="6"/>
       <c r="E1253" s="6"/>
@@ -44131,15 +44780,15 @@
       <c r="M1253" s="6"/>
       <c r="N1253" s="7"/>
     </row>
-    <row r="1254" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1254" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1254" s="4" t="s">
-        <v>2115</v>
+        <v>2076</v>
       </c>
       <c r="B1254" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1254" s="5" t="s">
-        <v>2116</v>
+        <v>2077</v>
       </c>
       <c r="D1254" s="6"/>
       <c r="E1254" s="6"/>
@@ -44153,15 +44802,15 @@
       <c r="M1254" s="6"/>
       <c r="N1254" s="7"/>
     </row>
-    <row r="1255" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1255" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1255" s="4" t="s">
-        <v>2117</v>
+        <v>2078</v>
       </c>
       <c r="B1255" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1255" s="5" t="s">
-        <v>2118</v>
+        <v>2079</v>
       </c>
       <c r="D1255" s="6"/>
       <c r="E1255" s="6"/>
@@ -44175,15 +44824,15 @@
       <c r="M1255" s="6"/>
       <c r="N1255" s="7"/>
     </row>
-    <row r="1256" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A1256" s="4" t="s">
-        <v>2119</v>
+        <v>2080</v>
       </c>
       <c r="B1256" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1256" s="5" t="s">
-        <v>2120</v>
+        <v>2081</v>
       </c>
       <c r="D1256" s="6"/>
       <c r="E1256" s="6"/>
@@ -44197,15 +44846,15 @@
       <c r="M1256" s="6"/>
       <c r="N1256" s="7"/>
     </row>
-    <row r="1257" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1257" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1257" s="4" t="s">
-        <v>2121</v>
+        <v>2082</v>
       </c>
       <c r="B1257" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1257" s="5" t="s">
-        <v>2122</v>
+        <v>2083</v>
       </c>
       <c r="D1257" s="6"/>
       <c r="E1257" s="6"/>
@@ -44219,15 +44868,15 @@
       <c r="M1257" s="6"/>
       <c r="N1257" s="7"/>
     </row>
-    <row r="1258" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1258" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1258" s="4" t="s">
-        <v>2123</v>
+        <v>2084</v>
       </c>
       <c r="B1258" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1258" s="5" t="s">
-        <v>2124</v>
+        <v>2085</v>
       </c>
       <c r="D1258" s="6"/>
       <c r="E1258" s="6"/>
@@ -44241,15 +44890,15 @@
       <c r="M1258" s="6"/>
       <c r="N1258" s="7"/>
     </row>
-    <row r="1259" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1259" s="4" t="s">
-        <v>2125</v>
+        <v>2086</v>
       </c>
       <c r="B1259" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1259" s="5" t="s">
-        <v>2122</v>
+        <v>2087</v>
       </c>
       <c r="D1259" s="6"/>
       <c r="E1259" s="6"/>
@@ -44263,15 +44912,15 @@
       <c r="M1259" s="6"/>
       <c r="N1259" s="7"/>
     </row>
-    <row r="1260" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1260" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1260" s="4" t="s">
-        <v>2126</v>
+        <v>2088</v>
       </c>
       <c r="B1260" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1260" s="5" t="s">
-        <v>2127</v>
+        <v>2089</v>
       </c>
       <c r="D1260" s="6"/>
       <c r="E1260" s="6"/>
@@ -44285,15 +44934,15 @@
       <c r="M1260" s="6"/>
       <c r="N1260" s="7"/>
     </row>
-    <row r="1261" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1261" s="4" t="s">
-        <v>2128</v>
+        <v>2090</v>
       </c>
       <c r="B1261" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1261" s="5" t="s">
-        <v>2129</v>
+        <v>2091</v>
       </c>
       <c r="D1261" s="6"/>
       <c r="E1261" s="6"/>
@@ -44307,15 +44956,15 @@
       <c r="M1261" s="6"/>
       <c r="N1261" s="7"/>
     </row>
-    <row r="1262" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1262" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1262" s="4" t="s">
-        <v>2130</v>
+        <v>2092</v>
       </c>
       <c r="B1262" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1262" s="5" t="s">
-        <v>2131</v>
+        <v>2093</v>
       </c>
       <c r="D1262" s="6"/>
       <c r="E1262" s="6"/>
@@ -44329,15 +44978,15 @@
       <c r="M1262" s="6"/>
       <c r="N1262" s="7"/>
     </row>
-    <row r="1263" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1263" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1263" s="4" t="s">
-        <v>2132</v>
+        <v>2094</v>
       </c>
       <c r="B1263" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1263" s="5" t="s">
-        <v>2133</v>
+        <v>2095</v>
       </c>
       <c r="D1263" s="6"/>
       <c r="E1263" s="6"/>
@@ -44351,15 +45000,15 @@
       <c r="M1263" s="6"/>
       <c r="N1263" s="7"/>
     </row>
-    <row r="1264" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1264" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1264" s="4" t="s">
-        <v>2134</v>
+        <v>2096</v>
       </c>
       <c r="B1264" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1264" s="5" t="s">
-        <v>2135</v>
+        <v>2097</v>
       </c>
       <c r="D1264" s="6"/>
       <c r="E1264" s="6"/>
@@ -44373,15 +45022,15 @@
       <c r="M1264" s="6"/>
       <c r="N1264" s="7"/>
     </row>
-    <row r="1265" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1265" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1265" s="4" t="s">
-        <v>2136</v>
+        <v>2098</v>
       </c>
       <c r="B1265" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1265" s="5" t="s">
-        <v>2137</v>
+        <v>2099</v>
       </c>
       <c r="D1265" s="6"/>
       <c r="E1265" s="6"/>
@@ -44395,15 +45044,15 @@
       <c r="M1265" s="6"/>
       <c r="N1265" s="7"/>
     </row>
-    <row r="1266" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1266" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1266" s="4" t="s">
-        <v>2138</v>
+        <v>2100</v>
       </c>
       <c r="B1266" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1266" s="5" t="s">
-        <v>2139</v>
+        <v>2101</v>
       </c>
       <c r="D1266" s="6"/>
       <c r="E1266" s="6"/>
@@ -44417,15 +45066,15 @@
       <c r="M1266" s="6"/>
       <c r="N1266" s="7"/>
     </row>
-    <row r="1267" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1267" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1267" s="4" t="s">
-        <v>2140</v>
+        <v>2102</v>
       </c>
       <c r="B1267" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1267" s="5" t="s">
-        <v>2135</v>
+        <v>2103</v>
       </c>
       <c r="D1267" s="6"/>
       <c r="E1267" s="6"/>
@@ -44439,15 +45088,15 @@
       <c r="M1267" s="6"/>
       <c r="N1267" s="7"/>
     </row>
-    <row r="1268" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1268" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1268" s="4" t="s">
-        <v>2141</v>
+        <v>2104</v>
       </c>
       <c r="B1268" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1268" s="5" t="s">
-        <v>2142</v>
+        <v>2105</v>
       </c>
       <c r="D1268" s="6"/>
       <c r="E1268" s="6"/>
@@ -44461,15 +45110,15 @@
       <c r="M1268" s="6"/>
       <c r="N1268" s="7"/>
     </row>
-    <row r="1269" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1269" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1269" s="4" t="s">
-        <v>2143</v>
+        <v>2106</v>
       </c>
       <c r="B1269" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1269" s="5" t="s">
-        <v>2144</v>
+        <v>2107</v>
       </c>
       <c r="D1269" s="6"/>
       <c r="E1269" s="6"/>
@@ -44483,15 +45132,15 @@
       <c r="M1269" s="6"/>
       <c r="N1269" s="7"/>
     </row>
-    <row r="1270" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1270" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1270" s="4" t="s">
-        <v>2145</v>
+        <v>2108</v>
       </c>
       <c r="B1270" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1270" s="5" t="s">
-        <v>2146</v>
+        <v>2109</v>
       </c>
       <c r="D1270" s="6"/>
       <c r="E1270" s="6"/>
@@ -44505,15 +45154,15 @@
       <c r="M1270" s="6"/>
       <c r="N1270" s="7"/>
     </row>
-    <row r="1271" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1271" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1271" s="4" t="s">
-        <v>2147</v>
+        <v>2110</v>
       </c>
       <c r="B1271" s="5" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="C1271" s="5" t="s">
-        <v>2148</v>
+        <v>2111</v>
       </c>
       <c r="D1271" s="6"/>
       <c r="E1271" s="6"/>
@@ -44529,13 +45178,13 @@
     </row>
     <row r="1272" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1272" s="4" t="s">
-        <v>2149</v>
+        <v>2112</v>
       </c>
       <c r="B1272" s="5" t="s">
         <v>2113</v>
       </c>
       <c r="C1272" s="5" t="s">
-        <v>2137</v>
+        <v>2114</v>
       </c>
       <c r="D1272" s="6"/>
       <c r="E1272" s="6"/>
@@ -44549,15 +45198,15 @@
       <c r="M1272" s="6"/>
       <c r="N1272" s="7"/>
     </row>
-    <row r="1273" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1273" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1273" s="4" t="s">
-        <v>2150</v>
+        <v>2115</v>
       </c>
       <c r="B1273" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1273" s="5" t="s">
-        <v>2152</v>
+        <v>2116</v>
       </c>
       <c r="D1273" s="6"/>
       <c r="E1273" s="6"/>
@@ -44571,15 +45220,15 @@
       <c r="M1273" s="6"/>
       <c r="N1273" s="7"/>
     </row>
-    <row r="1274" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1274" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1274" s="4" t="s">
-        <v>2153</v>
+        <v>2117</v>
       </c>
       <c r="B1274" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1274" s="5" t="s">
-        <v>2154</v>
+        <v>2118</v>
       </c>
       <c r="D1274" s="6"/>
       <c r="E1274" s="6"/>
@@ -44593,15 +45242,15 @@
       <c r="M1274" s="6"/>
       <c r="N1274" s="7"/>
     </row>
-    <row r="1275" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1275" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1275" s="4" t="s">
-        <v>2155</v>
+        <v>2119</v>
       </c>
       <c r="B1275" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1275" s="5" t="s">
-        <v>2156</v>
+        <v>2120</v>
       </c>
       <c r="D1275" s="6"/>
       <c r="E1275" s="6"/>
@@ -44615,15 +45264,15 @@
       <c r="M1275" s="6"/>
       <c r="N1275" s="7"/>
     </row>
-    <row r="1276" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1276" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1276" s="4" t="s">
-        <v>2157</v>
+        <v>2121</v>
       </c>
       <c r="B1276" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1276" s="5" t="s">
-        <v>2158</v>
+        <v>2122</v>
       </c>
       <c r="D1276" s="6"/>
       <c r="E1276" s="6"/>
@@ -44637,15 +45286,15 @@
       <c r="M1276" s="6"/>
       <c r="N1276" s="7"/>
     </row>
-    <row r="1277" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1277" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1277" s="4" t="s">
-        <v>2159</v>
+        <v>2123</v>
       </c>
       <c r="B1277" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1277" s="5" t="s">
-        <v>2160</v>
+        <v>2124</v>
       </c>
       <c r="D1277" s="6"/>
       <c r="E1277" s="6"/>
@@ -44659,15 +45308,15 @@
       <c r="M1277" s="6"/>
       <c r="N1277" s="7"/>
     </row>
-    <row r="1278" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1278" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1278" s="4" t="s">
-        <v>2161</v>
+        <v>2125</v>
       </c>
       <c r="B1278" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1278" s="5" t="s">
-        <v>2162</v>
+        <v>2122</v>
       </c>
       <c r="D1278" s="6"/>
       <c r="E1278" s="6"/>
@@ -44681,15 +45330,15 @@
       <c r="M1278" s="6"/>
       <c r="N1278" s="7"/>
     </row>
-    <row r="1279" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1279" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1279" s="4" t="s">
-        <v>2163</v>
+        <v>2126</v>
       </c>
       <c r="B1279" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1279" s="5" t="s">
-        <v>2164</v>
+        <v>2127</v>
       </c>
       <c r="D1279" s="6"/>
       <c r="E1279" s="6"/>
@@ -44703,15 +45352,15 @@
       <c r="M1279" s="6"/>
       <c r="N1279" s="7"/>
     </row>
-    <row r="1280" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1280" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1280" s="4" t="s">
-        <v>2165</v>
+        <v>2128</v>
       </c>
       <c r="B1280" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1280" s="5" t="s">
-        <v>2166</v>
+        <v>2129</v>
       </c>
       <c r="D1280" s="6"/>
       <c r="E1280" s="6"/>
@@ -44725,15 +45374,15 @@
       <c r="M1280" s="6"/>
       <c r="N1280" s="7"/>
     </row>
-    <row r="1281" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1281" s="4" t="s">
-        <v>2167</v>
+        <v>2130</v>
       </c>
       <c r="B1281" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1281" s="5" t="s">
-        <v>2168</v>
+        <v>2131</v>
       </c>
       <c r="D1281" s="6"/>
       <c r="E1281" s="6"/>
@@ -44747,15 +45396,15 @@
       <c r="M1281" s="6"/>
       <c r="N1281" s="7"/>
     </row>
-    <row r="1282" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1282" s="4" t="s">
-        <v>2169</v>
+        <v>2132</v>
       </c>
       <c r="B1282" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1282" s="5" t="s">
-        <v>2170</v>
+        <v>2133</v>
       </c>
       <c r="D1282" s="6"/>
       <c r="E1282" s="6"/>
@@ -44769,15 +45418,15 @@
       <c r="M1282" s="6"/>
       <c r="N1282" s="7"/>
     </row>
-    <row r="1283" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1283" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1283" s="4" t="s">
-        <v>2171</v>
+        <v>2134</v>
       </c>
       <c r="B1283" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1283" s="5" t="s">
-        <v>2172</v>
+        <v>2135</v>
       </c>
       <c r="D1283" s="6"/>
       <c r="E1283" s="6"/>
@@ -44791,15 +45440,15 @@
       <c r="M1283" s="6"/>
       <c r="N1283" s="7"/>
     </row>
-    <row r="1284" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1284" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1284" s="4" t="s">
-        <v>2173</v>
+        <v>2136</v>
       </c>
       <c r="B1284" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1284" s="5" t="s">
-        <v>2174</v>
+        <v>2137</v>
       </c>
       <c r="D1284" s="6"/>
       <c r="E1284" s="6"/>
@@ -44813,15 +45462,15 @@
       <c r="M1284" s="6"/>
       <c r="N1284" s="7"/>
     </row>
-    <row r="1285" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1285" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1285" s="4" t="s">
-        <v>2175</v>
+        <v>2138</v>
       </c>
       <c r="B1285" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1285" s="5" t="s">
-        <v>2176</v>
+        <v>2139</v>
       </c>
       <c r="D1285" s="6"/>
       <c r="E1285" s="6"/>
@@ -44835,15 +45484,15 @@
       <c r="M1285" s="6"/>
       <c r="N1285" s="7"/>
     </row>
-    <row r="1286" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1286" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1286" s="4" t="s">
-        <v>2177</v>
+        <v>2140</v>
       </c>
       <c r="B1286" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1286" s="5" t="s">
-        <v>2178</v>
+        <v>2135</v>
       </c>
       <c r="D1286" s="6"/>
       <c r="E1286" s="6"/>
@@ -44857,15 +45506,15 @@
       <c r="M1286" s="6"/>
       <c r="N1286" s="7"/>
     </row>
-    <row r="1287" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1287" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1287" s="4" t="s">
-        <v>2179</v>
+        <v>2141</v>
       </c>
       <c r="B1287" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1287" s="5" t="s">
-        <v>2180</v>
+        <v>2142</v>
       </c>
       <c r="D1287" s="6"/>
       <c r="E1287" s="6"/>
@@ -44879,15 +45528,15 @@
       <c r="M1287" s="6"/>
       <c r="N1287" s="7"/>
     </row>
-    <row r="1288" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1288" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1288" s="4" t="s">
-        <v>2181</v>
+        <v>2143</v>
       </c>
       <c r="B1288" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1288" s="5" t="s">
-        <v>2182</v>
+        <v>2144</v>
       </c>
       <c r="D1288" s="6"/>
       <c r="E1288" s="6"/>
@@ -44901,15 +45550,15 @@
       <c r="M1288" s="6"/>
       <c r="N1288" s="7"/>
     </row>
-    <row r="1289" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1289" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1289" s="4" t="s">
-        <v>2183</v>
+        <v>2145</v>
       </c>
       <c r="B1289" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1289" s="5" t="s">
-        <v>2184</v>
+        <v>2146</v>
       </c>
       <c r="D1289" s="6"/>
       <c r="E1289" s="6"/>
@@ -44923,15 +45572,15 @@
       <c r="M1289" s="6"/>
       <c r="N1289" s="7"/>
     </row>
-    <row r="1290" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1290" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1290" s="4" t="s">
-        <v>2185</v>
+        <v>2147</v>
       </c>
       <c r="B1290" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1290" s="5" t="s">
-        <v>2186</v>
+        <v>2148</v>
       </c>
       <c r="D1290" s="6"/>
       <c r="E1290" s="6"/>
@@ -44945,15 +45594,15 @@
       <c r="M1290" s="6"/>
       <c r="N1290" s="7"/>
     </row>
-    <row r="1291" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1291" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1291" s="4" t="s">
-        <v>2187</v>
+        <v>2149</v>
       </c>
       <c r="B1291" s="5" t="s">
-        <v>2151</v>
+        <v>2113</v>
       </c>
       <c r="C1291" s="5" t="s">
-        <v>2188</v>
+        <v>2137</v>
       </c>
       <c r="D1291" s="6"/>
       <c r="E1291" s="6"/>
@@ -44969,13 +45618,13 @@
     </row>
     <row r="1292" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1292" s="4" t="s">
-        <v>2189</v>
+        <v>2150</v>
       </c>
       <c r="B1292" s="5" t="s">
         <v>2151</v>
       </c>
       <c r="C1292" s="5" t="s">
-        <v>2190</v>
+        <v>2152</v>
       </c>
       <c r="D1292" s="6"/>
       <c r="E1292" s="6"/>
@@ -44991,13 +45640,13 @@
     </row>
     <row r="1293" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1293" s="4" t="s">
-        <v>2191</v>
+        <v>2153</v>
       </c>
       <c r="B1293" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1293" s="5" t="s">
-        <v>2193</v>
+        <v>2154</v>
       </c>
       <c r="D1293" s="6"/>
       <c r="E1293" s="6"/>
@@ -45013,13 +45662,13 @@
     </row>
     <row r="1294" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1294" s="4" t="s">
-        <v>2194</v>
+        <v>2155</v>
       </c>
       <c r="B1294" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1294" s="5" t="s">
-        <v>2195</v>
+        <v>2156</v>
       </c>
       <c r="D1294" s="6"/>
       <c r="E1294" s="6"/>
@@ -45035,13 +45684,13 @@
     </row>
     <row r="1295" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1295" s="4" t="s">
-        <v>2196</v>
+        <v>2157</v>
       </c>
       <c r="B1295" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1295" s="5" t="s">
-        <v>2197</v>
+        <v>2158</v>
       </c>
       <c r="D1295" s="6"/>
       <c r="E1295" s="6"/>
@@ -45057,13 +45706,13 @@
     </row>
     <row r="1296" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1296" s="4" t="s">
-        <v>2198</v>
+        <v>2159</v>
       </c>
       <c r="B1296" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1296" s="5" t="s">
-        <v>2199</v>
+        <v>2160</v>
       </c>
       <c r="D1296" s="6"/>
       <c r="E1296" s="6"/>
@@ -45079,13 +45728,13 @@
     </row>
     <row r="1297" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1297" s="4" t="s">
-        <v>2200</v>
+        <v>2161</v>
       </c>
       <c r="B1297" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1297" s="5" t="s">
-        <v>2201</v>
+        <v>2162</v>
       </c>
       <c r="D1297" s="6"/>
       <c r="E1297" s="6"/>
@@ -45101,13 +45750,13 @@
     </row>
     <row r="1298" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1298" s="4" t="s">
-        <v>2202</v>
+        <v>2163</v>
       </c>
       <c r="B1298" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1298" s="5" t="s">
-        <v>2203</v>
+        <v>2164</v>
       </c>
       <c r="D1298" s="6"/>
       <c r="E1298" s="6"/>
@@ -45123,13 +45772,13 @@
     </row>
     <row r="1299" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1299" s="4" t="s">
-        <v>2204</v>
+        <v>2165</v>
       </c>
       <c r="B1299" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1299" s="5" t="s">
-        <v>2205</v>
+        <v>2166</v>
       </c>
       <c r="D1299" s="6"/>
       <c r="E1299" s="6"/>
@@ -45145,13 +45794,13 @@
     </row>
     <row r="1300" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1300" s="4" t="s">
-        <v>2206</v>
+        <v>2167</v>
       </c>
       <c r="B1300" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1300" s="5" t="s">
-        <v>2207</v>
+        <v>2168</v>
       </c>
       <c r="D1300" s="6"/>
       <c r="E1300" s="6"/>
@@ -45167,13 +45816,13 @@
     </row>
     <row r="1301" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1301" s="4" t="s">
-        <v>2208</v>
+        <v>2169</v>
       </c>
       <c r="B1301" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1301" s="5" t="s">
-        <v>2209</v>
+        <v>2170</v>
       </c>
       <c r="D1301" s="6"/>
       <c r="E1301" s="6"/>
@@ -45189,13 +45838,13 @@
     </row>
     <row r="1302" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1302" s="4" t="s">
-        <v>2210</v>
+        <v>2171</v>
       </c>
       <c r="B1302" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1302" s="5" t="s">
-        <v>2211</v>
+        <v>2172</v>
       </c>
       <c r="D1302" s="6"/>
       <c r="E1302" s="6"/>
@@ -45211,13 +45860,13 @@
     </row>
     <row r="1303" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1303" s="4" t="s">
-        <v>2212</v>
+        <v>2173</v>
       </c>
       <c r="B1303" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1303" s="5" t="s">
-        <v>2213</v>
+        <v>2174</v>
       </c>
       <c r="D1303" s="6"/>
       <c r="E1303" s="6"/>
@@ -45233,13 +45882,13 @@
     </row>
     <row r="1304" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1304" s="4" t="s">
-        <v>2214</v>
+        <v>2175</v>
       </c>
       <c r="B1304" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1304" s="5" t="s">
-        <v>2215</v>
+        <v>2176</v>
       </c>
       <c r="D1304" s="6"/>
       <c r="E1304" s="6"/>
@@ -45255,13 +45904,13 @@
     </row>
     <row r="1305" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1305" s="4" t="s">
-        <v>2216</v>
+        <v>2177</v>
       </c>
       <c r="B1305" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1305" s="5" t="s">
-        <v>2217</v>
+        <v>2178</v>
       </c>
       <c r="D1305" s="6"/>
       <c r="E1305" s="6"/>
@@ -45277,13 +45926,13 @@
     </row>
     <row r="1306" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1306" s="4" t="s">
-        <v>2218</v>
+        <v>2179</v>
       </c>
       <c r="B1306" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1306" s="5" t="s">
-        <v>2219</v>
+        <v>2180</v>
       </c>
       <c r="D1306" s="6"/>
       <c r="E1306" s="6"/>
@@ -45299,13 +45948,13 @@
     </row>
     <row r="1307" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1307" s="4" t="s">
-        <v>2220</v>
+        <v>2181</v>
       </c>
       <c r="B1307" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1307" s="5" t="s">
-        <v>2221</v>
+        <v>2182</v>
       </c>
       <c r="D1307" s="6"/>
       <c r="E1307" s="6"/>
@@ -45321,13 +45970,13 @@
     </row>
     <row r="1308" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1308" s="4" t="s">
-        <v>2222</v>
+        <v>2183</v>
       </c>
       <c r="B1308" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1308" s="5" t="s">
-        <v>2223</v>
+        <v>2184</v>
       </c>
       <c r="D1308" s="6"/>
       <c r="E1308" s="6"/>
@@ -45343,13 +45992,13 @@
     </row>
     <row r="1309" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1309" s="4" t="s">
-        <v>2224</v>
+        <v>2185</v>
       </c>
       <c r="B1309" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1309" s="5" t="s">
-        <v>2225</v>
+        <v>2186</v>
       </c>
       <c r="D1309" s="6"/>
       <c r="E1309" s="6"/>
@@ -45365,13 +46014,13 @@
     </row>
     <row r="1310" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1310" s="4" t="s">
-        <v>2226</v>
+        <v>2187</v>
       </c>
       <c r="B1310" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1310" s="5" t="s">
-        <v>2227</v>
+        <v>2188</v>
       </c>
       <c r="D1310" s="6"/>
       <c r="E1310" s="6"/>
@@ -45387,13 +46036,13 @@
     </row>
     <row r="1311" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1311" s="4" t="s">
-        <v>2228</v>
+        <v>2189</v>
       </c>
       <c r="B1311" s="5" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
       <c r="C1311" s="5" t="s">
-        <v>2229</v>
+        <v>2190</v>
       </c>
       <c r="D1311" s="6"/>
       <c r="E1311" s="6"/>
@@ -45409,13 +46058,13 @@
     </row>
     <row r="1312" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1312" s="4" t="s">
-        <v>2230</v>
+        <v>2191</v>
       </c>
       <c r="B1312" s="5" t="s">
         <v>2192</v>
       </c>
       <c r="C1312" s="5" t="s">
-        <v>2231</v>
+        <v>2193</v>
       </c>
       <c r="D1312" s="6"/>
       <c r="E1312" s="6"/>
@@ -45429,15 +46078,15 @@
       <c r="M1312" s="6"/>
       <c r="N1312" s="7"/>
     </row>
-    <row r="1313" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1313" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1313" s="4" t="s">
-        <v>2232</v>
+        <v>2194</v>
       </c>
       <c r="B1313" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1313" s="5" t="s">
-        <v>2234</v>
+        <v>2195</v>
       </c>
       <c r="D1313" s="6"/>
       <c r="E1313" s="6"/>
@@ -45453,13 +46102,13 @@
     </row>
     <row r="1314" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1314" s="4" t="s">
-        <v>2235</v>
+        <v>2196</v>
       </c>
       <c r="B1314" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1314" s="5" t="s">
-        <v>2236</v>
+        <v>2197</v>
       </c>
       <c r="D1314" s="6"/>
       <c r="E1314" s="6"/>
@@ -45473,15 +46122,15 @@
       <c r="M1314" s="6"/>
       <c r="N1314" s="7"/>
     </row>
-    <row r="1315" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1315" s="4" t="s">
-        <v>2237</v>
+        <v>2198</v>
       </c>
       <c r="B1315" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1315" s="5" t="s">
-        <v>2238</v>
+        <v>2199</v>
       </c>
       <c r="D1315" s="6"/>
       <c r="E1315" s="6"/>
@@ -45497,13 +46146,13 @@
     </row>
     <row r="1316" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1316" s="4" t="s">
-        <v>2239</v>
+        <v>2200</v>
       </c>
       <c r="B1316" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1316" s="5" t="s">
-        <v>2240</v>
+        <v>2201</v>
       </c>
       <c r="D1316" s="6"/>
       <c r="E1316" s="6"/>
@@ -45517,15 +46166,15 @@
       <c r="M1316" s="6"/>
       <c r="N1316" s="7"/>
     </row>
-    <row r="1317" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1317" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1317" s="4" t="s">
-        <v>2241</v>
+        <v>2202</v>
       </c>
       <c r="B1317" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1317" s="5" t="s">
-        <v>2242</v>
+        <v>2203</v>
       </c>
       <c r="D1317" s="6"/>
       <c r="E1317" s="6"/>
@@ -45541,13 +46190,13 @@
     </row>
     <row r="1318" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1318" s="4" t="s">
-        <v>2243</v>
+        <v>2204</v>
       </c>
       <c r="B1318" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1318" s="5" t="s">
-        <v>2244</v>
+        <v>2205</v>
       </c>
       <c r="D1318" s="6"/>
       <c r="E1318" s="6"/>
@@ -45563,13 +46212,13 @@
     </row>
     <row r="1319" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1319" s="4" t="s">
-        <v>2245</v>
+        <v>2206</v>
       </c>
       <c r="B1319" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1319" s="5" t="s">
-        <v>2246</v>
+        <v>2207</v>
       </c>
       <c r="D1319" s="6"/>
       <c r="E1319" s="6"/>
@@ -45585,13 +46234,13 @@
     </row>
     <row r="1320" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1320" s="4" t="s">
-        <v>2247</v>
+        <v>2208</v>
       </c>
       <c r="B1320" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1320" s="5" t="s">
-        <v>2248</v>
+        <v>2209</v>
       </c>
       <c r="D1320" s="6"/>
       <c r="E1320" s="6"/>
@@ -45607,13 +46256,13 @@
     </row>
     <row r="1321" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1321" s="4" t="s">
-        <v>2249</v>
+        <v>2210</v>
       </c>
       <c r="B1321" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1321" s="5" t="s">
-        <v>2250</v>
+        <v>2211</v>
       </c>
       <c r="D1321" s="6"/>
       <c r="E1321" s="6"/>
@@ -45629,13 +46278,13 @@
     </row>
     <row r="1322" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1322" s="4" t="s">
-        <v>2251</v>
+        <v>2212</v>
       </c>
       <c r="B1322" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1322" s="5" t="s">
-        <v>2252</v>
+        <v>2213</v>
       </c>
       <c r="D1322" s="6"/>
       <c r="E1322" s="6"/>
@@ -45651,13 +46300,13 @@
     </row>
     <row r="1323" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1323" s="4" t="s">
-        <v>2253</v>
+        <v>2214</v>
       </c>
       <c r="B1323" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1323" s="5" t="s">
-        <v>2254</v>
+        <v>2215</v>
       </c>
       <c r="D1323" s="6"/>
       <c r="E1323" s="6"/>
@@ -45673,13 +46322,13 @@
     </row>
     <row r="1324" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1324" s="4" t="s">
-        <v>2255</v>
+        <v>2216</v>
       </c>
       <c r="B1324" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1324" s="5" t="s">
-        <v>2256</v>
+        <v>2217</v>
       </c>
       <c r="D1324" s="6"/>
       <c r="E1324" s="6"/>
@@ -45695,13 +46344,13 @@
     </row>
     <row r="1325" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1325" s="4" t="s">
-        <v>2257</v>
+        <v>2218</v>
       </c>
       <c r="B1325" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1325" s="5" t="s">
-        <v>2258</v>
+        <v>2219</v>
       </c>
       <c r="D1325" s="6"/>
       <c r="E1325" s="6"/>
@@ -45717,13 +46366,13 @@
     </row>
     <row r="1326" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1326" s="4" t="s">
-        <v>2259</v>
+        <v>2220</v>
       </c>
       <c r="B1326" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1326" s="5" t="s">
-        <v>2260</v>
+        <v>2221</v>
       </c>
       <c r="D1326" s="6"/>
       <c r="E1326" s="6"/>
@@ -45739,13 +46388,13 @@
     </row>
     <row r="1327" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1327" s="4" t="s">
-        <v>2261</v>
+        <v>2222</v>
       </c>
       <c r="B1327" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1327" s="5" t="s">
-        <v>2262</v>
+        <v>2223</v>
       </c>
       <c r="D1327" s="6"/>
       <c r="E1327" s="6"/>
@@ -45759,15 +46408,15 @@
       <c r="M1327" s="6"/>
       <c r="N1327" s="7"/>
     </row>
-    <row r="1328" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1328" s="4" t="s">
-        <v>2263</v>
+        <v>2224</v>
       </c>
       <c r="B1328" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1328" s="5" t="s">
-        <v>2264</v>
+        <v>2225</v>
       </c>
       <c r="D1328" s="6"/>
       <c r="E1328" s="6"/>
@@ -45783,13 +46432,13 @@
     </row>
     <row r="1329" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1329" s="4" t="s">
-        <v>2265</v>
+        <v>2226</v>
       </c>
       <c r="B1329" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1329" s="5" t="s">
-        <v>2266</v>
+        <v>2227</v>
       </c>
       <c r="D1329" s="6"/>
       <c r="E1329" s="6"/>
@@ -45805,13 +46454,13 @@
     </row>
     <row r="1330" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1330" s="4" t="s">
-        <v>2267</v>
+        <v>2228</v>
       </c>
       <c r="B1330" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1330" s="5" t="s">
-        <v>2268</v>
+        <v>2229</v>
       </c>
       <c r="D1330" s="6"/>
       <c r="E1330" s="6"/>
@@ -45827,13 +46476,13 @@
     </row>
     <row r="1331" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1331" s="4" t="s">
-        <v>2269</v>
+        <v>2230</v>
       </c>
       <c r="B1331" s="5" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="C1331" s="5" t="s">
-        <v>2270</v>
+        <v>2231</v>
       </c>
       <c r="D1331" s="6"/>
       <c r="E1331" s="6"/>
@@ -45847,15 +46496,15 @@
       <c r="M1331" s="6"/>
       <c r="N1331" s="7"/>
     </row>
-    <row r="1332" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1332" s="4" t="s">
-        <v>2271</v>
+        <v>2232</v>
       </c>
       <c r="B1332" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="C1332" s="5" t="s">
-        <v>2272</v>
+        <v>2234</v>
       </c>
       <c r="D1332" s="6"/>
       <c r="E1332" s="6"/>
@@ -45871,13 +46520,13 @@
     </row>
     <row r="1333" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1333" s="4" t="s">
-        <v>2273</v>
+        <v>2235</v>
       </c>
       <c r="B1333" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1333" s="5" t="s">
-        <v>2275</v>
+        <v>2236</v>
       </c>
       <c r="D1333" s="6"/>
       <c r="E1333" s="6"/>
@@ -45891,15 +46540,15 @@
       <c r="M1333" s="6"/>
       <c r="N1333" s="7"/>
     </row>
-    <row r="1334" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1334" s="4" t="s">
-        <v>2276</v>
+        <v>2237</v>
       </c>
       <c r="B1334" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1334" s="5" t="s">
-        <v>2277</v>
+        <v>2238</v>
       </c>
       <c r="D1334" s="6"/>
       <c r="E1334" s="6"/>
@@ -45915,13 +46564,13 @@
     </row>
     <row r="1335" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1335" s="4" t="s">
-        <v>2278</v>
+        <v>2239</v>
       </c>
       <c r="B1335" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1335" s="5" t="s">
-        <v>2279</v>
+        <v>2240</v>
       </c>
       <c r="D1335" s="6"/>
       <c r="E1335" s="6"/>
@@ -45935,15 +46584,15 @@
       <c r="M1335" s="6"/>
       <c r="N1335" s="7"/>
     </row>
-    <row r="1336" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1336" s="4" t="s">
-        <v>2280</v>
+        <v>2241</v>
       </c>
       <c r="B1336" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1336" s="5" t="s">
-        <v>2281</v>
+        <v>2242</v>
       </c>
       <c r="D1336" s="6"/>
       <c r="E1336" s="6"/>
@@ -45959,13 +46608,13 @@
     </row>
     <row r="1337" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1337" s="4" t="s">
-        <v>2282</v>
+        <v>2243</v>
       </c>
       <c r="B1337" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1337" s="5" t="s">
-        <v>2283</v>
+        <v>2244</v>
       </c>
       <c r="D1337" s="6"/>
       <c r="E1337" s="6"/>
@@ -45981,13 +46630,13 @@
     </row>
     <row r="1338" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1338" s="4" t="s">
-        <v>2284</v>
+        <v>2245</v>
       </c>
       <c r="B1338" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1338" s="5" t="s">
-        <v>2285</v>
+        <v>2246</v>
       </c>
       <c r="D1338" s="6"/>
       <c r="E1338" s="6"/>
@@ -46003,13 +46652,13 @@
     </row>
     <row r="1339" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1339" s="4" t="s">
-        <v>2286</v>
+        <v>2247</v>
       </c>
       <c r="B1339" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1339" s="5" t="s">
-        <v>2287</v>
+        <v>2248</v>
       </c>
       <c r="D1339" s="6"/>
       <c r="E1339" s="6"/>
@@ -46025,13 +46674,13 @@
     </row>
     <row r="1340" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1340" s="4" t="s">
-        <v>2288</v>
+        <v>2249</v>
       </c>
       <c r="B1340" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1340" s="5" t="s">
-        <v>2289</v>
+        <v>2250</v>
       </c>
       <c r="D1340" s="6"/>
       <c r="E1340" s="6"/>
@@ -46047,13 +46696,13 @@
     </row>
     <row r="1341" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1341" s="4" t="s">
-        <v>2290</v>
+        <v>2251</v>
       </c>
       <c r="B1341" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1341" s="5" t="s">
-        <v>2291</v>
+        <v>2252</v>
       </c>
       <c r="D1341" s="6"/>
       <c r="E1341" s="6"/>
@@ -46067,15 +46716,15 @@
       <c r="M1341" s="6"/>
       <c r="N1341" s="7"/>
     </row>
-    <row r="1342" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1342" s="4" t="s">
-        <v>2292</v>
+        <v>2253</v>
       </c>
       <c r="B1342" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1342" s="5" t="s">
-        <v>2293</v>
+        <v>2254</v>
       </c>
       <c r="D1342" s="6"/>
       <c r="E1342" s="6"/>
@@ -46091,13 +46740,13 @@
     </row>
     <row r="1343" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1343" s="4" t="s">
-        <v>2294</v>
+        <v>2255</v>
       </c>
       <c r="B1343" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1343" s="5" t="s">
-        <v>2295</v>
+        <v>2256</v>
       </c>
       <c r="D1343" s="6"/>
       <c r="E1343" s="6"/>
@@ -46113,13 +46762,13 @@
     </row>
     <row r="1344" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1344" s="4" t="s">
-        <v>2296</v>
+        <v>2257</v>
       </c>
       <c r="B1344" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1344" s="5" t="s">
-        <v>2297</v>
+        <v>2258</v>
       </c>
       <c r="D1344" s="6"/>
       <c r="E1344" s="6"/>
@@ -46135,13 +46784,13 @@
     </row>
     <row r="1345" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1345" s="4" t="s">
-        <v>2298</v>
+        <v>2259</v>
       </c>
       <c r="B1345" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1345" s="5" t="s">
-        <v>2299</v>
+        <v>2260</v>
       </c>
       <c r="D1345" s="6"/>
       <c r="E1345" s="6"/>
@@ -46157,13 +46806,13 @@
     </row>
     <row r="1346" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1346" s="4" t="s">
-        <v>2300</v>
+        <v>2261</v>
       </c>
       <c r="B1346" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1346" s="5" t="s">
-        <v>2301</v>
+        <v>2262</v>
       </c>
       <c r="D1346" s="6"/>
       <c r="E1346" s="6"/>
@@ -46177,15 +46826,15 @@
       <c r="M1346" s="6"/>
       <c r="N1346" s="7"/>
     </row>
-    <row r="1347" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1347" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1347" s="4" t="s">
-        <v>2302</v>
+        <v>2263</v>
       </c>
       <c r="B1347" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1347" s="5" t="s">
-        <v>2303</v>
+        <v>2264</v>
       </c>
       <c r="D1347" s="6"/>
       <c r="E1347" s="6"/>
@@ -46199,15 +46848,15 @@
       <c r="M1347" s="6"/>
       <c r="N1347" s="7"/>
     </row>
-    <row r="1348" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1348" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1348" s="4" t="s">
-        <v>2304</v>
+        <v>2265</v>
       </c>
       <c r="B1348" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1348" s="5" t="s">
-        <v>2305</v>
+        <v>2266</v>
       </c>
       <c r="D1348" s="6"/>
       <c r="E1348" s="6"/>
@@ -46223,13 +46872,13 @@
     </row>
     <row r="1349" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1349" s="4" t="s">
-        <v>2306</v>
+        <v>2267</v>
       </c>
       <c r="B1349" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1349" s="5" t="s">
-        <v>2307</v>
+        <v>2268</v>
       </c>
       <c r="D1349" s="6"/>
       <c r="E1349" s="6"/>
@@ -46245,13 +46894,13 @@
     </row>
     <row r="1350" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1350" s="4" t="s">
-        <v>2308</v>
+        <v>2269</v>
       </c>
       <c r="B1350" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1350" s="5" t="s">
-        <v>2309</v>
+        <v>2270</v>
       </c>
       <c r="D1350" s="6"/>
       <c r="E1350" s="6"/>
@@ -46267,13 +46916,13 @@
     </row>
     <row r="1351" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1351" s="4" t="s">
-        <v>2310</v>
+        <v>2271</v>
       </c>
       <c r="B1351" s="5" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="C1351" s="5" t="s">
-        <v>2311</v>
+        <v>2272</v>
       </c>
       <c r="D1351" s="6"/>
       <c r="E1351" s="6"/>
@@ -46289,13 +46938,13 @@
     </row>
     <row r="1352" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1352" s="4" t="s">
-        <v>2312</v>
+        <v>2273</v>
       </c>
       <c r="B1352" s="5" t="s">
         <v>2274</v>
       </c>
       <c r="C1352" s="5" t="s">
-        <v>2313</v>
+        <v>2275</v>
       </c>
       <c r="D1352" s="6"/>
       <c r="E1352" s="6"/>
@@ -46311,13 +46960,13 @@
     </row>
     <row r="1353" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1353" s="4" t="s">
-        <v>2314</v>
+        <v>2276</v>
       </c>
       <c r="B1353" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1353" s="5" t="s">
-        <v>2316</v>
+        <v>2277</v>
       </c>
       <c r="D1353" s="6"/>
       <c r="E1353" s="6"/>
@@ -46333,13 +46982,13 @@
     </row>
     <row r="1354" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1354" s="4" t="s">
-        <v>2317</v>
+        <v>2278</v>
       </c>
       <c r="B1354" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1354" s="5" t="s">
-        <v>2318</v>
+        <v>2279</v>
       </c>
       <c r="D1354" s="6"/>
       <c r="E1354" s="6"/>
@@ -46353,15 +47002,15 @@
       <c r="M1354" s="6"/>
       <c r="N1354" s="7"/>
     </row>
-    <row r="1355" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1355" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1355" s="4" t="s">
-        <v>2319</v>
+        <v>2280</v>
       </c>
       <c r="B1355" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1355" s="5" t="s">
-        <v>2320</v>
+        <v>2281</v>
       </c>
       <c r="D1355" s="6"/>
       <c r="E1355" s="6"/>
@@ -46377,13 +47026,13 @@
     </row>
     <row r="1356" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1356" s="4" t="s">
-        <v>2321</v>
+        <v>2282</v>
       </c>
       <c r="B1356" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1356" s="5" t="s">
-        <v>2322</v>
+        <v>2283</v>
       </c>
       <c r="D1356" s="6"/>
       <c r="E1356" s="6"/>
@@ -46399,13 +47048,13 @@
     </row>
     <row r="1357" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1357" s="4" t="s">
-        <v>2323</v>
+        <v>2284</v>
       </c>
       <c r="B1357" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1357" s="5" t="s">
-        <v>2324</v>
+        <v>2285</v>
       </c>
       <c r="D1357" s="6"/>
       <c r="E1357" s="6"/>
@@ -46421,13 +47070,13 @@
     </row>
     <row r="1358" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1358" s="4" t="s">
-        <v>2325</v>
+        <v>2286</v>
       </c>
       <c r="B1358" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1358" s="5" t="s">
-        <v>2326</v>
+        <v>2287</v>
       </c>
       <c r="D1358" s="6"/>
       <c r="E1358" s="6"/>
@@ -46443,13 +47092,13 @@
     </row>
     <row r="1359" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1359" s="4" t="s">
-        <v>2327</v>
+        <v>2288</v>
       </c>
       <c r="B1359" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1359" s="5" t="s">
-        <v>2328</v>
+        <v>2289</v>
       </c>
       <c r="D1359" s="6"/>
       <c r="E1359" s="6"/>
@@ -46465,13 +47114,13 @@
     </row>
     <row r="1360" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1360" s="4" t="s">
-        <v>2329</v>
+        <v>2290</v>
       </c>
       <c r="B1360" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1360" s="5" t="s">
-        <v>2330</v>
+        <v>2291</v>
       </c>
       <c r="D1360" s="6"/>
       <c r="E1360" s="6"/>
@@ -46485,15 +47134,15 @@
       <c r="M1360" s="6"/>
       <c r="N1360" s="7"/>
     </row>
-    <row r="1361" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1361" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1361" s="4" t="s">
-        <v>2331</v>
+        <v>2292</v>
       </c>
       <c r="B1361" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1361" s="5" t="s">
-        <v>2332</v>
+        <v>2293</v>
       </c>
       <c r="D1361" s="6"/>
       <c r="E1361" s="6"/>
@@ -46507,15 +47156,15 @@
       <c r="M1361" s="6"/>
       <c r="N1361" s="7"/>
     </row>
-    <row r="1362" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1362" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1362" s="4" t="s">
-        <v>2333</v>
+        <v>2294</v>
       </c>
       <c r="B1362" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1362" s="5" t="s">
-        <v>2334</v>
+        <v>2295</v>
       </c>
       <c r="D1362" s="6"/>
       <c r="E1362" s="6"/>
@@ -46531,13 +47180,13 @@
     </row>
     <row r="1363" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1363" s="4" t="s">
-        <v>2335</v>
+        <v>2296</v>
       </c>
       <c r="B1363" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1363" s="5" t="s">
-        <v>2336</v>
+        <v>2297</v>
       </c>
       <c r="D1363" s="6"/>
       <c r="E1363" s="6"/>
@@ -46553,13 +47202,13 @@
     </row>
     <row r="1364" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1364" s="4" t="s">
-        <v>2337</v>
+        <v>2298</v>
       </c>
       <c r="B1364" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1364" s="5" t="s">
-        <v>2338</v>
+        <v>2299</v>
       </c>
       <c r="D1364" s="6"/>
       <c r="E1364" s="6"/>
@@ -46575,13 +47224,13 @@
     </row>
     <row r="1365" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1365" s="4" t="s">
-        <v>2339</v>
+        <v>2300</v>
       </c>
       <c r="B1365" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1365" s="5" t="s">
-        <v>2340</v>
+        <v>2301</v>
       </c>
       <c r="D1365" s="6"/>
       <c r="E1365" s="6"/>
@@ -46597,13 +47246,13 @@
     </row>
     <row r="1366" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1366" s="4" t="s">
-        <v>2341</v>
+        <v>2302</v>
       </c>
       <c r="B1366" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1366" s="5" t="s">
-        <v>2342</v>
+        <v>2303</v>
       </c>
       <c r="D1366" s="6"/>
       <c r="E1366" s="6"/>
@@ -46617,15 +47266,15 @@
       <c r="M1366" s="6"/>
       <c r="N1366" s="7"/>
     </row>
-    <row r="1367" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1367" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1367" s="4" t="s">
-        <v>2343</v>
+        <v>2304</v>
       </c>
       <c r="B1367" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1367" s="5" t="s">
-        <v>2344</v>
+        <v>2305</v>
       </c>
       <c r="D1367" s="6"/>
       <c r="E1367" s="6"/>
@@ -46641,13 +47290,13 @@
     </row>
     <row r="1368" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1368" s="4" t="s">
-        <v>2345</v>
+        <v>2306</v>
       </c>
       <c r="B1368" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1368" s="5" t="s">
-        <v>2346</v>
+        <v>2307</v>
       </c>
       <c r="D1368" s="6"/>
       <c r="E1368" s="6"/>
@@ -46663,13 +47312,13 @@
     </row>
     <row r="1369" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1369" s="4" t="s">
-        <v>2347</v>
+        <v>2308</v>
       </c>
       <c r="B1369" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1369" s="5" t="s">
-        <v>2348</v>
+        <v>2309</v>
       </c>
       <c r="D1369" s="6"/>
       <c r="E1369" s="6"/>
@@ -46685,13 +47334,13 @@
     </row>
     <row r="1370" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1370" s="4" t="s">
-        <v>2349</v>
+        <v>2310</v>
       </c>
       <c r="B1370" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1370" s="5" t="s">
-        <v>851</v>
+        <v>2311</v>
       </c>
       <c r="D1370" s="6"/>
       <c r="E1370" s="6"/>
@@ -46707,13 +47356,13 @@
     </row>
     <row r="1371" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1371" s="4" t="s">
-        <v>2350</v>
+        <v>2312</v>
       </c>
       <c r="B1371" s="5" t="s">
-        <v>2315</v>
+        <v>2274</v>
       </c>
       <c r="C1371" s="5" t="s">
-        <v>2351</v>
+        <v>2313</v>
       </c>
       <c r="D1371" s="6"/>
       <c r="E1371" s="6"/>
@@ -46727,27 +47376,445 @@
       <c r="M1371" s="6"/>
       <c r="N1371" s="7"/>
     </row>
-    <row r="1372" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1372" s="10" t="s">
+    <row r="1372" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1372" s="4" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B1372" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1372" s="5" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D1372" s="6"/>
+      <c r="E1372" s="6"/>
+      <c r="F1372" s="6"/>
+      <c r="G1372" s="6"/>
+      <c r="H1372" s="6"/>
+      <c r="I1372" s="6"/>
+      <c r="J1372" s="6"/>
+      <c r="K1372" s="6"/>
+      <c r="L1372" s="6"/>
+      <c r="M1372" s="6"/>
+      <c r="N1372" s="7"/>
+    </row>
+    <row r="1373" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1373" s="4" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B1373" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1373" s="5" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D1373" s="6"/>
+      <c r="E1373" s="6"/>
+      <c r="F1373" s="6"/>
+      <c r="G1373" s="6"/>
+      <c r="H1373" s="6"/>
+      <c r="I1373" s="6"/>
+      <c r="J1373" s="6"/>
+      <c r="K1373" s="6"/>
+      <c r="L1373" s="6"/>
+      <c r="M1373" s="6"/>
+      <c r="N1373" s="7"/>
+    </row>
+    <row r="1374" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1374" s="4" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B1374" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1374" s="5" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D1374" s="6"/>
+      <c r="E1374" s="6"/>
+      <c r="F1374" s="6"/>
+      <c r="G1374" s="6"/>
+      <c r="H1374" s="6"/>
+      <c r="I1374" s="6"/>
+      <c r="J1374" s="6"/>
+      <c r="K1374" s="6"/>
+      <c r="L1374" s="6"/>
+      <c r="M1374" s="6"/>
+      <c r="N1374" s="7"/>
+    </row>
+    <row r="1375" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1375" s="4" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B1375" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1375" s="5" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D1375" s="6"/>
+      <c r="E1375" s="6"/>
+      <c r="F1375" s="6"/>
+      <c r="G1375" s="6"/>
+      <c r="H1375" s="6"/>
+      <c r="I1375" s="6"/>
+      <c r="J1375" s="6"/>
+      <c r="K1375" s="6"/>
+      <c r="L1375" s="6"/>
+      <c r="M1375" s="6"/>
+      <c r="N1375" s="7"/>
+    </row>
+    <row r="1376" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1376" s="4" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B1376" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1376" s="5" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D1376" s="6"/>
+      <c r="E1376" s="6"/>
+      <c r="F1376" s="6"/>
+      <c r="G1376" s="6"/>
+      <c r="H1376" s="6"/>
+      <c r="I1376" s="6"/>
+      <c r="J1376" s="6"/>
+      <c r="K1376" s="6"/>
+      <c r="L1376" s="6"/>
+      <c r="M1376" s="6"/>
+      <c r="N1376" s="7"/>
+    </row>
+    <row r="1377" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1377" s="4" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B1377" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1377" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D1377" s="6"/>
+      <c r="E1377" s="6"/>
+      <c r="F1377" s="6"/>
+      <c r="G1377" s="6"/>
+      <c r="H1377" s="6"/>
+      <c r="I1377" s="6"/>
+      <c r="J1377" s="6"/>
+      <c r="K1377" s="6"/>
+      <c r="L1377" s="6"/>
+      <c r="M1377" s="6"/>
+      <c r="N1377" s="7"/>
+    </row>
+    <row r="1378" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1378" s="4" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B1378" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1378" s="5" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D1378" s="6"/>
+      <c r="E1378" s="6"/>
+      <c r="F1378" s="6"/>
+      <c r="G1378" s="6"/>
+      <c r="H1378" s="6"/>
+      <c r="I1378" s="6"/>
+      <c r="J1378" s="6"/>
+      <c r="K1378" s="6"/>
+      <c r="L1378" s="6"/>
+      <c r="M1378" s="6"/>
+      <c r="N1378" s="7"/>
+    </row>
+    <row r="1379" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1379" s="4" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B1379" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1379" s="5" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D1379" s="6"/>
+      <c r="E1379" s="6"/>
+      <c r="F1379" s="6"/>
+      <c r="G1379" s="6"/>
+      <c r="H1379" s="6"/>
+      <c r="I1379" s="6"/>
+      <c r="J1379" s="6"/>
+      <c r="K1379" s="6"/>
+      <c r="L1379" s="6"/>
+      <c r="M1379" s="6"/>
+      <c r="N1379" s="7"/>
+    </row>
+    <row r="1380" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1380" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1380" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1380" s="5" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D1380" s="6"/>
+      <c r="E1380" s="6"/>
+      <c r="F1380" s="6"/>
+      <c r="G1380" s="6"/>
+      <c r="H1380" s="6"/>
+      <c r="I1380" s="6"/>
+      <c r="J1380" s="6"/>
+      <c r="K1380" s="6"/>
+      <c r="L1380" s="6"/>
+      <c r="M1380" s="6"/>
+      <c r="N1380" s="7"/>
+    </row>
+    <row r="1381" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1381" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B1381" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1381" s="5" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D1381" s="6"/>
+      <c r="E1381" s="6"/>
+      <c r="F1381" s="6"/>
+      <c r="G1381" s="6"/>
+      <c r="H1381" s="6"/>
+      <c r="I1381" s="6"/>
+      <c r="J1381" s="6"/>
+      <c r="K1381" s="6"/>
+      <c r="L1381" s="6"/>
+      <c r="M1381" s="6"/>
+      <c r="N1381" s="7"/>
+    </row>
+    <row r="1382" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1382" s="4" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B1382" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1382" s="5" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D1382" s="6"/>
+      <c r="E1382" s="6"/>
+      <c r="F1382" s="6"/>
+      <c r="G1382" s="6"/>
+      <c r="H1382" s="6"/>
+      <c r="I1382" s="6"/>
+      <c r="J1382" s="6"/>
+      <c r="K1382" s="6"/>
+      <c r="L1382" s="6"/>
+      <c r="M1382" s="6"/>
+      <c r="N1382" s="7"/>
+    </row>
+    <row r="1383" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1383" s="4" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B1383" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1383" s="5" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1383" s="6"/>
+      <c r="E1383" s="6"/>
+      <c r="F1383" s="6"/>
+      <c r="G1383" s="6"/>
+      <c r="H1383" s="6"/>
+      <c r="I1383" s="6"/>
+      <c r="J1383" s="6"/>
+      <c r="K1383" s="6"/>
+      <c r="L1383" s="6"/>
+      <c r="M1383" s="6"/>
+      <c r="N1383" s="7"/>
+    </row>
+    <row r="1384" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1384" s="4" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B1384" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1384" s="5" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D1384" s="6"/>
+      <c r="E1384" s="6"/>
+      <c r="F1384" s="6"/>
+      <c r="G1384" s="6"/>
+      <c r="H1384" s="6"/>
+      <c r="I1384" s="6"/>
+      <c r="J1384" s="6"/>
+      <c r="K1384" s="6"/>
+      <c r="L1384" s="6"/>
+      <c r="M1384" s="6"/>
+      <c r="N1384" s="7"/>
+    </row>
+    <row r="1385" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1385" s="4" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B1385" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1385" s="5" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D1385" s="6"/>
+      <c r="E1385" s="6"/>
+      <c r="F1385" s="6"/>
+      <c r="G1385" s="6"/>
+      <c r="H1385" s="6"/>
+      <c r="I1385" s="6"/>
+      <c r="J1385" s="6"/>
+      <c r="K1385" s="6"/>
+      <c r="L1385" s="6"/>
+      <c r="M1385" s="6"/>
+      <c r="N1385" s="7"/>
+    </row>
+    <row r="1386" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1386" s="4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B1386" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1386" s="5" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D1386" s="6"/>
+      <c r="E1386" s="6"/>
+      <c r="F1386" s="6"/>
+      <c r="G1386" s="6"/>
+      <c r="H1386" s="6"/>
+      <c r="I1386" s="6"/>
+      <c r="J1386" s="6"/>
+      <c r="K1386" s="6"/>
+      <c r="L1386" s="6"/>
+      <c r="M1386" s="6"/>
+      <c r="N1386" s="7"/>
+    </row>
+    <row r="1387" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1387" s="4" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B1387" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1387" s="5" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D1387" s="6"/>
+      <c r="E1387" s="6"/>
+      <c r="F1387" s="6"/>
+      <c r="G1387" s="6"/>
+      <c r="H1387" s="6"/>
+      <c r="I1387" s="6"/>
+      <c r="J1387" s="6"/>
+      <c r="K1387" s="6"/>
+      <c r="L1387" s="6"/>
+      <c r="M1387" s="6"/>
+      <c r="N1387" s="7"/>
+    </row>
+    <row r="1388" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1388" s="4" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B1388" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1388" s="5" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D1388" s="6"/>
+      <c r="E1388" s="6"/>
+      <c r="F1388" s="6"/>
+      <c r="G1388" s="6"/>
+      <c r="H1388" s="6"/>
+      <c r="I1388" s="6"/>
+      <c r="J1388" s="6"/>
+      <c r="K1388" s="6"/>
+      <c r="L1388" s="6"/>
+      <c r="M1388" s="6"/>
+      <c r="N1388" s="7"/>
+    </row>
+    <row r="1389" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1389" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B1389" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1389" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="D1389" s="6"/>
+      <c r="E1389" s="6"/>
+      <c r="F1389" s="6"/>
+      <c r="G1389" s="6"/>
+      <c r="H1389" s="6"/>
+      <c r="I1389" s="6"/>
+      <c r="J1389" s="6"/>
+      <c r="K1389" s="6"/>
+      <c r="L1389" s="6"/>
+      <c r="M1389" s="6"/>
+      <c r="N1389" s="7"/>
+    </row>
+    <row r="1390" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1390" s="4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1390" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1390" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D1390" s="6"/>
+      <c r="E1390" s="6"/>
+      <c r="F1390" s="6"/>
+      <c r="G1390" s="6"/>
+      <c r="H1390" s="6"/>
+      <c r="I1390" s="6"/>
+      <c r="J1390" s="6"/>
+      <c r="K1390" s="6"/>
+      <c r="L1390" s="6"/>
+      <c r="M1390" s="6"/>
+      <c r="N1390" s="7"/>
+    </row>
+    <row r="1391" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1391" s="10" t="s">
         <v>2352</v>
       </c>
-      <c r="B1372" s="11" t="s">
+      <c r="B1391" s="11" t="s">
         <v>2315</v>
       </c>
-      <c r="C1372" s="11" t="s">
+      <c r="C1391" s="11" t="s">
         <v>2353</v>
       </c>
-      <c r="D1372" s="12"/>
-      <c r="E1372" s="12"/>
-      <c r="F1372" s="12"/>
-      <c r="G1372" s="12"/>
-      <c r="H1372" s="12"/>
-      <c r="I1372" s="12"/>
-      <c r="J1372" s="12"/>
-      <c r="K1372" s="12"/>
-      <c r="L1372" s="12"/>
-      <c r="M1372" s="12"/>
-      <c r="N1372" s="13"/>
+      <c r="D1391" s="12"/>
+      <c r="E1391" s="12"/>
+      <c r="F1391" s="12"/>
+      <c r="G1391" s="12"/>
+      <c r="H1391" s="12"/>
+      <c r="I1391" s="12"/>
+      <c r="J1391" s="12"/>
+      <c r="K1391" s="12"/>
+      <c r="L1391" s="12"/>
+      <c r="M1391" s="12"/>
+      <c r="N1391" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
